--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -111,7 +111,7 @@
 2、招式
 5、天赋
 8、心法
-9、英雄</t>
+9、侠客</t>
         </r>
       </text>
     </comment>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="28">
   <si>
     <t>对应ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,77 @@
   </si>
   <si>
     <t>能力权重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侠客</t>
+  </si>
+  <si>
+    <t>心法</t>
+  </si>
+  <si>
+    <t>天赋</t>
+  </si>
+  <si>
+    <t>气血强化（初级）</t>
+  </si>
+  <si>
+    <t>气血强化（中级）</t>
+  </si>
+  <si>
+    <t>内力强化（初级）</t>
+  </si>
+  <si>
+    <t>内力强化（中级）</t>
+  </si>
+  <si>
+    <t>爆击强化（初级）</t>
+  </si>
+  <si>
+    <t>爆击强化（中级）</t>
+  </si>
+  <si>
+    <t>爆击强化（高级）</t>
+  </si>
+  <si>
+    <t>闪避强化（初级）</t>
+  </si>
+  <si>
+    <t>闪避强化（中级）</t>
+  </si>
+  <si>
+    <t>闪避强化（高级）</t>
+  </si>
+  <si>
+    <t>反击强化（初级）</t>
+  </si>
+  <si>
+    <t>反击强化（中级）</t>
+  </si>
+  <si>
+    <t>反击强化（高级）</t>
+  </si>
+  <si>
+    <t>轻功强化（初级）</t>
+  </si>
+  <si>
+    <t>轻功强化（高级）</t>
+  </si>
+  <si>
+    <t>防御强化（初级）</t>
+  </si>
+  <si>
+    <t>防御强化（中级）</t>
+  </si>
+  <si>
+    <t>防御强化（高级）</t>
+  </si>
+  <si>
+    <t>获得最大次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,9 +332,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -558,15 +631,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:I282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,10 +656,16 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
+        <v>87000001</v>
+      </c>
       <c r="B2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -596,94 +676,157 @@
       <c r="E2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>87000002</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="E3" s="3">
+        <v>100</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
+        <v>87000003</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="E4" s="3">
+        <v>100</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2">
+        <v>87000004</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
+      <c r="E5" s="3">
+        <v>100</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2">
+        <v>87000005</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
+      <c r="E6" s="3">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2">
+        <v>87000006</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7">
         <v>100</v>
       </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
+      <c r="E7" s="3">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2">
+        <v>87000007</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="B9">
-        <v>2</v>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
+        <v>87000008</v>
+      </c>
+      <c r="B9" s="3">
+        <v>9</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -691,176 +834,6293 @@
       <c r="D9">
         <v>100</v>
       </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
+        <v>87000009</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
       </c>
       <c r="D10">
         <v>100</v>
       </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
+        <v>87000010</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
       </c>
       <c r="D11">
         <v>100</v>
       </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
+        <v>87000011</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
+        <v>87000012</v>
+      </c>
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13">
         <v>100</v>
       </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
+        <v>87000013</v>
+      </c>
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
-      <c r="E14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2">
+        <v>87000014</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
       </c>
       <c r="D15">
         <v>100</v>
       </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16">
-        <v>8</v>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2">
+        <v>87000015</v>
+      </c>
+      <c r="B16" s="3">
+        <v>9</v>
       </c>
       <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2">
+        <v>87000016</v>
+      </c>
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2">
+        <v>87000017</v>
+      </c>
+      <c r="B18" s="3">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2">
+        <v>87000018</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2">
+        <v>87000019</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2">
+        <v>87000020</v>
+      </c>
+      <c r="B21" s="3">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2">
+        <v>87000021</v>
+      </c>
+      <c r="B22" s="3">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2">
+        <v>87000022</v>
+      </c>
+      <c r="B23" s="3">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2">
+        <v>87000023</v>
+      </c>
+      <c r="B24" s="3">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2">
+        <v>87000024</v>
+      </c>
+      <c r="B25" s="3">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3">
+        <v>100</v>
+      </c>
+      <c r="E25" s="3">
+        <v>100</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2">
+        <v>87000025</v>
+      </c>
+      <c r="B26" s="3">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2">
+        <v>87800101</v>
+      </c>
+      <c r="B27" s="3">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2">
+        <v>87800102</v>
+      </c>
+      <c r="B28" s="3">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3">
+        <v>100</v>
+      </c>
+      <c r="E28" s="3">
+        <v>100</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2">
+        <v>87800103</v>
+      </c>
+      <c r="B29" s="3">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4</v>
+      </c>
+      <c r="D29" s="3">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2">
+        <v>87800104</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>100</v>
+      </c>
+      <c r="E30" s="3">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>999</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2">
+        <v>87800201</v>
+      </c>
+      <c r="B31" s="3">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>100</v>
+      </c>
+      <c r="E31" s="3">
+        <v>100</v>
+      </c>
+      <c r="F31" s="3">
+        <v>999</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2">
+        <v>87800202</v>
+      </c>
+      <c r="B32" s="3">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>999</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2">
+        <v>87800203</v>
+      </c>
+      <c r="B33" s="3">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>999</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2">
+        <v>87800204</v>
+      </c>
+      <c r="B34" s="3">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3">
+        <v>100</v>
+      </c>
+      <c r="E34" s="3">
+        <v>100</v>
+      </c>
+      <c r="F34" s="3">
+        <v>999</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2">
+        <v>87800301</v>
+      </c>
+      <c r="B35" s="3">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>999</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2">
+        <v>87800302</v>
+      </c>
+      <c r="B36" s="3">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>100</v>
+      </c>
+      <c r="E36" s="3">
+        <v>100</v>
+      </c>
+      <c r="F36" s="3">
+        <v>999</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2">
+        <v>87800303</v>
+      </c>
+      <c r="B37" s="3">
+        <v>8</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>100</v>
+      </c>
+      <c r="E37" s="3">
+        <v>100</v>
+      </c>
+      <c r="F37" s="3">
+        <v>999</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2">
+        <v>87800304</v>
+      </c>
+      <c r="B38" s="3">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3">
+        <v>100</v>
+      </c>
+      <c r="E38" s="3">
+        <v>100</v>
+      </c>
+      <c r="F38" s="3">
+        <v>999</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2">
+        <v>87800401</v>
+      </c>
+      <c r="B39" s="3">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>100</v>
+      </c>
+      <c r="E39" s="3">
+        <v>100</v>
+      </c>
+      <c r="F39" s="3">
+        <v>999</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="2">
+        <v>87800402</v>
+      </c>
+      <c r="B40" s="3">
+        <v>8</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
+        <v>100</v>
+      </c>
+      <c r="E40" s="3">
+        <v>100</v>
+      </c>
+      <c r="F40" s="3">
+        <v>999</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2">
+        <v>87800403</v>
+      </c>
+      <c r="B41" s="3">
+        <v>8</v>
+      </c>
+      <c r="C41" s="3">
         <v>2</v>
       </c>
-      <c r="D16">
-        <v>100</v>
-      </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
+      <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>999</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2">
+        <v>87800404</v>
+      </c>
+      <c r="B42" s="3">
+        <v>8</v>
+      </c>
+      <c r="C42" s="3">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>100</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18">
+      <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>100</v>
+      </c>
+      <c r="F42" s="3">
+        <v>999</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="2">
+        <v>87800501</v>
+      </c>
+      <c r="B43" s="3">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>999</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2">
+        <v>87800502</v>
+      </c>
+      <c r="B44" s="3">
+        <v>8</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3">
+        <v>100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>999</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="2">
+        <v>87800503</v>
+      </c>
+      <c r="B45" s="3">
+        <v>8</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>999</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="2">
+        <v>87800504</v>
+      </c>
+      <c r="B46" s="3">
+        <v>8</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>999</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="2">
+        <v>87800601</v>
+      </c>
+      <c r="B47" s="3">
+        <v>8</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>100</v>
+      </c>
+      <c r="F47" s="3">
+        <v>999</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="2">
+        <v>87800602</v>
+      </c>
+      <c r="B48" s="3">
+        <v>8</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>999</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="2">
+        <v>87800603</v>
+      </c>
+      <c r="B49" s="3">
+        <v>8</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3">
+        <v>100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>999</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="2">
+        <v>87800604</v>
+      </c>
+      <c r="B50" s="3">
+        <v>8</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>100</v>
+      </c>
+      <c r="E50" s="3">
+        <v>100</v>
+      </c>
+      <c r="F50" s="3">
+        <v>999</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="2">
+        <v>87809201</v>
+      </c>
+      <c r="B51" s="3">
+        <v>8</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2</v>
+      </c>
+      <c r="D51" s="3">
+        <v>100</v>
+      </c>
+      <c r="E51" s="3">
+        <v>100</v>
+      </c>
+      <c r="F51" s="3">
+        <v>999</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="2">
+        <v>87809202</v>
+      </c>
+      <c r="B52" s="3">
+        <v>8</v>
+      </c>
+      <c r="C52" s="3">
+        <v>3</v>
+      </c>
+      <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>999</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="2">
+        <v>87809203</v>
+      </c>
+      <c r="B53" s="3">
+        <v>8</v>
+      </c>
+      <c r="C53" s="3">
+        <v>3</v>
+      </c>
+      <c r="D53" s="3">
+        <v>100</v>
+      </c>
+      <c r="E53" s="3">
+        <v>100</v>
+      </c>
+      <c r="F53" s="3">
+        <v>999</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="2">
+        <v>87809204</v>
+      </c>
+      <c r="B54" s="3">
+        <v>8</v>
+      </c>
+      <c r="C54" s="3">
+        <v>3</v>
+      </c>
+      <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>999</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="2">
+        <v>87811001</v>
+      </c>
+      <c r="B55" s="3">
+        <v>8</v>
+      </c>
+      <c r="C55" s="3">
+        <v>3</v>
+      </c>
+      <c r="D55" s="3">
+        <v>100</v>
+      </c>
+      <c r="E55" s="3">
+        <v>100</v>
+      </c>
+      <c r="F55" s="3">
+        <v>999</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="2">
+        <v>87811002</v>
+      </c>
+      <c r="B56" s="3">
+        <v>8</v>
+      </c>
+      <c r="C56" s="3">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3">
+        <v>100</v>
+      </c>
+      <c r="E56" s="3">
+        <v>100</v>
+      </c>
+      <c r="F56" s="3">
+        <v>999</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="2">
+        <v>87811003</v>
+      </c>
+      <c r="B57" s="3">
+        <v>8</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3</v>
+      </c>
+      <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>999</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="2">
+        <v>87811004</v>
+      </c>
+      <c r="B58" s="3">
+        <v>8</v>
+      </c>
+      <c r="C58" s="3">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3">
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>999</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="2">
+        <v>87814101</v>
+      </c>
+      <c r="B59" s="3">
+        <v>8</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3</v>
+      </c>
+      <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>999</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="2">
+        <v>87814102</v>
+      </c>
+      <c r="B60" s="3">
+        <v>8</v>
+      </c>
+      <c r="C60" s="3">
+        <v>3</v>
+      </c>
+      <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>999</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="2">
+        <v>87814103</v>
+      </c>
+      <c r="B61" s="3">
+        <v>8</v>
+      </c>
+      <c r="C61" s="3">
+        <v>3</v>
+      </c>
+      <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
+        <v>999</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="2">
+        <v>87814104</v>
+      </c>
+      <c r="B62" s="3">
+        <v>8</v>
+      </c>
+      <c r="C62" s="3">
+        <v>3</v>
+      </c>
+      <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>999</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="2">
+        <v>87812401</v>
+      </c>
+      <c r="B63" s="3">
+        <v>8</v>
+      </c>
+      <c r="C63" s="3">
+        <v>4</v>
+      </c>
+      <c r="D63" s="3">
+        <v>100</v>
+      </c>
+      <c r="E63" s="3">
+        <v>100</v>
+      </c>
+      <c r="F63" s="3">
+        <v>999</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="2">
+        <v>87812402</v>
+      </c>
+      <c r="B64" s="3">
+        <v>8</v>
+      </c>
+      <c r="C64" s="3">
+        <v>4</v>
+      </c>
+      <c r="D64" s="3">
+        <v>100</v>
+      </c>
+      <c r="E64" s="3">
+        <v>100</v>
+      </c>
+      <c r="F64" s="3">
+        <v>999</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="2">
+        <v>87812403</v>
+      </c>
+      <c r="B65" s="3">
+        <v>8</v>
+      </c>
+      <c r="C65" s="3">
+        <v>4</v>
+      </c>
+      <c r="D65" s="3">
+        <v>100</v>
+      </c>
+      <c r="E65" s="3">
+        <v>100</v>
+      </c>
+      <c r="F65" s="3">
+        <v>999</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="2">
+        <v>87812404</v>
+      </c>
+      <c r="B66" s="3">
+        <v>8</v>
+      </c>
+      <c r="C66" s="3">
+        <v>4</v>
+      </c>
+      <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>999</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="2">
+        <v>87814801</v>
+      </c>
+      <c r="B67" s="3">
+        <v>8</v>
+      </c>
+      <c r="C67" s="3">
+        <v>4</v>
+      </c>
+      <c r="D67" s="3">
+        <v>100</v>
+      </c>
+      <c r="E67" s="3">
+        <v>100</v>
+      </c>
+      <c r="F67" s="3">
+        <v>999</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="2">
+        <v>87814802</v>
+      </c>
+      <c r="B68" s="3">
+        <v>8</v>
+      </c>
+      <c r="C68" s="3">
+        <v>4</v>
+      </c>
+      <c r="D68" s="3">
+        <v>100</v>
+      </c>
+      <c r="E68" s="3">
+        <v>100</v>
+      </c>
+      <c r="F68" s="3">
+        <v>999</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="2">
+        <v>87814803</v>
+      </c>
+      <c r="B69" s="3">
+        <v>8</v>
+      </c>
+      <c r="C69" s="3">
+        <v>4</v>
+      </c>
+      <c r="D69" s="3">
+        <v>100</v>
+      </c>
+      <c r="E69" s="3">
+        <v>100</v>
+      </c>
+      <c r="F69" s="3">
+        <v>999</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="2">
+        <v>87814804</v>
+      </c>
+      <c r="B70" s="3">
+        <v>8</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4</v>
+      </c>
+      <c r="D70" s="3">
+        <v>100</v>
+      </c>
+      <c r="E70" s="3">
+        <v>100</v>
+      </c>
+      <c r="F70" s="3">
+        <v>999</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="2">
+        <v>87815801</v>
+      </c>
+      <c r="B71" s="3">
+        <v>8</v>
+      </c>
+      <c r="C71" s="3">
+        <v>4</v>
+      </c>
+      <c r="D71" s="3">
+        <v>100</v>
+      </c>
+      <c r="E71" s="3">
+        <v>100</v>
+      </c>
+      <c r="F71" s="3">
+        <v>999</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="2">
+        <v>87815802</v>
+      </c>
+      <c r="B72" s="3">
+        <v>8</v>
+      </c>
+      <c r="C72" s="3">
+        <v>4</v>
+      </c>
+      <c r="D72" s="3">
+        <v>100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>999</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="2">
+        <v>87815803</v>
+      </c>
+      <c r="B73" s="3">
+        <v>8</v>
+      </c>
+      <c r="C73" s="3">
+        <v>4</v>
+      </c>
+      <c r="D73" s="3">
+        <v>100</v>
+      </c>
+      <c r="E73" s="3">
+        <v>100</v>
+      </c>
+      <c r="F73" s="3">
+        <v>999</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="2">
+        <v>87815804</v>
+      </c>
+      <c r="B74" s="3">
+        <v>8</v>
+      </c>
+      <c r="C74" s="3">
+        <v>5</v>
+      </c>
+      <c r="D74" s="3">
+        <v>100</v>
+      </c>
+      <c r="E74" s="3">
+        <v>100</v>
+      </c>
+      <c r="F74" s="3">
+        <v>999</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="2">
+        <v>87816101</v>
+      </c>
+      <c r="B75" s="3">
+        <v>8</v>
+      </c>
+      <c r="C75" s="3">
+        <v>5</v>
+      </c>
+      <c r="D75" s="3">
+        <v>100</v>
+      </c>
+      <c r="E75" s="3">
+        <v>100</v>
+      </c>
+      <c r="F75" s="3">
+        <v>999</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="2">
+        <v>87816102</v>
+      </c>
+      <c r="B76" s="3">
+        <v>8</v>
+      </c>
+      <c r="C76" s="3">
+        <v>5</v>
+      </c>
+      <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>999</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="2">
+        <v>87816103</v>
+      </c>
+      <c r="B77" s="3">
+        <v>8</v>
+      </c>
+      <c r="C77" s="3">
+        <v>5</v>
+      </c>
+      <c r="D77" s="3">
+        <v>100</v>
+      </c>
+      <c r="E77" s="3">
+        <v>100</v>
+      </c>
+      <c r="F77" s="3">
+        <v>999</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="2">
+        <v>87816104</v>
+      </c>
+      <c r="B78" s="3">
+        <v>8</v>
+      </c>
+      <c r="C78" s="3">
+        <v>5</v>
+      </c>
+      <c r="D78" s="3">
+        <v>100</v>
+      </c>
+      <c r="E78" s="3">
+        <v>100</v>
+      </c>
+      <c r="F78" s="3">
+        <v>999</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="2">
+        <v>87816601</v>
+      </c>
+      <c r="B79" s="3">
+        <v>8</v>
+      </c>
+      <c r="C79" s="3">
+        <v>5</v>
+      </c>
+      <c r="D79" s="3">
+        <v>100</v>
+      </c>
+      <c r="E79" s="3">
+        <v>100</v>
+      </c>
+      <c r="F79" s="3">
+        <v>999</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="2">
+        <v>87816602</v>
+      </c>
+      <c r="B80" s="3">
+        <v>8</v>
+      </c>
+      <c r="C80" s="3">
+        <v>5</v>
+      </c>
+      <c r="D80" s="3">
+        <v>100</v>
+      </c>
+      <c r="E80" s="3">
+        <v>100</v>
+      </c>
+      <c r="F80" s="3">
+        <v>999</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="2">
+        <v>87816603</v>
+      </c>
+      <c r="B81" s="3">
+        <v>8</v>
+      </c>
+      <c r="C81" s="3">
+        <v>5</v>
+      </c>
+      <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>999</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="2">
+        <v>87816604</v>
+      </c>
+      <c r="B82" s="3">
+        <v>8</v>
+      </c>
+      <c r="C82" s="3">
+        <v>5</v>
+      </c>
+      <c r="D82" s="3">
+        <v>100</v>
+      </c>
+      <c r="E82" s="3">
+        <v>100</v>
+      </c>
+      <c r="F82" s="3">
+        <v>999</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="2">
+        <v>87818601</v>
+      </c>
+      <c r="B83" s="3">
+        <v>8</v>
+      </c>
+      <c r="C83" s="3">
+        <v>5</v>
+      </c>
+      <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>999</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="2">
+        <v>87818602</v>
+      </c>
+      <c r="B84" s="3">
+        <v>8</v>
+      </c>
+      <c r="C84" s="3">
+        <v>5</v>
+      </c>
+      <c r="D84" s="3">
+        <v>100</v>
+      </c>
+      <c r="E84" s="3">
+        <v>100</v>
+      </c>
+      <c r="F84" s="3">
+        <v>999</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="2">
+        <v>87818603</v>
+      </c>
+      <c r="B85" s="3">
+        <v>8</v>
+      </c>
+      <c r="C85" s="3">
+        <v>6</v>
+      </c>
+      <c r="D85" s="3">
+        <v>100</v>
+      </c>
+      <c r="E85" s="3">
+        <v>100</v>
+      </c>
+      <c r="F85" s="3">
+        <v>999</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="2">
+        <v>87818604</v>
+      </c>
+      <c r="B86" s="3">
+        <v>8</v>
+      </c>
+      <c r="C86" s="3">
+        <v>6</v>
+      </c>
+      <c r="D86" s="3">
+        <v>100</v>
+      </c>
+      <c r="E86" s="3">
+        <v>100</v>
+      </c>
+      <c r="F86" s="3">
+        <v>999</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="2">
+        <v>87821401</v>
+      </c>
+      <c r="B87" s="3">
+        <v>8</v>
+      </c>
+      <c r="C87" s="3">
+        <v>6</v>
+      </c>
+      <c r="D87" s="3">
+        <v>100</v>
+      </c>
+      <c r="E87" s="3">
+        <v>100</v>
+      </c>
+      <c r="F87" s="3">
+        <v>999</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="2">
+        <v>87821402</v>
+      </c>
+      <c r="B88" s="3">
+        <v>8</v>
+      </c>
+      <c r="C88" s="3">
+        <v>6</v>
+      </c>
+      <c r="D88" s="3">
+        <v>100</v>
+      </c>
+      <c r="E88" s="3">
+        <v>100</v>
+      </c>
+      <c r="F88" s="3">
+        <v>999</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="2">
+        <v>87821403</v>
+      </c>
+      <c r="B89" s="3">
+        <v>8</v>
+      </c>
+      <c r="C89" s="3">
+        <v>6</v>
+      </c>
+      <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>999</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="2">
+        <v>87821404</v>
+      </c>
+      <c r="B90" s="3">
+        <v>8</v>
+      </c>
+      <c r="C90" s="3">
+        <v>6</v>
+      </c>
+      <c r="D90" s="3">
+        <v>100</v>
+      </c>
+      <c r="E90" s="3">
+        <v>100</v>
+      </c>
+      <c r="F90" s="3">
+        <v>999</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="2">
+        <v>87821405</v>
+      </c>
+      <c r="B91" s="3">
+        <v>8</v>
+      </c>
+      <c r="C91" s="3">
+        <v>6</v>
+      </c>
+      <c r="D91" s="3">
+        <v>100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>999</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="2">
+        <v>87821406</v>
+      </c>
+      <c r="B92" s="3">
+        <v>8</v>
+      </c>
+      <c r="C92" s="3">
+        <v>6</v>
+      </c>
+      <c r="D92" s="3">
+        <v>100</v>
+      </c>
+      <c r="E92" s="3">
+        <v>100</v>
+      </c>
+      <c r="F92" s="3">
+        <v>999</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="2">
+        <v>87821407</v>
+      </c>
+      <c r="B93" s="3">
+        <v>8</v>
+      </c>
+      <c r="C93" s="3">
+        <v>6</v>
+      </c>
+      <c r="D93" s="3">
+        <v>100</v>
+      </c>
+      <c r="E93" s="3">
+        <v>100</v>
+      </c>
+      <c r="F93" s="3">
+        <v>999</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="2">
+        <v>87821408</v>
+      </c>
+      <c r="B94" s="3">
+        <v>8</v>
+      </c>
+      <c r="C94" s="3">
+        <v>6</v>
+      </c>
+      <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>999</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="2">
+        <v>87821409</v>
+      </c>
+      <c r="B95" s="3">
+        <v>8</v>
+      </c>
+      <c r="C95" s="3">
+        <v>6</v>
+      </c>
+      <c r="D95" s="3">
+        <v>100</v>
+      </c>
+      <c r="E95" s="3">
+        <v>100</v>
+      </c>
+      <c r="F95" s="3">
+        <v>999</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="2">
+        <v>87821410</v>
+      </c>
+      <c r="B96" s="3">
+        <v>8</v>
+      </c>
+      <c r="C96" s="3">
+        <v>7</v>
+      </c>
+      <c r="D96" s="3">
+        <v>100</v>
+      </c>
+      <c r="E96" s="3">
+        <v>100</v>
+      </c>
+      <c r="F96" s="3">
+        <v>999</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="2">
+        <v>87821411</v>
+      </c>
+      <c r="B97" s="3">
+        <v>8</v>
+      </c>
+      <c r="C97" s="3">
+        <v>7</v>
+      </c>
+      <c r="D97" s="3">
+        <v>100</v>
+      </c>
+      <c r="E97" s="3">
+        <v>100</v>
+      </c>
+      <c r="F97" s="3">
+        <v>999</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="2">
+        <v>87821412</v>
+      </c>
+      <c r="B98" s="3">
+        <v>8</v>
+      </c>
+      <c r="C98" s="3">
+        <v>7</v>
+      </c>
+      <c r="D98" s="3">
+        <v>100</v>
+      </c>
+      <c r="E98" s="3">
+        <v>100</v>
+      </c>
+      <c r="F98" s="3">
+        <v>999</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="2">
+        <v>87821413</v>
+      </c>
+      <c r="B99" s="3">
+        <v>8</v>
+      </c>
+      <c r="C99" s="3">
+        <v>7</v>
+      </c>
+      <c r="D99" s="3">
+        <v>100</v>
+      </c>
+      <c r="E99" s="3">
+        <v>100</v>
+      </c>
+      <c r="F99" s="3">
+        <v>999</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="2">
+        <v>87821414</v>
+      </c>
+      <c r="B100" s="3">
+        <v>8</v>
+      </c>
+      <c r="C100" s="3">
+        <v>7</v>
+      </c>
+      <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>999</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="2">
+        <v>87821415</v>
+      </c>
+      <c r="B101" s="3">
+        <v>8</v>
+      </c>
+      <c r="C101" s="3">
+        <v>7</v>
+      </c>
+      <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>999</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="2">
+        <v>87821416</v>
+      </c>
+      <c r="B102" s="3">
+        <v>8</v>
+      </c>
+      <c r="C102" s="3">
+        <v>7</v>
+      </c>
+      <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>999</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="2">
+        <v>87821417</v>
+      </c>
+      <c r="B103" s="3">
+        <v>8</v>
+      </c>
+      <c r="C103" s="3">
+        <v>7</v>
+      </c>
+      <c r="D103" s="3">
+        <v>100</v>
+      </c>
+      <c r="E103" s="3">
+        <v>100</v>
+      </c>
+      <c r="F103" s="3">
+        <v>999</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="2">
+        <v>87821418</v>
+      </c>
+      <c r="B104" s="3">
+        <v>8</v>
+      </c>
+      <c r="C104" s="3">
+        <v>7</v>
+      </c>
+      <c r="D104" s="3">
+        <v>100</v>
+      </c>
+      <c r="E104" s="3">
+        <v>100</v>
+      </c>
+      <c r="F104" s="3">
+        <v>999</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="2">
+        <v>87821419</v>
+      </c>
+      <c r="B105" s="3">
+        <v>8</v>
+      </c>
+      <c r="C105" s="3">
+        <v>7</v>
+      </c>
+      <c r="D105" s="3">
+        <v>100</v>
+      </c>
+      <c r="E105" s="3">
+        <v>100</v>
+      </c>
+      <c r="F105" s="3">
+        <v>999</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="2">
+        <v>87821420</v>
+      </c>
+      <c r="B106" s="3">
+        <v>8</v>
+      </c>
+      <c r="C106" s="3">
+        <v>7</v>
+      </c>
+      <c r="D106" s="3">
+        <v>100</v>
+      </c>
+      <c r="E106" s="3">
+        <v>100</v>
+      </c>
+      <c r="F106" s="3">
+        <v>999</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="2">
+        <v>87821421</v>
+      </c>
+      <c r="B107" s="3">
+        <v>8</v>
+      </c>
+      <c r="C107" s="3">
+        <v>8</v>
+      </c>
+      <c r="D107" s="3">
+        <v>100</v>
+      </c>
+      <c r="E107" s="3">
+        <v>100</v>
+      </c>
+      <c r="F107" s="3">
+        <v>999</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" s="2">
+        <v>87821422</v>
+      </c>
+      <c r="B108" s="3">
+        <v>8</v>
+      </c>
+      <c r="C108" s="3">
+        <v>8</v>
+      </c>
+      <c r="D108" s="3">
+        <v>100</v>
+      </c>
+      <c r="E108" s="3">
+        <v>100</v>
+      </c>
+      <c r="F108" s="3">
+        <v>999</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" s="2">
+        <v>87821423</v>
+      </c>
+      <c r="B109" s="3">
+        <v>8</v>
+      </c>
+      <c r="C109" s="3">
+        <v>8</v>
+      </c>
+      <c r="D109" s="3">
+        <v>100</v>
+      </c>
+      <c r="E109" s="3">
+        <v>100</v>
+      </c>
+      <c r="F109" s="3">
+        <v>999</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="2">
+        <v>87821424</v>
+      </c>
+      <c r="B110" s="3">
+        <v>8</v>
+      </c>
+      <c r="C110" s="3">
+        <v>8</v>
+      </c>
+      <c r="D110" s="3">
+        <v>100</v>
+      </c>
+      <c r="E110" s="3">
+        <v>100</v>
+      </c>
+      <c r="F110" s="3">
+        <v>999</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="2">
+        <v>87821425</v>
+      </c>
+      <c r="B111" s="3">
+        <v>8</v>
+      </c>
+      <c r="C111" s="3">
+        <v>8</v>
+      </c>
+      <c r="D111" s="3">
+        <v>100</v>
+      </c>
+      <c r="E111" s="3">
+        <v>100</v>
+      </c>
+      <c r="F111" s="3">
+        <v>999</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="2">
+        <v>87821426</v>
+      </c>
+      <c r="B112" s="3">
+        <v>8</v>
+      </c>
+      <c r="C112" s="3">
+        <v>8</v>
+      </c>
+      <c r="D112" s="3">
+        <v>100</v>
+      </c>
+      <c r="E112" s="3">
+        <v>100</v>
+      </c>
+      <c r="F112" s="3">
+        <v>999</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="2">
+        <v>87821427</v>
+      </c>
+      <c r="B113" s="3">
+        <v>8</v>
+      </c>
+      <c r="C113" s="3">
+        <v>8</v>
+      </c>
+      <c r="D113" s="3">
+        <v>100</v>
+      </c>
+      <c r="E113" s="3">
+        <v>100</v>
+      </c>
+      <c r="F113" s="3">
+        <v>999</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="2">
+        <v>87821428</v>
+      </c>
+      <c r="B114" s="3">
+        <v>8</v>
+      </c>
+      <c r="C114" s="3">
+        <v>8</v>
+      </c>
+      <c r="D114" s="3">
+        <v>100</v>
+      </c>
+      <c r="E114" s="3">
+        <v>100</v>
+      </c>
+      <c r="F114" s="3">
+        <v>999</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="2">
+        <v>87900101</v>
+      </c>
+      <c r="B115" s="3">
+        <v>8</v>
+      </c>
+      <c r="C115" s="3">
+        <v>8</v>
+      </c>
+      <c r="D115" s="3">
+        <v>100</v>
+      </c>
+      <c r="E115" s="3">
+        <v>100</v>
+      </c>
+      <c r="F115" s="3">
+        <v>999</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="2">
+        <v>87900102</v>
+      </c>
+      <c r="B116" s="3">
+        <v>8</v>
+      </c>
+      <c r="C116" s="3">
+        <v>8</v>
+      </c>
+      <c r="D116" s="3">
+        <v>100</v>
+      </c>
+      <c r="E116" s="3">
+        <v>100</v>
+      </c>
+      <c r="F116" s="3">
+        <v>999</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="2">
+        <v>87900103</v>
+      </c>
+      <c r="B117" s="3">
+        <v>8</v>
+      </c>
+      <c r="C117" s="3">
+        <v>8</v>
+      </c>
+      <c r="D117" s="3">
+        <v>100</v>
+      </c>
+      <c r="E117" s="3">
+        <v>100</v>
+      </c>
+      <c r="F117" s="3">
+        <v>999</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" s="2">
+        <v>87900104</v>
+      </c>
+      <c r="B118" s="3">
+        <v>8</v>
+      </c>
+      <c r="C118" s="3">
         <v>9</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19">
+      <c r="D118" s="3">
+        <v>100</v>
+      </c>
+      <c r="E118" s="3">
+        <v>100</v>
+      </c>
+      <c r="F118" s="3">
+        <v>999</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2">
+        <v>87900105</v>
+      </c>
+      <c r="B119" s="3">
+        <v>8</v>
+      </c>
+      <c r="C119" s="3">
         <v>9</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>100</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20">
+      <c r="D119" s="3">
+        <v>100</v>
+      </c>
+      <c r="E119" s="3">
+        <v>100</v>
+      </c>
+      <c r="F119" s="3">
+        <v>999</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>87900106</v>
+      </c>
+      <c r="B120" s="3">
+        <v>8</v>
+      </c>
+      <c r="C120" s="3">
         <v>9</v>
       </c>
-      <c r="C20">
+      <c r="D120" s="3">
+        <v>100</v>
+      </c>
+      <c r="E120" s="3">
+        <v>100</v>
+      </c>
+      <c r="F120" s="3">
+        <v>999</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2">
+        <v>87900107</v>
+      </c>
+      <c r="B121" s="3">
+        <v>8</v>
+      </c>
+      <c r="C121" s="3">
+        <v>9</v>
+      </c>
+      <c r="D121" s="3">
+        <v>100</v>
+      </c>
+      <c r="E121" s="3">
+        <v>100</v>
+      </c>
+      <c r="F121" s="3">
+        <v>999</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>87900108</v>
+      </c>
+      <c r="B122" s="3">
+        <v>8</v>
+      </c>
+      <c r="C122" s="3">
+        <v>9</v>
+      </c>
+      <c r="D122" s="3">
+        <v>100</v>
+      </c>
+      <c r="E122" s="3">
+        <v>100</v>
+      </c>
+      <c r="F122" s="3">
+        <v>999</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2">
+        <v>87900109</v>
+      </c>
+      <c r="B123" s="3">
+        <v>8</v>
+      </c>
+      <c r="C123" s="3">
+        <v>9</v>
+      </c>
+      <c r="D123" s="3">
+        <v>100</v>
+      </c>
+      <c r="E123" s="3">
+        <v>100</v>
+      </c>
+      <c r="F123" s="3">
+        <v>999</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2">
+        <v>87900110</v>
+      </c>
+      <c r="B124" s="3">
+        <v>8</v>
+      </c>
+      <c r="C124" s="3">
+        <v>9</v>
+      </c>
+      <c r="D124" s="3">
+        <v>100</v>
+      </c>
+      <c r="E124" s="3">
+        <v>100</v>
+      </c>
+      <c r="F124" s="3">
+        <v>999</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>87900111</v>
+      </c>
+      <c r="B125" s="3">
+        <v>8</v>
+      </c>
+      <c r="C125" s="3">
+        <v>9</v>
+      </c>
+      <c r="D125" s="3">
+        <v>100</v>
+      </c>
+      <c r="E125" s="3">
+        <v>100</v>
+      </c>
+      <c r="F125" s="3">
+        <v>999</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2">
+        <v>87900112</v>
+      </c>
+      <c r="B126" s="3">
+        <v>8</v>
+      </c>
+      <c r="C126" s="3">
+        <v>9</v>
+      </c>
+      <c r="D126" s="3">
+        <v>100</v>
+      </c>
+      <c r="E126" s="3">
+        <v>100</v>
+      </c>
+      <c r="F126" s="3">
+        <v>999</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>87900113</v>
+      </c>
+      <c r="B127" s="3">
+        <v>8</v>
+      </c>
+      <c r="C127" s="3">
+        <v>9</v>
+      </c>
+      <c r="D127" s="3">
+        <v>100</v>
+      </c>
+      <c r="E127" s="3">
+        <v>100</v>
+      </c>
+      <c r="F127" s="3">
+        <v>999</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="2">
+        <v>87900114</v>
+      </c>
+      <c r="B128" s="3">
+        <v>8</v>
+      </c>
+      <c r="C128" s="3">
+        <v>9</v>
+      </c>
+      <c r="D128" s="3">
+        <v>100</v>
+      </c>
+      <c r="E128" s="3">
+        <v>100</v>
+      </c>
+      <c r="F128" s="3">
+        <v>999</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="2">
+        <v>87900115</v>
+      </c>
+      <c r="B129" s="3">
+        <v>8</v>
+      </c>
+      <c r="C129" s="3">
+        <v>10</v>
+      </c>
+      <c r="D129" s="3">
+        <v>100</v>
+      </c>
+      <c r="E129" s="3">
+        <v>100</v>
+      </c>
+      <c r="F129" s="3">
+        <v>999</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="2">
+        <v>87900116</v>
+      </c>
+      <c r="B130" s="3">
+        <v>8</v>
+      </c>
+      <c r="C130" s="3">
+        <v>10</v>
+      </c>
+      <c r="D130" s="3">
+        <v>100</v>
+      </c>
+      <c r="E130" s="3">
+        <v>100</v>
+      </c>
+      <c r="F130" s="3">
+        <v>999</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="2">
+        <v>87900117</v>
+      </c>
+      <c r="B131" s="3">
+        <v>8</v>
+      </c>
+      <c r="C131" s="3">
+        <v>10</v>
+      </c>
+      <c r="D131" s="3">
+        <v>100</v>
+      </c>
+      <c r="E131" s="3">
+        <v>100</v>
+      </c>
+      <c r="F131" s="3">
+        <v>999</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="2">
+        <v>87900118</v>
+      </c>
+      <c r="B132" s="3">
+        <v>8</v>
+      </c>
+      <c r="C132" s="3">
+        <v>10</v>
+      </c>
+      <c r="D132" s="3">
+        <v>100</v>
+      </c>
+      <c r="E132" s="3">
+        <v>100</v>
+      </c>
+      <c r="F132" s="3">
+        <v>999</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="2">
+        <v>87900119</v>
+      </c>
+      <c r="B133" s="3">
+        <v>8</v>
+      </c>
+      <c r="C133" s="3">
+        <v>10</v>
+      </c>
+      <c r="D133" s="3">
+        <v>100</v>
+      </c>
+      <c r="E133" s="3">
+        <v>100</v>
+      </c>
+      <c r="F133" s="3">
+        <v>999</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="2">
+        <v>87900120</v>
+      </c>
+      <c r="B134" s="3">
+        <v>8</v>
+      </c>
+      <c r="C134" s="3">
+        <v>10</v>
+      </c>
+      <c r="D134" s="3">
+        <v>100</v>
+      </c>
+      <c r="E134" s="3">
+        <v>100</v>
+      </c>
+      <c r="F134" s="3">
+        <v>999</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="2">
+        <v>87900121</v>
+      </c>
+      <c r="B135" s="3">
+        <v>8</v>
+      </c>
+      <c r="C135" s="3">
+        <v>10</v>
+      </c>
+      <c r="D135" s="3">
+        <v>100</v>
+      </c>
+      <c r="E135" s="3">
+        <v>100</v>
+      </c>
+      <c r="F135" s="3">
+        <v>999</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="2">
+        <v>87900122</v>
+      </c>
+      <c r="B136" s="3">
+        <v>8</v>
+      </c>
+      <c r="C136" s="3">
+        <v>10</v>
+      </c>
+      <c r="D136" s="3">
+        <v>100</v>
+      </c>
+      <c r="E136" s="3">
+        <v>100</v>
+      </c>
+      <c r="F136" s="3">
+        <v>999</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="2">
+        <v>87900123</v>
+      </c>
+      <c r="B137" s="3">
+        <v>8</v>
+      </c>
+      <c r="C137" s="3">
+        <v>10</v>
+      </c>
+      <c r="D137" s="3">
+        <v>100</v>
+      </c>
+      <c r="E137" s="3">
+        <v>100</v>
+      </c>
+      <c r="F137" s="3">
+        <v>999</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="2">
+        <v>87900124</v>
+      </c>
+      <c r="B138" s="3">
+        <v>8</v>
+      </c>
+      <c r="C138" s="3">
+        <v>10</v>
+      </c>
+      <c r="D138" s="3">
+        <v>100</v>
+      </c>
+      <c r="E138" s="3">
+        <v>100</v>
+      </c>
+      <c r="F138" s="3">
+        <v>999</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="2">
+        <v>87900125</v>
+      </c>
+      <c r="B139" s="3">
+        <v>8</v>
+      </c>
+      <c r="C139" s="3">
+        <v>10</v>
+      </c>
+      <c r="D139" s="3">
+        <v>100</v>
+      </c>
+      <c r="E139" s="3">
+        <v>100</v>
+      </c>
+      <c r="F139" s="3">
+        <v>999</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="2">
+        <v>87900126</v>
+      </c>
+      <c r="B140" s="3">
+        <v>8</v>
+      </c>
+      <c r="C140" s="3">
+        <v>11</v>
+      </c>
+      <c r="D140" s="3">
+        <v>100</v>
+      </c>
+      <c r="E140" s="3">
+        <v>100</v>
+      </c>
+      <c r="F140" s="3">
+        <v>999</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="2">
+        <v>87900127</v>
+      </c>
+      <c r="B141" s="3">
+        <v>8</v>
+      </c>
+      <c r="C141" s="3">
+        <v>11</v>
+      </c>
+      <c r="D141" s="3">
+        <v>100</v>
+      </c>
+      <c r="E141" s="3">
+        <v>100</v>
+      </c>
+      <c r="F141" s="3">
+        <v>999</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="2">
+        <v>87900128</v>
+      </c>
+      <c r="B142" s="3">
+        <v>8</v>
+      </c>
+      <c r="C142" s="3">
+        <v>11</v>
+      </c>
+      <c r="D142" s="3">
+        <v>100</v>
+      </c>
+      <c r="E142" s="3">
+        <v>100</v>
+      </c>
+      <c r="F142" s="3">
+        <v>999</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="2">
+        <v>87900129</v>
+      </c>
+      <c r="B143" s="3">
+        <v>8</v>
+      </c>
+      <c r="C143" s="3">
+        <v>11</v>
+      </c>
+      <c r="D143" s="3">
+        <v>100</v>
+      </c>
+      <c r="E143" s="3">
+        <v>100</v>
+      </c>
+      <c r="F143" s="3">
+        <v>999</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="2">
+        <v>87900130</v>
+      </c>
+      <c r="B144" s="3">
+        <v>8</v>
+      </c>
+      <c r="C144" s="3">
+        <v>11</v>
+      </c>
+      <c r="D144" s="3">
+        <v>100</v>
+      </c>
+      <c r="E144" s="3">
+        <v>100</v>
+      </c>
+      <c r="F144" s="3">
+        <v>999</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="2">
+        <v>87900131</v>
+      </c>
+      <c r="B145" s="3">
+        <v>8</v>
+      </c>
+      <c r="C145" s="3">
+        <v>11</v>
+      </c>
+      <c r="D145" s="3">
+        <v>100</v>
+      </c>
+      <c r="E145" s="3">
+        <v>100</v>
+      </c>
+      <c r="F145" s="3">
+        <v>999</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="2">
+        <v>87900132</v>
+      </c>
+      <c r="B146" s="3">
+        <v>8</v>
+      </c>
+      <c r="C146" s="3">
+        <v>11</v>
+      </c>
+      <c r="D146" s="3">
+        <v>100</v>
+      </c>
+      <c r="E146" s="3">
+        <v>100</v>
+      </c>
+      <c r="F146" s="3">
+        <v>999</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="2">
+        <v>87900133</v>
+      </c>
+      <c r="B147" s="3">
+        <v>8</v>
+      </c>
+      <c r="C147" s="3">
+        <v>11</v>
+      </c>
+      <c r="D147" s="3">
+        <v>100</v>
+      </c>
+      <c r="E147" s="3">
+        <v>100</v>
+      </c>
+      <c r="F147" s="3">
+        <v>999</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="2">
+        <v>87900134</v>
+      </c>
+      <c r="B148" s="3">
+        <v>8</v>
+      </c>
+      <c r="C148" s="3">
+        <v>11</v>
+      </c>
+      <c r="D148" s="3">
+        <v>100</v>
+      </c>
+      <c r="E148" s="3">
+        <v>100</v>
+      </c>
+      <c r="F148" s="3">
+        <v>999</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="2">
+        <v>87900135</v>
+      </c>
+      <c r="B149" s="3">
+        <v>8</v>
+      </c>
+      <c r="C149" s="3">
+        <v>11</v>
+      </c>
+      <c r="D149" s="3">
+        <v>100</v>
+      </c>
+      <c r="E149" s="3">
+        <v>100</v>
+      </c>
+      <c r="F149" s="3">
+        <v>999</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="2">
+        <v>87900136</v>
+      </c>
+      <c r="B150" s="3">
+        <v>8</v>
+      </c>
+      <c r="C150" s="3">
+        <v>11</v>
+      </c>
+      <c r="D150" s="3">
+        <v>100</v>
+      </c>
+      <c r="E150" s="3">
+        <v>100</v>
+      </c>
+      <c r="F150" s="3">
+        <v>999</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="2">
+        <v>87900137</v>
+      </c>
+      <c r="B151" s="3">
+        <v>8</v>
+      </c>
+      <c r="C151" s="3">
+        <v>12</v>
+      </c>
+      <c r="D151" s="3">
+        <v>100</v>
+      </c>
+      <c r="E151" s="3">
+        <v>100</v>
+      </c>
+      <c r="F151" s="3">
+        <v>999</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="2">
+        <v>87900138</v>
+      </c>
+      <c r="B152" s="3">
+        <v>8</v>
+      </c>
+      <c r="C152" s="3">
+        <v>12</v>
+      </c>
+      <c r="D152" s="3">
+        <v>100</v>
+      </c>
+      <c r="E152" s="3">
+        <v>100</v>
+      </c>
+      <c r="F152" s="3">
+        <v>999</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="2">
+        <v>87900139</v>
+      </c>
+      <c r="B153" s="3">
+        <v>8</v>
+      </c>
+      <c r="C153" s="3">
+        <v>12</v>
+      </c>
+      <c r="D153" s="3">
+        <v>100</v>
+      </c>
+      <c r="E153" s="3">
+        <v>100</v>
+      </c>
+      <c r="F153" s="3">
+        <v>999</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="2">
+        <v>87900140</v>
+      </c>
+      <c r="B154" s="3">
+        <v>8</v>
+      </c>
+      <c r="C154" s="3">
+        <v>12</v>
+      </c>
+      <c r="D154" s="3">
+        <v>100</v>
+      </c>
+      <c r="E154" s="3">
+        <v>100</v>
+      </c>
+      <c r="F154" s="3">
+        <v>999</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="2">
+        <v>87900141</v>
+      </c>
+      <c r="B155" s="3">
+        <v>8</v>
+      </c>
+      <c r="C155" s="3">
+        <v>12</v>
+      </c>
+      <c r="D155" s="3">
+        <v>100</v>
+      </c>
+      <c r="E155" s="3">
+        <v>100</v>
+      </c>
+      <c r="F155" s="3">
+        <v>999</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="2">
+        <v>87900151</v>
+      </c>
+      <c r="B156" s="3">
+        <v>8</v>
+      </c>
+      <c r="C156" s="3">
+        <v>12</v>
+      </c>
+      <c r="D156" s="3">
+        <v>100</v>
+      </c>
+      <c r="E156" s="3">
+        <v>100</v>
+      </c>
+      <c r="F156" s="3">
+        <v>999</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="2">
+        <v>87900152</v>
+      </c>
+      <c r="B157" s="3">
+        <v>8</v>
+      </c>
+      <c r="C157" s="3">
+        <v>12</v>
+      </c>
+      <c r="D157" s="3">
+        <v>100</v>
+      </c>
+      <c r="E157" s="3">
+        <v>100</v>
+      </c>
+      <c r="F157" s="3">
+        <v>999</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="2">
+        <v>87900153</v>
+      </c>
+      <c r="B158" s="3">
+        <v>8</v>
+      </c>
+      <c r="C158" s="3">
+        <v>12</v>
+      </c>
+      <c r="D158" s="3">
+        <v>100</v>
+      </c>
+      <c r="E158" s="3">
+        <v>100</v>
+      </c>
+      <c r="F158" s="3">
+        <v>999</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="2">
+        <v>87900154</v>
+      </c>
+      <c r="B159" s="3">
+        <v>8</v>
+      </c>
+      <c r="C159" s="3">
+        <v>12</v>
+      </c>
+      <c r="D159" s="3">
+        <v>100</v>
+      </c>
+      <c r="E159" s="3">
+        <v>100</v>
+      </c>
+      <c r="F159" s="3">
+        <v>999</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="2">
+        <v>87900155</v>
+      </c>
+      <c r="B160" s="3">
+        <v>8</v>
+      </c>
+      <c r="C160" s="3">
+        <v>12</v>
+      </c>
+      <c r="D160" s="3">
+        <v>100</v>
+      </c>
+      <c r="E160" s="3">
+        <v>100</v>
+      </c>
+      <c r="F160" s="3">
+        <v>999</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="2">
+        <v>87900156</v>
+      </c>
+      <c r="B161" s="3">
+        <v>8</v>
+      </c>
+      <c r="C161" s="3">
+        <v>12</v>
+      </c>
+      <c r="D161" s="3">
+        <v>100</v>
+      </c>
+      <c r="E161" s="3">
+        <v>100</v>
+      </c>
+      <c r="F161" s="3">
+        <v>999</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="2">
+        <v>87900157</v>
+      </c>
+      <c r="B162" s="3">
+        <v>8</v>
+      </c>
+      <c r="C162" s="3">
+        <v>13</v>
+      </c>
+      <c r="D162" s="3">
+        <v>100</v>
+      </c>
+      <c r="E162" s="3">
+        <v>100</v>
+      </c>
+      <c r="F162" s="3">
+        <v>999</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="2">
+        <v>87900158</v>
+      </c>
+      <c r="B163" s="3">
+        <v>8</v>
+      </c>
+      <c r="C163" s="3">
+        <v>13</v>
+      </c>
+      <c r="D163" s="3">
+        <v>100</v>
+      </c>
+      <c r="E163" s="3">
+        <v>100</v>
+      </c>
+      <c r="F163" s="3">
+        <v>999</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="2">
+        <v>87900159</v>
+      </c>
+      <c r="B164" s="3">
+        <v>8</v>
+      </c>
+      <c r="C164" s="3">
+        <v>13</v>
+      </c>
+      <c r="D164" s="3">
+        <v>100</v>
+      </c>
+      <c r="E164" s="3">
+        <v>100</v>
+      </c>
+      <c r="F164" s="3">
+        <v>999</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="2">
+        <v>87900160</v>
+      </c>
+      <c r="B165" s="3">
+        <v>8</v>
+      </c>
+      <c r="C165" s="3">
+        <v>13</v>
+      </c>
+      <c r="D165" s="3">
+        <v>100</v>
+      </c>
+      <c r="E165" s="3">
+        <v>100</v>
+      </c>
+      <c r="F165" s="3">
+        <v>999</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="2">
+        <v>87900161</v>
+      </c>
+      <c r="B166" s="3">
+        <v>8</v>
+      </c>
+      <c r="C166" s="3">
+        <v>13</v>
+      </c>
+      <c r="D166" s="3">
+        <v>100</v>
+      </c>
+      <c r="E166" s="3">
+        <v>100</v>
+      </c>
+      <c r="F166" s="3">
+        <v>999</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="2">
+        <v>87900162</v>
+      </c>
+      <c r="B167" s="3">
+        <v>8</v>
+      </c>
+      <c r="C167" s="3">
+        <v>13</v>
+      </c>
+      <c r="D167" s="3">
+        <v>100</v>
+      </c>
+      <c r="E167" s="3">
+        <v>100</v>
+      </c>
+      <c r="F167" s="3">
+        <v>999</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="2">
+        <v>87900163</v>
+      </c>
+      <c r="B168" s="3">
+        <v>8</v>
+      </c>
+      <c r="C168" s="3">
+        <v>13</v>
+      </c>
+      <c r="D168" s="3">
+        <v>100</v>
+      </c>
+      <c r="E168" s="3">
+        <v>100</v>
+      </c>
+      <c r="F168" s="3">
+        <v>999</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="2">
+        <v>87900164</v>
+      </c>
+      <c r="B169" s="3">
+        <v>8</v>
+      </c>
+      <c r="C169" s="3">
+        <v>13</v>
+      </c>
+      <c r="D169" s="3">
+        <v>100</v>
+      </c>
+      <c r="E169" s="3">
+        <v>100</v>
+      </c>
+      <c r="F169" s="3">
+        <v>999</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="2">
+        <v>87900165</v>
+      </c>
+      <c r="B170" s="3">
+        <v>8</v>
+      </c>
+      <c r="C170" s="3">
+        <v>13</v>
+      </c>
+      <c r="D170" s="3">
+        <v>100</v>
+      </c>
+      <c r="E170" s="3">
+        <v>100</v>
+      </c>
+      <c r="F170" s="3">
+        <v>999</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="2">
+        <v>87900166</v>
+      </c>
+      <c r="B171" s="3">
+        <v>8</v>
+      </c>
+      <c r="C171" s="3">
+        <v>13</v>
+      </c>
+      <c r="D171" s="3">
+        <v>100</v>
+      </c>
+      <c r="E171" s="3">
+        <v>100</v>
+      </c>
+      <c r="F171" s="3">
+        <v>999</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="2">
+        <v>87900167</v>
+      </c>
+      <c r="B172" s="3">
+        <v>8</v>
+      </c>
+      <c r="C172" s="3">
+        <v>13</v>
+      </c>
+      <c r="D172" s="3">
+        <v>100</v>
+      </c>
+      <c r="E172" s="3">
+        <v>100</v>
+      </c>
+      <c r="F172" s="3">
+        <v>999</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="2">
+        <v>87900168</v>
+      </c>
+      <c r="B173" s="3">
+        <v>8</v>
+      </c>
+      <c r="C173" s="3">
+        <v>14</v>
+      </c>
+      <c r="D173" s="3">
+        <v>100</v>
+      </c>
+      <c r="E173" s="3">
+        <v>100</v>
+      </c>
+      <c r="F173" s="3">
+        <v>999</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="2">
+        <v>87900169</v>
+      </c>
+      <c r="B174" s="3">
+        <v>8</v>
+      </c>
+      <c r="C174" s="3">
+        <v>14</v>
+      </c>
+      <c r="D174" s="3">
+        <v>100</v>
+      </c>
+      <c r="E174" s="3">
+        <v>100</v>
+      </c>
+      <c r="F174" s="3">
+        <v>999</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="2">
+        <v>87900170</v>
+      </c>
+      <c r="B175" s="3">
+        <v>8</v>
+      </c>
+      <c r="C175" s="3">
+        <v>14</v>
+      </c>
+      <c r="D175" s="3">
+        <v>100</v>
+      </c>
+      <c r="E175" s="3">
+        <v>100</v>
+      </c>
+      <c r="F175" s="3">
+        <v>999</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="2">
+        <v>87900171</v>
+      </c>
+      <c r="B176" s="3">
+        <v>8</v>
+      </c>
+      <c r="C176" s="3">
+        <v>14</v>
+      </c>
+      <c r="D176" s="3">
+        <v>100</v>
+      </c>
+      <c r="E176" s="3">
+        <v>100</v>
+      </c>
+      <c r="F176" s="3">
+        <v>999</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="2">
+        <v>87900172</v>
+      </c>
+      <c r="B177" s="3">
+        <v>8</v>
+      </c>
+      <c r="C177" s="3">
+        <v>14</v>
+      </c>
+      <c r="D177" s="3">
+        <v>100</v>
+      </c>
+      <c r="E177" s="3">
+        <v>100</v>
+      </c>
+      <c r="F177" s="3">
+        <v>999</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178" s="2">
+        <v>87900401</v>
+      </c>
+      <c r="B178" s="3">
+        <v>8</v>
+      </c>
+      <c r="C178" s="3">
+        <v>14</v>
+      </c>
+      <c r="D178" s="3">
+        <v>100</v>
+      </c>
+      <c r="E178" s="3">
+        <v>100</v>
+      </c>
+      <c r="F178" s="3">
+        <v>999</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="2">
+        <v>87900402</v>
+      </c>
+      <c r="B179" s="3">
+        <v>8</v>
+      </c>
+      <c r="C179" s="3">
+        <v>14</v>
+      </c>
+      <c r="D179" s="3">
+        <v>100</v>
+      </c>
+      <c r="E179" s="3">
+        <v>100</v>
+      </c>
+      <c r="F179" s="3">
+        <v>999</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="2">
+        <v>87900403</v>
+      </c>
+      <c r="B180" s="3">
+        <v>8</v>
+      </c>
+      <c r="C180" s="3">
+        <v>14</v>
+      </c>
+      <c r="D180" s="3">
+        <v>100</v>
+      </c>
+      <c r="E180" s="3">
+        <v>100</v>
+      </c>
+      <c r="F180" s="3">
+        <v>999</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="2">
+        <v>87900404</v>
+      </c>
+      <c r="B181" s="3">
+        <v>8</v>
+      </c>
+      <c r="C181" s="3">
+        <v>14</v>
+      </c>
+      <c r="D181" s="3">
+        <v>100</v>
+      </c>
+      <c r="E181" s="3">
+        <v>100</v>
+      </c>
+      <c r="F181" s="3">
+        <v>999</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="2">
+        <v>87900405</v>
+      </c>
+      <c r="B182" s="3">
+        <v>8</v>
+      </c>
+      <c r="C182" s="3">
+        <v>14</v>
+      </c>
+      <c r="D182" s="3">
+        <v>100</v>
+      </c>
+      <c r="E182" s="3">
+        <v>100</v>
+      </c>
+      <c r="F182" s="3">
+        <v>999</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="2">
+        <v>87900406</v>
+      </c>
+      <c r="B183" s="3">
+        <v>8</v>
+      </c>
+      <c r="C183" s="3">
+        <v>14</v>
+      </c>
+      <c r="D183" s="3">
+        <v>100</v>
+      </c>
+      <c r="E183" s="3">
+        <v>100</v>
+      </c>
+      <c r="F183" s="3">
+        <v>999</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="2">
+        <v>87900407</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184" s="3">
+        <v>100</v>
+      </c>
+      <c r="E184" s="3">
+        <v>100</v>
+      </c>
+      <c r="F184" s="3">
+        <v>999</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="2">
+        <v>87900408</v>
+      </c>
+      <c r="B185" s="3">
+        <v>5</v>
+      </c>
+      <c r="C185" s="3">
+        <v>1</v>
+      </c>
+      <c r="D185" s="3">
+        <v>100</v>
+      </c>
+      <c r="E185" s="3">
+        <v>100</v>
+      </c>
+      <c r="F185" s="3">
+        <v>999</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="2">
+        <v>87900409</v>
+      </c>
+      <c r="B186" s="3">
+        <v>5</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1</v>
+      </c>
+      <c r="D186" s="3">
+        <v>100</v>
+      </c>
+      <c r="E186" s="3">
+        <v>100</v>
+      </c>
+      <c r="F186" s="3">
+        <v>999</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="2">
+        <v>87900410</v>
+      </c>
+      <c r="B187" s="3">
+        <v>5</v>
+      </c>
+      <c r="C187" s="3">
+        <v>1</v>
+      </c>
+      <c r="D187" s="3">
+        <v>100</v>
+      </c>
+      <c r="E187" s="3">
+        <v>100</v>
+      </c>
+      <c r="F187" s="3">
+        <v>999</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="2">
+        <v>87900411</v>
+      </c>
+      <c r="B188" s="3">
+        <v>5</v>
+      </c>
+      <c r="C188" s="3">
+        <v>1</v>
+      </c>
+      <c r="D188" s="3">
+        <v>100</v>
+      </c>
+      <c r="E188" s="3">
+        <v>100</v>
+      </c>
+      <c r="F188" s="3">
+        <v>999</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="2">
+        <v>87900412</v>
+      </c>
+      <c r="B189" s="3">
+        <v>5</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1</v>
+      </c>
+      <c r="D189" s="3">
+        <v>100</v>
+      </c>
+      <c r="E189" s="3">
+        <v>100</v>
+      </c>
+      <c r="F189" s="3">
+        <v>999</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="2">
+        <v>87900413</v>
+      </c>
+      <c r="B190" s="3">
+        <v>5</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1</v>
+      </c>
+      <c r="D190" s="3">
+        <v>100</v>
+      </c>
+      <c r="E190" s="3">
+        <v>100</v>
+      </c>
+      <c r="F190" s="3">
+        <v>999</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="2">
+        <v>87900414</v>
+      </c>
+      <c r="B191" s="3">
+        <v>5</v>
+      </c>
+      <c r="C191" s="3">
+        <v>1</v>
+      </c>
+      <c r="D191" s="3">
+        <v>100</v>
+      </c>
+      <c r="E191" s="3">
+        <v>100</v>
+      </c>
+      <c r="F191" s="3">
+        <v>999</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="2">
+        <v>87900415</v>
+      </c>
+      <c r="B192" s="3">
+        <v>5</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1</v>
+      </c>
+      <c r="D192" s="3">
+        <v>100</v>
+      </c>
+      <c r="E192" s="3">
+        <v>100</v>
+      </c>
+      <c r="F192" s="3">
+        <v>999</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="2">
+        <v>87900416</v>
+      </c>
+      <c r="B193" s="3">
+        <v>5</v>
+      </c>
+      <c r="C193" s="3">
+        <v>1</v>
+      </c>
+      <c r="D193" s="3">
+        <v>100</v>
+      </c>
+      <c r="E193" s="3">
+        <v>100</v>
+      </c>
+      <c r="F193" s="3">
+        <v>999</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="2">
+        <v>87900417</v>
+      </c>
+      <c r="B194" s="3">
+        <v>5</v>
+      </c>
+      <c r="C194" s="3">
         <v>2</v>
       </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21">
+      <c r="D194" s="3">
+        <v>100</v>
+      </c>
+      <c r="E194" s="3">
+        <v>100</v>
+      </c>
+      <c r="F194" s="3">
+        <v>999</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="2">
+        <v>87900418</v>
+      </c>
+      <c r="B195" s="3">
+        <v>5</v>
+      </c>
+      <c r="C195" s="3">
+        <v>2</v>
+      </c>
+      <c r="D195" s="3">
+        <v>100</v>
+      </c>
+      <c r="E195" s="3">
+        <v>100</v>
+      </c>
+      <c r="F195" s="3">
+        <v>999</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196" s="2">
+        <v>87900419</v>
+      </c>
+      <c r="B196" s="3">
+        <v>5</v>
+      </c>
+      <c r="C196" s="3">
+        <v>2</v>
+      </c>
+      <c r="D196" s="3">
+        <v>100</v>
+      </c>
+      <c r="E196" s="3">
+        <v>100</v>
+      </c>
+      <c r="F196" s="3">
+        <v>999</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197" s="2">
+        <v>87900420</v>
+      </c>
+      <c r="B197" s="3">
+        <v>5</v>
+      </c>
+      <c r="C197" s="3">
+        <v>2</v>
+      </c>
+      <c r="D197" s="3">
+        <v>100</v>
+      </c>
+      <c r="E197" s="3">
+        <v>100</v>
+      </c>
+      <c r="F197" s="3">
+        <v>999</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="2">
+        <v>87900421</v>
+      </c>
+      <c r="B198" s="3">
+        <v>5</v>
+      </c>
+      <c r="C198" s="3">
+        <v>2</v>
+      </c>
+      <c r="D198" s="3">
+        <v>100</v>
+      </c>
+      <c r="E198" s="3">
+        <v>100</v>
+      </c>
+      <c r="F198" s="3">
+        <v>999</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="2">
+        <v>87900422</v>
+      </c>
+      <c r="B199" s="3">
+        <v>5</v>
+      </c>
+      <c r="C199" s="3">
+        <v>2</v>
+      </c>
+      <c r="D199" s="3">
+        <v>100</v>
+      </c>
+      <c r="E199" s="3">
+        <v>100</v>
+      </c>
+      <c r="F199" s="3">
+        <v>999</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="2">
+        <v>87900423</v>
+      </c>
+      <c r="B200" s="3">
+        <v>5</v>
+      </c>
+      <c r="C200" s="3">
+        <v>2</v>
+      </c>
+      <c r="D200" s="3">
+        <v>100</v>
+      </c>
+      <c r="E200" s="3">
+        <v>100</v>
+      </c>
+      <c r="F200" s="3">
+        <v>999</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="2">
+        <v>87900424</v>
+      </c>
+      <c r="B201" s="3">
+        <v>5</v>
+      </c>
+      <c r="C201" s="3">
+        <v>2</v>
+      </c>
+      <c r="D201" s="3">
+        <v>100</v>
+      </c>
+      <c r="E201" s="3">
+        <v>100</v>
+      </c>
+      <c r="F201" s="3">
+        <v>999</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="2">
+        <v>87900425</v>
+      </c>
+      <c r="B202" s="3">
+        <v>5</v>
+      </c>
+      <c r="C202" s="3">
+        <v>2</v>
+      </c>
+      <c r="D202" s="3">
+        <v>100</v>
+      </c>
+      <c r="E202" s="3">
+        <v>100</v>
+      </c>
+      <c r="F202" s="3">
+        <v>999</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203" s="2">
+        <v>87900426</v>
+      </c>
+      <c r="B203" s="3">
+        <v>5</v>
+      </c>
+      <c r="C203" s="3">
+        <v>2</v>
+      </c>
+      <c r="D203" s="3">
+        <v>100</v>
+      </c>
+      <c r="E203" s="3">
+        <v>100</v>
+      </c>
+      <c r="F203" s="3">
+        <v>999</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="2">
+        <v>87900427</v>
+      </c>
+      <c r="B204" s="3">
+        <v>5</v>
+      </c>
+      <c r="C204" s="3">
+        <v>3</v>
+      </c>
+      <c r="D204" s="3">
+        <v>100</v>
+      </c>
+      <c r="E204" s="3">
+        <v>100</v>
+      </c>
+      <c r="F204" s="3">
+        <v>999</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="2">
+        <v>87900428</v>
+      </c>
+      <c r="B205" s="3">
+        <v>5</v>
+      </c>
+      <c r="C205" s="3">
+        <v>3</v>
+      </c>
+      <c r="D205" s="3">
+        <v>100</v>
+      </c>
+      <c r="E205" s="3">
+        <v>100</v>
+      </c>
+      <c r="F205" s="3">
+        <v>999</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="2">
+        <v>87900429</v>
+      </c>
+      <c r="B206" s="3">
+        <v>5</v>
+      </c>
+      <c r="C206" s="3">
+        <v>3</v>
+      </c>
+      <c r="D206" s="3">
+        <v>100</v>
+      </c>
+      <c r="E206" s="3">
+        <v>100</v>
+      </c>
+      <c r="F206" s="3">
+        <v>999</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="2">
+        <v>87900430</v>
+      </c>
+      <c r="B207" s="3">
+        <v>5</v>
+      </c>
+      <c r="C207" s="3">
+        <v>3</v>
+      </c>
+      <c r="D207" s="3">
+        <v>100</v>
+      </c>
+      <c r="E207" s="3">
+        <v>100</v>
+      </c>
+      <c r="F207" s="3">
+        <v>999</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="2">
+        <v>87900431</v>
+      </c>
+      <c r="B208" s="3">
+        <v>5</v>
+      </c>
+      <c r="C208" s="3">
+        <v>3</v>
+      </c>
+      <c r="D208" s="3">
+        <v>100</v>
+      </c>
+      <c r="E208" s="3">
+        <v>100</v>
+      </c>
+      <c r="F208" s="3">
+        <v>999</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="2">
+        <v>87900432</v>
+      </c>
+      <c r="B209" s="3">
+        <v>5</v>
+      </c>
+      <c r="C209" s="3">
+        <v>3</v>
+      </c>
+      <c r="D209" s="3">
+        <v>100</v>
+      </c>
+      <c r="E209" s="3">
+        <v>100</v>
+      </c>
+      <c r="F209" s="3">
+        <v>999</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="2">
+        <v>87900433</v>
+      </c>
+      <c r="B210" s="3">
+        <v>5</v>
+      </c>
+      <c r="C210" s="3">
+        <v>3</v>
+      </c>
+      <c r="D210" s="3">
+        <v>100</v>
+      </c>
+      <c r="E210" s="3">
+        <v>100</v>
+      </c>
+      <c r="F210" s="3">
+        <v>999</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="2">
+        <v>87900434</v>
+      </c>
+      <c r="B211" s="3">
+        <v>5</v>
+      </c>
+      <c r="C211" s="3">
+        <v>3</v>
+      </c>
+      <c r="D211" s="3">
+        <v>100</v>
+      </c>
+      <c r="E211" s="3">
+        <v>100</v>
+      </c>
+      <c r="F211" s="3">
+        <v>999</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="2">
+        <v>87900435</v>
+      </c>
+      <c r="B212" s="3">
+        <v>5</v>
+      </c>
+      <c r="C212" s="3">
+        <v>3</v>
+      </c>
+      <c r="D212" s="3">
+        <v>100</v>
+      </c>
+      <c r="E212" s="3">
+        <v>100</v>
+      </c>
+      <c r="F212" s="3">
+        <v>999</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="2">
+        <v>87900436</v>
+      </c>
+      <c r="B213" s="3">
+        <v>5</v>
+      </c>
+      <c r="C213" s="3">
+        <v>3</v>
+      </c>
+      <c r="D213" s="3">
+        <v>100</v>
+      </c>
+      <c r="E213" s="3">
+        <v>100</v>
+      </c>
+      <c r="F213" s="3">
+        <v>999</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="2">
+        <v>87900437</v>
+      </c>
+      <c r="B214" s="3">
+        <v>5</v>
+      </c>
+      <c r="C214" s="3">
+        <v>4</v>
+      </c>
+      <c r="D214" s="3">
+        <v>100</v>
+      </c>
+      <c r="E214" s="3">
+        <v>100</v>
+      </c>
+      <c r="F214" s="3">
+        <v>999</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="2">
+        <v>87900451</v>
+      </c>
+      <c r="B215" s="3">
+        <v>5</v>
+      </c>
+      <c r="C215" s="3">
+        <v>4</v>
+      </c>
+      <c r="D215" s="3">
+        <v>100</v>
+      </c>
+      <c r="E215" s="3">
+        <v>100</v>
+      </c>
+      <c r="F215" s="3">
+        <v>999</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="2">
+        <v>87900452</v>
+      </c>
+      <c r="B216" s="3">
+        <v>5</v>
+      </c>
+      <c r="C216" s="3">
+        <v>4</v>
+      </c>
+      <c r="D216" s="3">
+        <v>100</v>
+      </c>
+      <c r="E216" s="3">
+        <v>100</v>
+      </c>
+      <c r="F216" s="3">
+        <v>999</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="2">
+        <v>87900453</v>
+      </c>
+      <c r="B217" s="3">
+        <v>5</v>
+      </c>
+      <c r="C217" s="3">
+        <v>4</v>
+      </c>
+      <c r="D217" s="3">
+        <v>100</v>
+      </c>
+      <c r="E217" s="3">
+        <v>100</v>
+      </c>
+      <c r="F217" s="3">
+        <v>999</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="2">
+        <v>87900454</v>
+      </c>
+      <c r="B218" s="3">
+        <v>5</v>
+      </c>
+      <c r="C218" s="3">
+        <v>4</v>
+      </c>
+      <c r="D218" s="3">
+        <v>100</v>
+      </c>
+      <c r="E218" s="3">
+        <v>100</v>
+      </c>
+      <c r="F218" s="3">
+        <v>999</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219" s="2">
+        <v>87900455</v>
+      </c>
+      <c r="B219" s="3">
+        <v>5</v>
+      </c>
+      <c r="C219" s="3">
+        <v>4</v>
+      </c>
+      <c r="D219" s="3">
+        <v>100</v>
+      </c>
+      <c r="E219" s="3">
+        <v>100</v>
+      </c>
+      <c r="F219" s="3">
+        <v>999</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="2">
+        <v>87900456</v>
+      </c>
+      <c r="B220" s="3">
+        <v>5</v>
+      </c>
+      <c r="C220" s="3">
+        <v>4</v>
+      </c>
+      <c r="D220" s="3">
+        <v>100</v>
+      </c>
+      <c r="E220" s="3">
+        <v>100</v>
+      </c>
+      <c r="F220" s="3">
+        <v>999</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="2">
+        <v>87900457</v>
+      </c>
+      <c r="B221" s="3">
+        <v>5</v>
+      </c>
+      <c r="C221" s="3">
+        <v>4</v>
+      </c>
+      <c r="D221" s="3">
+        <v>100</v>
+      </c>
+      <c r="E221" s="3">
+        <v>100</v>
+      </c>
+      <c r="F221" s="3">
+        <v>999</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="2">
+        <v>87900458</v>
+      </c>
+      <c r="B222" s="3">
+        <v>5</v>
+      </c>
+      <c r="C222" s="3">
+        <v>4</v>
+      </c>
+      <c r="D222" s="3">
+        <v>100</v>
+      </c>
+      <c r="E222" s="3">
+        <v>100</v>
+      </c>
+      <c r="F222" s="3">
+        <v>999</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="2">
+        <v>87900459</v>
+      </c>
+      <c r="B223" s="3">
+        <v>5</v>
+      </c>
+      <c r="C223" s="3">
+        <v>4</v>
+      </c>
+      <c r="D223" s="3">
+        <v>100</v>
+      </c>
+      <c r="E223" s="3">
+        <v>100</v>
+      </c>
+      <c r="F223" s="3">
+        <v>999</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="2">
+        <v>87900460</v>
+      </c>
+      <c r="B224" s="3">
+        <v>5</v>
+      </c>
+      <c r="C224" s="3">
+        <v>5</v>
+      </c>
+      <c r="D224" s="3">
+        <v>100</v>
+      </c>
+      <c r="E224" s="3">
+        <v>100</v>
+      </c>
+      <c r="F224" s="3">
+        <v>999</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="2">
+        <v>87900461</v>
+      </c>
+      <c r="B225" s="3">
+        <v>5</v>
+      </c>
+      <c r="C225" s="3">
+        <v>5</v>
+      </c>
+      <c r="D225" s="3">
+        <v>100</v>
+      </c>
+      <c r="E225" s="3">
+        <v>100</v>
+      </c>
+      <c r="F225" s="3">
+        <v>999</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="2">
+        <v>87900462</v>
+      </c>
+      <c r="B226" s="3">
+        <v>5</v>
+      </c>
+      <c r="C226" s="3">
+        <v>5</v>
+      </c>
+      <c r="D226" s="3">
+        <v>100</v>
+      </c>
+      <c r="E226" s="3">
+        <v>100</v>
+      </c>
+      <c r="F226" s="3">
+        <v>999</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="2">
+        <v>87900463</v>
+      </c>
+      <c r="B227" s="3">
+        <v>5</v>
+      </c>
+      <c r="C227" s="3">
+        <v>5</v>
+      </c>
+      <c r="D227" s="3">
+        <v>100</v>
+      </c>
+      <c r="E227" s="3">
+        <v>100</v>
+      </c>
+      <c r="F227" s="3">
+        <v>999</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="2">
+        <v>87900464</v>
+      </c>
+      <c r="B228" s="3">
+        <v>5</v>
+      </c>
+      <c r="C228" s="3">
+        <v>5</v>
+      </c>
+      <c r="D228" s="3">
+        <v>100</v>
+      </c>
+      <c r="E228" s="3">
+        <v>100</v>
+      </c>
+      <c r="F228" s="3">
+        <v>999</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="2">
+        <v>87900465</v>
+      </c>
+      <c r="B229" s="3">
+        <v>5</v>
+      </c>
+      <c r="C229" s="3">
+        <v>5</v>
+      </c>
+      <c r="D229" s="3">
+        <v>100</v>
+      </c>
+      <c r="E229" s="3">
+        <v>100</v>
+      </c>
+      <c r="F229" s="3">
+        <v>999</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230" s="2">
+        <v>87900466</v>
+      </c>
+      <c r="B230" s="3">
+        <v>5</v>
+      </c>
+      <c r="C230" s="3">
+        <v>5</v>
+      </c>
+      <c r="D230" s="3">
+        <v>100</v>
+      </c>
+      <c r="E230" s="3">
+        <v>100</v>
+      </c>
+      <c r="F230" s="3">
+        <v>999</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231" s="2">
+        <v>87900467</v>
+      </c>
+      <c r="B231" s="3">
+        <v>5</v>
+      </c>
+      <c r="C231" s="3">
+        <v>5</v>
+      </c>
+      <c r="D231" s="3">
+        <v>100</v>
+      </c>
+      <c r="E231" s="3">
+        <v>100</v>
+      </c>
+      <c r="F231" s="3">
+        <v>999</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="2">
+        <v>87900468</v>
+      </c>
+      <c r="B232" s="3">
+        <v>5</v>
+      </c>
+      <c r="C232" s="3">
+        <v>5</v>
+      </c>
+      <c r="D232" s="3">
+        <v>100</v>
+      </c>
+      <c r="E232" s="3">
+        <v>100</v>
+      </c>
+      <c r="F232" s="3">
+        <v>999</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="2">
+        <v>87900469</v>
+      </c>
+      <c r="B233" s="3">
+        <v>5</v>
+      </c>
+      <c r="C233" s="3">
+        <v>5</v>
+      </c>
+      <c r="D233" s="3">
+        <v>100</v>
+      </c>
+      <c r="E233" s="3">
+        <v>100</v>
+      </c>
+      <c r="F233" s="3">
+        <v>999</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="2">
+        <v>87900470</v>
+      </c>
+      <c r="B234" s="3">
+        <v>5</v>
+      </c>
+      <c r="C234" s="3">
+        <v>6</v>
+      </c>
+      <c r="D234" s="3">
+        <v>100</v>
+      </c>
+      <c r="E234" s="3">
+        <v>100</v>
+      </c>
+      <c r="F234" s="3">
+        <v>999</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" s="2">
+        <v>87900601</v>
+      </c>
+      <c r="B235" s="3">
+        <v>5</v>
+      </c>
+      <c r="C235" s="3">
+        <v>6</v>
+      </c>
+      <c r="D235" s="3">
+        <v>100</v>
+      </c>
+      <c r="E235" s="3">
+        <v>100</v>
+      </c>
+      <c r="F235" s="3">
+        <v>999</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236" s="2">
+        <v>87900602</v>
+      </c>
+      <c r="B236" s="3">
+        <v>5</v>
+      </c>
+      <c r="C236" s="3">
+        <v>6</v>
+      </c>
+      <c r="D236" s="3">
+        <v>100</v>
+      </c>
+      <c r="E236" s="3">
+        <v>100</v>
+      </c>
+      <c r="F236" s="3">
+        <v>999</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237" s="2">
+        <v>87900603</v>
+      </c>
+      <c r="B237" s="3">
+        <v>5</v>
+      </c>
+      <c r="C237" s="3">
+        <v>6</v>
+      </c>
+      <c r="D237" s="3">
+        <v>100</v>
+      </c>
+      <c r="E237" s="3">
+        <v>100</v>
+      </c>
+      <c r="F237" s="3">
+        <v>999</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="2">
+        <v>87900604</v>
+      </c>
+      <c r="B238" s="3">
+        <v>5</v>
+      </c>
+      <c r="C238" s="3">
+        <v>6</v>
+      </c>
+      <c r="D238" s="3">
+        <v>100</v>
+      </c>
+      <c r="E238" s="3">
+        <v>100</v>
+      </c>
+      <c r="F238" s="3">
+        <v>999</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="2">
+        <v>87900605</v>
+      </c>
+      <c r="B239" s="3">
+        <v>5</v>
+      </c>
+      <c r="C239" s="3">
+        <v>6</v>
+      </c>
+      <c r="D239" s="3">
+        <v>100</v>
+      </c>
+      <c r="E239" s="3">
+        <v>100</v>
+      </c>
+      <c r="F239" s="3">
+        <v>999</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" s="2">
+        <v>87900606</v>
+      </c>
+      <c r="B240" s="3">
+        <v>5</v>
+      </c>
+      <c r="C240" s="3">
+        <v>6</v>
+      </c>
+      <c r="D240" s="3">
+        <v>100</v>
+      </c>
+      <c r="E240" s="3">
+        <v>100</v>
+      </c>
+      <c r="F240" s="3">
+        <v>999</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241" s="2">
+        <v>87900607</v>
+      </c>
+      <c r="B241" s="3">
+        <v>5</v>
+      </c>
+      <c r="C241" s="3">
+        <v>6</v>
+      </c>
+      <c r="D241" s="3">
+        <v>100</v>
+      </c>
+      <c r="E241" s="3">
+        <v>100</v>
+      </c>
+      <c r="F241" s="3">
+        <v>999</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242" s="2">
+        <v>87900608</v>
+      </c>
+      <c r="B242" s="3">
+        <v>5</v>
+      </c>
+      <c r="C242" s="3">
+        <v>6</v>
+      </c>
+      <c r="D242" s="3">
+        <v>100</v>
+      </c>
+      <c r="E242" s="3">
+        <v>100</v>
+      </c>
+      <c r="F242" s="3">
+        <v>999</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243" s="2">
+        <v>87900609</v>
+      </c>
+      <c r="B243" s="3">
+        <v>5</v>
+      </c>
+      <c r="C243" s="3">
+        <v>6</v>
+      </c>
+      <c r="D243" s="3">
+        <v>100</v>
+      </c>
+      <c r="E243" s="3">
+        <v>100</v>
+      </c>
+      <c r="F243" s="3">
+        <v>999</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244" s="2">
+        <v>87900610</v>
+      </c>
+      <c r="B244" s="3">
+        <v>5</v>
+      </c>
+      <c r="C244" s="3">
+        <v>6</v>
+      </c>
+      <c r="D244" s="3">
+        <v>100</v>
+      </c>
+      <c r="E244" s="3">
+        <v>100</v>
+      </c>
+      <c r="F244" s="3">
+        <v>999</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245" s="2">
+        <v>87900613</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245" s="3">
+        <v>100</v>
+      </c>
+      <c r="E245" s="3">
+        <v>100</v>
+      </c>
+      <c r="F245" s="3">
+        <v>999</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246" s="2">
+        <v>87900614</v>
+      </c>
+      <c r="B246" s="3">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246" s="3">
+        <v>100</v>
+      </c>
+      <c r="E246" s="3">
+        <v>100</v>
+      </c>
+      <c r="F246" s="3">
+        <v>999</v>
+      </c>
+      <c r="I246" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21">
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" s="2">
+        <v>87900615</v>
+      </c>
+      <c r="B247" s="3">
+        <v>1</v>
+      </c>
+      <c r="C247">
         <v>2</v>
       </c>
-      <c r="D21">
-        <v>100</v>
-      </c>
-      <c r="E21">
-        <v>100</v>
+      <c r="D247" s="3">
+        <v>100</v>
+      </c>
+      <c r="E247" s="3">
+        <v>100</v>
+      </c>
+      <c r="F247" s="3">
+        <v>999</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="2">
+        <v>87900616</v>
+      </c>
+      <c r="B248" s="3">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>2</v>
+      </c>
+      <c r="D248" s="3">
+        <v>100</v>
+      </c>
+      <c r="E248" s="3">
+        <v>100</v>
+      </c>
+      <c r="F248" s="3">
+        <v>999</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="2">
+        <v>87900617</v>
+      </c>
+      <c r="B249" s="3">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+      <c r="D249" s="3">
+        <v>100</v>
+      </c>
+      <c r="E249" s="3">
+        <v>100</v>
+      </c>
+      <c r="F249" s="3">
+        <v>999</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
+      <c r="A250" s="2">
+        <v>87900618</v>
+      </c>
+      <c r="B250" s="3">
+        <v>1</v>
+      </c>
+      <c r="C250" s="3">
+        <v>3</v>
+      </c>
+      <c r="D250" s="3">
+        <v>100</v>
+      </c>
+      <c r="E250" s="3">
+        <v>100</v>
+      </c>
+      <c r="F250" s="3">
+        <v>999</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
+      <c r="A251" s="2">
+        <v>87900619</v>
+      </c>
+      <c r="B251" s="3">
+        <v>1</v>
+      </c>
+      <c r="C251" s="3">
+        <v>4</v>
+      </c>
+      <c r="D251" s="3">
+        <v>100</v>
+      </c>
+      <c r="E251" s="3">
+        <v>100</v>
+      </c>
+      <c r="F251" s="3">
+        <v>999</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
+      <c r="A252" s="2">
+        <v>87900620</v>
+      </c>
+      <c r="B252" s="3">
+        <v>1</v>
+      </c>
+      <c r="C252" s="3">
+        <v>4</v>
+      </c>
+      <c r="D252" s="3">
+        <v>100</v>
+      </c>
+      <c r="E252" s="3">
+        <v>100</v>
+      </c>
+      <c r="F252" s="3">
+        <v>999</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
+      <c r="A253" s="2">
+        <v>87900621</v>
+      </c>
+      <c r="B253" s="3">
+        <v>1</v>
+      </c>
+      <c r="C253" s="3">
+        <v>5</v>
+      </c>
+      <c r="D253" s="3">
+        <v>100</v>
+      </c>
+      <c r="E253" s="3">
+        <v>100</v>
+      </c>
+      <c r="F253" s="3">
+        <v>999</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
+      <c r="A254" s="2">
+        <v>87900622</v>
+      </c>
+      <c r="B254" s="3">
+        <v>1</v>
+      </c>
+      <c r="C254" s="3">
+        <v>5</v>
+      </c>
+      <c r="D254" s="3">
+        <v>100</v>
+      </c>
+      <c r="E254" s="3">
+        <v>100</v>
+      </c>
+      <c r="F254" s="3">
+        <v>999</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="2">
+        <v>87900623</v>
+      </c>
+      <c r="B255" s="3">
+        <v>1</v>
+      </c>
+      <c r="C255" s="3">
+        <v>6</v>
+      </c>
+      <c r="D255" s="3">
+        <v>100</v>
+      </c>
+      <c r="E255" s="3">
+        <v>100</v>
+      </c>
+      <c r="F255" s="3">
+        <v>999</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="2">
+        <v>87900624</v>
+      </c>
+      <c r="B256" s="3">
+        <v>1</v>
+      </c>
+      <c r="C256" s="3">
+        <v>6</v>
+      </c>
+      <c r="D256" s="3">
+        <v>100</v>
+      </c>
+      <c r="E256" s="3">
+        <v>100</v>
+      </c>
+      <c r="F256" s="3">
+        <v>999</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="2">
+        <v>87900625</v>
+      </c>
+      <c r="B257" s="3">
+        <v>1</v>
+      </c>
+      <c r="C257" s="3">
+        <v>7</v>
+      </c>
+      <c r="D257" s="3">
+        <v>100</v>
+      </c>
+      <c r="E257" s="3">
+        <v>100</v>
+      </c>
+      <c r="F257" s="3">
+        <v>999</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" s="2">
+        <v>87900633</v>
+      </c>
+      <c r="B258" s="3">
+        <v>1</v>
+      </c>
+      <c r="C258" s="3">
+        <v>7</v>
+      </c>
+      <c r="D258" s="3">
+        <v>100</v>
+      </c>
+      <c r="E258" s="3">
+        <v>100</v>
+      </c>
+      <c r="F258" s="3">
+        <v>999</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="A259" s="2">
+        <v>87900634</v>
+      </c>
+      <c r="B259" s="3">
+        <v>1</v>
+      </c>
+      <c r="C259" s="3">
+        <v>8</v>
+      </c>
+      <c r="D259" s="3">
+        <v>100</v>
+      </c>
+      <c r="E259" s="3">
+        <v>100</v>
+      </c>
+      <c r="F259" s="3">
+        <v>999</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" s="2">
+        <v>87900635</v>
+      </c>
+      <c r="B260" s="3">
+        <v>1</v>
+      </c>
+      <c r="C260" s="3">
+        <v>8</v>
+      </c>
+      <c r="D260" s="3">
+        <v>100</v>
+      </c>
+      <c r="E260" s="3">
+        <v>100</v>
+      </c>
+      <c r="F260" s="3">
+        <v>999</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" s="2">
+        <v>87900636</v>
+      </c>
+      <c r="B261" s="3">
+        <v>1</v>
+      </c>
+      <c r="C261" s="3">
+        <v>9</v>
+      </c>
+      <c r="D261" s="3">
+        <v>100</v>
+      </c>
+      <c r="E261" s="3">
+        <v>100</v>
+      </c>
+      <c r="F261" s="3">
+        <v>999</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="2">
+        <v>87900637</v>
+      </c>
+      <c r="B262" s="3">
+        <v>1</v>
+      </c>
+      <c r="C262" s="3">
+        <v>9</v>
+      </c>
+      <c r="D262" s="3">
+        <v>100</v>
+      </c>
+      <c r="E262" s="3">
+        <v>100</v>
+      </c>
+      <c r="F262" s="3">
+        <v>999</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" s="2">
+        <v>87900651</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263" s="3">
+        <v>100</v>
+      </c>
+      <c r="E263" s="3">
+        <v>100</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" s="2">
+        <v>87900652</v>
+      </c>
+      <c r="B264" s="3">
+        <v>2</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264" s="3">
+        <v>100</v>
+      </c>
+      <c r="E264" s="3">
+        <v>100</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" s="2">
+        <v>87900653</v>
+      </c>
+      <c r="B265" s="3">
+        <v>2</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265" s="3">
+        <v>100</v>
+      </c>
+      <c r="E265" s="3">
+        <v>100</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" s="2">
+        <v>87900654</v>
+      </c>
+      <c r="B266" s="3">
+        <v>2</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266" s="3">
+        <v>100</v>
+      </c>
+      <c r="E266" s="3">
+        <v>100</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" s="2">
+        <v>87900655</v>
+      </c>
+      <c r="B267" s="3">
+        <v>2</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267" s="3">
+        <v>100</v>
+      </c>
+      <c r="E267" s="3">
+        <v>100</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+      <c r="I267" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" s="2">
+        <v>87900656</v>
+      </c>
+      <c r="B268" s="3">
+        <v>2</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+      <c r="D268" s="3">
+        <v>100</v>
+      </c>
+      <c r="E268" s="3">
+        <v>100</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="I268" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" s="2">
+        <v>87900657</v>
+      </c>
+      <c r="B269" s="3">
+        <v>2</v>
+      </c>
+      <c r="C269" s="3">
+        <v>2</v>
+      </c>
+      <c r="D269" s="3">
+        <v>100</v>
+      </c>
+      <c r="E269" s="3">
+        <v>100</v>
+      </c>
+      <c r="F269">
+        <v>1</v>
+      </c>
+      <c r="I269" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" s="2">
+        <v>87900658</v>
+      </c>
+      <c r="B270" s="3">
+        <v>2</v>
+      </c>
+      <c r="C270" s="3">
+        <v>2</v>
+      </c>
+      <c r="D270" s="3">
+        <v>100</v>
+      </c>
+      <c r="E270" s="3">
+        <v>100</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="I270" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" s="2">
+        <v>87900659</v>
+      </c>
+      <c r="B271" s="3">
+        <v>2</v>
+      </c>
+      <c r="C271" s="3">
+        <v>2</v>
+      </c>
+      <c r="D271" s="3">
+        <v>100</v>
+      </c>
+      <c r="E271" s="3">
+        <v>100</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" s="2">
+        <v>87900660</v>
+      </c>
+      <c r="B272" s="3">
+        <v>2</v>
+      </c>
+      <c r="C272" s="3">
+        <v>2</v>
+      </c>
+      <c r="D272" s="3">
+        <v>100</v>
+      </c>
+      <c r="E272" s="3">
+        <v>100</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" s="2">
+        <v>87900661</v>
+      </c>
+      <c r="B273" s="3">
+        <v>2</v>
+      </c>
+      <c r="C273" s="3">
+        <v>3</v>
+      </c>
+      <c r="D273" s="3">
+        <v>100</v>
+      </c>
+      <c r="E273" s="3">
+        <v>100</v>
+      </c>
+      <c r="F273">
+        <v>2</v>
+      </c>
+      <c r="I273" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" s="2">
+        <v>87900662</v>
+      </c>
+      <c r="B274" s="3">
+        <v>2</v>
+      </c>
+      <c r="C274" s="3">
+        <v>3</v>
+      </c>
+      <c r="D274" s="3">
+        <v>100</v>
+      </c>
+      <c r="E274" s="3">
+        <v>100</v>
+      </c>
+      <c r="F274" s="3">
+        <v>2</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" s="2">
+        <v>87900663</v>
+      </c>
+      <c r="B275" s="3">
+        <v>2</v>
+      </c>
+      <c r="C275" s="3">
+        <v>3</v>
+      </c>
+      <c r="D275" s="3">
+        <v>100</v>
+      </c>
+      <c r="E275" s="3">
+        <v>100</v>
+      </c>
+      <c r="F275" s="3">
+        <v>2</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" s="2">
+        <v>87900664</v>
+      </c>
+      <c r="B276" s="3">
+        <v>2</v>
+      </c>
+      <c r="C276" s="3">
+        <v>3</v>
+      </c>
+      <c r="D276" s="3">
+        <v>100</v>
+      </c>
+      <c r="E276" s="3">
+        <v>100</v>
+      </c>
+      <c r="F276" s="3">
+        <v>2</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" s="2">
+        <v>87900665</v>
+      </c>
+      <c r="B277" s="3">
+        <v>2</v>
+      </c>
+      <c r="C277" s="3">
+        <v>3</v>
+      </c>
+      <c r="D277" s="3">
+        <v>100</v>
+      </c>
+      <c r="E277" s="3">
+        <v>100</v>
+      </c>
+      <c r="F277" s="3">
+        <v>2</v>
+      </c>
+      <c r="I277" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278" s="2">
+        <v>87900666</v>
+      </c>
+      <c r="B278" s="3">
+        <v>2</v>
+      </c>
+      <c r="C278" s="3">
+        <v>4</v>
+      </c>
+      <c r="D278" s="3">
+        <v>100</v>
+      </c>
+      <c r="E278" s="3">
+        <v>100</v>
+      </c>
+      <c r="F278" s="3">
+        <v>2</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" s="2">
+        <v>87900667</v>
+      </c>
+      <c r="B279" s="3">
+        <v>2</v>
+      </c>
+      <c r="C279" s="3">
+        <v>4</v>
+      </c>
+      <c r="D279" s="3">
+        <v>100</v>
+      </c>
+      <c r="E279" s="3">
+        <v>100</v>
+      </c>
+      <c r="F279" s="3">
+        <v>2</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" s="2">
+        <v>87900668</v>
+      </c>
+      <c r="B280" s="3">
+        <v>2</v>
+      </c>
+      <c r="C280" s="3">
+        <v>4</v>
+      </c>
+      <c r="D280" s="3">
+        <v>100</v>
+      </c>
+      <c r="E280" s="3">
+        <v>100</v>
+      </c>
+      <c r="F280" s="3">
+        <v>2</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" s="2">
+        <v>87900669</v>
+      </c>
+      <c r="B281" s="3">
+        <v>2</v>
+      </c>
+      <c r="C281" s="3">
+        <v>4</v>
+      </c>
+      <c r="D281" s="3">
+        <v>100</v>
+      </c>
+      <c r="E281" s="3">
+        <v>100</v>
+      </c>
+      <c r="F281" s="3">
+        <v>2</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" s="2">
+        <v>87900670</v>
+      </c>
+      <c r="B282" s="3">
+        <v>2</v>
+      </c>
+      <c r="C282" s="3">
+        <v>4</v>
+      </c>
+      <c r="D282" s="3">
+        <v>100</v>
+      </c>
+      <c r="E282" s="3">
+        <v>100</v>
+      </c>
+      <c r="F282" s="3">
+        <v>2</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -634,8 +634,8 @@
   <dimension ref="A1:I282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K272" sqref="K272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <v>100</v>
@@ -716,8 +716,8 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>100</v>
+      <c r="D4" s="3">
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>100</v>
@@ -739,8 +739,8 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>100</v>
+      <c r="D5" s="3">
+        <v>0</v>
       </c>
       <c r="E5" s="3">
         <v>100</v>
@@ -762,8 +762,8 @@
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>100</v>
+      <c r="D6" s="3">
+        <v>0</v>
       </c>
       <c r="E6" s="3">
         <v>100</v>
@@ -785,8 +785,8 @@
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>100</v>
+      <c r="D7" s="3">
+        <v>0</v>
       </c>
       <c r="E7" s="3">
         <v>100</v>
@@ -808,8 +808,8 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>100</v>
+      <c r="D8" s="3">
+        <v>0</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -855,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
@@ -877,8 +877,8 @@
       <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>100</v>
+      <c r="D11" s="3">
+        <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -900,8 +900,8 @@
       <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="D12">
-        <v>100</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -923,8 +923,8 @@
       <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>100</v>
+      <c r="D13" s="3">
+        <v>0</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -946,8 +946,8 @@
       <c r="C14" s="3">
         <v>2</v>
       </c>
-      <c r="D14">
-        <v>100</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -969,8 +969,8 @@
       <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="D15">
-        <v>100</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1016,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1038,8 +1038,8 @@
       <c r="C18" s="3">
         <v>3</v>
       </c>
-      <c r="D18">
-        <v>100</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
@@ -1061,8 +1061,8 @@
       <c r="C19" s="3">
         <v>3</v>
       </c>
-      <c r="D19">
-        <v>100</v>
+      <c r="D19" s="3">
+        <v>0</v>
       </c>
       <c r="E19" s="3">
         <v>100</v>
@@ -1084,8 +1084,8 @@
       <c r="C20" s="3">
         <v>3</v>
       </c>
-      <c r="D20">
-        <v>100</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1107,8 +1107,8 @@
       <c r="C21" s="3">
         <v>3</v>
       </c>
-      <c r="D21">
-        <v>100</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
@@ -1131,7 +1131,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1200,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3">
         <v>100</v>
@@ -1223,7 +1223,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
@@ -1246,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
@@ -1269,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E28" s="3">
         <v>100</v>
@@ -1292,7 +1292,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>100</v>
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E31" s="3">
         <v>100</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E34" s="3">
         <v>100</v>
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
@@ -1453,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E36" s="3">
         <v>100</v>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E37" s="3">
         <v>100</v>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E38" s="3">
         <v>100</v>
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E39" s="3">
         <v>100</v>
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E40" s="3">
         <v>100</v>
@@ -1591,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
         <v>100</v>
@@ -1614,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -1637,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -1660,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -1683,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -1706,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>100</v>
@@ -1729,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -1752,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -1775,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E50" s="3">
         <v>100</v>
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E51" s="3">
         <v>100</v>
@@ -1844,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E53" s="3">
         <v>100</v>
@@ -1867,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -1890,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E55" s="3">
         <v>100</v>
@@ -1913,7 +1913,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E56" s="3">
         <v>100</v>
@@ -1936,7 +1936,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -1959,7 +1959,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -1982,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -2005,7 +2005,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -2028,7 +2028,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -2051,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -2097,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E64" s="3">
         <v>100</v>
@@ -2120,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="D65" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E65" s="3">
         <v>100</v>
@@ -2143,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -2166,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="D67" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E67" s="3">
         <v>100</v>
@@ -2189,7 +2189,7 @@
         <v>4</v>
       </c>
       <c r="D68" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E68" s="3">
         <v>100</v>
@@ -2212,7 +2212,7 @@
         <v>4</v>
       </c>
       <c r="D69" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E69" s="3">
         <v>100</v>
@@ -2235,7 +2235,7 @@
         <v>4</v>
       </c>
       <c r="D70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>100</v>
@@ -2258,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="D71" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E71" s="3">
         <v>100</v>
@@ -2281,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="D72" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E72" s="3">
         <v>100</v>
@@ -2304,7 +2304,7 @@
         <v>4</v>
       </c>
       <c r="D73" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E73" s="3">
         <v>100</v>
@@ -2350,7 +2350,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E75" s="3">
         <v>100</v>
@@ -2373,7 +2373,7 @@
         <v>5</v>
       </c>
       <c r="D76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E76" s="3">
         <v>100</v>
@@ -2396,7 +2396,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E77" s="3">
         <v>100</v>
@@ -2419,7 +2419,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E78" s="3">
         <v>100</v>
@@ -2442,7 +2442,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E79" s="3">
         <v>100</v>
@@ -2465,7 +2465,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E80" s="3">
         <v>100</v>
@@ -2488,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
@@ -2511,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E82" s="3">
         <v>100</v>
@@ -2534,7 +2534,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -2557,7 +2557,7 @@
         <v>5</v>
       </c>
       <c r="D84" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E84" s="3">
         <v>100</v>
@@ -2603,7 +2603,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E86" s="3">
         <v>100</v>
@@ -2626,7 +2626,7 @@
         <v>6</v>
       </c>
       <c r="D87" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E87" s="3">
         <v>100</v>
@@ -2649,7 +2649,7 @@
         <v>6</v>
       </c>
       <c r="D88" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E88" s="3">
         <v>100</v>
@@ -2672,7 +2672,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>100</v>
@@ -2695,7 +2695,7 @@
         <v>6</v>
       </c>
       <c r="D90" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E90" s="3">
         <v>100</v>
@@ -2718,7 +2718,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>100</v>
@@ -2741,7 +2741,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E92" s="3">
         <v>100</v>
@@ -2764,7 +2764,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E93" s="3">
         <v>100</v>
@@ -2787,7 +2787,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>100</v>
@@ -2810,7 +2810,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E95" s="3">
         <v>100</v>
@@ -2856,7 +2856,7 @@
         <v>7</v>
       </c>
       <c r="D97" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E97" s="3">
         <v>100</v>
@@ -2879,7 +2879,7 @@
         <v>7</v>
       </c>
       <c r="D98" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E98" s="3">
         <v>100</v>
@@ -2902,7 +2902,7 @@
         <v>7</v>
       </c>
       <c r="D99" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E99" s="3">
         <v>100</v>
@@ -2925,7 +2925,7 @@
         <v>7</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -2948,7 +2948,7 @@
         <v>7</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
@@ -2971,7 +2971,7 @@
         <v>7</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
@@ -2994,7 +2994,7 @@
         <v>7</v>
       </c>
       <c r="D103" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E103" s="3">
         <v>100</v>
@@ -3017,7 +3017,7 @@
         <v>7</v>
       </c>
       <c r="D104" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E104" s="3">
         <v>100</v>
@@ -3040,7 +3040,7 @@
         <v>7</v>
       </c>
       <c r="D105" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E105" s="3">
         <v>100</v>
@@ -3063,7 +3063,7 @@
         <v>7</v>
       </c>
       <c r="D106" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E106" s="3">
         <v>100</v>
@@ -3109,7 +3109,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E108" s="3">
         <v>100</v>
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E109" s="3">
         <v>100</v>
@@ -3155,7 +3155,7 @@
         <v>8</v>
       </c>
       <c r="D110" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E110" s="3">
         <v>100</v>
@@ -3178,7 +3178,7 @@
         <v>8</v>
       </c>
       <c r="D111" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E111" s="3">
         <v>100</v>
@@ -3201,7 +3201,7 @@
         <v>8</v>
       </c>
       <c r="D112" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E112" s="3">
         <v>100</v>
@@ -3224,7 +3224,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E113" s="3">
         <v>100</v>
@@ -3247,7 +3247,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E114" s="3">
         <v>100</v>
@@ -3270,7 +3270,7 @@
         <v>8</v>
       </c>
       <c r="D115" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E115" s="3">
         <v>100</v>
@@ -3293,7 +3293,7 @@
         <v>8</v>
       </c>
       <c r="D116" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E116" s="3">
         <v>100</v>
@@ -3316,7 +3316,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E117" s="3">
         <v>100</v>
@@ -3362,7 +3362,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E119" s="3">
         <v>100</v>
@@ -3385,7 +3385,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E120" s="3">
         <v>100</v>
@@ -3408,7 +3408,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E121" s="3">
         <v>100</v>
@@ -3431,7 +3431,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E122" s="3">
         <v>100</v>
@@ -3454,7 +3454,7 @@
         <v>9</v>
       </c>
       <c r="D123" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E123" s="3">
         <v>100</v>
@@ -3477,7 +3477,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E124" s="3">
         <v>100</v>
@@ -3500,7 +3500,7 @@
         <v>9</v>
       </c>
       <c r="D125" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E125" s="3">
         <v>100</v>
@@ -3523,7 +3523,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E126" s="3">
         <v>100</v>
@@ -3546,7 +3546,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E127" s="3">
         <v>100</v>
@@ -3569,7 +3569,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E128" s="3">
         <v>100</v>
@@ -3615,7 +3615,7 @@
         <v>10</v>
       </c>
       <c r="D130" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E130" s="3">
         <v>100</v>
@@ -3638,7 +3638,7 @@
         <v>10</v>
       </c>
       <c r="D131" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E131" s="3">
         <v>100</v>
@@ -3661,7 +3661,7 @@
         <v>10</v>
       </c>
       <c r="D132" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E132" s="3">
         <v>100</v>
@@ -3684,7 +3684,7 @@
         <v>10</v>
       </c>
       <c r="D133" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E133" s="3">
         <v>100</v>
@@ -3707,7 +3707,7 @@
         <v>10</v>
       </c>
       <c r="D134" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E134" s="3">
         <v>100</v>
@@ -3730,7 +3730,7 @@
         <v>10</v>
       </c>
       <c r="D135" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E135" s="3">
         <v>100</v>
@@ -3753,7 +3753,7 @@
         <v>10</v>
       </c>
       <c r="D136" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E136" s="3">
         <v>100</v>
@@ -3776,7 +3776,7 @@
         <v>10</v>
       </c>
       <c r="D137" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E137" s="3">
         <v>100</v>
@@ -3799,7 +3799,7 @@
         <v>10</v>
       </c>
       <c r="D138" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E138" s="3">
         <v>100</v>
@@ -3822,7 +3822,7 @@
         <v>10</v>
       </c>
       <c r="D139" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E139" s="3">
         <v>100</v>
@@ -3868,7 +3868,7 @@
         <v>11</v>
       </c>
       <c r="D141" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E141" s="3">
         <v>100</v>
@@ -3891,7 +3891,7 @@
         <v>11</v>
       </c>
       <c r="D142" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E142" s="3">
         <v>100</v>
@@ -3914,7 +3914,7 @@
         <v>11</v>
       </c>
       <c r="D143" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E143" s="3">
         <v>100</v>
@@ -3937,7 +3937,7 @@
         <v>11</v>
       </c>
       <c r="D144" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E144" s="3">
         <v>100</v>
@@ -3960,7 +3960,7 @@
         <v>11</v>
       </c>
       <c r="D145" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E145" s="3">
         <v>100</v>
@@ -3983,7 +3983,7 @@
         <v>11</v>
       </c>
       <c r="D146" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E146" s="3">
         <v>100</v>
@@ -4006,7 +4006,7 @@
         <v>11</v>
       </c>
       <c r="D147" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E147" s="3">
         <v>100</v>
@@ -4029,7 +4029,7 @@
         <v>11</v>
       </c>
       <c r="D148" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E148" s="3">
         <v>100</v>
@@ -4052,7 +4052,7 @@
         <v>11</v>
       </c>
       <c r="D149" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E149" s="3">
         <v>100</v>
@@ -4075,7 +4075,7 @@
         <v>11</v>
       </c>
       <c r="D150" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E150" s="3">
         <v>100</v>
@@ -4121,7 +4121,7 @@
         <v>12</v>
       </c>
       <c r="D152" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E152" s="3">
         <v>100</v>
@@ -4144,7 +4144,7 @@
         <v>12</v>
       </c>
       <c r="D153" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E153" s="3">
         <v>100</v>
@@ -4167,7 +4167,7 @@
         <v>12</v>
       </c>
       <c r="D154" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E154" s="3">
         <v>100</v>
@@ -4190,7 +4190,7 @@
         <v>12</v>
       </c>
       <c r="D155" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E155" s="3">
         <v>100</v>
@@ -4213,7 +4213,7 @@
         <v>12</v>
       </c>
       <c r="D156" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E156" s="3">
         <v>100</v>
@@ -4236,7 +4236,7 @@
         <v>12</v>
       </c>
       <c r="D157" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E157" s="3">
         <v>100</v>
@@ -4259,7 +4259,7 @@
         <v>12</v>
       </c>
       <c r="D158" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E158" s="3">
         <v>100</v>
@@ -4282,7 +4282,7 @@
         <v>12</v>
       </c>
       <c r="D159" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E159" s="3">
         <v>100</v>
@@ -4305,7 +4305,7 @@
         <v>12</v>
       </c>
       <c r="D160" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E160" s="3">
         <v>100</v>
@@ -4328,7 +4328,7 @@
         <v>12</v>
       </c>
       <c r="D161" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E161" s="3">
         <v>100</v>
@@ -4374,7 +4374,7 @@
         <v>13</v>
       </c>
       <c r="D163" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E163" s="3">
         <v>100</v>
@@ -4397,7 +4397,7 @@
         <v>13</v>
       </c>
       <c r="D164" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E164" s="3">
         <v>100</v>
@@ -4420,7 +4420,7 @@
         <v>13</v>
       </c>
       <c r="D165" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E165" s="3">
         <v>100</v>
@@ -4443,7 +4443,7 @@
         <v>13</v>
       </c>
       <c r="D166" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E166" s="3">
         <v>100</v>
@@ -4466,7 +4466,7 @@
         <v>13</v>
       </c>
       <c r="D167" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E167" s="3">
         <v>100</v>
@@ -4489,7 +4489,7 @@
         <v>13</v>
       </c>
       <c r="D168" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E168" s="3">
         <v>100</v>
@@ -4512,7 +4512,7 @@
         <v>13</v>
       </c>
       <c r="D169" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E169" s="3">
         <v>100</v>
@@ -4535,7 +4535,7 @@
         <v>13</v>
       </c>
       <c r="D170" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E170" s="3">
         <v>100</v>
@@ -4558,7 +4558,7 @@
         <v>13</v>
       </c>
       <c r="D171" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E171" s="3">
         <v>100</v>
@@ -4581,7 +4581,7 @@
         <v>13</v>
       </c>
       <c r="D172" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E172" s="3">
         <v>100</v>
@@ -4627,7 +4627,7 @@
         <v>14</v>
       </c>
       <c r="D174" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E174" s="3">
         <v>100</v>
@@ -4650,7 +4650,7 @@
         <v>14</v>
       </c>
       <c r="D175" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E175" s="3">
         <v>100</v>
@@ -4673,7 +4673,7 @@
         <v>14</v>
       </c>
       <c r="D176" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E176" s="3">
         <v>100</v>
@@ -4696,7 +4696,7 @@
         <v>14</v>
       </c>
       <c r="D177" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E177" s="3">
         <v>100</v>
@@ -4719,7 +4719,7 @@
         <v>14</v>
       </c>
       <c r="D178" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E178" s="3">
         <v>100</v>
@@ -4742,7 +4742,7 @@
         <v>14</v>
       </c>
       <c r="D179" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E179" s="3">
         <v>100</v>
@@ -4765,7 +4765,7 @@
         <v>14</v>
       </c>
       <c r="D180" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E180" s="3">
         <v>100</v>
@@ -4788,7 +4788,7 @@
         <v>14</v>
       </c>
       <c r="D181" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E181" s="3">
         <v>100</v>
@@ -4811,7 +4811,7 @@
         <v>14</v>
       </c>
       <c r="D182" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E182" s="3">
         <v>100</v>
@@ -4834,7 +4834,7 @@
         <v>14</v>
       </c>
       <c r="D183" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E183" s="3">
         <v>100</v>
@@ -4880,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="D185" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E185" s="3">
         <v>100</v>
@@ -4903,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="D186" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E186" s="3">
         <v>100</v>
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="D187" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E187" s="3">
         <v>100</v>
@@ -4949,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="D188" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E188" s="3">
         <v>100</v>
@@ -4972,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="D189" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E189" s="3">
         <v>100</v>
@@ -4995,7 +4995,7 @@
         <v>1</v>
       </c>
       <c r="D190" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E190" s="3">
         <v>100</v>
@@ -5018,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="D191" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E191" s="3">
         <v>100</v>
@@ -5041,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E192" s="3">
         <v>100</v>
@@ -5064,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="D193" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E193" s="3">
         <v>100</v>
@@ -5110,7 +5110,7 @@
         <v>2</v>
       </c>
       <c r="D195" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E195" s="3">
         <v>100</v>
@@ -5133,7 +5133,7 @@
         <v>2</v>
       </c>
       <c r="D196" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E196" s="3">
         <v>100</v>
@@ -5156,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="D197" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E197" s="3">
         <v>100</v>
@@ -5179,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="D198" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E198" s="3">
         <v>100</v>
@@ -5202,7 +5202,7 @@
         <v>2</v>
       </c>
       <c r="D199" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E199" s="3">
         <v>100</v>
@@ -5225,7 +5225,7 @@
         <v>2</v>
       </c>
       <c r="D200" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E200" s="3">
         <v>100</v>
@@ -5248,7 +5248,7 @@
         <v>2</v>
       </c>
       <c r="D201" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E201" s="3">
         <v>100</v>
@@ -5271,7 +5271,7 @@
         <v>2</v>
       </c>
       <c r="D202" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E202" s="3">
         <v>100</v>
@@ -5294,7 +5294,7 @@
         <v>2</v>
       </c>
       <c r="D203" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E203" s="3">
         <v>100</v>
@@ -5340,7 +5340,7 @@
         <v>3</v>
       </c>
       <c r="D205" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E205" s="3">
         <v>100</v>
@@ -5363,7 +5363,7 @@
         <v>3</v>
       </c>
       <c r="D206" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E206" s="3">
         <v>100</v>
@@ -5386,7 +5386,7 @@
         <v>3</v>
       </c>
       <c r="D207" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E207" s="3">
         <v>100</v>
@@ -5409,7 +5409,7 @@
         <v>3</v>
       </c>
       <c r="D208" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E208" s="3">
         <v>100</v>
@@ -5432,7 +5432,7 @@
         <v>3</v>
       </c>
       <c r="D209" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E209" s="3">
         <v>100</v>
@@ -5455,7 +5455,7 @@
         <v>3</v>
       </c>
       <c r="D210" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E210" s="3">
         <v>100</v>
@@ -5478,7 +5478,7 @@
         <v>3</v>
       </c>
       <c r="D211" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E211" s="3">
         <v>100</v>
@@ -5501,7 +5501,7 @@
         <v>3</v>
       </c>
       <c r="D212" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E212" s="3">
         <v>100</v>
@@ -5524,7 +5524,7 @@
         <v>3</v>
       </c>
       <c r="D213" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E213" s="3">
         <v>100</v>
@@ -5570,7 +5570,7 @@
         <v>4</v>
       </c>
       <c r="D215" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E215" s="3">
         <v>100</v>
@@ -5593,7 +5593,7 @@
         <v>4</v>
       </c>
       <c r="D216" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E216" s="3">
         <v>100</v>
@@ -5616,7 +5616,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E217" s="3">
         <v>100</v>
@@ -5639,7 +5639,7 @@
         <v>4</v>
       </c>
       <c r="D218" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E218" s="3">
         <v>100</v>
@@ -5662,7 +5662,7 @@
         <v>4</v>
       </c>
       <c r="D219" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E219" s="3">
         <v>100</v>
@@ -5685,7 +5685,7 @@
         <v>4</v>
       </c>
       <c r="D220" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E220" s="3">
         <v>100</v>
@@ -5708,7 +5708,7 @@
         <v>4</v>
       </c>
       <c r="D221" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E221" s="3">
         <v>100</v>
@@ -5731,7 +5731,7 @@
         <v>4</v>
       </c>
       <c r="D222" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E222" s="3">
         <v>100</v>
@@ -5754,7 +5754,7 @@
         <v>4</v>
       </c>
       <c r="D223" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E223" s="3">
         <v>100</v>
@@ -5800,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="D225" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E225" s="3">
         <v>100</v>
@@ -5823,7 +5823,7 @@
         <v>5</v>
       </c>
       <c r="D226" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E226" s="3">
         <v>100</v>
@@ -5846,7 +5846,7 @@
         <v>5</v>
       </c>
       <c r="D227" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E227" s="3">
         <v>100</v>
@@ -5869,7 +5869,7 @@
         <v>5</v>
       </c>
       <c r="D228" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E228" s="3">
         <v>100</v>
@@ -5892,7 +5892,7 @@
         <v>5</v>
       </c>
       <c r="D229" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E229" s="3">
         <v>100</v>
@@ -5915,7 +5915,7 @@
         <v>5</v>
       </c>
       <c r="D230" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E230" s="3">
         <v>100</v>
@@ -5938,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="D231" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E231" s="3">
         <v>100</v>
@@ -5961,7 +5961,7 @@
         <v>5</v>
       </c>
       <c r="D232" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E232" s="3">
         <v>100</v>
@@ -5984,7 +5984,7 @@
         <v>5</v>
       </c>
       <c r="D233" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E233" s="3">
         <v>100</v>
@@ -6030,7 +6030,7 @@
         <v>6</v>
       </c>
       <c r="D235" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E235" s="3">
         <v>100</v>
@@ -6053,7 +6053,7 @@
         <v>6</v>
       </c>
       <c r="D236" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E236" s="3">
         <v>100</v>
@@ -6076,7 +6076,7 @@
         <v>6</v>
       </c>
       <c r="D237" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E237" s="3">
         <v>100</v>
@@ -6099,7 +6099,7 @@
         <v>6</v>
       </c>
       <c r="D238" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E238" s="3">
         <v>100</v>
@@ -6122,7 +6122,7 @@
         <v>6</v>
       </c>
       <c r="D239" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E239" s="3">
         <v>100</v>
@@ -6145,7 +6145,7 @@
         <v>6</v>
       </c>
       <c r="D240" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E240" s="3">
         <v>100</v>
@@ -6168,7 +6168,7 @@
         <v>6</v>
       </c>
       <c r="D241" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E241" s="3">
         <v>100</v>
@@ -6191,7 +6191,7 @@
         <v>6</v>
       </c>
       <c r="D242" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E242" s="3">
         <v>100</v>
@@ -6214,7 +6214,7 @@
         <v>6</v>
       </c>
       <c r="D243" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E243" s="3">
         <v>100</v>
@@ -6237,7 +6237,7 @@
         <v>6</v>
       </c>
       <c r="D244" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E244" s="3">
         <v>100</v>
@@ -6697,7 +6697,7 @@
         <v>1</v>
       </c>
       <c r="D264" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E264" s="3">
         <v>100</v>
@@ -6720,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="D265" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E265" s="3">
         <v>100</v>
@@ -6743,7 +6743,7 @@
         <v>1</v>
       </c>
       <c r="D266" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E266" s="3">
         <v>100</v>
@@ -6766,7 +6766,7 @@
         <v>1</v>
       </c>
       <c r="D267" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E267" s="3">
         <v>100</v>
@@ -6812,7 +6812,7 @@
         <v>2</v>
       </c>
       <c r="D269" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E269" s="3">
         <v>100</v>
@@ -6835,7 +6835,7 @@
         <v>2</v>
       </c>
       <c r="D270" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E270" s="3">
         <v>100</v>
@@ -6858,7 +6858,7 @@
         <v>2</v>
       </c>
       <c r="D271" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E271" s="3">
         <v>100</v>
@@ -6881,7 +6881,7 @@
         <v>2</v>
       </c>
       <c r="D272" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E272" s="3">
         <v>100</v>
@@ -6927,7 +6927,7 @@
         <v>3</v>
       </c>
       <c r="D274" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E274" s="3">
         <v>100</v>
@@ -6950,7 +6950,7 @@
         <v>3</v>
       </c>
       <c r="D275" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E275" s="3">
         <v>100</v>
@@ -6973,7 +6973,7 @@
         <v>3</v>
       </c>
       <c r="D276" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E276" s="3">
         <v>100</v>
@@ -6996,7 +6996,7 @@
         <v>3</v>
       </c>
       <c r="D277" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E277" s="3">
         <v>100</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="D279" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E279" s="3">
         <v>100</v>
@@ -7065,7 +7065,7 @@
         <v>4</v>
       </c>
       <c r="D280" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E280" s="3">
         <v>100</v>
@@ -7088,7 +7088,7 @@
         <v>4</v>
       </c>
       <c r="D281" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E281" s="3">
         <v>100</v>
@@ -7111,7 +7111,7 @@
         <v>4</v>
       </c>
       <c r="D282" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E282" s="3">
         <v>100</v>

--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29009"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E4EF04-B34C-4E67-A38D-C5456F4DDAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AF9310-798D-488C-A646-DD5F734E5042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,11 +573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F778"/>
+  <dimension ref="A1:F779"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R159" sqref="R159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3844,27 +3844,27 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164">
-        <v>87200001</v>
+        <v>87100228</v>
       </c>
       <c r="B164">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C164">
+        <v>13</v>
+      </c>
+      <c r="D164">
+        <v>100</v>
+      </c>
+      <c r="E164">
+        <v>100</v>
+      </c>
+      <c r="F164">
         <v>1</v>
-      </c>
-      <c r="D164">
-        <v>100</v>
-      </c>
-      <c r="E164">
-        <v>100</v>
-      </c>
-      <c r="F164">
-        <v>999</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165">
-        <v>87200002</v>
+        <v>87200001</v>
       </c>
       <c r="B165">
         <v>5</v>
@@ -3873,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E165">
         <v>100</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166">
-        <v>87200003</v>
+        <v>87200002</v>
       </c>
       <c r="B166">
         <v>5</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167">
-        <v>87200004</v>
+        <v>87200003</v>
       </c>
       <c r="B167">
         <v>5</v>
@@ -3924,16 +3924,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168">
-        <v>87200005</v>
+        <v>87200004</v>
       </c>
       <c r="B168">
         <v>5</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E168">
         <v>100</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169">
-        <v>87200006</v>
+        <v>87200005</v>
       </c>
       <c r="B169">
         <v>5</v>
@@ -3953,7 +3953,7 @@
         <v>2</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E169">
         <v>100</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170">
-        <v>87200007</v>
+        <v>87200006</v>
       </c>
       <c r="B170">
         <v>5</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171">
-        <v>87200008</v>
+        <v>87200007</v>
       </c>
       <c r="B171">
         <v>5</v>
@@ -4004,16 +4004,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172">
-        <v>87200009</v>
+        <v>87200008</v>
       </c>
       <c r="B172">
         <v>5</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E172">
         <v>100</v>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173">
-        <v>87200010</v>
+        <v>87200009</v>
       </c>
       <c r="B173">
         <v>5</v>
@@ -4033,7 +4033,7 @@
         <v>3</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E173">
         <v>100</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174">
-        <v>87200011</v>
+        <v>87200010</v>
       </c>
       <c r="B174">
         <v>5</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175">
-        <v>87200012</v>
+        <v>87200011</v>
       </c>
       <c r="B175">
         <v>5</v>
@@ -4084,16 +4084,16 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176">
-        <v>87200013</v>
+        <v>87200012</v>
       </c>
       <c r="B176">
         <v>5</v>
       </c>
       <c r="C176">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D176">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E176">
         <v>100</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177">
-        <v>87200014</v>
+        <v>87200013</v>
       </c>
       <c r="B177">
         <v>5</v>
@@ -4113,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E177">
         <v>100</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178">
-        <v>87200015</v>
+        <v>87200014</v>
       </c>
       <c r="B178">
         <v>5</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179">
-        <v>87200016</v>
+        <v>87200015</v>
       </c>
       <c r="B179">
         <v>5</v>
@@ -4164,16 +4164,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180">
-        <v>87200017</v>
+        <v>87200016</v>
       </c>
       <c r="B180">
         <v>5</v>
       </c>
       <c r="C180">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D180">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E180">
         <v>100</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181">
-        <v>87200018</v>
+        <v>87200017</v>
       </c>
       <c r="B181">
         <v>5</v>
@@ -4193,7 +4193,7 @@
         <v>5</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E181">
         <v>100</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182">
-        <v>87200019</v>
+        <v>87200018</v>
       </c>
       <c r="B182">
         <v>5</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183">
-        <v>87200020</v>
+        <v>87200019</v>
       </c>
       <c r="B183">
         <v>5</v>
@@ -4244,16 +4244,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184">
-        <v>87200021</v>
+        <v>87200020</v>
       </c>
       <c r="B184">
         <v>5</v>
       </c>
       <c r="C184">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D184">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E184">
         <v>100</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185">
-        <v>87200022</v>
+        <v>87200021</v>
       </c>
       <c r="B185">
         <v>5</v>
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E185">
         <v>100</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186">
-        <v>87200023</v>
+        <v>87200022</v>
       </c>
       <c r="B186">
         <v>5</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187">
-        <v>87200024</v>
+        <v>87200023</v>
       </c>
       <c r="B187">
         <v>5</v>
@@ -4324,16 +4324,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188">
-        <v>87200025</v>
+        <v>87200024</v>
       </c>
       <c r="B188">
         <v>5</v>
       </c>
       <c r="C188">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D188">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E188">
         <v>100</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189">
-        <v>87200026</v>
+        <v>87200025</v>
       </c>
       <c r="B189">
         <v>5</v>
@@ -4353,7 +4353,7 @@
         <v>7</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E189">
         <v>100</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190">
-        <v>87200027</v>
+        <v>87200026</v>
       </c>
       <c r="B190">
         <v>5</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191">
-        <v>87200028</v>
+        <v>87200027</v>
       </c>
       <c r="B191">
         <v>5</v>
@@ -4404,16 +4404,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192">
-        <v>87300001</v>
+        <v>87200028</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D192">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E192">
         <v>100</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193">
-        <v>87300002</v>
+        <v>87300001</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194">
-        <v>87300003</v>
+        <v>87300002</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195">
-        <v>87300004</v>
+        <v>87300003</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -4484,13 +4484,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196">
-        <v>87300005</v>
+        <v>87300004</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
         <v>100</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197">
-        <v>87300006</v>
+        <v>87300005</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198">
-        <v>87300007</v>
+        <v>87300006</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -4544,13 +4544,13 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199">
-        <v>87300008</v>
+        <v>87300007</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D199">
         <v>100</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200">
-        <v>87300009</v>
+        <v>87300008</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201">
-        <v>87300010</v>
+        <v>87300009</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -4604,13 +4604,13 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202">
-        <v>87300011</v>
+        <v>87300010</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
       <c r="C202">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D202">
         <v>100</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203">
-        <v>87300012</v>
+        <v>87300011</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204">
-        <v>87300013</v>
+        <v>87300012</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -4664,13 +4664,13 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205">
-        <v>87300014</v>
+        <v>87300013</v>
       </c>
       <c r="B205">
         <v>1</v>
       </c>
       <c r="C205">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D205">
         <v>100</v>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206">
-        <v>87300015</v>
+        <v>87300014</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -4704,13 +4704,13 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207">
-        <v>87300016</v>
+        <v>87300015</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
       <c r="C207">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D207">
         <v>100</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208">
-        <v>87300017</v>
+        <v>87300016</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A209">
-        <v>87300018</v>
+        <v>87300017</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -4764,13 +4764,13 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210">
-        <v>87400001</v>
+        <v>87300018</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D210">
         <v>100</v>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A211">
-        <v>87400002</v>
+        <v>87400001</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -4793,7 +4793,7 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E211">
         <v>100</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212">
-        <v>87400003</v>
+        <v>87400002</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A213">
-        <v>87400004</v>
+        <v>87400003</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A214">
-        <v>87400005</v>
+        <v>87400004</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -4864,16 +4864,16 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A215">
-        <v>87400006</v>
+        <v>87400005</v>
       </c>
       <c r="B215">
         <v>2</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E215">
         <v>100</v>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216">
-        <v>87400007</v>
+        <v>87400006</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -4893,7 +4893,7 @@
         <v>2</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E216">
         <v>100</v>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A217">
-        <v>87400008</v>
+        <v>87400007</v>
       </c>
       <c r="B217">
         <v>2</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218">
-        <v>87400009</v>
+        <v>87400008</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A219">
-        <v>87400010</v>
+        <v>87400009</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -4964,16 +4964,16 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A220">
-        <v>87400011</v>
+        <v>87400010</v>
       </c>
       <c r="B220">
         <v>2</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E220">
         <v>100</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A221">
-        <v>87400012</v>
+        <v>87400011</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -4993,7 +4993,7 @@
         <v>3</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E221">
         <v>100</v>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A222">
-        <v>87400013</v>
+        <v>87400012</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A223">
-        <v>87400014</v>
+        <v>87400013</v>
       </c>
       <c r="B223">
         <v>2</v>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A224">
-        <v>87400015</v>
+        <v>87400014</v>
       </c>
       <c r="B224">
         <v>2</v>
@@ -5064,16 +5064,16 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A225">
-        <v>87400016</v>
+        <v>87400015</v>
       </c>
       <c r="B225">
         <v>2</v>
       </c>
       <c r="C225">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D225">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E225">
         <v>100</v>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A226">
-        <v>87400017</v>
+        <v>87400016</v>
       </c>
       <c r="B226">
         <v>2</v>
@@ -5093,7 +5093,7 @@
         <v>4</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E226">
         <v>100</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A227">
-        <v>87400018</v>
+        <v>87400017</v>
       </c>
       <c r="B227">
         <v>2</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A228">
-        <v>87400019</v>
+        <v>87400018</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A229">
-        <v>87400020</v>
+        <v>87400019</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -5164,16 +5164,16 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A230">
-        <v>87400021</v>
+        <v>87400020</v>
       </c>
       <c r="B230">
         <v>2</v>
       </c>
       <c r="C230">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D230">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E230">
         <v>100</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A231">
-        <v>87400022</v>
+        <v>87400021</v>
       </c>
       <c r="B231">
         <v>2</v>
@@ -5193,7 +5193,7 @@
         <v>5</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E231">
         <v>100</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A232">
-        <v>87400023</v>
+        <v>87400022</v>
       </c>
       <c r="B232">
         <v>2</v>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A233">
-        <v>87400024</v>
+        <v>87400023</v>
       </c>
       <c r="B233">
         <v>2</v>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A234">
-        <v>87400025</v>
+        <v>87400024</v>
       </c>
       <c r="B234">
         <v>2</v>
@@ -5264,16 +5264,16 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A235">
-        <v>87400026</v>
+        <v>87400025</v>
       </c>
       <c r="B235">
         <v>2</v>
       </c>
       <c r="C235">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D235">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E235">
         <v>100</v>
@@ -5284,7 +5284,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A236">
-        <v>87400027</v>
+        <v>87400026</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -5293,7 +5293,7 @@
         <v>6</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E236">
         <v>100</v>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A237">
-        <v>87400028</v>
+        <v>87400027</v>
       </c>
       <c r="B237">
         <v>2</v>
@@ -5324,7 +5324,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A238">
-        <v>87400029</v>
+        <v>87400028</v>
       </c>
       <c r="B238">
         <v>2</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A239">
-        <v>87400030</v>
+        <v>87400029</v>
       </c>
       <c r="B239">
         <v>2</v>
@@ -5364,16 +5364,16 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A240">
-        <v>87400031</v>
+        <v>87400030</v>
       </c>
       <c r="B240">
         <v>2</v>
       </c>
       <c r="C240">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D240">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E240">
         <v>100</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A241">
-        <v>87400032</v>
+        <v>87400031</v>
       </c>
       <c r="B241">
         <v>2</v>
@@ -5393,7 +5393,7 @@
         <v>7</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E241">
         <v>100</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A242">
-        <v>87400033</v>
+        <v>87400032</v>
       </c>
       <c r="B242">
         <v>2</v>
@@ -5424,7 +5424,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A243">
-        <v>87400034</v>
+        <v>87400033</v>
       </c>
       <c r="B243">
         <v>2</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A244">
-        <v>87400035</v>
+        <v>87400034</v>
       </c>
       <c r="B244">
         <v>2</v>
@@ -5464,16 +5464,16 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A245">
-        <v>87400036</v>
+        <v>87400035</v>
       </c>
       <c r="B245">
         <v>2</v>
       </c>
       <c r="C245">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D245">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E245">
         <v>100</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A246">
-        <v>87400037</v>
+        <v>87400036</v>
       </c>
       <c r="B246">
         <v>2</v>
@@ -5493,7 +5493,7 @@
         <v>8</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E246">
         <v>100</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A247">
-        <v>87400038</v>
+        <v>87400037</v>
       </c>
       <c r="B247">
         <v>2</v>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A248">
-        <v>87400039</v>
+        <v>87400038</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A249">
-        <v>87400040</v>
+        <v>87400039</v>
       </c>
       <c r="B249">
         <v>2</v>
@@ -5564,16 +5564,16 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A250">
-        <v>87400041</v>
+        <v>87400040</v>
       </c>
       <c r="B250">
         <v>2</v>
       </c>
       <c r="C250">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D250">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E250">
         <v>100</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A251">
-        <v>87400042</v>
+        <v>87400041</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -5593,7 +5593,7 @@
         <v>9</v>
       </c>
       <c r="D251">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E251">
         <v>100</v>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A252">
-        <v>87400043</v>
+        <v>87400042</v>
       </c>
       <c r="B252">
         <v>2</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A253">
-        <v>87400044</v>
+        <v>87400043</v>
       </c>
       <c r="B253">
         <v>2</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A254">
-        <v>87400045</v>
+        <v>87400044</v>
       </c>
       <c r="B254">
         <v>2</v>
@@ -5664,16 +5664,16 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A255">
-        <v>87400046</v>
+        <v>87400045</v>
       </c>
       <c r="B255">
         <v>2</v>
       </c>
       <c r="C255">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D255">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E255">
         <v>100</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A256">
-        <v>87400047</v>
+        <v>87400046</v>
       </c>
       <c r="B256">
         <v>2</v>
@@ -5693,7 +5693,7 @@
         <v>10</v>
       </c>
       <c r="D256">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E256">
         <v>100</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A257">
-        <v>87400048</v>
+        <v>87400047</v>
       </c>
       <c r="B257">
         <v>2</v>
@@ -5724,7 +5724,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A258">
-        <v>87400049</v>
+        <v>87400048</v>
       </c>
       <c r="B258">
         <v>2</v>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A259">
-        <v>87400050</v>
+        <v>87400049</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -5764,16 +5764,16 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A260">
-        <v>87400051</v>
+        <v>87400050</v>
       </c>
       <c r="B260">
         <v>2</v>
       </c>
       <c r="C260">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D260">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E260">
         <v>100</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A261">
-        <v>87400052</v>
+        <v>87400051</v>
       </c>
       <c r="B261">
         <v>2</v>
@@ -5793,7 +5793,7 @@
         <v>11</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E261">
         <v>100</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A262">
-        <v>87400053</v>
+        <v>87400052</v>
       </c>
       <c r="B262">
         <v>2</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A263">
-        <v>87400054</v>
+        <v>87400053</v>
       </c>
       <c r="B263">
         <v>2</v>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A264">
-        <v>87400055</v>
+        <v>87400054</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -5864,16 +5864,16 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A265">
-        <v>87400056</v>
+        <v>87400055</v>
       </c>
       <c r="B265">
         <v>2</v>
       </c>
       <c r="C265">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D265">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E265">
         <v>100</v>
@@ -5884,7 +5884,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A266">
-        <v>87400057</v>
+        <v>87400056</v>
       </c>
       <c r="B266">
         <v>2</v>
@@ -5893,7 +5893,7 @@
         <v>12</v>
       </c>
       <c r="D266">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E266">
         <v>100</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A267">
-        <v>87400058</v>
+        <v>87400057</v>
       </c>
       <c r="B267">
         <v>2</v>
@@ -5924,7 +5924,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A268">
-        <v>87400059</v>
+        <v>87400058</v>
       </c>
       <c r="B268">
         <v>2</v>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A269">
-        <v>87400060</v>
+        <v>87400059</v>
       </c>
       <c r="B269">
         <v>2</v>
@@ -5964,16 +5964,16 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A270">
-        <v>87400061</v>
+        <v>87400060</v>
       </c>
       <c r="B270">
         <v>2</v>
       </c>
       <c r="C270">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D270">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E270">
         <v>100</v>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A271">
-        <v>87400062</v>
+        <v>87400061</v>
       </c>
       <c r="B271">
         <v>2</v>
@@ -5993,7 +5993,7 @@
         <v>13</v>
       </c>
       <c r="D271">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E271">
         <v>100</v>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A272">
-        <v>87400063</v>
+        <v>87400062</v>
       </c>
       <c r="B272">
         <v>2</v>
@@ -6024,7 +6024,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A273">
-        <v>87400064</v>
+        <v>87400063</v>
       </c>
       <c r="B273">
         <v>2</v>
@@ -6044,7 +6044,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A274">
-        <v>87400065</v>
+        <v>87400064</v>
       </c>
       <c r="B274">
         <v>2</v>
@@ -6064,16 +6064,16 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A275">
-        <v>87400066</v>
+        <v>87400065</v>
       </c>
       <c r="B275">
         <v>2</v>
       </c>
       <c r="C275">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D275">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E275">
         <v>100</v>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A276">
-        <v>87400067</v>
+        <v>87400066</v>
       </c>
       <c r="B276">
         <v>2</v>
@@ -6093,7 +6093,7 @@
         <v>14</v>
       </c>
       <c r="D276">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E276">
         <v>100</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A277">
-        <v>87400068</v>
+        <v>87400067</v>
       </c>
       <c r="B277">
         <v>2</v>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A278">
-        <v>87400069</v>
+        <v>87400068</v>
       </c>
       <c r="B278">
         <v>2</v>
@@ -6144,7 +6144,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A279">
-        <v>87400070</v>
+        <v>87400069</v>
       </c>
       <c r="B279">
         <v>2</v>
@@ -6164,16 +6164,16 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A280">
-        <v>87400071</v>
+        <v>87400070</v>
       </c>
       <c r="B280">
         <v>2</v>
       </c>
       <c r="C280">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D280">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E280">
         <v>100</v>
@@ -6184,7 +6184,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A281">
-        <v>87400072</v>
+        <v>87400071</v>
       </c>
       <c r="B281">
         <v>2</v>
@@ -6193,7 +6193,7 @@
         <v>15</v>
       </c>
       <c r="D281">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E281">
         <v>100</v>
@@ -6204,7 +6204,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A282">
-        <v>87400073</v>
+        <v>87400072</v>
       </c>
       <c r="B282">
         <v>2</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A283">
-        <v>87400074</v>
+        <v>87400073</v>
       </c>
       <c r="B283">
         <v>2</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A284">
-        <v>87400075</v>
+        <v>87400074</v>
       </c>
       <c r="B284">
         <v>2</v>
@@ -6264,16 +6264,16 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A285">
-        <v>87400076</v>
+        <v>87400075</v>
       </c>
       <c r="B285">
         <v>2</v>
       </c>
       <c r="C285">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D285">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E285">
         <v>100</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A286">
-        <v>87400077</v>
+        <v>87400076</v>
       </c>
       <c r="B286">
         <v>2</v>
@@ -6293,7 +6293,7 @@
         <v>16</v>
       </c>
       <c r="D286">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E286">
         <v>100</v>
@@ -6304,7 +6304,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A287">
-        <v>87400078</v>
+        <v>87400077</v>
       </c>
       <c r="B287">
         <v>2</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A288">
-        <v>87400079</v>
+        <v>87400078</v>
       </c>
       <c r="B288">
         <v>2</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A289">
-        <v>87400080</v>
+        <v>87400079</v>
       </c>
       <c r="B289">
         <v>2</v>
@@ -6364,16 +6364,16 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A290">
-        <v>87400081</v>
+        <v>87400080</v>
       </c>
       <c r="B290">
         <v>2</v>
       </c>
       <c r="C290">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D290">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E290">
         <v>100</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A291">
-        <v>87400082</v>
+        <v>87400081</v>
       </c>
       <c r="B291">
         <v>2</v>
@@ -6393,7 +6393,7 @@
         <v>17</v>
       </c>
       <c r="D291">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E291">
         <v>100</v>
@@ -6404,7 +6404,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A292">
-        <v>87400083</v>
+        <v>87400082</v>
       </c>
       <c r="B292">
         <v>2</v>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A293">
-        <v>87400084</v>
+        <v>87400083</v>
       </c>
       <c r="B293">
         <v>2</v>
@@ -6444,7 +6444,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A294">
-        <v>87400085</v>
+        <v>87400084</v>
       </c>
       <c r="B294">
         <v>2</v>
@@ -6464,16 +6464,16 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A295">
-        <v>87400086</v>
+        <v>87400085</v>
       </c>
       <c r="B295">
         <v>2</v>
       </c>
       <c r="C295">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D295">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E295">
         <v>100</v>
@@ -6484,7 +6484,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A296">
-        <v>87400087</v>
+        <v>87400086</v>
       </c>
       <c r="B296">
         <v>2</v>
@@ -6493,7 +6493,7 @@
         <v>18</v>
       </c>
       <c r="D296">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E296">
         <v>100</v>
@@ -6504,7 +6504,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A297">
-        <v>87400088</v>
+        <v>87400087</v>
       </c>
       <c r="B297">
         <v>2</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A298">
-        <v>87400089</v>
+        <v>87400088</v>
       </c>
       <c r="B298">
         <v>2</v>
@@ -6544,7 +6544,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A299">
-        <v>87400090</v>
+        <v>87400089</v>
       </c>
       <c r="B299">
         <v>2</v>
@@ -6564,16 +6564,16 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A300">
-        <v>87400091</v>
+        <v>87400090</v>
       </c>
       <c r="B300">
         <v>2</v>
       </c>
       <c r="C300">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D300">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E300">
         <v>100</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A301">
-        <v>87400092</v>
+        <v>87400091</v>
       </c>
       <c r="B301">
         <v>2</v>
@@ -6593,7 +6593,7 @@
         <v>19</v>
       </c>
       <c r="D301">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E301">
         <v>100</v>
@@ -6604,7 +6604,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A302">
-        <v>87400093</v>
+        <v>87400092</v>
       </c>
       <c r="B302">
         <v>2</v>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A303">
-        <v>87400094</v>
+        <v>87400093</v>
       </c>
       <c r="B303">
         <v>2</v>
@@ -6644,7 +6644,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A304">
-        <v>87400095</v>
+        <v>87400094</v>
       </c>
       <c r="B304">
         <v>2</v>
@@ -6664,16 +6664,16 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A305">
-        <v>87400096</v>
+        <v>87400095</v>
       </c>
       <c r="B305">
         <v>2</v>
       </c>
       <c r="C305">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D305">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E305">
         <v>100</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A306">
-        <v>87400097</v>
+        <v>87400096</v>
       </c>
       <c r="B306">
         <v>2</v>
@@ -6693,7 +6693,7 @@
         <v>20</v>
       </c>
       <c r="D306">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E306">
         <v>100</v>
@@ -6704,7 +6704,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A307">
-        <v>87400098</v>
+        <v>87400097</v>
       </c>
       <c r="B307">
         <v>2</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A308">
-        <v>87400099</v>
+        <v>87400098</v>
       </c>
       <c r="B308">
         <v>2</v>
@@ -6744,7 +6744,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A309">
-        <v>87400100</v>
+        <v>87400099</v>
       </c>
       <c r="B309">
         <v>2</v>
@@ -6764,16 +6764,16 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A310">
-        <v>87400101</v>
+        <v>87400100</v>
       </c>
       <c r="B310">
         <v>2</v>
       </c>
       <c r="C310">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D310">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E310">
         <v>100</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A311">
-        <v>87400102</v>
+        <v>87400101</v>
       </c>
       <c r="B311">
         <v>2</v>
@@ -6793,7 +6793,7 @@
         <v>21</v>
       </c>
       <c r="D311">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E311">
         <v>100</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A312">
-        <v>87400103</v>
+        <v>87400102</v>
       </c>
       <c r="B312">
         <v>2</v>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A313">
-        <v>87400104</v>
+        <v>87400103</v>
       </c>
       <c r="B313">
         <v>2</v>
@@ -6844,7 +6844,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A314">
-        <v>87400105</v>
+        <v>87400104</v>
       </c>
       <c r="B314">
         <v>2</v>
@@ -6864,16 +6864,16 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A315">
-        <v>87400106</v>
+        <v>87400105</v>
       </c>
       <c r="B315">
         <v>2</v>
       </c>
       <c r="C315">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D315">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E315">
         <v>100</v>
@@ -6884,7 +6884,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A316">
-        <v>87400107</v>
+        <v>87400106</v>
       </c>
       <c r="B316">
         <v>2</v>
@@ -6893,7 +6893,7 @@
         <v>22</v>
       </c>
       <c r="D316">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E316">
         <v>100</v>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A317">
-        <v>87400108</v>
+        <v>87400107</v>
       </c>
       <c r="B317">
         <v>2</v>
@@ -6924,7 +6924,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A318">
-        <v>87400109</v>
+        <v>87400108</v>
       </c>
       <c r="B318">
         <v>2</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A319">
-        <v>87400110</v>
+        <v>87400109</v>
       </c>
       <c r="B319">
         <v>2</v>
@@ -6964,16 +6964,16 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A320">
-        <v>87400111</v>
+        <v>87400110</v>
       </c>
       <c r="B320">
         <v>2</v>
       </c>
       <c r="C320">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D320">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E320">
         <v>100</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A321">
-        <v>87400112</v>
+        <v>87400111</v>
       </c>
       <c r="B321">
         <v>2</v>
@@ -6993,7 +6993,7 @@
         <v>23</v>
       </c>
       <c r="D321">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E321">
         <v>100</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A322">
-        <v>87400113</v>
+        <v>87400112</v>
       </c>
       <c r="B322">
         <v>2</v>
@@ -7024,7 +7024,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A323">
-        <v>87400114</v>
+        <v>87400113</v>
       </c>
       <c r="B323">
         <v>2</v>
@@ -7044,7 +7044,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A324">
-        <v>87400115</v>
+        <v>87400114</v>
       </c>
       <c r="B324">
         <v>2</v>
@@ -7064,16 +7064,16 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A325">
-        <v>87400116</v>
+        <v>87400115</v>
       </c>
       <c r="B325">
         <v>2</v>
       </c>
       <c r="C325">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D325">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E325">
         <v>100</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A326">
-        <v>87400117</v>
+        <v>87400116</v>
       </c>
       <c r="B326">
         <v>2</v>
@@ -7093,7 +7093,7 @@
         <v>24</v>
       </c>
       <c r="D326">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E326">
         <v>100</v>
@@ -7104,7 +7104,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A327">
-        <v>87400118</v>
+        <v>87400117</v>
       </c>
       <c r="B327">
         <v>2</v>
@@ -7124,7 +7124,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A328">
-        <v>87400119</v>
+        <v>87400118</v>
       </c>
       <c r="B328">
         <v>2</v>
@@ -7144,7 +7144,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A329">
-        <v>87400120</v>
+        <v>87400119</v>
       </c>
       <c r="B329">
         <v>2</v>
@@ -7164,16 +7164,16 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A330">
-        <v>87400121</v>
+        <v>87400120</v>
       </c>
       <c r="B330">
         <v>2</v>
       </c>
       <c r="C330">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D330">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E330">
         <v>100</v>
@@ -7184,7 +7184,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A331">
-        <v>87400122</v>
+        <v>87400121</v>
       </c>
       <c r="B331">
         <v>2</v>
@@ -7193,7 +7193,7 @@
         <v>25</v>
       </c>
       <c r="D331">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E331">
         <v>100</v>
@@ -7204,7 +7204,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A332">
-        <v>87400123</v>
+        <v>87400122</v>
       </c>
       <c r="B332">
         <v>2</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A333">
-        <v>87400124</v>
+        <v>87400123</v>
       </c>
       <c r="B333">
         <v>2</v>
@@ -7244,7 +7244,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A334">
-        <v>87400125</v>
+        <v>87400124</v>
       </c>
       <c r="B334">
         <v>2</v>
@@ -7264,16 +7264,16 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A335">
-        <v>87400126</v>
+        <v>87400125</v>
       </c>
       <c r="B335">
         <v>2</v>
       </c>
       <c r="C335">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D335">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E335">
         <v>100</v>
@@ -7284,7 +7284,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A336">
-        <v>87400127</v>
+        <v>87400126</v>
       </c>
       <c r="B336">
         <v>2</v>
@@ -7293,7 +7293,7 @@
         <v>26</v>
       </c>
       <c r="D336">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E336">
         <v>100</v>
@@ -7304,7 +7304,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A337">
-        <v>87400128</v>
+        <v>87400127</v>
       </c>
       <c r="B337">
         <v>2</v>
@@ -7324,7 +7324,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A338">
-        <v>87400129</v>
+        <v>87400128</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A339">
-        <v>87400130</v>
+        <v>87400129</v>
       </c>
       <c r="B339">
         <v>2</v>
@@ -7364,16 +7364,16 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A340">
-        <v>87400131</v>
+        <v>87400130</v>
       </c>
       <c r="B340">
         <v>2</v>
       </c>
       <c r="C340">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D340">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E340">
         <v>100</v>
@@ -7384,7 +7384,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A341">
-        <v>87400132</v>
+        <v>87400131</v>
       </c>
       <c r="B341">
         <v>2</v>
@@ -7393,7 +7393,7 @@
         <v>27</v>
       </c>
       <c r="D341">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E341">
         <v>100</v>
@@ -7404,7 +7404,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A342">
-        <v>87400133</v>
+        <v>87400132</v>
       </c>
       <c r="B342">
         <v>2</v>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A343">
-        <v>87400134</v>
+        <v>87400133</v>
       </c>
       <c r="B343">
         <v>2</v>
@@ -7444,7 +7444,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A344">
-        <v>87400135</v>
+        <v>87400134</v>
       </c>
       <c r="B344">
         <v>2</v>
@@ -7464,16 +7464,16 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A345">
-        <v>87400136</v>
+        <v>87400135</v>
       </c>
       <c r="B345">
         <v>2</v>
       </c>
       <c r="C345">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D345">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E345">
         <v>100</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A346">
-        <v>87400137</v>
+        <v>87400136</v>
       </c>
       <c r="B346">
         <v>2</v>
@@ -7493,7 +7493,7 @@
         <v>28</v>
       </c>
       <c r="D346">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E346">
         <v>100</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A347">
-        <v>87400138</v>
+        <v>87400137</v>
       </c>
       <c r="B347">
         <v>2</v>
@@ -7524,7 +7524,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A348">
-        <v>87400139</v>
+        <v>87400138</v>
       </c>
       <c r="B348">
         <v>2</v>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A349">
-        <v>87400140</v>
+        <v>87400139</v>
       </c>
       <c r="B349">
         <v>2</v>
@@ -7564,16 +7564,16 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A350">
-        <v>87400141</v>
+        <v>87400140</v>
       </c>
       <c r="B350">
         <v>2</v>
       </c>
       <c r="C350">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D350">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E350">
         <v>100</v>
@@ -7584,7 +7584,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A351">
-        <v>87400142</v>
+        <v>87400141</v>
       </c>
       <c r="B351">
         <v>2</v>
@@ -7593,7 +7593,7 @@
         <v>29</v>
       </c>
       <c r="D351">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E351">
         <v>100</v>
@@ -7604,7 +7604,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A352">
-        <v>87400143</v>
+        <v>87400142</v>
       </c>
       <c r="B352">
         <v>2</v>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A353">
-        <v>87400144</v>
+        <v>87400143</v>
       </c>
       <c r="B353">
         <v>2</v>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A354">
-        <v>87400145</v>
+        <v>87400144</v>
       </c>
       <c r="B354">
         <v>2</v>
@@ -7664,16 +7664,16 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A355">
-        <v>87400146</v>
+        <v>87400145</v>
       </c>
       <c r="B355">
         <v>2</v>
       </c>
       <c r="C355">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D355">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E355">
         <v>100</v>
@@ -7684,7 +7684,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A356">
-        <v>87400147</v>
+        <v>87400146</v>
       </c>
       <c r="B356">
         <v>2</v>
@@ -7693,7 +7693,7 @@
         <v>30</v>
       </c>
       <c r="D356">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E356">
         <v>100</v>
@@ -7704,7 +7704,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A357">
-        <v>87400148</v>
+        <v>87400147</v>
       </c>
       <c r="B357">
         <v>2</v>
@@ -7724,7 +7724,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A358">
-        <v>87400149</v>
+        <v>87400148</v>
       </c>
       <c r="B358">
         <v>2</v>
@@ -7744,7 +7744,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A359">
-        <v>87400150</v>
+        <v>87400149</v>
       </c>
       <c r="B359">
         <v>2</v>
@@ -7764,16 +7764,16 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A360">
-        <v>87400151</v>
+        <v>87400150</v>
       </c>
       <c r="B360">
         <v>2</v>
       </c>
       <c r="C360">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D360">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E360">
         <v>100</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A361">
-        <v>87400152</v>
+        <v>87400151</v>
       </c>
       <c r="B361">
         <v>2</v>
@@ -7793,7 +7793,7 @@
         <v>31</v>
       </c>
       <c r="D361">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E361">
         <v>100</v>
@@ -7804,7 +7804,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A362">
-        <v>87400153</v>
+        <v>87400152</v>
       </c>
       <c r="B362">
         <v>2</v>
@@ -7824,7 +7824,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A363">
-        <v>87400154</v>
+        <v>87400153</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -7844,7 +7844,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A364">
-        <v>87400155</v>
+        <v>87400154</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -7864,16 +7864,16 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A365">
-        <v>87400156</v>
+        <v>87400155</v>
       </c>
       <c r="B365">
         <v>2</v>
       </c>
       <c r="C365">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D365">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E365">
         <v>100</v>
@@ -7884,7 +7884,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A366">
-        <v>87400157</v>
+        <v>87400156</v>
       </c>
       <c r="B366">
         <v>2</v>
@@ -7893,7 +7893,7 @@
         <v>32</v>
       </c>
       <c r="D366">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E366">
         <v>100</v>
@@ -7904,7 +7904,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A367">
-        <v>87400158</v>
+        <v>87400157</v>
       </c>
       <c r="B367">
         <v>2</v>
@@ -7924,7 +7924,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A368">
-        <v>87400159</v>
+        <v>87400158</v>
       </c>
       <c r="B368">
         <v>2</v>
@@ -7944,7 +7944,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A369">
-        <v>87400160</v>
+        <v>87400159</v>
       </c>
       <c r="B369">
         <v>2</v>
@@ -7964,16 +7964,16 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A370">
-        <v>87400161</v>
+        <v>87400160</v>
       </c>
       <c r="B370">
         <v>2</v>
       </c>
       <c r="C370">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D370">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E370">
         <v>100</v>
@@ -7984,7 +7984,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A371">
-        <v>87400162</v>
+        <v>87400161</v>
       </c>
       <c r="B371">
         <v>2</v>
@@ -7993,7 +7993,7 @@
         <v>33</v>
       </c>
       <c r="D371">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E371">
         <v>100</v>
@@ -8004,7 +8004,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A372">
-        <v>87400163</v>
+        <v>87400162</v>
       </c>
       <c r="B372">
         <v>2</v>
@@ -8024,7 +8024,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A373">
-        <v>87400164</v>
+        <v>87400163</v>
       </c>
       <c r="B373">
         <v>2</v>
@@ -8044,7 +8044,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A374">
-        <v>87400165</v>
+        <v>87400164</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -8064,16 +8064,16 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A375">
-        <v>87400166</v>
+        <v>87400165</v>
       </c>
       <c r="B375">
         <v>2</v>
       </c>
       <c r="C375">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D375">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E375">
         <v>100</v>
@@ -8084,7 +8084,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A376">
-        <v>87400167</v>
+        <v>87400166</v>
       </c>
       <c r="B376">
         <v>2</v>
@@ -8093,7 +8093,7 @@
         <v>34</v>
       </c>
       <c r="D376">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E376">
         <v>100</v>
@@ -8104,7 +8104,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A377">
-        <v>87400168</v>
+        <v>87400167</v>
       </c>
       <c r="B377">
         <v>2</v>
@@ -8124,7 +8124,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A378">
-        <v>87400169</v>
+        <v>87400168</v>
       </c>
       <c r="B378">
         <v>2</v>
@@ -8144,7 +8144,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A379">
-        <v>87400170</v>
+        <v>87400169</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -8164,16 +8164,16 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A380">
-        <v>87400171</v>
+        <v>87400170</v>
       </c>
       <c r="B380">
         <v>2</v>
       </c>
       <c r="C380">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D380">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E380">
         <v>100</v>
@@ -8184,7 +8184,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A381">
-        <v>87400172</v>
+        <v>87400171</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -8193,7 +8193,7 @@
         <v>35</v>
       </c>
       <c r="D381">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E381">
         <v>100</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A382">
-        <v>87400173</v>
+        <v>87400172</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -8224,7 +8224,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A383">
-        <v>87400174</v>
+        <v>87400173</v>
       </c>
       <c r="B383">
         <v>2</v>
@@ -8244,7 +8244,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A384">
-        <v>87400175</v>
+        <v>87400174</v>
       </c>
       <c r="B384">
         <v>2</v>
@@ -8264,16 +8264,16 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A385">
-        <v>87400176</v>
+        <v>87400175</v>
       </c>
       <c r="B385">
         <v>2</v>
       </c>
       <c r="C385">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D385">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E385">
         <v>100</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A386">
-        <v>87400177</v>
+        <v>87400176</v>
       </c>
       <c r="B386">
         <v>2</v>
@@ -8293,7 +8293,7 @@
         <v>36</v>
       </c>
       <c r="D386">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E386">
         <v>100</v>
@@ -8304,7 +8304,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A387">
-        <v>87400178</v>
+        <v>87400177</v>
       </c>
       <c r="B387">
         <v>2</v>
@@ -8324,7 +8324,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A388">
-        <v>87400179</v>
+        <v>87400178</v>
       </c>
       <c r="B388">
         <v>2</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A389">
-        <v>87400180</v>
+        <v>87400179</v>
       </c>
       <c r="B389">
         <v>2</v>
@@ -8364,16 +8364,16 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A390">
-        <v>87400181</v>
+        <v>87400180</v>
       </c>
       <c r="B390">
         <v>2</v>
       </c>
       <c r="C390">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D390">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E390">
         <v>100</v>
@@ -8384,7 +8384,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A391">
-        <v>87400182</v>
+        <v>87400181</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -8393,7 +8393,7 @@
         <v>37</v>
       </c>
       <c r="D391">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E391">
         <v>100</v>
@@ -8404,7 +8404,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A392">
-        <v>87400183</v>
+        <v>87400182</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -8424,7 +8424,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A393">
-        <v>87400184</v>
+        <v>87400183</v>
       </c>
       <c r="B393">
         <v>2</v>
@@ -8444,7 +8444,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A394">
-        <v>87400185</v>
+        <v>87400184</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -8464,16 +8464,16 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A395">
-        <v>87400186</v>
+        <v>87400185</v>
       </c>
       <c r="B395">
         <v>2</v>
       </c>
       <c r="C395">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D395">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E395">
         <v>100</v>
@@ -8484,7 +8484,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A396">
-        <v>87400187</v>
+        <v>87400186</v>
       </c>
       <c r="B396">
         <v>2</v>
@@ -8493,7 +8493,7 @@
         <v>38</v>
       </c>
       <c r="D396">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E396">
         <v>100</v>
@@ -8504,7 +8504,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A397">
-        <v>87400188</v>
+        <v>87400187</v>
       </c>
       <c r="B397">
         <v>2</v>
@@ -8524,7 +8524,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A398">
-        <v>87400189</v>
+        <v>87400188</v>
       </c>
       <c r="B398">
         <v>2</v>
@@ -8544,7 +8544,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A399">
-        <v>87400190</v>
+        <v>87400189</v>
       </c>
       <c r="B399">
         <v>2</v>
@@ -8564,16 +8564,16 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A400">
-        <v>87400191</v>
+        <v>87400190</v>
       </c>
       <c r="B400">
         <v>2</v>
       </c>
       <c r="C400">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D400">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E400">
         <v>100</v>
@@ -8584,7 +8584,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A401">
-        <v>87400192</v>
+        <v>87400191</v>
       </c>
       <c r="B401">
         <v>2</v>
@@ -8593,7 +8593,7 @@
         <v>39</v>
       </c>
       <c r="D401">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E401">
         <v>100</v>
@@ -8604,7 +8604,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A402">
-        <v>87400193</v>
+        <v>87400192</v>
       </c>
       <c r="B402">
         <v>2</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A403">
-        <v>87400194</v>
+        <v>87400193</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -8644,7 +8644,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A404">
-        <v>87400195</v>
+        <v>87400194</v>
       </c>
       <c r="B404">
         <v>2</v>
@@ -8664,16 +8664,16 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A405">
-        <v>87400196</v>
+        <v>87400195</v>
       </c>
       <c r="B405">
         <v>2</v>
       </c>
       <c r="C405">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D405">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E405">
         <v>100</v>
@@ -8684,7 +8684,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A406">
-        <v>87400197</v>
+        <v>87400196</v>
       </c>
       <c r="B406">
         <v>2</v>
@@ -8693,7 +8693,7 @@
         <v>40</v>
       </c>
       <c r="D406">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E406">
         <v>100</v>
@@ -8704,7 +8704,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A407">
-        <v>87400198</v>
+        <v>87400197</v>
       </c>
       <c r="B407">
         <v>2</v>
@@ -8724,7 +8724,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A408">
-        <v>87400199</v>
+        <v>87400198</v>
       </c>
       <c r="B408">
         <v>2</v>
@@ -8744,7 +8744,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A409">
-        <v>87400200</v>
+        <v>87400199</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -8764,16 +8764,16 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A410">
-        <v>87400201</v>
+        <v>87400200</v>
       </c>
       <c r="B410">
         <v>2</v>
       </c>
       <c r="C410">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D410">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E410">
         <v>100</v>
@@ -8784,7 +8784,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A411">
-        <v>87400202</v>
+        <v>87400201</v>
       </c>
       <c r="B411">
         <v>2</v>
@@ -8793,7 +8793,7 @@
         <v>41</v>
       </c>
       <c r="D411">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E411">
         <v>100</v>
@@ -8804,7 +8804,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A412">
-        <v>87400203</v>
+        <v>87400202</v>
       </c>
       <c r="B412">
         <v>2</v>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A413">
-        <v>87400204</v>
+        <v>87400203</v>
       </c>
       <c r="B413">
         <v>2</v>
@@ -8844,7 +8844,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A414">
-        <v>87400205</v>
+        <v>87400204</v>
       </c>
       <c r="B414">
         <v>2</v>
@@ -8864,16 +8864,16 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A415">
-        <v>87400206</v>
+        <v>87400205</v>
       </c>
       <c r="B415">
         <v>2</v>
       </c>
       <c r="C415">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D415">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E415">
         <v>100</v>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A416">
-        <v>87400207</v>
+        <v>87400206</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -8893,7 +8893,7 @@
         <v>42</v>
       </c>
       <c r="D416">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E416">
         <v>100</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A417">
-        <v>87400208</v>
+        <v>87400207</v>
       </c>
       <c r="B417">
         <v>2</v>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A418">
-        <v>87400209</v>
+        <v>87400208</v>
       </c>
       <c r="B418">
         <v>2</v>
@@ -8944,7 +8944,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A419">
-        <v>87400210</v>
+        <v>87400209</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -8964,16 +8964,16 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A420">
-        <v>87400211</v>
+        <v>87400210</v>
       </c>
       <c r="B420">
         <v>2</v>
       </c>
       <c r="C420">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D420">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E420">
         <v>100</v>
@@ -8984,7 +8984,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A421">
-        <v>87400212</v>
+        <v>87400211</v>
       </c>
       <c r="B421">
         <v>2</v>
@@ -8993,7 +8993,7 @@
         <v>43</v>
       </c>
       <c r="D421">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E421">
         <v>100</v>
@@ -9004,7 +9004,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A422">
-        <v>87400213</v>
+        <v>87400212</v>
       </c>
       <c r="B422">
         <v>2</v>
@@ -9024,7 +9024,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A423">
-        <v>87400214</v>
+        <v>87400213</v>
       </c>
       <c r="B423">
         <v>2</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A424">
-        <v>87400215</v>
+        <v>87400214</v>
       </c>
       <c r="B424">
         <v>2</v>
@@ -9064,16 +9064,16 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A425">
-        <v>87400216</v>
+        <v>87400215</v>
       </c>
       <c r="B425">
         <v>2</v>
       </c>
       <c r="C425">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D425">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E425">
         <v>100</v>
@@ -9084,7 +9084,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A426">
-        <v>87400217</v>
+        <v>87400216</v>
       </c>
       <c r="B426">
         <v>2</v>
@@ -9093,7 +9093,7 @@
         <v>44</v>
       </c>
       <c r="D426">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E426">
         <v>100</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A427">
-        <v>87400218</v>
+        <v>87400217</v>
       </c>
       <c r="B427">
         <v>2</v>
@@ -9124,7 +9124,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A428">
-        <v>87400219</v>
+        <v>87400218</v>
       </c>
       <c r="B428">
         <v>2</v>
@@ -9144,7 +9144,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A429">
-        <v>87400220</v>
+        <v>87400219</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -9164,16 +9164,16 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A430">
-        <v>87400221</v>
+        <v>87400220</v>
       </c>
       <c r="B430">
         <v>2</v>
       </c>
       <c r="C430">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D430">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E430">
         <v>100</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A431">
-        <v>87400222</v>
+        <v>87400221</v>
       </c>
       <c r="B431">
         <v>2</v>
@@ -9193,7 +9193,7 @@
         <v>45</v>
       </c>
       <c r="D431">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E431">
         <v>100</v>
@@ -9204,7 +9204,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A432">
-        <v>87400223</v>
+        <v>87400222</v>
       </c>
       <c r="B432">
         <v>2</v>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A433">
-        <v>87400224</v>
+        <v>87400223</v>
       </c>
       <c r="B433">
         <v>2</v>
@@ -9244,7 +9244,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A434">
-        <v>87400225</v>
+        <v>87400224</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -9264,16 +9264,16 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A435">
-        <v>87400226</v>
+        <v>87400225</v>
       </c>
       <c r="B435">
         <v>2</v>
       </c>
       <c r="C435">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D435">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E435">
         <v>100</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A436">
-        <v>87400227</v>
+        <v>87400226</v>
       </c>
       <c r="B436">
         <v>2</v>
@@ -9293,7 +9293,7 @@
         <v>46</v>
       </c>
       <c r="D436">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E436">
         <v>100</v>
@@ -9304,7 +9304,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A437">
-        <v>87400228</v>
+        <v>87400227</v>
       </c>
       <c r="B437">
         <v>2</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A438">
-        <v>87400229</v>
+        <v>87400228</v>
       </c>
       <c r="B438">
         <v>2</v>
@@ -9344,7 +9344,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A439">
-        <v>87400230</v>
+        <v>87400229</v>
       </c>
       <c r="B439">
         <v>2</v>
@@ -9364,16 +9364,16 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A440">
-        <v>87400231</v>
+        <v>87400230</v>
       </c>
       <c r="B440">
         <v>2</v>
       </c>
       <c r="C440">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D440">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E440">
         <v>100</v>
@@ -9384,7 +9384,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A441">
-        <v>87400232</v>
+        <v>87400231</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -9393,7 +9393,7 @@
         <v>47</v>
       </c>
       <c r="D441">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E441">
         <v>100</v>
@@ -9404,7 +9404,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A442">
-        <v>87400233</v>
+        <v>87400232</v>
       </c>
       <c r="B442">
         <v>2</v>
@@ -9424,7 +9424,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A443">
-        <v>87400234</v>
+        <v>87400233</v>
       </c>
       <c r="B443">
         <v>2</v>
@@ -9444,7 +9444,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A444">
-        <v>87400235</v>
+        <v>87400234</v>
       </c>
       <c r="B444">
         <v>2</v>
@@ -9464,16 +9464,16 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A445">
-        <v>87400236</v>
+        <v>87400235</v>
       </c>
       <c r="B445">
         <v>2</v>
       </c>
       <c r="C445">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D445">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E445">
         <v>100</v>
@@ -9484,7 +9484,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A446">
-        <v>87400237</v>
+        <v>87400236</v>
       </c>
       <c r="B446">
         <v>2</v>
@@ -9493,7 +9493,7 @@
         <v>48</v>
       </c>
       <c r="D446">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E446">
         <v>100</v>
@@ -9504,7 +9504,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A447">
-        <v>87400238</v>
+        <v>87400237</v>
       </c>
       <c r="B447">
         <v>2</v>
@@ -9524,7 +9524,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A448">
-        <v>87400239</v>
+        <v>87400238</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -9544,7 +9544,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A449">
-        <v>87400240</v>
+        <v>87400239</v>
       </c>
       <c r="B449">
         <v>2</v>
@@ -9564,16 +9564,16 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A450">
-        <v>87400241</v>
+        <v>87400240</v>
       </c>
       <c r="B450">
         <v>2</v>
       </c>
       <c r="C450">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D450">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E450">
         <v>100</v>
@@ -9584,7 +9584,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A451">
-        <v>87400242</v>
+        <v>87400241</v>
       </c>
       <c r="B451">
         <v>2</v>
@@ -9593,7 +9593,7 @@
         <v>49</v>
       </c>
       <c r="D451">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E451">
         <v>100</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A452">
-        <v>87400243</v>
+        <v>87400242</v>
       </c>
       <c r="B452">
         <v>2</v>
@@ -9624,7 +9624,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A453">
-        <v>87400244</v>
+        <v>87400243</v>
       </c>
       <c r="B453">
         <v>2</v>
@@ -9644,7 +9644,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A454">
-        <v>87400245</v>
+        <v>87400244</v>
       </c>
       <c r="B454">
         <v>2</v>
@@ -9664,16 +9664,16 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A455">
-        <v>87400246</v>
+        <v>87400245</v>
       </c>
       <c r="B455">
         <v>2</v>
       </c>
       <c r="C455">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D455">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E455">
         <v>100</v>
@@ -9684,7 +9684,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A456">
-        <v>87400247</v>
+        <v>87400246</v>
       </c>
       <c r="B456">
         <v>2</v>
@@ -9693,7 +9693,7 @@
         <v>50</v>
       </c>
       <c r="D456">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E456">
         <v>100</v>
@@ -9704,7 +9704,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A457">
-        <v>87400248</v>
+        <v>87400247</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A458">
-        <v>87400249</v>
+        <v>87400248</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -9744,7 +9744,7 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A459">
-        <v>87400250</v>
+        <v>87400249</v>
       </c>
       <c r="B459">
         <v>2</v>
@@ -9764,16 +9764,16 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A460">
-        <v>87400251</v>
+        <v>87400250</v>
       </c>
       <c r="B460">
         <v>2</v>
       </c>
       <c r="C460">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D460">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E460">
         <v>100</v>
@@ -9784,7 +9784,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A461">
-        <v>87400252</v>
+        <v>87400251</v>
       </c>
       <c r="B461">
         <v>2</v>
@@ -9793,7 +9793,7 @@
         <v>51</v>
       </c>
       <c r="D461">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E461">
         <v>100</v>
@@ -9804,7 +9804,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A462">
-        <v>87400253</v>
+        <v>87400252</v>
       </c>
       <c r="B462">
         <v>2</v>
@@ -9824,7 +9824,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A463">
-        <v>87400254</v>
+        <v>87400253</v>
       </c>
       <c r="B463">
         <v>2</v>
@@ -9844,7 +9844,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A464">
-        <v>87400255</v>
+        <v>87400254</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -9864,16 +9864,16 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A465">
-        <v>87400256</v>
+        <v>87400255</v>
       </c>
       <c r="B465">
         <v>2</v>
       </c>
       <c r="C465">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D465">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E465">
         <v>100</v>
@@ -9884,7 +9884,7 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A466">
-        <v>87400257</v>
+        <v>87400256</v>
       </c>
       <c r="B466">
         <v>2</v>
@@ -9893,7 +9893,7 @@
         <v>52</v>
       </c>
       <c r="D466">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E466">
         <v>100</v>
@@ -9904,7 +9904,7 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A467">
-        <v>87400258</v>
+        <v>87400257</v>
       </c>
       <c r="B467">
         <v>2</v>
@@ -9924,7 +9924,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A468">
-        <v>87400259</v>
+        <v>87400258</v>
       </c>
       <c r="B468">
         <v>2</v>
@@ -9944,7 +9944,7 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A469">
-        <v>87400260</v>
+        <v>87400259</v>
       </c>
       <c r="B469">
         <v>2</v>
@@ -9964,16 +9964,16 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A470">
-        <v>87400261</v>
+        <v>87400260</v>
       </c>
       <c r="B470">
         <v>2</v>
       </c>
       <c r="C470">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D470">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E470">
         <v>100</v>
@@ -9984,7 +9984,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A471">
-        <v>87400262</v>
+        <v>87400261</v>
       </c>
       <c r="B471">
         <v>2</v>
@@ -9993,7 +9993,7 @@
         <v>53</v>
       </c>
       <c r="D471">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E471">
         <v>100</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A472">
-        <v>87400263</v>
+        <v>87400262</v>
       </c>
       <c r="B472">
         <v>2</v>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A473">
-        <v>87400264</v>
+        <v>87400263</v>
       </c>
       <c r="B473">
         <v>2</v>
@@ -10044,7 +10044,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A474">
-        <v>87400265</v>
+        <v>87400264</v>
       </c>
       <c r="B474">
         <v>2</v>
@@ -10064,16 +10064,16 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A475">
-        <v>87400266</v>
+        <v>87400265</v>
       </c>
       <c r="B475">
         <v>2</v>
       </c>
       <c r="C475">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D475">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E475">
         <v>100</v>
@@ -10084,7 +10084,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A476">
-        <v>87400267</v>
+        <v>87400266</v>
       </c>
       <c r="B476">
         <v>2</v>
@@ -10093,7 +10093,7 @@
         <v>54</v>
       </c>
       <c r="D476">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E476">
         <v>100</v>
@@ -10104,7 +10104,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A477">
-        <v>87400268</v>
+        <v>87400267</v>
       </c>
       <c r="B477">
         <v>2</v>
@@ -10124,7 +10124,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A478">
-        <v>87400269</v>
+        <v>87400268</v>
       </c>
       <c r="B478">
         <v>2</v>
@@ -10144,7 +10144,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A479">
-        <v>87400270</v>
+        <v>87400269</v>
       </c>
       <c r="B479">
         <v>2</v>
@@ -10164,16 +10164,16 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A480">
-        <v>87400271</v>
+        <v>87400270</v>
       </c>
       <c r="B480">
         <v>2</v>
       </c>
       <c r="C480">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D480">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E480">
         <v>100</v>
@@ -10184,7 +10184,7 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A481">
-        <v>87400272</v>
+        <v>87400271</v>
       </c>
       <c r="B481">
         <v>2</v>
@@ -10193,7 +10193,7 @@
         <v>55</v>
       </c>
       <c r="D481">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E481">
         <v>100</v>
@@ -10204,7 +10204,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A482">
-        <v>87400273</v>
+        <v>87400272</v>
       </c>
       <c r="B482">
         <v>2</v>
@@ -10224,7 +10224,7 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A483">
-        <v>87400274</v>
+        <v>87400273</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -10244,7 +10244,7 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A484">
-        <v>87400275</v>
+        <v>87400274</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -10264,16 +10264,16 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A485">
-        <v>87400276</v>
+        <v>87400275</v>
       </c>
       <c r="B485">
         <v>2</v>
       </c>
       <c r="C485">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D485">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E485">
         <v>100</v>
@@ -10284,7 +10284,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A486">
-        <v>87400277</v>
+        <v>87400276</v>
       </c>
       <c r="B486">
         <v>2</v>
@@ -10293,7 +10293,7 @@
         <v>56</v>
       </c>
       <c r="D486">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E486">
         <v>100</v>
@@ -10304,7 +10304,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A487">
-        <v>87400278</v>
+        <v>87400277</v>
       </c>
       <c r="B487">
         <v>2</v>
@@ -10324,7 +10324,7 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A488">
-        <v>87400279</v>
+        <v>87400278</v>
       </c>
       <c r="B488">
         <v>2</v>
@@ -10344,7 +10344,7 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A489">
-        <v>87400280</v>
+        <v>87400279</v>
       </c>
       <c r="B489">
         <v>2</v>
@@ -10364,16 +10364,16 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A490">
-        <v>87400281</v>
+        <v>87400280</v>
       </c>
       <c r="B490">
         <v>2</v>
       </c>
       <c r="C490">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D490">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E490">
         <v>100</v>
@@ -10384,7 +10384,7 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A491">
-        <v>87400282</v>
+        <v>87400281</v>
       </c>
       <c r="B491">
         <v>2</v>
@@ -10393,7 +10393,7 @@
         <v>57</v>
       </c>
       <c r="D491">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E491">
         <v>100</v>
@@ -10404,7 +10404,7 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A492">
-        <v>87400283</v>
+        <v>87400282</v>
       </c>
       <c r="B492">
         <v>2</v>
@@ -10424,7 +10424,7 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A493">
-        <v>87400284</v>
+        <v>87400283</v>
       </c>
       <c r="B493">
         <v>2</v>
@@ -10444,7 +10444,7 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A494">
-        <v>87400285</v>
+        <v>87400284</v>
       </c>
       <c r="B494">
         <v>2</v>
@@ -10464,16 +10464,16 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A495">
-        <v>87400286</v>
+        <v>87400285</v>
       </c>
       <c r="B495">
         <v>2</v>
       </c>
       <c r="C495">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D495">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E495">
         <v>100</v>
@@ -10484,7 +10484,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A496">
-        <v>87400287</v>
+        <v>87400286</v>
       </c>
       <c r="B496">
         <v>2</v>
@@ -10493,7 +10493,7 @@
         <v>58</v>
       </c>
       <c r="D496">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E496">
         <v>100</v>
@@ -10504,7 +10504,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A497">
-        <v>87400288</v>
+        <v>87400287</v>
       </c>
       <c r="B497">
         <v>2</v>
@@ -10524,7 +10524,7 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A498">
-        <v>87400289</v>
+        <v>87400288</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -10544,7 +10544,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A499">
-        <v>87400290</v>
+        <v>87400289</v>
       </c>
       <c r="B499">
         <v>2</v>
@@ -10564,16 +10564,16 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A500">
-        <v>87400291</v>
+        <v>87400290</v>
       </c>
       <c r="B500">
         <v>2</v>
       </c>
       <c r="C500">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D500">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E500">
         <v>100</v>
@@ -10584,7 +10584,7 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A501">
-        <v>87400292</v>
+        <v>87400291</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -10593,7 +10593,7 @@
         <v>59</v>
       </c>
       <c r="D501">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E501">
         <v>100</v>
@@ -10604,7 +10604,7 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A502">
-        <v>87400293</v>
+        <v>87400292</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -10624,7 +10624,7 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A503">
-        <v>87400294</v>
+        <v>87400293</v>
       </c>
       <c r="B503">
         <v>2</v>
@@ -10644,7 +10644,7 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A504">
-        <v>87400295</v>
+        <v>87400294</v>
       </c>
       <c r="B504">
         <v>2</v>
@@ -10664,16 +10664,16 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A505">
-        <v>87400296</v>
+        <v>87400295</v>
       </c>
       <c r="B505">
         <v>2</v>
       </c>
       <c r="C505">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D505">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E505">
         <v>100</v>
@@ -10684,7 +10684,7 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A506">
-        <v>87400297</v>
+        <v>87400296</v>
       </c>
       <c r="B506">
         <v>2</v>
@@ -10693,7 +10693,7 @@
         <v>60</v>
       </c>
       <c r="D506">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E506">
         <v>100</v>
@@ -10704,7 +10704,7 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A507">
-        <v>87400298</v>
+        <v>87400297</v>
       </c>
       <c r="B507">
         <v>2</v>
@@ -10724,7 +10724,7 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A508">
-        <v>87400299</v>
+        <v>87400298</v>
       </c>
       <c r="B508">
         <v>2</v>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A509">
-        <v>87400300</v>
+        <v>87400299</v>
       </c>
       <c r="B509">
         <v>2</v>
@@ -10764,16 +10764,16 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A510">
-        <v>87400301</v>
+        <v>87400300</v>
       </c>
       <c r="B510">
         <v>2</v>
       </c>
       <c r="C510">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D510">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E510">
         <v>100</v>
@@ -10784,7 +10784,7 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A511">
-        <v>87400302</v>
+        <v>87400301</v>
       </c>
       <c r="B511">
         <v>2</v>
@@ -10793,7 +10793,7 @@
         <v>61</v>
       </c>
       <c r="D511">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E511">
         <v>100</v>
@@ -10804,7 +10804,7 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A512">
-        <v>87400303</v>
+        <v>87400302</v>
       </c>
       <c r="B512">
         <v>2</v>
@@ -10824,7 +10824,7 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A513">
-        <v>87400304</v>
+        <v>87400303</v>
       </c>
       <c r="B513">
         <v>2</v>
@@ -10844,7 +10844,7 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A514">
-        <v>87400305</v>
+        <v>87400304</v>
       </c>
       <c r="B514">
         <v>2</v>
@@ -10864,16 +10864,16 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A515">
-        <v>87400306</v>
+        <v>87400305</v>
       </c>
       <c r="B515">
         <v>2</v>
       </c>
       <c r="C515">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D515">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E515">
         <v>100</v>
@@ -10884,7 +10884,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A516">
-        <v>87400307</v>
+        <v>87400306</v>
       </c>
       <c r="B516">
         <v>2</v>
@@ -10893,7 +10893,7 @@
         <v>62</v>
       </c>
       <c r="D516">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E516">
         <v>100</v>
@@ -10904,7 +10904,7 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A517">
-        <v>87400308</v>
+        <v>87400307</v>
       </c>
       <c r="B517">
         <v>2</v>
@@ -10924,7 +10924,7 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A518">
-        <v>87400309</v>
+        <v>87400308</v>
       </c>
       <c r="B518">
         <v>2</v>
@@ -10944,7 +10944,7 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A519">
-        <v>87400310</v>
+        <v>87400309</v>
       </c>
       <c r="B519">
         <v>2</v>
@@ -10964,16 +10964,16 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A520">
-        <v>87400311</v>
+        <v>87400310</v>
       </c>
       <c r="B520">
         <v>2</v>
       </c>
       <c r="C520">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D520">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E520">
         <v>100</v>
@@ -10984,7 +10984,7 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A521">
-        <v>87400312</v>
+        <v>87400311</v>
       </c>
       <c r="B521">
         <v>2</v>
@@ -10993,7 +10993,7 @@
         <v>63</v>
       </c>
       <c r="D521">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E521">
         <v>100</v>
@@ -11004,7 +11004,7 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A522">
-        <v>87400313</v>
+        <v>87400312</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -11024,7 +11024,7 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A523">
-        <v>87400314</v>
+        <v>87400313</v>
       </c>
       <c r="B523">
         <v>2</v>
@@ -11044,7 +11044,7 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A524">
-        <v>87400315</v>
+        <v>87400314</v>
       </c>
       <c r="B524">
         <v>2</v>
@@ -11064,16 +11064,16 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A525">
-        <v>87400316</v>
+        <v>87400315</v>
       </c>
       <c r="B525">
         <v>2</v>
       </c>
       <c r="C525">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D525">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E525">
         <v>100</v>
@@ -11084,7 +11084,7 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A526">
-        <v>87400317</v>
+        <v>87400316</v>
       </c>
       <c r="B526">
         <v>2</v>
@@ -11093,7 +11093,7 @@
         <v>64</v>
       </c>
       <c r="D526">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E526">
         <v>100</v>
@@ -11104,7 +11104,7 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A527">
-        <v>87400318</v>
+        <v>87400317</v>
       </c>
       <c r="B527">
         <v>2</v>
@@ -11124,7 +11124,7 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A528">
-        <v>87400319</v>
+        <v>87400318</v>
       </c>
       <c r="B528">
         <v>2</v>
@@ -11144,7 +11144,7 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A529">
-        <v>87400320</v>
+        <v>87400319</v>
       </c>
       <c r="B529">
         <v>2</v>
@@ -11164,16 +11164,16 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A530">
-        <v>87400321</v>
+        <v>87400320</v>
       </c>
       <c r="B530">
         <v>2</v>
       </c>
       <c r="C530">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D530">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E530">
         <v>100</v>
@@ -11184,7 +11184,7 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A531">
-        <v>87400322</v>
+        <v>87400321</v>
       </c>
       <c r="B531">
         <v>2</v>
@@ -11193,7 +11193,7 @@
         <v>65</v>
       </c>
       <c r="D531">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E531">
         <v>100</v>
@@ -11204,7 +11204,7 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A532">
-        <v>87400323</v>
+        <v>87400322</v>
       </c>
       <c r="B532">
         <v>2</v>
@@ -11224,7 +11224,7 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A533">
-        <v>87400324</v>
+        <v>87400323</v>
       </c>
       <c r="B533">
         <v>2</v>
@@ -11244,7 +11244,7 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A534">
-        <v>87400325</v>
+        <v>87400324</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -11264,16 +11264,16 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A535">
-        <v>87400326</v>
+        <v>87400325</v>
       </c>
       <c r="B535">
         <v>2</v>
       </c>
       <c r="C535">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D535">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E535">
         <v>100</v>
@@ -11284,7 +11284,7 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A536">
-        <v>87400327</v>
+        <v>87400326</v>
       </c>
       <c r="B536">
         <v>2</v>
@@ -11293,7 +11293,7 @@
         <v>66</v>
       </c>
       <c r="D536">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E536">
         <v>100</v>
@@ -11304,7 +11304,7 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A537">
-        <v>87400328</v>
+        <v>87400327</v>
       </c>
       <c r="B537">
         <v>2</v>
@@ -11324,7 +11324,7 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A538">
-        <v>87400329</v>
+        <v>87400328</v>
       </c>
       <c r="B538">
         <v>2</v>
@@ -11344,7 +11344,7 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A539">
-        <v>87400330</v>
+        <v>87400329</v>
       </c>
       <c r="B539">
         <v>2</v>
@@ -11364,16 +11364,16 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A540">
-        <v>87400331</v>
+        <v>87400330</v>
       </c>
       <c r="B540">
         <v>2</v>
       </c>
       <c r="C540">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D540">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E540">
         <v>100</v>
@@ -11384,7 +11384,7 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A541">
-        <v>87400332</v>
+        <v>87400331</v>
       </c>
       <c r="B541">
         <v>2</v>
@@ -11393,7 +11393,7 @@
         <v>67</v>
       </c>
       <c r="D541">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E541">
         <v>100</v>
@@ -11404,7 +11404,7 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A542">
-        <v>87400333</v>
+        <v>87400332</v>
       </c>
       <c r="B542">
         <v>2</v>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A543">
-        <v>87400334</v>
+        <v>87400333</v>
       </c>
       <c r="B543">
         <v>2</v>
@@ -11444,7 +11444,7 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A544">
-        <v>87400335</v>
+        <v>87400334</v>
       </c>
       <c r="B544">
         <v>2</v>
@@ -11464,16 +11464,16 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A545">
-        <v>87400336</v>
+        <v>87400335</v>
       </c>
       <c r="B545">
         <v>2</v>
       </c>
       <c r="C545">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D545">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E545">
         <v>100</v>
@@ -11484,7 +11484,7 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A546">
-        <v>87400337</v>
+        <v>87400336</v>
       </c>
       <c r="B546">
         <v>2</v>
@@ -11493,7 +11493,7 @@
         <v>68</v>
       </c>
       <c r="D546">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E546">
         <v>100</v>
@@ -11504,7 +11504,7 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A547">
-        <v>87400338</v>
+        <v>87400337</v>
       </c>
       <c r="B547">
         <v>2</v>
@@ -11524,7 +11524,7 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A548">
-        <v>87400339</v>
+        <v>87400338</v>
       </c>
       <c r="B548">
         <v>2</v>
@@ -11544,7 +11544,7 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A549">
-        <v>87400340</v>
+        <v>87400339</v>
       </c>
       <c r="B549">
         <v>2</v>
@@ -11564,16 +11564,16 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A550">
-        <v>87400341</v>
+        <v>87400340</v>
       </c>
       <c r="B550">
         <v>2</v>
       </c>
       <c r="C550">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D550">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E550">
         <v>100</v>
@@ -11584,7 +11584,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A551">
-        <v>87400342</v>
+        <v>87400341</v>
       </c>
       <c r="B551">
         <v>2</v>
@@ -11593,7 +11593,7 @@
         <v>69</v>
       </c>
       <c r="D551">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E551">
         <v>100</v>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A552">
-        <v>87400343</v>
+        <v>87400342</v>
       </c>
       <c r="B552">
         <v>2</v>
@@ -11624,7 +11624,7 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A553">
-        <v>87400344</v>
+        <v>87400343</v>
       </c>
       <c r="B553">
         <v>2</v>
@@ -11644,7 +11644,7 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A554">
-        <v>87400345</v>
+        <v>87400344</v>
       </c>
       <c r="B554">
         <v>2</v>
@@ -11664,16 +11664,16 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A555">
-        <v>87400346</v>
+        <v>87400345</v>
       </c>
       <c r="B555">
         <v>2</v>
       </c>
       <c r="C555">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D555">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E555">
         <v>100</v>
@@ -11684,7 +11684,7 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A556">
-        <v>87400347</v>
+        <v>87400346</v>
       </c>
       <c r="B556">
         <v>2</v>
@@ -11693,7 +11693,7 @@
         <v>70</v>
       </c>
       <c r="D556">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E556">
         <v>100</v>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A557">
-        <v>87400348</v>
+        <v>87400347</v>
       </c>
       <c r="B557">
         <v>2</v>
@@ -11724,7 +11724,7 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A558">
-        <v>87400349</v>
+        <v>87400348</v>
       </c>
       <c r="B558">
         <v>2</v>
@@ -11744,7 +11744,7 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A559">
-        <v>87400350</v>
+        <v>87400349</v>
       </c>
       <c r="B559">
         <v>2</v>
@@ -11764,16 +11764,16 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A560">
-        <v>87400351</v>
+        <v>87400350</v>
       </c>
       <c r="B560">
         <v>2</v>
       </c>
       <c r="C560">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D560">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E560">
         <v>100</v>
@@ -11784,7 +11784,7 @@
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A561">
-        <v>87400352</v>
+        <v>87400351</v>
       </c>
       <c r="B561">
         <v>2</v>
@@ -11793,7 +11793,7 @@
         <v>71</v>
       </c>
       <c r="D561">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E561">
         <v>100</v>
@@ -11804,7 +11804,7 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A562">
-        <v>87400353</v>
+        <v>87400352</v>
       </c>
       <c r="B562">
         <v>2</v>
@@ -11824,7 +11824,7 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A563">
-        <v>87400354</v>
+        <v>87400353</v>
       </c>
       <c r="B563">
         <v>2</v>
@@ -11844,7 +11844,7 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A564">
-        <v>87400355</v>
+        <v>87400354</v>
       </c>
       <c r="B564">
         <v>2</v>
@@ -11864,16 +11864,16 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A565">
-        <v>87400356</v>
+        <v>87400355</v>
       </c>
       <c r="B565">
         <v>2</v>
       </c>
       <c r="C565">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D565">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E565">
         <v>100</v>
@@ -11884,7 +11884,7 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A566">
-        <v>87400357</v>
+        <v>87400356</v>
       </c>
       <c r="B566">
         <v>2</v>
@@ -11893,7 +11893,7 @@
         <v>72</v>
       </c>
       <c r="D566">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E566">
         <v>100</v>
@@ -11904,7 +11904,7 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A567">
-        <v>87400358</v>
+        <v>87400357</v>
       </c>
       <c r="B567">
         <v>2</v>
@@ -11924,7 +11924,7 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A568">
-        <v>87400359</v>
+        <v>87400358</v>
       </c>
       <c r="B568">
         <v>2</v>
@@ -11944,7 +11944,7 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A569">
-        <v>87400360</v>
+        <v>87400359</v>
       </c>
       <c r="B569">
         <v>2</v>
@@ -11964,16 +11964,16 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A570">
-        <v>87400361</v>
+        <v>87400360</v>
       </c>
       <c r="B570">
         <v>2</v>
       </c>
       <c r="C570">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D570">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E570">
         <v>100</v>
@@ -11984,7 +11984,7 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A571">
-        <v>87400362</v>
+        <v>87400361</v>
       </c>
       <c r="B571">
         <v>2</v>
@@ -11993,7 +11993,7 @@
         <v>73</v>
       </c>
       <c r="D571">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E571">
         <v>100</v>
@@ -12004,7 +12004,7 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A572">
-        <v>87400363</v>
+        <v>87400362</v>
       </c>
       <c r="B572">
         <v>2</v>
@@ -12024,7 +12024,7 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A573">
-        <v>87400364</v>
+        <v>87400363</v>
       </c>
       <c r="B573">
         <v>2</v>
@@ -12044,7 +12044,7 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A574">
-        <v>87400365</v>
+        <v>87400364</v>
       </c>
       <c r="B574">
         <v>2</v>
@@ -12064,16 +12064,16 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A575">
-        <v>87400366</v>
+        <v>87400365</v>
       </c>
       <c r="B575">
         <v>2</v>
       </c>
       <c r="C575">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D575">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E575">
         <v>100</v>
@@ -12084,7 +12084,7 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A576">
-        <v>87400367</v>
+        <v>87400366</v>
       </c>
       <c r="B576">
         <v>2</v>
@@ -12093,7 +12093,7 @@
         <v>74</v>
       </c>
       <c r="D576">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E576">
         <v>100</v>
@@ -12104,7 +12104,7 @@
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A577">
-        <v>87400368</v>
+        <v>87400367</v>
       </c>
       <c r="B577">
         <v>2</v>
@@ -12124,7 +12124,7 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A578">
-        <v>87400369</v>
+        <v>87400368</v>
       </c>
       <c r="B578">
         <v>2</v>
@@ -12144,7 +12144,7 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A579">
-        <v>87400370</v>
+        <v>87400369</v>
       </c>
       <c r="B579">
         <v>2</v>
@@ -12164,16 +12164,16 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A580">
-        <v>87400371</v>
+        <v>87400370</v>
       </c>
       <c r="B580">
         <v>2</v>
       </c>
       <c r="C580">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D580">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E580">
         <v>100</v>
@@ -12184,7 +12184,7 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A581">
-        <v>87400372</v>
+        <v>87400371</v>
       </c>
       <c r="B581">
         <v>2</v>
@@ -12193,7 +12193,7 @@
         <v>75</v>
       </c>
       <c r="D581">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E581">
         <v>100</v>
@@ -12204,7 +12204,7 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A582">
-        <v>87400373</v>
+        <v>87400372</v>
       </c>
       <c r="B582">
         <v>2</v>
@@ -12224,7 +12224,7 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A583">
-        <v>87400374</v>
+        <v>87400373</v>
       </c>
       <c r="B583">
         <v>2</v>
@@ -12244,7 +12244,7 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A584">
-        <v>87400375</v>
+        <v>87400374</v>
       </c>
       <c r="B584">
         <v>2</v>
@@ -12264,16 +12264,16 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A585">
-        <v>87400376</v>
+        <v>87400375</v>
       </c>
       <c r="B585">
         <v>2</v>
       </c>
       <c r="C585">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D585">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E585">
         <v>100</v>
@@ -12284,7 +12284,7 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A586">
-        <v>87400377</v>
+        <v>87400376</v>
       </c>
       <c r="B586">
         <v>2</v>
@@ -12293,7 +12293,7 @@
         <v>76</v>
       </c>
       <c r="D586">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E586">
         <v>100</v>
@@ -12304,7 +12304,7 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A587">
-        <v>87400378</v>
+        <v>87400377</v>
       </c>
       <c r="B587">
         <v>2</v>
@@ -12324,7 +12324,7 @@
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A588">
-        <v>87400379</v>
+        <v>87400378</v>
       </c>
       <c r="B588">
         <v>2</v>
@@ -12344,7 +12344,7 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A589">
-        <v>87400380</v>
+        <v>87400379</v>
       </c>
       <c r="B589">
         <v>2</v>
@@ -12364,16 +12364,16 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A590">
-        <v>87400381</v>
+        <v>87400380</v>
       </c>
       <c r="B590">
         <v>2</v>
       </c>
       <c r="C590">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D590">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E590">
         <v>100</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A591">
-        <v>87400382</v>
+        <v>87400381</v>
       </c>
       <c r="B591">
         <v>2</v>
@@ -12393,7 +12393,7 @@
         <v>77</v>
       </c>
       <c r="D591">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E591">
         <v>100</v>
@@ -12404,7 +12404,7 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A592">
-        <v>87400383</v>
+        <v>87400382</v>
       </c>
       <c r="B592">
         <v>2</v>
@@ -12424,7 +12424,7 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A593">
-        <v>87400384</v>
+        <v>87400383</v>
       </c>
       <c r="B593">
         <v>2</v>
@@ -12444,7 +12444,7 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A594">
-        <v>87400385</v>
+        <v>87400384</v>
       </c>
       <c r="B594">
         <v>2</v>
@@ -12464,16 +12464,16 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A595">
-        <v>87400386</v>
+        <v>87400385</v>
       </c>
       <c r="B595">
         <v>2</v>
       </c>
       <c r="C595">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D595">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E595">
         <v>100</v>
@@ -12484,7 +12484,7 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A596">
-        <v>87400387</v>
+        <v>87400386</v>
       </c>
       <c r="B596">
         <v>2</v>
@@ -12493,7 +12493,7 @@
         <v>78</v>
       </c>
       <c r="D596">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E596">
         <v>100</v>
@@ -12504,7 +12504,7 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A597">
-        <v>87400388</v>
+        <v>87400387</v>
       </c>
       <c r="B597">
         <v>2</v>
@@ -12524,7 +12524,7 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A598">
-        <v>87400389</v>
+        <v>87400388</v>
       </c>
       <c r="B598">
         <v>2</v>
@@ -12544,7 +12544,7 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A599">
-        <v>87400390</v>
+        <v>87400389</v>
       </c>
       <c r="B599">
         <v>2</v>
@@ -12564,16 +12564,16 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A600">
-        <v>87400391</v>
+        <v>87400390</v>
       </c>
       <c r="B600">
         <v>2</v>
       </c>
       <c r="C600">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D600">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E600">
         <v>100</v>
@@ -12584,7 +12584,7 @@
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A601">
-        <v>87400392</v>
+        <v>87400391</v>
       </c>
       <c r="B601">
         <v>2</v>
@@ -12593,7 +12593,7 @@
         <v>79</v>
       </c>
       <c r="D601">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E601">
         <v>100</v>
@@ -12604,7 +12604,7 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A602">
-        <v>87400393</v>
+        <v>87400392</v>
       </c>
       <c r="B602">
         <v>2</v>
@@ -12624,7 +12624,7 @@
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A603">
-        <v>87400394</v>
+        <v>87400393</v>
       </c>
       <c r="B603">
         <v>2</v>
@@ -12644,7 +12644,7 @@
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A604">
-        <v>87400395</v>
+        <v>87400394</v>
       </c>
       <c r="B604">
         <v>2</v>
@@ -12664,16 +12664,16 @@
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A605">
-        <v>87400396</v>
+        <v>87400395</v>
       </c>
       <c r="B605">
         <v>2</v>
       </c>
       <c r="C605">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D605">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E605">
         <v>100</v>
@@ -12684,7 +12684,7 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A606">
-        <v>87400397</v>
+        <v>87400396</v>
       </c>
       <c r="B606">
         <v>2</v>
@@ -12693,7 +12693,7 @@
         <v>80</v>
       </c>
       <c r="D606">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E606">
         <v>100</v>
@@ -12704,7 +12704,7 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A607">
-        <v>87400398</v>
+        <v>87400397</v>
       </c>
       <c r="B607">
         <v>2</v>
@@ -12724,7 +12724,7 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A608">
-        <v>87400399</v>
+        <v>87400398</v>
       </c>
       <c r="B608">
         <v>2</v>
@@ -12744,7 +12744,7 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A609">
-        <v>87400400</v>
+        <v>87400399</v>
       </c>
       <c r="B609">
         <v>2</v>
@@ -12764,16 +12764,16 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A610">
-        <v>87400401</v>
+        <v>87400400</v>
       </c>
       <c r="B610">
         <v>2</v>
       </c>
       <c r="C610">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D610">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E610">
         <v>100</v>
@@ -12784,7 +12784,7 @@
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A611">
-        <v>87400402</v>
+        <v>87400401</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -12793,7 +12793,7 @@
         <v>81</v>
       </c>
       <c r="D611">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E611">
         <v>100</v>
@@ -12804,7 +12804,7 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A612">
-        <v>87400403</v>
+        <v>87400402</v>
       </c>
       <c r="B612">
         <v>2</v>
@@ -12824,7 +12824,7 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A613">
-        <v>87400404</v>
+        <v>87400403</v>
       </c>
       <c r="B613">
         <v>2</v>
@@ -12844,7 +12844,7 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A614">
-        <v>87400405</v>
+        <v>87400404</v>
       </c>
       <c r="B614">
         <v>2</v>
@@ -12864,16 +12864,16 @@
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A615">
-        <v>87400406</v>
+        <v>87400405</v>
       </c>
       <c r="B615">
         <v>2</v>
       </c>
       <c r="C615">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D615">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E615">
         <v>100</v>
@@ -12884,7 +12884,7 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A616">
-        <v>87400407</v>
+        <v>87400406</v>
       </c>
       <c r="B616">
         <v>2</v>
@@ -12893,7 +12893,7 @@
         <v>82</v>
       </c>
       <c r="D616">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E616">
         <v>100</v>
@@ -12904,7 +12904,7 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A617">
-        <v>87400408</v>
+        <v>87400407</v>
       </c>
       <c r="B617">
         <v>2</v>
@@ -12924,7 +12924,7 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A618">
-        <v>87400409</v>
+        <v>87400408</v>
       </c>
       <c r="B618">
         <v>2</v>
@@ -12944,7 +12944,7 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A619">
-        <v>87400410</v>
+        <v>87400409</v>
       </c>
       <c r="B619">
         <v>2</v>
@@ -12964,16 +12964,16 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A620">
-        <v>87400411</v>
+        <v>87400410</v>
       </c>
       <c r="B620">
         <v>2</v>
       </c>
       <c r="C620">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D620">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E620">
         <v>100</v>
@@ -12984,7 +12984,7 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A621">
-        <v>87400412</v>
+        <v>87400411</v>
       </c>
       <c r="B621">
         <v>2</v>
@@ -12993,7 +12993,7 @@
         <v>83</v>
       </c>
       <c r="D621">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E621">
         <v>100</v>
@@ -13004,7 +13004,7 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A622">
-        <v>87400413</v>
+        <v>87400412</v>
       </c>
       <c r="B622">
         <v>2</v>
@@ -13024,7 +13024,7 @@
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A623">
-        <v>87400414</v>
+        <v>87400413</v>
       </c>
       <c r="B623">
         <v>2</v>
@@ -13044,7 +13044,7 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A624">
-        <v>87400415</v>
+        <v>87400414</v>
       </c>
       <c r="B624">
         <v>2</v>
@@ -13064,16 +13064,16 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A625">
-        <v>87400416</v>
+        <v>87400415</v>
       </c>
       <c r="B625">
         <v>2</v>
       </c>
       <c r="C625">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D625">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E625">
         <v>100</v>
@@ -13084,7 +13084,7 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A626">
-        <v>87400417</v>
+        <v>87400416</v>
       </c>
       <c r="B626">
         <v>2</v>
@@ -13093,7 +13093,7 @@
         <v>84</v>
       </c>
       <c r="D626">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E626">
         <v>100</v>
@@ -13104,7 +13104,7 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A627">
-        <v>87400418</v>
+        <v>87400417</v>
       </c>
       <c r="B627">
         <v>2</v>
@@ -13124,7 +13124,7 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A628">
-        <v>87400419</v>
+        <v>87400418</v>
       </c>
       <c r="B628">
         <v>2</v>
@@ -13144,7 +13144,7 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A629">
-        <v>87400420</v>
+        <v>87400419</v>
       </c>
       <c r="B629">
         <v>2</v>
@@ -13164,16 +13164,16 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A630">
-        <v>87400421</v>
+        <v>87400420</v>
       </c>
       <c r="B630">
         <v>2</v>
       </c>
       <c r="C630">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D630">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E630">
         <v>100</v>
@@ -13184,7 +13184,7 @@
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A631">
-        <v>87400422</v>
+        <v>87400421</v>
       </c>
       <c r="B631">
         <v>2</v>
@@ -13193,7 +13193,7 @@
         <v>85</v>
       </c>
       <c r="D631">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E631">
         <v>100</v>
@@ -13204,7 +13204,7 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A632">
-        <v>87400423</v>
+        <v>87400422</v>
       </c>
       <c r="B632">
         <v>2</v>
@@ -13224,7 +13224,7 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A633">
-        <v>87400424</v>
+        <v>87400423</v>
       </c>
       <c r="B633">
         <v>2</v>
@@ -13244,7 +13244,7 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A634">
-        <v>87400425</v>
+        <v>87400424</v>
       </c>
       <c r="B634">
         <v>2</v>
@@ -13264,16 +13264,16 @@
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A635">
-        <v>87400426</v>
+        <v>87400425</v>
       </c>
       <c r="B635">
         <v>2</v>
       </c>
       <c r="C635">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D635">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E635">
         <v>100</v>
@@ -13284,7 +13284,7 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A636">
-        <v>87400427</v>
+        <v>87400426</v>
       </c>
       <c r="B636">
         <v>2</v>
@@ -13293,7 +13293,7 @@
         <v>86</v>
       </c>
       <c r="D636">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E636">
         <v>100</v>
@@ -13304,7 +13304,7 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A637">
-        <v>87400428</v>
+        <v>87400427</v>
       </c>
       <c r="B637">
         <v>2</v>
@@ -13324,7 +13324,7 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A638">
-        <v>87400429</v>
+        <v>87400428</v>
       </c>
       <c r="B638">
         <v>2</v>
@@ -13344,7 +13344,7 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A639">
-        <v>87400430</v>
+        <v>87400429</v>
       </c>
       <c r="B639">
         <v>2</v>
@@ -13364,16 +13364,16 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A640">
-        <v>87400431</v>
+        <v>87400430</v>
       </c>
       <c r="B640">
         <v>2</v>
       </c>
       <c r="C640">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D640">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E640">
         <v>100</v>
@@ -13384,7 +13384,7 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A641">
-        <v>87400432</v>
+        <v>87400431</v>
       </c>
       <c r="B641">
         <v>2</v>
@@ -13393,7 +13393,7 @@
         <v>87</v>
       </c>
       <c r="D641">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E641">
         <v>100</v>
@@ -13404,7 +13404,7 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A642">
-        <v>87400433</v>
+        <v>87400432</v>
       </c>
       <c r="B642">
         <v>2</v>
@@ -13424,7 +13424,7 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A643">
-        <v>87400434</v>
+        <v>87400433</v>
       </c>
       <c r="B643">
         <v>2</v>
@@ -13444,7 +13444,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A644">
-        <v>87400435</v>
+        <v>87400434</v>
       </c>
       <c r="B644">
         <v>2</v>
@@ -13464,16 +13464,16 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A645">
-        <v>87400436</v>
+        <v>87400435</v>
       </c>
       <c r="B645">
         <v>2</v>
       </c>
       <c r="C645">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D645">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E645">
         <v>100</v>
@@ -13484,7 +13484,7 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A646">
-        <v>87400437</v>
+        <v>87400436</v>
       </c>
       <c r="B646">
         <v>2</v>
@@ -13493,7 +13493,7 @@
         <v>88</v>
       </c>
       <c r="D646">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E646">
         <v>100</v>
@@ -13504,7 +13504,7 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A647">
-        <v>87400438</v>
+        <v>87400437</v>
       </c>
       <c r="B647">
         <v>2</v>
@@ -13524,7 +13524,7 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A648">
-        <v>87400439</v>
+        <v>87400438</v>
       </c>
       <c r="B648">
         <v>2</v>
@@ -13544,7 +13544,7 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A649">
-        <v>87400440</v>
+        <v>87400439</v>
       </c>
       <c r="B649">
         <v>2</v>
@@ -13564,16 +13564,16 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A650">
-        <v>87400441</v>
+        <v>87400440</v>
       </c>
       <c r="B650">
         <v>2</v>
       </c>
       <c r="C650">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D650">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E650">
         <v>100</v>
@@ -13584,7 +13584,7 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A651">
-        <v>87400442</v>
+        <v>87400441</v>
       </c>
       <c r="B651">
         <v>2</v>
@@ -13593,7 +13593,7 @@
         <v>89</v>
       </c>
       <c r="D651">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E651">
         <v>100</v>
@@ -13604,7 +13604,7 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A652">
-        <v>87400443</v>
+        <v>87400442</v>
       </c>
       <c r="B652">
         <v>2</v>
@@ -13624,7 +13624,7 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A653">
-        <v>87400444</v>
+        <v>87400443</v>
       </c>
       <c r="B653">
         <v>2</v>
@@ -13644,7 +13644,7 @@
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A654">
-        <v>87400445</v>
+        <v>87400444</v>
       </c>
       <c r="B654">
         <v>2</v>
@@ -13664,16 +13664,16 @@
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A655">
-        <v>87400446</v>
+        <v>87400445</v>
       </c>
       <c r="B655">
         <v>2</v>
       </c>
       <c r="C655">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D655">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E655">
         <v>100</v>
@@ -13684,7 +13684,7 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A656">
-        <v>87400447</v>
+        <v>87400446</v>
       </c>
       <c r="B656">
         <v>2</v>
@@ -13693,7 +13693,7 @@
         <v>90</v>
       </c>
       <c r="D656">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E656">
         <v>100</v>
@@ -13704,7 +13704,7 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A657">
-        <v>87400448</v>
+        <v>87400447</v>
       </c>
       <c r="B657">
         <v>2</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A658">
-        <v>87400449</v>
+        <v>87400448</v>
       </c>
       <c r="B658">
         <v>2</v>
@@ -13744,7 +13744,7 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A659">
-        <v>87400450</v>
+        <v>87400449</v>
       </c>
       <c r="B659">
         <v>2</v>
@@ -13764,16 +13764,16 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A660">
-        <v>87400451</v>
+        <v>87400450</v>
       </c>
       <c r="B660">
         <v>2</v>
       </c>
       <c r="C660">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D660">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E660">
         <v>100</v>
@@ -13784,7 +13784,7 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A661">
-        <v>87400452</v>
+        <v>87400451</v>
       </c>
       <c r="B661">
         <v>2</v>
@@ -13793,7 +13793,7 @@
         <v>91</v>
       </c>
       <c r="D661">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E661">
         <v>100</v>
@@ -13804,7 +13804,7 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A662">
-        <v>87400453</v>
+        <v>87400452</v>
       </c>
       <c r="B662">
         <v>2</v>
@@ -13824,7 +13824,7 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A663">
-        <v>87400454</v>
+        <v>87400453</v>
       </c>
       <c r="B663">
         <v>2</v>
@@ -13844,7 +13844,7 @@
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A664">
-        <v>87400455</v>
+        <v>87400454</v>
       </c>
       <c r="B664">
         <v>2</v>
@@ -13864,16 +13864,16 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A665">
-        <v>87400456</v>
+        <v>87400455</v>
       </c>
       <c r="B665">
         <v>2</v>
       </c>
       <c r="C665">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D665">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E665">
         <v>100</v>
@@ -13884,7 +13884,7 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A666">
-        <v>87400457</v>
+        <v>87400456</v>
       </c>
       <c r="B666">
         <v>2</v>
@@ -13893,7 +13893,7 @@
         <v>92</v>
       </c>
       <c r="D666">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E666">
         <v>100</v>
@@ -13904,7 +13904,7 @@
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A667">
-        <v>87400458</v>
+        <v>87400457</v>
       </c>
       <c r="B667">
         <v>2</v>
@@ -13924,7 +13924,7 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A668">
-        <v>87400459</v>
+        <v>87400458</v>
       </c>
       <c r="B668">
         <v>2</v>
@@ -13944,7 +13944,7 @@
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A669">
-        <v>87400460</v>
+        <v>87400459</v>
       </c>
       <c r="B669">
         <v>2</v>
@@ -13964,16 +13964,16 @@
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A670">
-        <v>87400461</v>
+        <v>87400460</v>
       </c>
       <c r="B670">
         <v>2</v>
       </c>
       <c r="C670">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D670">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E670">
         <v>100</v>
@@ -13984,7 +13984,7 @@
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A671">
-        <v>87400462</v>
+        <v>87400461</v>
       </c>
       <c r="B671">
         <v>2</v>
@@ -13993,7 +13993,7 @@
         <v>93</v>
       </c>
       <c r="D671">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E671">
         <v>100</v>
@@ -14004,7 +14004,7 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A672">
-        <v>87400463</v>
+        <v>87400462</v>
       </c>
       <c r="B672">
         <v>2</v>
@@ -14024,7 +14024,7 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A673">
-        <v>87400464</v>
+        <v>87400463</v>
       </c>
       <c r="B673">
         <v>2</v>
@@ -14044,7 +14044,7 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A674">
-        <v>87400465</v>
+        <v>87400464</v>
       </c>
       <c r="B674">
         <v>2</v>
@@ -14064,16 +14064,16 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A675">
-        <v>87400466</v>
+        <v>87400465</v>
       </c>
       <c r="B675">
         <v>2</v>
       </c>
       <c r="C675">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D675">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E675">
         <v>100</v>
@@ -14084,7 +14084,7 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A676">
-        <v>87400467</v>
+        <v>87400466</v>
       </c>
       <c r="B676">
         <v>2</v>
@@ -14093,7 +14093,7 @@
         <v>94</v>
       </c>
       <c r="D676">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E676">
         <v>100</v>
@@ -14104,7 +14104,7 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A677">
-        <v>87400468</v>
+        <v>87400467</v>
       </c>
       <c r="B677">
         <v>2</v>
@@ -14124,7 +14124,7 @@
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A678">
-        <v>87400469</v>
+        <v>87400468</v>
       </c>
       <c r="B678">
         <v>2</v>
@@ -14144,7 +14144,7 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A679">
-        <v>87400470</v>
+        <v>87400469</v>
       </c>
       <c r="B679">
         <v>2</v>
@@ -14164,16 +14164,16 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A680">
-        <v>87400471</v>
+        <v>87400470</v>
       </c>
       <c r="B680">
         <v>2</v>
       </c>
       <c r="C680">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D680">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E680">
         <v>100</v>
@@ -14184,7 +14184,7 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A681">
-        <v>87400472</v>
+        <v>87400471</v>
       </c>
       <c r="B681">
         <v>2</v>
@@ -14193,7 +14193,7 @@
         <v>95</v>
       </c>
       <c r="D681">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E681">
         <v>100</v>
@@ -14204,7 +14204,7 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A682">
-        <v>87400473</v>
+        <v>87400472</v>
       </c>
       <c r="B682">
         <v>2</v>
@@ -14224,7 +14224,7 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A683">
-        <v>87400474</v>
+        <v>87400473</v>
       </c>
       <c r="B683">
         <v>2</v>
@@ -14244,7 +14244,7 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A684">
-        <v>87400475</v>
+        <v>87400474</v>
       </c>
       <c r="B684">
         <v>2</v>
@@ -14264,16 +14264,16 @@
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A685">
-        <v>87400476</v>
+        <v>87400475</v>
       </c>
       <c r="B685">
         <v>2</v>
       </c>
       <c r="C685">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D685">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E685">
         <v>100</v>
@@ -14284,7 +14284,7 @@
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A686">
-        <v>87400477</v>
+        <v>87400476</v>
       </c>
       <c r="B686">
         <v>2</v>
@@ -14293,7 +14293,7 @@
         <v>96</v>
       </c>
       <c r="D686">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E686">
         <v>100</v>
@@ -14304,7 +14304,7 @@
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A687">
-        <v>87400478</v>
+        <v>87400477</v>
       </c>
       <c r="B687">
         <v>2</v>
@@ -14324,7 +14324,7 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A688">
-        <v>87400479</v>
+        <v>87400478</v>
       </c>
       <c r="B688">
         <v>2</v>
@@ -14344,7 +14344,7 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A689">
-        <v>87400480</v>
+        <v>87400479</v>
       </c>
       <c r="B689">
         <v>2</v>
@@ -14364,16 +14364,16 @@
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A690">
-        <v>87400481</v>
+        <v>87400480</v>
       </c>
       <c r="B690">
         <v>2</v>
       </c>
       <c r="C690">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D690">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E690">
         <v>100</v>
@@ -14384,7 +14384,7 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A691">
-        <v>87400482</v>
+        <v>87400481</v>
       </c>
       <c r="B691">
         <v>2</v>
@@ -14393,7 +14393,7 @@
         <v>97</v>
       </c>
       <c r="D691">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E691">
         <v>100</v>
@@ -14404,7 +14404,7 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A692">
-        <v>87400483</v>
+        <v>87400482</v>
       </c>
       <c r="B692">
         <v>2</v>
@@ -14424,7 +14424,7 @@
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A693">
-        <v>87400484</v>
+        <v>87400483</v>
       </c>
       <c r="B693">
         <v>2</v>
@@ -14444,7 +14444,7 @@
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A694">
-        <v>87400485</v>
+        <v>87400484</v>
       </c>
       <c r="B694">
         <v>2</v>
@@ -14464,16 +14464,16 @@
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A695">
-        <v>87400486</v>
+        <v>87400485</v>
       </c>
       <c r="B695">
         <v>2</v>
       </c>
       <c r="C695">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D695">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E695">
         <v>100</v>
@@ -14484,7 +14484,7 @@
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A696">
-        <v>87400487</v>
+        <v>87400486</v>
       </c>
       <c r="B696">
         <v>2</v>
@@ -14493,7 +14493,7 @@
         <v>98</v>
       </c>
       <c r="D696">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E696">
         <v>100</v>
@@ -14504,7 +14504,7 @@
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A697">
-        <v>87400488</v>
+        <v>87400487</v>
       </c>
       <c r="B697">
         <v>2</v>
@@ -14524,7 +14524,7 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A698">
-        <v>87400489</v>
+        <v>87400488</v>
       </c>
       <c r="B698">
         <v>2</v>
@@ -14544,7 +14544,7 @@
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A699">
-        <v>87400490</v>
+        <v>87400489</v>
       </c>
       <c r="B699">
         <v>2</v>
@@ -14564,16 +14564,16 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A700">
-        <v>87400491</v>
+        <v>87400490</v>
       </c>
       <c r="B700">
         <v>2</v>
       </c>
       <c r="C700">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D700">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E700">
         <v>100</v>
@@ -14584,7 +14584,7 @@
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A701">
-        <v>87400492</v>
+        <v>87400491</v>
       </c>
       <c r="B701">
         <v>2</v>
@@ -14593,7 +14593,7 @@
         <v>99</v>
       </c>
       <c r="D701">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E701">
         <v>100</v>
@@ -14604,7 +14604,7 @@
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A702">
-        <v>87400493</v>
+        <v>87400492</v>
       </c>
       <c r="B702">
         <v>2</v>
@@ -14624,7 +14624,7 @@
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A703">
-        <v>87400494</v>
+        <v>87400493</v>
       </c>
       <c r="B703">
         <v>2</v>
@@ -14644,7 +14644,7 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A704">
-        <v>87400495</v>
+        <v>87400494</v>
       </c>
       <c r="B704">
         <v>2</v>
@@ -14664,16 +14664,16 @@
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A705">
-        <v>87400496</v>
+        <v>87400495</v>
       </c>
       <c r="B705">
         <v>2</v>
       </c>
       <c r="C705">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D705">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E705">
         <v>100</v>
@@ -14684,7 +14684,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A706">
-        <v>87400497</v>
+        <v>87400496</v>
       </c>
       <c r="B706">
         <v>2</v>
@@ -14693,7 +14693,7 @@
         <v>100</v>
       </c>
       <c r="D706">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E706">
         <v>100</v>
@@ -14704,7 +14704,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A707">
-        <v>87400498</v>
+        <v>87400497</v>
       </c>
       <c r="B707">
         <v>2</v>
@@ -14724,7 +14724,7 @@
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A708">
-        <v>87400499</v>
+        <v>87400498</v>
       </c>
       <c r="B708">
         <v>2</v>
@@ -14744,7 +14744,7 @@
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A709">
-        <v>87400500</v>
+        <v>87400499</v>
       </c>
       <c r="B709">
         <v>2</v>
@@ -14764,16 +14764,16 @@
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A710">
-        <v>87400501</v>
+        <v>87400500</v>
       </c>
       <c r="B710">
         <v>2</v>
       </c>
       <c r="C710">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D710">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E710">
         <v>100</v>
@@ -14784,7 +14784,7 @@
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A711">
-        <v>87400502</v>
+        <v>87400501</v>
       </c>
       <c r="B711">
         <v>2</v>
@@ -14793,7 +14793,7 @@
         <v>101</v>
       </c>
       <c r="D711">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E711">
         <v>100</v>
@@ -14804,7 +14804,7 @@
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A712">
-        <v>87400503</v>
+        <v>87400502</v>
       </c>
       <c r="B712">
         <v>2</v>
@@ -14824,7 +14824,7 @@
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A713">
-        <v>87400504</v>
+        <v>87400503</v>
       </c>
       <c r="B713">
         <v>2</v>
@@ -14844,7 +14844,7 @@
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A714">
-        <v>87400505</v>
+        <v>87400504</v>
       </c>
       <c r="B714">
         <v>2</v>
@@ -14864,16 +14864,16 @@
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A715">
-        <v>87400506</v>
+        <v>87400505</v>
       </c>
       <c r="B715">
         <v>2</v>
       </c>
       <c r="C715">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D715">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E715">
         <v>100</v>
@@ -14884,7 +14884,7 @@
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A716">
-        <v>87400507</v>
+        <v>87400506</v>
       </c>
       <c r="B716">
         <v>2</v>
@@ -14893,7 +14893,7 @@
         <v>102</v>
       </c>
       <c r="D716">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E716">
         <v>100</v>
@@ -14904,7 +14904,7 @@
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A717">
-        <v>87400508</v>
+        <v>87400507</v>
       </c>
       <c r="B717">
         <v>2</v>
@@ -14924,7 +14924,7 @@
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A718">
-        <v>87400509</v>
+        <v>87400508</v>
       </c>
       <c r="B718">
         <v>2</v>
@@ -14944,7 +14944,7 @@
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A719">
-        <v>87400510</v>
+        <v>87400509</v>
       </c>
       <c r="B719">
         <v>2</v>
@@ -14964,16 +14964,16 @@
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A720">
-        <v>87400511</v>
+        <v>87400510</v>
       </c>
       <c r="B720">
         <v>2</v>
       </c>
       <c r="C720">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D720">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E720">
         <v>100</v>
@@ -14984,7 +14984,7 @@
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A721">
-        <v>87400512</v>
+        <v>87400511</v>
       </c>
       <c r="B721">
         <v>2</v>
@@ -14993,7 +14993,7 @@
         <v>103</v>
       </c>
       <c r="D721">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E721">
         <v>100</v>
@@ -15004,7 +15004,7 @@
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A722">
-        <v>87400513</v>
+        <v>87400512</v>
       </c>
       <c r="B722">
         <v>2</v>
@@ -15024,7 +15024,7 @@
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A723">
-        <v>87400514</v>
+        <v>87400513</v>
       </c>
       <c r="B723">
         <v>2</v>
@@ -15044,7 +15044,7 @@
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A724">
-        <v>87400515</v>
+        <v>87400514</v>
       </c>
       <c r="B724">
         <v>2</v>
@@ -15064,16 +15064,16 @@
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A725">
-        <v>87400516</v>
+        <v>87400515</v>
       </c>
       <c r="B725">
         <v>2</v>
       </c>
       <c r="C725">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D725">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E725">
         <v>100</v>
@@ -15084,7 +15084,7 @@
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A726">
-        <v>87400517</v>
+        <v>87400516</v>
       </c>
       <c r="B726">
         <v>2</v>
@@ -15093,7 +15093,7 @@
         <v>104</v>
       </c>
       <c r="D726">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E726">
         <v>100</v>
@@ -15104,7 +15104,7 @@
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A727">
-        <v>87400518</v>
+        <v>87400517</v>
       </c>
       <c r="B727">
         <v>2</v>
@@ -15124,7 +15124,7 @@
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A728">
-        <v>87400519</v>
+        <v>87400518</v>
       </c>
       <c r="B728">
         <v>2</v>
@@ -15144,7 +15144,7 @@
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A729">
-        <v>87400520</v>
+        <v>87400519</v>
       </c>
       <c r="B729">
         <v>2</v>
@@ -15164,16 +15164,16 @@
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A730">
-        <v>87400521</v>
+        <v>87400520</v>
       </c>
       <c r="B730">
         <v>2</v>
       </c>
       <c r="C730">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D730">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E730">
         <v>100</v>
@@ -15184,7 +15184,7 @@
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A731">
-        <v>87400522</v>
+        <v>87400521</v>
       </c>
       <c r="B731">
         <v>2</v>
@@ -15193,7 +15193,7 @@
         <v>105</v>
       </c>
       <c r="D731">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E731">
         <v>100</v>
@@ -15204,7 +15204,7 @@
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A732">
-        <v>87400523</v>
+        <v>87400522</v>
       </c>
       <c r="B732">
         <v>2</v>
@@ -15224,7 +15224,7 @@
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A733">
-        <v>87400524</v>
+        <v>87400523</v>
       </c>
       <c r="B733">
         <v>2</v>
@@ -15244,7 +15244,7 @@
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A734">
-        <v>87400525</v>
+        <v>87400524</v>
       </c>
       <c r="B734">
         <v>2</v>
@@ -15264,16 +15264,16 @@
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A735">
-        <v>87400526</v>
+        <v>87400525</v>
       </c>
       <c r="B735">
         <v>2</v>
       </c>
       <c r="C735">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D735">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E735">
         <v>100</v>
@@ -15284,7 +15284,7 @@
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A736">
-        <v>87400527</v>
+        <v>87400526</v>
       </c>
       <c r="B736">
         <v>2</v>
@@ -15293,7 +15293,7 @@
         <v>106</v>
       </c>
       <c r="D736">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E736">
         <v>100</v>
@@ -15304,7 +15304,7 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A737">
-        <v>87400528</v>
+        <v>87400527</v>
       </c>
       <c r="B737">
         <v>2</v>
@@ -15324,7 +15324,7 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A738">
-        <v>87400529</v>
+        <v>87400528</v>
       </c>
       <c r="B738">
         <v>2</v>
@@ -15344,7 +15344,7 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A739">
-        <v>87400530</v>
+        <v>87400529</v>
       </c>
       <c r="B739">
         <v>2</v>
@@ -15364,16 +15364,16 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A740">
-        <v>87400531</v>
+        <v>87400530</v>
       </c>
       <c r="B740">
         <v>2</v>
       </c>
       <c r="C740">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D740">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E740">
         <v>100</v>
@@ -15384,7 +15384,7 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A741">
-        <v>87400532</v>
+        <v>87400531</v>
       </c>
       <c r="B741">
         <v>2</v>
@@ -15393,7 +15393,7 @@
         <v>107</v>
       </c>
       <c r="D741">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E741">
         <v>100</v>
@@ -15404,7 +15404,7 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A742">
-        <v>87400533</v>
+        <v>87400532</v>
       </c>
       <c r="B742">
         <v>2</v>
@@ -15424,7 +15424,7 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A743">
-        <v>87400534</v>
+        <v>87400533</v>
       </c>
       <c r="B743">
         <v>2</v>
@@ -15444,7 +15444,7 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A744">
-        <v>87400535</v>
+        <v>87400534</v>
       </c>
       <c r="B744">
         <v>2</v>
@@ -15464,16 +15464,16 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A745">
-        <v>87400536</v>
+        <v>87400535</v>
       </c>
       <c r="B745">
         <v>2</v>
       </c>
       <c r="C745">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D745">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E745">
         <v>100</v>
@@ -15484,7 +15484,7 @@
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A746">
-        <v>87400537</v>
+        <v>87400536</v>
       </c>
       <c r="B746">
         <v>2</v>
@@ -15493,7 +15493,7 @@
         <v>108</v>
       </c>
       <c r="D746">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E746">
         <v>100</v>
@@ -15504,7 +15504,7 @@
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A747">
-        <v>87400538</v>
+        <v>87400537</v>
       </c>
       <c r="B747">
         <v>2</v>
@@ -15524,7 +15524,7 @@
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A748">
-        <v>87400539</v>
+        <v>87400538</v>
       </c>
       <c r="B748">
         <v>2</v>
@@ -15544,7 +15544,7 @@
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A749">
-        <v>87400540</v>
+        <v>87400539</v>
       </c>
       <c r="B749">
         <v>2</v>
@@ -15564,16 +15564,16 @@
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A750">
-        <v>87400541</v>
+        <v>87400540</v>
       </c>
       <c r="B750">
         <v>2</v>
       </c>
       <c r="C750">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D750">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E750">
         <v>100</v>
@@ -15584,7 +15584,7 @@
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A751">
-        <v>87400542</v>
+        <v>87400541</v>
       </c>
       <c r="B751">
         <v>2</v>
@@ -15593,7 +15593,7 @@
         <v>109</v>
       </c>
       <c r="D751">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E751">
         <v>100</v>
@@ -15604,7 +15604,7 @@
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A752">
-        <v>87400543</v>
+        <v>87400542</v>
       </c>
       <c r="B752">
         <v>2</v>
@@ -15624,7 +15624,7 @@
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A753">
-        <v>87400544</v>
+        <v>87400543</v>
       </c>
       <c r="B753">
         <v>2</v>
@@ -15644,7 +15644,7 @@
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A754">
-        <v>87400545</v>
+        <v>87400544</v>
       </c>
       <c r="B754">
         <v>2</v>
@@ -15664,16 +15664,16 @@
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A755">
-        <v>87400546</v>
+        <v>87400545</v>
       </c>
       <c r="B755">
         <v>2</v>
       </c>
       <c r="C755">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D755">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E755">
         <v>100</v>
@@ -15684,7 +15684,7 @@
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A756">
-        <v>87400547</v>
+        <v>87400546</v>
       </c>
       <c r="B756">
         <v>2</v>
@@ -15693,7 +15693,7 @@
         <v>110</v>
       </c>
       <c r="D756">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E756">
         <v>100</v>
@@ -15704,7 +15704,7 @@
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A757">
-        <v>87400548</v>
+        <v>87400547</v>
       </c>
       <c r="B757">
         <v>2</v>
@@ -15724,7 +15724,7 @@
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A758">
-        <v>87400549</v>
+        <v>87400548</v>
       </c>
       <c r="B758">
         <v>2</v>
@@ -15744,7 +15744,7 @@
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A759">
-        <v>87400550</v>
+        <v>87400549</v>
       </c>
       <c r="B759">
         <v>2</v>
@@ -15764,16 +15764,16 @@
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A760">
-        <v>87400551</v>
+        <v>87400550</v>
       </c>
       <c r="B760">
         <v>2</v>
       </c>
       <c r="C760">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D760">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E760">
         <v>100</v>
@@ -15784,7 +15784,7 @@
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A761">
-        <v>87400552</v>
+        <v>87400551</v>
       </c>
       <c r="B761">
         <v>2</v>
@@ -15793,7 +15793,7 @@
         <v>111</v>
       </c>
       <c r="D761">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E761">
         <v>100</v>
@@ -15804,7 +15804,7 @@
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A762">
-        <v>87400553</v>
+        <v>87400552</v>
       </c>
       <c r="B762">
         <v>2</v>
@@ -15824,7 +15824,7 @@
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A763">
-        <v>87400554</v>
+        <v>87400553</v>
       </c>
       <c r="B763">
         <v>2</v>
@@ -15844,7 +15844,7 @@
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A764">
-        <v>87400555</v>
+        <v>87400554</v>
       </c>
       <c r="B764">
         <v>2</v>
@@ -15864,16 +15864,16 @@
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A765">
-        <v>87400556</v>
+        <v>87400555</v>
       </c>
       <c r="B765">
         <v>2</v>
       </c>
       <c r="C765">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D765">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E765">
         <v>100</v>
@@ -15884,7 +15884,7 @@
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A766">
-        <v>87400557</v>
+        <v>87400556</v>
       </c>
       <c r="B766">
         <v>2</v>
@@ -15893,7 +15893,7 @@
         <v>112</v>
       </c>
       <c r="D766">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E766">
         <v>100</v>
@@ -15904,7 +15904,7 @@
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A767">
-        <v>87400558</v>
+        <v>87400557</v>
       </c>
       <c r="B767">
         <v>2</v>
@@ -15924,7 +15924,7 @@
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A768">
-        <v>87400559</v>
+        <v>87400558</v>
       </c>
       <c r="B768">
         <v>2</v>
@@ -15944,7 +15944,7 @@
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A769">
-        <v>87400560</v>
+        <v>87400559</v>
       </c>
       <c r="B769">
         <v>2</v>
@@ -15964,16 +15964,16 @@
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A770">
-        <v>87400561</v>
+        <v>87400560</v>
       </c>
       <c r="B770">
         <v>2</v>
       </c>
       <c r="C770">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D770">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E770">
         <v>100</v>
@@ -15984,7 +15984,7 @@
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A771">
-        <v>87400562</v>
+        <v>87400561</v>
       </c>
       <c r="B771">
         <v>2</v>
@@ -15993,7 +15993,7 @@
         <v>113</v>
       </c>
       <c r="D771">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E771">
         <v>100</v>
@@ -16004,7 +16004,7 @@
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A772">
-        <v>87400563</v>
+        <v>87400562</v>
       </c>
       <c r="B772">
         <v>2</v>
@@ -16024,7 +16024,7 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A773">
-        <v>87400564</v>
+        <v>87400563</v>
       </c>
       <c r="B773">
         <v>2</v>
@@ -16044,7 +16044,7 @@
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A774">
-        <v>87400565</v>
+        <v>87400564</v>
       </c>
       <c r="B774">
         <v>2</v>
@@ -16064,16 +16064,16 @@
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A775">
-        <v>87400566</v>
+        <v>87400565</v>
       </c>
       <c r="B775">
         <v>2</v>
       </c>
       <c r="C775">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D775">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E775">
         <v>100</v>
@@ -16084,7 +16084,7 @@
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A776">
-        <v>87400567</v>
+        <v>87400566</v>
       </c>
       <c r="B776">
         <v>2</v>
@@ -16093,7 +16093,7 @@
         <v>114</v>
       </c>
       <c r="D776">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E776">
         <v>100</v>
@@ -16104,7 +16104,7 @@
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A777">
-        <v>87400568</v>
+        <v>87400567</v>
       </c>
       <c r="B777">
         <v>2</v>
@@ -16124,7 +16124,7 @@
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A778">
-        <v>87400569</v>
+        <v>87400568</v>
       </c>
       <c r="B778">
         <v>2</v>
@@ -16139,6 +16139,26 @@
         <v>100</v>
       </c>
       <c r="F778">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A779">
+        <v>87400569</v>
+      </c>
+      <c r="B779">
+        <v>2</v>
+      </c>
+      <c r="C779">
+        <v>114</v>
+      </c>
+      <c r="D779">
+        <v>0</v>
+      </c>
+      <c r="E779">
+        <v>100</v>
+      </c>
+      <c r="F779">
         <v>999</v>
       </c>
     </row>

--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29009"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AF9310-798D-488C-A646-DD5F734E5042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEC982F-A1AA-47C7-99EC-5FC9A4A5C784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,11 +573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F779"/>
+  <dimension ref="A1:F778"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R159" sqref="R159"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>87100131</v>
+        <v>87100132</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>87100132</v>
+        <v>87100133</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -1944,16 +1944,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>87100133</v>
+        <v>87100134</v>
       </c>
       <c r="B69">
         <v>8</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E69">
         <v>100</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>87100134</v>
+        <v>87100135</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>100</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>87100135</v>
+        <v>87100136</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>87100136</v>
+        <v>87100137</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>87100137</v>
+        <v>87100138</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>87100138</v>
+        <v>87100139</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>87100139</v>
+        <v>87100140</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>87100140</v>
+        <v>87100141</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>87100141</v>
+        <v>87100142</v>
       </c>
       <c r="B77">
         <v>8</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>87100142</v>
+        <v>87100143</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>87100143</v>
+        <v>87100144</v>
       </c>
       <c r="B79">
         <v>8</v>
@@ -2164,16 +2164,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>87100144</v>
+        <v>87100145</v>
       </c>
       <c r="B80">
         <v>8</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E80">
         <v>100</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>87100145</v>
+        <v>87100146</v>
       </c>
       <c r="B81">
         <v>8</v>
@@ -2193,7 +2193,7 @@
         <v>5</v>
       </c>
       <c r="D81">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>87100146</v>
+        <v>87100147</v>
       </c>
       <c r="B82">
         <v>8</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>87100147</v>
+        <v>87100148</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>87100148</v>
+        <v>87100149</v>
       </c>
       <c r="B84">
         <v>8</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>87100149</v>
+        <v>87100150</v>
       </c>
       <c r="B85">
         <v>8</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>87100150</v>
+        <v>87100151</v>
       </c>
       <c r="B86">
         <v>8</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>87100151</v>
+        <v>87100152</v>
       </c>
       <c r="B87">
         <v>8</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>87100152</v>
+        <v>87100153</v>
       </c>
       <c r="B88">
         <v>8</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>87100153</v>
+        <v>87100154</v>
       </c>
       <c r="B89">
         <v>8</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>87100154</v>
+        <v>87100155</v>
       </c>
       <c r="B90">
         <v>8</v>
@@ -2384,16 +2384,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>87100155</v>
+        <v>87100156</v>
       </c>
       <c r="B91">
         <v>8</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>87100156</v>
+        <v>87100157</v>
       </c>
       <c r="B92">
         <v>8</v>
@@ -2413,7 +2413,7 @@
         <v>6</v>
       </c>
       <c r="D92">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>100</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>87100157</v>
+        <v>87100158</v>
       </c>
       <c r="B93">
         <v>8</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>87100158</v>
+        <v>87100159</v>
       </c>
       <c r="B94">
         <v>8</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>87100159</v>
+        <v>87100160</v>
       </c>
       <c r="B95">
         <v>8</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>87100160</v>
+        <v>87100161</v>
       </c>
       <c r="B96">
         <v>8</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>87100161</v>
+        <v>87100162</v>
       </c>
       <c r="B97">
         <v>8</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>87100162</v>
+        <v>87100163</v>
       </c>
       <c r="B98">
         <v>8</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>87100163</v>
+        <v>87100164</v>
       </c>
       <c r="B99">
         <v>8</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>87100164</v>
+        <v>87100165</v>
       </c>
       <c r="B100">
         <v>8</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>87100165</v>
+        <v>87100166</v>
       </c>
       <c r="B101">
         <v>8</v>
@@ -2604,16 +2604,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>87100166</v>
+        <v>87100167</v>
       </c>
       <c r="B102">
         <v>8</v>
       </c>
       <c r="C102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102">
         <v>100</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>87100167</v>
+        <v>87100168</v>
       </c>
       <c r="B103">
         <v>8</v>
@@ -2633,7 +2633,7 @@
         <v>7</v>
       </c>
       <c r="D103">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E103">
         <v>100</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>87100168</v>
+        <v>87100169</v>
       </c>
       <c r="B104">
         <v>8</v>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>87100169</v>
+        <v>87100170</v>
       </c>
       <c r="B105">
         <v>8</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>87100170</v>
+        <v>87100171</v>
       </c>
       <c r="B106">
         <v>8</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>87100171</v>
+        <v>87100172</v>
       </c>
       <c r="B107">
         <v>8</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>87100172</v>
+        <v>87100173</v>
       </c>
       <c r="B108">
         <v>8</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>87100173</v>
+        <v>87100174</v>
       </c>
       <c r="B109">
         <v>8</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>87100174</v>
+        <v>87100175</v>
       </c>
       <c r="B110">
         <v>8</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>87100175</v>
+        <v>87100176</v>
       </c>
       <c r="B111">
         <v>8</v>
@@ -2804,7 +2804,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>87100176</v>
+        <v>87100177</v>
       </c>
       <c r="B112">
         <v>8</v>
@@ -2824,16 +2824,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>87100177</v>
+        <v>87100178</v>
       </c>
       <c r="B113">
         <v>8</v>
       </c>
       <c r="C113">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E113">
         <v>100</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>87100178</v>
+        <v>87100179</v>
       </c>
       <c r="B114">
         <v>8</v>
@@ -2853,7 +2853,7 @@
         <v>8</v>
       </c>
       <c r="D114">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E114">
         <v>100</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>87100179</v>
+        <v>87100180</v>
       </c>
       <c r="B115">
         <v>8</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>87100180</v>
+        <v>87100181</v>
       </c>
       <c r="B116">
         <v>8</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>87100181</v>
+        <v>87100182</v>
       </c>
       <c r="B117">
         <v>8</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>87100182</v>
+        <v>87100183</v>
       </c>
       <c r="B118">
         <v>8</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>87100183</v>
+        <v>87100184</v>
       </c>
       <c r="B119">
         <v>8</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>87100184</v>
+        <v>87100185</v>
       </c>
       <c r="B120">
         <v>8</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>87100185</v>
+        <v>87100186</v>
       </c>
       <c r="B121">
         <v>8</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122">
-        <v>87100186</v>
+        <v>87100187</v>
       </c>
       <c r="B122">
         <v>8</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>87100187</v>
+        <v>87100188</v>
       </c>
       <c r="B123">
         <v>8</v>
@@ -3044,16 +3044,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>87100188</v>
+        <v>87100189</v>
       </c>
       <c r="B124">
         <v>8</v>
       </c>
       <c r="C124">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E124">
         <v>100</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>87100189</v>
+        <v>87100190</v>
       </c>
       <c r="B125">
         <v>8</v>
@@ -3073,7 +3073,7 @@
         <v>9</v>
       </c>
       <c r="D125">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E125">
         <v>100</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>87100190</v>
+        <v>87100191</v>
       </c>
       <c r="B126">
         <v>8</v>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>87100191</v>
+        <v>87100192</v>
       </c>
       <c r="B127">
         <v>8</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>87100192</v>
+        <v>87100193</v>
       </c>
       <c r="B128">
         <v>8</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129">
-        <v>87100193</v>
+        <v>87100194</v>
       </c>
       <c r="B129">
         <v>8</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130">
-        <v>87100194</v>
+        <v>87100195</v>
       </c>
       <c r="B130">
         <v>8</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131">
-        <v>87100195</v>
+        <v>87100196</v>
       </c>
       <c r="B131">
         <v>8</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132">
-        <v>87100196</v>
+        <v>87100197</v>
       </c>
       <c r="B132">
         <v>8</v>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133">
-        <v>87100197</v>
+        <v>87100198</v>
       </c>
       <c r="B133">
         <v>8</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134">
-        <v>87100198</v>
+        <v>87100199</v>
       </c>
       <c r="B134">
         <v>8</v>
@@ -3264,16 +3264,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135">
-        <v>87100199</v>
+        <v>87100200</v>
       </c>
       <c r="B135">
         <v>8</v>
       </c>
       <c r="C135">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E135">
         <v>100</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136">
-        <v>87100200</v>
+        <v>87100201</v>
       </c>
       <c r="B136">
         <v>8</v>
@@ -3293,7 +3293,7 @@
         <v>10</v>
       </c>
       <c r="D136">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>100</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137">
-        <v>87100201</v>
+        <v>87100202</v>
       </c>
       <c r="B137">
         <v>8</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138">
-        <v>87100202</v>
+        <v>87100203</v>
       </c>
       <c r="B138">
         <v>8</v>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139">
-        <v>87100203</v>
+        <v>87100204</v>
       </c>
       <c r="B139">
         <v>8</v>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140">
-        <v>87100204</v>
+        <v>87100205</v>
       </c>
       <c r="B140">
         <v>8</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141">
-        <v>87100205</v>
+        <v>87100206</v>
       </c>
       <c r="B141">
         <v>8</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142">
-        <v>87100206</v>
+        <v>87100207</v>
       </c>
       <c r="B142">
         <v>8</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143">
-        <v>87100207</v>
+        <v>87100208</v>
       </c>
       <c r="B143">
         <v>8</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144">
-        <v>87100208</v>
+        <v>87100209</v>
       </c>
       <c r="B144">
         <v>8</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145">
-        <v>87100209</v>
+        <v>87100210</v>
       </c>
       <c r="B145">
         <v>8</v>
@@ -3484,16 +3484,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146">
-        <v>87100210</v>
+        <v>87100211</v>
       </c>
       <c r="B146">
         <v>8</v>
       </c>
       <c r="C146">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E146">
         <v>100</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147">
-        <v>87100211</v>
+        <v>87100212</v>
       </c>
       <c r="B147">
         <v>8</v>
@@ -3513,7 +3513,7 @@
         <v>11</v>
       </c>
       <c r="D147">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E147">
         <v>100</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148">
-        <v>87100212</v>
+        <v>87100213</v>
       </c>
       <c r="B148">
         <v>8</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149">
-        <v>87100213</v>
+        <v>87100214</v>
       </c>
       <c r="B149">
         <v>8</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150">
-        <v>87100214</v>
+        <v>87100215</v>
       </c>
       <c r="B150">
         <v>8</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151">
-        <v>87100215</v>
+        <v>87100216</v>
       </c>
       <c r="B151">
         <v>8</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152">
-        <v>87100216</v>
+        <v>87100217</v>
       </c>
       <c r="B152">
         <v>8</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153">
-        <v>87100217</v>
+        <v>87100218</v>
       </c>
       <c r="B153">
         <v>8</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154">
-        <v>87100218</v>
+        <v>87100219</v>
       </c>
       <c r="B154">
         <v>8</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155">
-        <v>87100219</v>
+        <v>87100220</v>
       </c>
       <c r="B155">
         <v>8</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156">
-        <v>87100220</v>
+        <v>87100221</v>
       </c>
       <c r="B156">
         <v>8</v>
@@ -3704,16 +3704,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157">
-        <v>87100221</v>
+        <v>87100222</v>
       </c>
       <c r="B157">
         <v>8</v>
       </c>
       <c r="C157">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E157">
         <v>100</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158">
-        <v>87100222</v>
+        <v>87100223</v>
       </c>
       <c r="B158">
         <v>8</v>
@@ -3733,7 +3733,7 @@
         <v>12</v>
       </c>
       <c r="D158">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E158">
         <v>100</v>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159">
-        <v>87100223</v>
+        <v>87100224</v>
       </c>
       <c r="B159">
         <v>8</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160">
-        <v>87100224</v>
+        <v>87100225</v>
       </c>
       <c r="B160">
         <v>8</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161">
-        <v>87100225</v>
+        <v>87100226</v>
       </c>
       <c r="B161">
         <v>8</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162">
-        <v>87100226</v>
+        <v>87100227</v>
       </c>
       <c r="B162">
         <v>8</v>
@@ -3824,33 +3824,33 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163">
-        <v>87100227</v>
+        <v>87100228</v>
       </c>
       <c r="B163">
         <v>8</v>
       </c>
       <c r="C163">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E163">
         <v>100</v>
       </c>
       <c r="F163">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164">
-        <v>87100228</v>
+        <v>87200001</v>
       </c>
       <c r="B164">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D164">
         <v>100</v>
@@ -3859,12 +3859,12 @@
         <v>100</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>999</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165">
-        <v>87200001</v>
+        <v>87200002</v>
       </c>
       <c r="B165">
         <v>5</v>
@@ -3873,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E165">
         <v>100</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166">
-        <v>87200002</v>
+        <v>87200003</v>
       </c>
       <c r="B166">
         <v>5</v>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167">
-        <v>87200003</v>
+        <v>87200004</v>
       </c>
       <c r="B167">
         <v>5</v>
@@ -3924,16 +3924,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168">
-        <v>87200004</v>
+        <v>87200005</v>
       </c>
       <c r="B168">
         <v>5</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E168">
         <v>100</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169">
-        <v>87200005</v>
+        <v>87200006</v>
       </c>
       <c r="B169">
         <v>5</v>
@@ -3953,7 +3953,7 @@
         <v>2</v>
       </c>
       <c r="D169">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E169">
         <v>100</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170">
-        <v>87200006</v>
+        <v>87200007</v>
       </c>
       <c r="B170">
         <v>5</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171">
-        <v>87200007</v>
+        <v>87200008</v>
       </c>
       <c r="B171">
         <v>5</v>
@@ -4004,16 +4004,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172">
-        <v>87200008</v>
+        <v>87200009</v>
       </c>
       <c r="B172">
         <v>5</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E172">
         <v>100</v>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173">
-        <v>87200009</v>
+        <v>87200010</v>
       </c>
       <c r="B173">
         <v>5</v>
@@ -4033,7 +4033,7 @@
         <v>3</v>
       </c>
       <c r="D173">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E173">
         <v>100</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174">
-        <v>87200010</v>
+        <v>87200011</v>
       </c>
       <c r="B174">
         <v>5</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175">
-        <v>87200011</v>
+        <v>87200012</v>
       </c>
       <c r="B175">
         <v>5</v>
@@ -4084,16 +4084,16 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176">
-        <v>87200012</v>
+        <v>87200013</v>
       </c>
       <c r="B176">
         <v>5</v>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E176">
         <v>100</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177">
-        <v>87200013</v>
+        <v>87200014</v>
       </c>
       <c r="B177">
         <v>5</v>
@@ -4113,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="D177">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E177">
         <v>100</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178">
-        <v>87200014</v>
+        <v>87200015</v>
       </c>
       <c r="B178">
         <v>5</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179">
-        <v>87200015</v>
+        <v>87200016</v>
       </c>
       <c r="B179">
         <v>5</v>
@@ -4164,16 +4164,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180">
-        <v>87200016</v>
+        <v>87200017</v>
       </c>
       <c r="B180">
         <v>5</v>
       </c>
       <c r="C180">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E180">
         <v>100</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181">
-        <v>87200017</v>
+        <v>87200018</v>
       </c>
       <c r="B181">
         <v>5</v>
@@ -4193,7 +4193,7 @@
         <v>5</v>
       </c>
       <c r="D181">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E181">
         <v>100</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182">
-        <v>87200018</v>
+        <v>87200019</v>
       </c>
       <c r="B182">
         <v>5</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183">
-        <v>87200019</v>
+        <v>87200020</v>
       </c>
       <c r="B183">
         <v>5</v>
@@ -4244,16 +4244,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184">
-        <v>87200020</v>
+        <v>87200021</v>
       </c>
       <c r="B184">
         <v>5</v>
       </c>
       <c r="C184">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E184">
         <v>100</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185">
-        <v>87200021</v>
+        <v>87200022</v>
       </c>
       <c r="B185">
         <v>5</v>
@@ -4273,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="D185">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E185">
         <v>100</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186">
-        <v>87200022</v>
+        <v>87200023</v>
       </c>
       <c r="B186">
         <v>5</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187">
-        <v>87200023</v>
+        <v>87200024</v>
       </c>
       <c r="B187">
         <v>5</v>
@@ -4324,16 +4324,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188">
-        <v>87200024</v>
+        <v>87200025</v>
       </c>
       <c r="B188">
         <v>5</v>
       </c>
       <c r="C188">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E188">
         <v>100</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189">
-        <v>87200025</v>
+        <v>87200026</v>
       </c>
       <c r="B189">
         <v>5</v>
@@ -4353,7 +4353,7 @@
         <v>7</v>
       </c>
       <c r="D189">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E189">
         <v>100</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190">
-        <v>87200026</v>
+        <v>87200027</v>
       </c>
       <c r="B190">
         <v>5</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191">
-        <v>87200027</v>
+        <v>87200028</v>
       </c>
       <c r="B191">
         <v>5</v>
@@ -4404,16 +4404,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192">
-        <v>87200028</v>
+        <v>87300001</v>
       </c>
       <c r="B192">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C192">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E192">
         <v>100</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193">
-        <v>87300001</v>
+        <v>87300002</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194">
-        <v>87300002</v>
+        <v>87300003</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195">
-        <v>87300003</v>
+        <v>87300004</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -4484,13 +4484,13 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196">
-        <v>87300004</v>
+        <v>87300005</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196">
         <v>100</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197">
-        <v>87300005</v>
+        <v>87300006</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -4524,7 +4524,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198">
-        <v>87300006</v>
+        <v>87300007</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -4544,13 +4544,13 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199">
-        <v>87300007</v>
+        <v>87300008</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D199">
         <v>100</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200">
-        <v>87300008</v>
+        <v>87300009</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201">
-        <v>87300009</v>
+        <v>87300010</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -4604,13 +4604,13 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202">
-        <v>87300010</v>
+        <v>87300011</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D202">
         <v>100</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203">
-        <v>87300011</v>
+        <v>87300012</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204">
-        <v>87300012</v>
+        <v>87300013</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -4664,13 +4664,13 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205">
-        <v>87300013</v>
+        <v>87300014</v>
       </c>
       <c r="B205">
         <v>1</v>
       </c>
       <c r="C205">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D205">
         <v>100</v>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206">
-        <v>87300014</v>
+        <v>87300015</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -4704,13 +4704,13 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207">
-        <v>87300015</v>
+        <v>87300016</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
       <c r="C207">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D207">
         <v>100</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208">
-        <v>87300016</v>
+        <v>87300017</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A209">
-        <v>87300017</v>
+        <v>87300018</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -4764,13 +4764,13 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210">
-        <v>87300018</v>
+        <v>87400001</v>
       </c>
       <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210">
         <v>1</v>
-      </c>
-      <c r="C210">
-        <v>6</v>
       </c>
       <c r="D210">
         <v>100</v>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A211">
-        <v>87400001</v>
+        <v>87400002</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -4793,7 +4793,7 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E211">
         <v>100</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212">
-        <v>87400002</v>
+        <v>87400003</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A213">
-        <v>87400003</v>
+        <v>87400004</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A214">
-        <v>87400004</v>
+        <v>87400005</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -4864,16 +4864,16 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A215">
-        <v>87400005</v>
+        <v>87400006</v>
       </c>
       <c r="B215">
         <v>2</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E215">
         <v>100</v>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216">
-        <v>87400006</v>
+        <v>87400007</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -4893,7 +4893,7 @@
         <v>2</v>
       </c>
       <c r="D216">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E216">
         <v>100</v>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A217">
-        <v>87400007</v>
+        <v>87400008</v>
       </c>
       <c r="B217">
         <v>2</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218">
-        <v>87400008</v>
+        <v>87400009</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A219">
-        <v>87400009</v>
+        <v>87400010</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -4964,16 +4964,16 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A220">
-        <v>87400010</v>
+        <v>87400011</v>
       </c>
       <c r="B220">
         <v>2</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E220">
         <v>100</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A221">
-        <v>87400011</v>
+        <v>87400012</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -4993,7 +4993,7 @@
         <v>3</v>
       </c>
       <c r="D221">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E221">
         <v>100</v>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A222">
-        <v>87400012</v>
+        <v>87400013</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A223">
-        <v>87400013</v>
+        <v>87400014</v>
       </c>
       <c r="B223">
         <v>2</v>
@@ -5044,7 +5044,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A224">
-        <v>87400014</v>
+        <v>87400015</v>
       </c>
       <c r="B224">
         <v>2</v>
@@ -5064,16 +5064,16 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A225">
-        <v>87400015</v>
+        <v>87400016</v>
       </c>
       <c r="B225">
         <v>2</v>
       </c>
       <c r="C225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E225">
         <v>100</v>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A226">
-        <v>87400016</v>
+        <v>87400017</v>
       </c>
       <c r="B226">
         <v>2</v>
@@ -5093,7 +5093,7 @@
         <v>4</v>
       </c>
       <c r="D226">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E226">
         <v>100</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A227">
-        <v>87400017</v>
+        <v>87400018</v>
       </c>
       <c r="B227">
         <v>2</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A228">
-        <v>87400018</v>
+        <v>87400019</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A229">
-        <v>87400019</v>
+        <v>87400020</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -5164,16 +5164,16 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A230">
-        <v>87400020</v>
+        <v>87400021</v>
       </c>
       <c r="B230">
         <v>2</v>
       </c>
       <c r="C230">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E230">
         <v>100</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A231">
-        <v>87400021</v>
+        <v>87400022</v>
       </c>
       <c r="B231">
         <v>2</v>
@@ -5193,7 +5193,7 @@
         <v>5</v>
       </c>
       <c r="D231">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E231">
         <v>100</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A232">
-        <v>87400022</v>
+        <v>87400023</v>
       </c>
       <c r="B232">
         <v>2</v>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A233">
-        <v>87400023</v>
+        <v>87400024</v>
       </c>
       <c r="B233">
         <v>2</v>
@@ -5244,7 +5244,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A234">
-        <v>87400024</v>
+        <v>87400025</v>
       </c>
       <c r="B234">
         <v>2</v>
@@ -5264,16 +5264,16 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A235">
-        <v>87400025</v>
+        <v>87400026</v>
       </c>
       <c r="B235">
         <v>2</v>
       </c>
       <c r="C235">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E235">
         <v>100</v>
@@ -5284,7 +5284,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A236">
-        <v>87400026</v>
+        <v>87400027</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -5293,7 +5293,7 @@
         <v>6</v>
       </c>
       <c r="D236">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E236">
         <v>100</v>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A237">
-        <v>87400027</v>
+        <v>87400028</v>
       </c>
       <c r="B237">
         <v>2</v>
@@ -5324,7 +5324,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A238">
-        <v>87400028</v>
+        <v>87400029</v>
       </c>
       <c r="B238">
         <v>2</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A239">
-        <v>87400029</v>
+        <v>87400030</v>
       </c>
       <c r="B239">
         <v>2</v>
@@ -5364,16 +5364,16 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A240">
-        <v>87400030</v>
+        <v>87400031</v>
       </c>
       <c r="B240">
         <v>2</v>
       </c>
       <c r="C240">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D240">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E240">
         <v>100</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A241">
-        <v>87400031</v>
+        <v>87400032</v>
       </c>
       <c r="B241">
         <v>2</v>
@@ -5393,7 +5393,7 @@
         <v>7</v>
       </c>
       <c r="D241">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E241">
         <v>100</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A242">
-        <v>87400032</v>
+        <v>87400033</v>
       </c>
       <c r="B242">
         <v>2</v>
@@ -5424,7 +5424,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A243">
-        <v>87400033</v>
+        <v>87400034</v>
       </c>
       <c r="B243">
         <v>2</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A244">
-        <v>87400034</v>
+        <v>87400035</v>
       </c>
       <c r="B244">
         <v>2</v>
@@ -5464,16 +5464,16 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A245">
-        <v>87400035</v>
+        <v>87400036</v>
       </c>
       <c r="B245">
         <v>2</v>
       </c>
       <c r="C245">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D245">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E245">
         <v>100</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A246">
-        <v>87400036</v>
+        <v>87400037</v>
       </c>
       <c r="B246">
         <v>2</v>
@@ -5493,7 +5493,7 @@
         <v>8</v>
       </c>
       <c r="D246">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E246">
         <v>100</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A247">
-        <v>87400037</v>
+        <v>87400038</v>
       </c>
       <c r="B247">
         <v>2</v>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A248">
-        <v>87400038</v>
+        <v>87400039</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A249">
-        <v>87400039</v>
+        <v>87400040</v>
       </c>
       <c r="B249">
         <v>2</v>
@@ -5564,16 +5564,16 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A250">
-        <v>87400040</v>
+        <v>87400041</v>
       </c>
       <c r="B250">
         <v>2</v>
       </c>
       <c r="C250">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E250">
         <v>100</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A251">
-        <v>87400041</v>
+        <v>87400042</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -5593,7 +5593,7 @@
         <v>9</v>
       </c>
       <c r="D251">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E251">
         <v>100</v>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A252">
-        <v>87400042</v>
+        <v>87400043</v>
       </c>
       <c r="B252">
         <v>2</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A253">
-        <v>87400043</v>
+        <v>87400044</v>
       </c>
       <c r="B253">
         <v>2</v>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A254">
-        <v>87400044</v>
+        <v>87400045</v>
       </c>
       <c r="B254">
         <v>2</v>
@@ -5664,16 +5664,16 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A255">
-        <v>87400045</v>
+        <v>87400046</v>
       </c>
       <c r="B255">
         <v>2</v>
       </c>
       <c r="C255">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E255">
         <v>100</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A256">
-        <v>87400046</v>
+        <v>87400047</v>
       </c>
       <c r="B256">
         <v>2</v>
@@ -5693,7 +5693,7 @@
         <v>10</v>
       </c>
       <c r="D256">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E256">
         <v>100</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A257">
-        <v>87400047</v>
+        <v>87400048</v>
       </c>
       <c r="B257">
         <v>2</v>
@@ -5724,7 +5724,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A258">
-        <v>87400048</v>
+        <v>87400049</v>
       </c>
       <c r="B258">
         <v>2</v>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A259">
-        <v>87400049</v>
+        <v>87400050</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -5764,16 +5764,16 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A260">
-        <v>87400050</v>
+        <v>87400051</v>
       </c>
       <c r="B260">
         <v>2</v>
       </c>
       <c r="C260">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D260">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E260">
         <v>100</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A261">
-        <v>87400051</v>
+        <v>87400052</v>
       </c>
       <c r="B261">
         <v>2</v>
@@ -5793,7 +5793,7 @@
         <v>11</v>
       </c>
       <c r="D261">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E261">
         <v>100</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A262">
-        <v>87400052</v>
+        <v>87400053</v>
       </c>
       <c r="B262">
         <v>2</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A263">
-        <v>87400053</v>
+        <v>87400054</v>
       </c>
       <c r="B263">
         <v>2</v>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A264">
-        <v>87400054</v>
+        <v>87400055</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -5864,16 +5864,16 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A265">
-        <v>87400055</v>
+        <v>87400056</v>
       </c>
       <c r="B265">
         <v>2</v>
       </c>
       <c r="C265">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D265">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E265">
         <v>100</v>
@@ -5884,7 +5884,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A266">
-        <v>87400056</v>
+        <v>87400057</v>
       </c>
       <c r="B266">
         <v>2</v>
@@ -5893,7 +5893,7 @@
         <v>12</v>
       </c>
       <c r="D266">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E266">
         <v>100</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A267">
-        <v>87400057</v>
+        <v>87400058</v>
       </c>
       <c r="B267">
         <v>2</v>
@@ -5924,7 +5924,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A268">
-        <v>87400058</v>
+        <v>87400059</v>
       </c>
       <c r="B268">
         <v>2</v>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A269">
-        <v>87400059</v>
+        <v>87400060</v>
       </c>
       <c r="B269">
         <v>2</v>
@@ -5964,16 +5964,16 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A270">
-        <v>87400060</v>
+        <v>87400061</v>
       </c>
       <c r="B270">
         <v>2</v>
       </c>
       <c r="C270">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E270">
         <v>100</v>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A271">
-        <v>87400061</v>
+        <v>87400062</v>
       </c>
       <c r="B271">
         <v>2</v>
@@ -5993,7 +5993,7 @@
         <v>13</v>
       </c>
       <c r="D271">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E271">
         <v>100</v>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A272">
-        <v>87400062</v>
+        <v>87400063</v>
       </c>
       <c r="B272">
         <v>2</v>
@@ -6024,7 +6024,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A273">
-        <v>87400063</v>
+        <v>87400064</v>
       </c>
       <c r="B273">
         <v>2</v>
@@ -6044,7 +6044,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A274">
-        <v>87400064</v>
+        <v>87400065</v>
       </c>
       <c r="B274">
         <v>2</v>
@@ -6064,16 +6064,16 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A275">
-        <v>87400065</v>
+        <v>87400066</v>
       </c>
       <c r="B275">
         <v>2</v>
       </c>
       <c r="C275">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D275">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E275">
         <v>100</v>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A276">
-        <v>87400066</v>
+        <v>87400067</v>
       </c>
       <c r="B276">
         <v>2</v>
@@ -6093,7 +6093,7 @@
         <v>14</v>
       </c>
       <c r="D276">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E276">
         <v>100</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A277">
-        <v>87400067</v>
+        <v>87400068</v>
       </c>
       <c r="B277">
         <v>2</v>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A278">
-        <v>87400068</v>
+        <v>87400069</v>
       </c>
       <c r="B278">
         <v>2</v>
@@ -6144,7 +6144,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A279">
-        <v>87400069</v>
+        <v>87400070</v>
       </c>
       <c r="B279">
         <v>2</v>
@@ -6164,16 +6164,16 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A280">
-        <v>87400070</v>
+        <v>87400071</v>
       </c>
       <c r="B280">
         <v>2</v>
       </c>
       <c r="C280">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D280">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E280">
         <v>100</v>
@@ -6184,7 +6184,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A281">
-        <v>87400071</v>
+        <v>87400072</v>
       </c>
       <c r="B281">
         <v>2</v>
@@ -6193,7 +6193,7 @@
         <v>15</v>
       </c>
       <c r="D281">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E281">
         <v>100</v>
@@ -6204,7 +6204,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A282">
-        <v>87400072</v>
+        <v>87400073</v>
       </c>
       <c r="B282">
         <v>2</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A283">
-        <v>87400073</v>
+        <v>87400074</v>
       </c>
       <c r="B283">
         <v>2</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A284">
-        <v>87400074</v>
+        <v>87400075</v>
       </c>
       <c r="B284">
         <v>2</v>
@@ -6264,16 +6264,16 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A285">
-        <v>87400075</v>
+        <v>87400076</v>
       </c>
       <c r="B285">
         <v>2</v>
       </c>
       <c r="C285">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D285">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E285">
         <v>100</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A286">
-        <v>87400076</v>
+        <v>87400077</v>
       </c>
       <c r="B286">
         <v>2</v>
@@ -6293,7 +6293,7 @@
         <v>16</v>
       </c>
       <c r="D286">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E286">
         <v>100</v>
@@ -6304,7 +6304,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A287">
-        <v>87400077</v>
+        <v>87400078</v>
       </c>
       <c r="B287">
         <v>2</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A288">
-        <v>87400078</v>
+        <v>87400079</v>
       </c>
       <c r="B288">
         <v>2</v>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A289">
-        <v>87400079</v>
+        <v>87400080</v>
       </c>
       <c r="B289">
         <v>2</v>
@@ -6364,16 +6364,16 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A290">
-        <v>87400080</v>
+        <v>87400081</v>
       </c>
       <c r="B290">
         <v>2</v>
       </c>
       <c r="C290">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D290">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E290">
         <v>100</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A291">
-        <v>87400081</v>
+        <v>87400082</v>
       </c>
       <c r="B291">
         <v>2</v>
@@ -6393,7 +6393,7 @@
         <v>17</v>
       </c>
       <c r="D291">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E291">
         <v>100</v>
@@ -6404,7 +6404,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A292">
-        <v>87400082</v>
+        <v>87400083</v>
       </c>
       <c r="B292">
         <v>2</v>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A293">
-        <v>87400083</v>
+        <v>87400084</v>
       </c>
       <c r="B293">
         <v>2</v>
@@ -6444,7 +6444,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A294">
-        <v>87400084</v>
+        <v>87400085</v>
       </c>
       <c r="B294">
         <v>2</v>
@@ -6464,16 +6464,16 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A295">
-        <v>87400085</v>
+        <v>87400086</v>
       </c>
       <c r="B295">
         <v>2</v>
       </c>
       <c r="C295">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D295">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E295">
         <v>100</v>
@@ -6484,7 +6484,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A296">
-        <v>87400086</v>
+        <v>87400087</v>
       </c>
       <c r="B296">
         <v>2</v>
@@ -6493,7 +6493,7 @@
         <v>18</v>
       </c>
       <c r="D296">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E296">
         <v>100</v>
@@ -6504,7 +6504,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A297">
-        <v>87400087</v>
+        <v>87400088</v>
       </c>
       <c r="B297">
         <v>2</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A298">
-        <v>87400088</v>
+        <v>87400089</v>
       </c>
       <c r="B298">
         <v>2</v>
@@ -6544,7 +6544,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A299">
-        <v>87400089</v>
+        <v>87400090</v>
       </c>
       <c r="B299">
         <v>2</v>
@@ -6564,16 +6564,16 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A300">
-        <v>87400090</v>
+        <v>87400091</v>
       </c>
       <c r="B300">
         <v>2</v>
       </c>
       <c r="C300">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D300">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E300">
         <v>100</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A301">
-        <v>87400091</v>
+        <v>87400092</v>
       </c>
       <c r="B301">
         <v>2</v>
@@ -6593,7 +6593,7 @@
         <v>19</v>
       </c>
       <c r="D301">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E301">
         <v>100</v>
@@ -6604,7 +6604,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A302">
-        <v>87400092</v>
+        <v>87400093</v>
       </c>
       <c r="B302">
         <v>2</v>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A303">
-        <v>87400093</v>
+        <v>87400094</v>
       </c>
       <c r="B303">
         <v>2</v>
@@ -6644,7 +6644,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A304">
-        <v>87400094</v>
+        <v>87400095</v>
       </c>
       <c r="B304">
         <v>2</v>
@@ -6664,16 +6664,16 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A305">
-        <v>87400095</v>
+        <v>87400096</v>
       </c>
       <c r="B305">
         <v>2</v>
       </c>
       <c r="C305">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D305">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E305">
         <v>100</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A306">
-        <v>87400096</v>
+        <v>87400097</v>
       </c>
       <c r="B306">
         <v>2</v>
@@ -6693,7 +6693,7 @@
         <v>20</v>
       </c>
       <c r="D306">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E306">
         <v>100</v>
@@ -6704,7 +6704,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A307">
-        <v>87400097</v>
+        <v>87400098</v>
       </c>
       <c r="B307">
         <v>2</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A308">
-        <v>87400098</v>
+        <v>87400099</v>
       </c>
       <c r="B308">
         <v>2</v>
@@ -6744,7 +6744,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A309">
-        <v>87400099</v>
+        <v>87400100</v>
       </c>
       <c r="B309">
         <v>2</v>
@@ -6764,16 +6764,16 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A310">
-        <v>87400100</v>
+        <v>87400101</v>
       </c>
       <c r="B310">
         <v>2</v>
       </c>
       <c r="C310">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D310">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E310">
         <v>100</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A311">
-        <v>87400101</v>
+        <v>87400102</v>
       </c>
       <c r="B311">
         <v>2</v>
@@ -6793,7 +6793,7 @@
         <v>21</v>
       </c>
       <c r="D311">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E311">
         <v>100</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A312">
-        <v>87400102</v>
+        <v>87400103</v>
       </c>
       <c r="B312">
         <v>2</v>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A313">
-        <v>87400103</v>
+        <v>87400104</v>
       </c>
       <c r="B313">
         <v>2</v>
@@ -6844,7 +6844,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A314">
-        <v>87400104</v>
+        <v>87400105</v>
       </c>
       <c r="B314">
         <v>2</v>
@@ -6864,16 +6864,16 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A315">
-        <v>87400105</v>
+        <v>87400106</v>
       </c>
       <c r="B315">
         <v>2</v>
       </c>
       <c r="C315">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D315">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E315">
         <v>100</v>
@@ -6884,7 +6884,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A316">
-        <v>87400106</v>
+        <v>87400107</v>
       </c>
       <c r="B316">
         <v>2</v>
@@ -6893,7 +6893,7 @@
         <v>22</v>
       </c>
       <c r="D316">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E316">
         <v>100</v>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A317">
-        <v>87400107</v>
+        <v>87400108</v>
       </c>
       <c r="B317">
         <v>2</v>
@@ -6924,7 +6924,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A318">
-        <v>87400108</v>
+        <v>87400109</v>
       </c>
       <c r="B318">
         <v>2</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A319">
-        <v>87400109</v>
+        <v>87400110</v>
       </c>
       <c r="B319">
         <v>2</v>
@@ -6964,16 +6964,16 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A320">
-        <v>87400110</v>
+        <v>87400111</v>
       </c>
       <c r="B320">
         <v>2</v>
       </c>
       <c r="C320">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D320">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E320">
         <v>100</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A321">
-        <v>87400111</v>
+        <v>87400112</v>
       </c>
       <c r="B321">
         <v>2</v>
@@ -6993,7 +6993,7 @@
         <v>23</v>
       </c>
       <c r="D321">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E321">
         <v>100</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A322">
-        <v>87400112</v>
+        <v>87400113</v>
       </c>
       <c r="B322">
         <v>2</v>
@@ -7024,7 +7024,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A323">
-        <v>87400113</v>
+        <v>87400114</v>
       </c>
       <c r="B323">
         <v>2</v>
@@ -7044,7 +7044,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A324">
-        <v>87400114</v>
+        <v>87400115</v>
       </c>
       <c r="B324">
         <v>2</v>
@@ -7064,16 +7064,16 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A325">
-        <v>87400115</v>
+        <v>87400116</v>
       </c>
       <c r="B325">
         <v>2</v>
       </c>
       <c r="C325">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D325">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E325">
         <v>100</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A326">
-        <v>87400116</v>
+        <v>87400117</v>
       </c>
       <c r="B326">
         <v>2</v>
@@ -7093,7 +7093,7 @@
         <v>24</v>
       </c>
       <c r="D326">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E326">
         <v>100</v>
@@ -7104,7 +7104,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A327">
-        <v>87400117</v>
+        <v>87400118</v>
       </c>
       <c r="B327">
         <v>2</v>
@@ -7124,7 +7124,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A328">
-        <v>87400118</v>
+        <v>87400119</v>
       </c>
       <c r="B328">
         <v>2</v>
@@ -7144,7 +7144,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A329">
-        <v>87400119</v>
+        <v>87400120</v>
       </c>
       <c r="B329">
         <v>2</v>
@@ -7164,16 +7164,16 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A330">
-        <v>87400120</v>
+        <v>87400121</v>
       </c>
       <c r="B330">
         <v>2</v>
       </c>
       <c r="C330">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D330">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E330">
         <v>100</v>
@@ -7184,7 +7184,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A331">
-        <v>87400121</v>
+        <v>87400122</v>
       </c>
       <c r="B331">
         <v>2</v>
@@ -7193,7 +7193,7 @@
         <v>25</v>
       </c>
       <c r="D331">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E331">
         <v>100</v>
@@ -7204,7 +7204,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A332">
-        <v>87400122</v>
+        <v>87400123</v>
       </c>
       <c r="B332">
         <v>2</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A333">
-        <v>87400123</v>
+        <v>87400124</v>
       </c>
       <c r="B333">
         <v>2</v>
@@ -7244,7 +7244,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A334">
-        <v>87400124</v>
+        <v>87400125</v>
       </c>
       <c r="B334">
         <v>2</v>
@@ -7264,16 +7264,16 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A335">
-        <v>87400125</v>
+        <v>87400126</v>
       </c>
       <c r="B335">
         <v>2</v>
       </c>
       <c r="C335">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D335">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E335">
         <v>100</v>
@@ -7284,7 +7284,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A336">
-        <v>87400126</v>
+        <v>87400127</v>
       </c>
       <c r="B336">
         <v>2</v>
@@ -7293,7 +7293,7 @@
         <v>26</v>
       </c>
       <c r="D336">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E336">
         <v>100</v>
@@ -7304,7 +7304,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A337">
-        <v>87400127</v>
+        <v>87400128</v>
       </c>
       <c r="B337">
         <v>2</v>
@@ -7324,7 +7324,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A338">
-        <v>87400128</v>
+        <v>87400129</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A339">
-        <v>87400129</v>
+        <v>87400130</v>
       </c>
       <c r="B339">
         <v>2</v>
@@ -7364,16 +7364,16 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A340">
-        <v>87400130</v>
+        <v>87400131</v>
       </c>
       <c r="B340">
         <v>2</v>
       </c>
       <c r="C340">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D340">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E340">
         <v>100</v>
@@ -7384,7 +7384,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A341">
-        <v>87400131</v>
+        <v>87400132</v>
       </c>
       <c r="B341">
         <v>2</v>
@@ -7393,7 +7393,7 @@
         <v>27</v>
       </c>
       <c r="D341">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E341">
         <v>100</v>
@@ -7404,7 +7404,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A342">
-        <v>87400132</v>
+        <v>87400133</v>
       </c>
       <c r="B342">
         <v>2</v>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A343">
-        <v>87400133</v>
+        <v>87400134</v>
       </c>
       <c r="B343">
         <v>2</v>
@@ -7444,7 +7444,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A344">
-        <v>87400134</v>
+        <v>87400135</v>
       </c>
       <c r="B344">
         <v>2</v>
@@ -7464,16 +7464,16 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A345">
-        <v>87400135</v>
+        <v>87400136</v>
       </c>
       <c r="B345">
         <v>2</v>
       </c>
       <c r="C345">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D345">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E345">
         <v>100</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A346">
-        <v>87400136</v>
+        <v>87400137</v>
       </c>
       <c r="B346">
         <v>2</v>
@@ -7493,7 +7493,7 @@
         <v>28</v>
       </c>
       <c r="D346">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E346">
         <v>100</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A347">
-        <v>87400137</v>
+        <v>87400138</v>
       </c>
       <c r="B347">
         <v>2</v>
@@ -7524,7 +7524,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A348">
-        <v>87400138</v>
+        <v>87400139</v>
       </c>
       <c r="B348">
         <v>2</v>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A349">
-        <v>87400139</v>
+        <v>87400140</v>
       </c>
       <c r="B349">
         <v>2</v>
@@ -7564,16 +7564,16 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A350">
-        <v>87400140</v>
+        <v>87400141</v>
       </c>
       <c r="B350">
         <v>2</v>
       </c>
       <c r="C350">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D350">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E350">
         <v>100</v>
@@ -7584,7 +7584,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A351">
-        <v>87400141</v>
+        <v>87400142</v>
       </c>
       <c r="B351">
         <v>2</v>
@@ -7593,7 +7593,7 @@
         <v>29</v>
       </c>
       <c r="D351">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E351">
         <v>100</v>
@@ -7604,7 +7604,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A352">
-        <v>87400142</v>
+        <v>87400143</v>
       </c>
       <c r="B352">
         <v>2</v>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A353">
-        <v>87400143</v>
+        <v>87400144</v>
       </c>
       <c r="B353">
         <v>2</v>
@@ -7644,7 +7644,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A354">
-        <v>87400144</v>
+        <v>87400145</v>
       </c>
       <c r="B354">
         <v>2</v>
@@ -7664,16 +7664,16 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A355">
-        <v>87400145</v>
+        <v>87400146</v>
       </c>
       <c r="B355">
         <v>2</v>
       </c>
       <c r="C355">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D355">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E355">
         <v>100</v>
@@ -7684,7 +7684,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A356">
-        <v>87400146</v>
+        <v>87400147</v>
       </c>
       <c r="B356">
         <v>2</v>
@@ -7693,7 +7693,7 @@
         <v>30</v>
       </c>
       <c r="D356">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E356">
         <v>100</v>
@@ -7704,7 +7704,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A357">
-        <v>87400147</v>
+        <v>87400148</v>
       </c>
       <c r="B357">
         <v>2</v>
@@ -7724,7 +7724,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A358">
-        <v>87400148</v>
+        <v>87400149</v>
       </c>
       <c r="B358">
         <v>2</v>
@@ -7744,7 +7744,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A359">
-        <v>87400149</v>
+        <v>87400150</v>
       </c>
       <c r="B359">
         <v>2</v>
@@ -7764,16 +7764,16 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A360">
-        <v>87400150</v>
+        <v>87400151</v>
       </c>
       <c r="B360">
         <v>2</v>
       </c>
       <c r="C360">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D360">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E360">
         <v>100</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A361">
-        <v>87400151</v>
+        <v>87400152</v>
       </c>
       <c r="B361">
         <v>2</v>
@@ -7793,7 +7793,7 @@
         <v>31</v>
       </c>
       <c r="D361">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E361">
         <v>100</v>
@@ -7804,7 +7804,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A362">
-        <v>87400152</v>
+        <v>87400153</v>
       </c>
       <c r="B362">
         <v>2</v>
@@ -7824,7 +7824,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A363">
-        <v>87400153</v>
+        <v>87400154</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -7844,7 +7844,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A364">
-        <v>87400154</v>
+        <v>87400155</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -7864,16 +7864,16 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A365">
-        <v>87400155</v>
+        <v>87400156</v>
       </c>
       <c r="B365">
         <v>2</v>
       </c>
       <c r="C365">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D365">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E365">
         <v>100</v>
@@ -7884,7 +7884,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A366">
-        <v>87400156</v>
+        <v>87400157</v>
       </c>
       <c r="B366">
         <v>2</v>
@@ -7893,7 +7893,7 @@
         <v>32</v>
       </c>
       <c r="D366">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E366">
         <v>100</v>
@@ -7904,7 +7904,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A367">
-        <v>87400157</v>
+        <v>87400158</v>
       </c>
       <c r="B367">
         <v>2</v>
@@ -7924,7 +7924,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A368">
-        <v>87400158</v>
+        <v>87400159</v>
       </c>
       <c r="B368">
         <v>2</v>
@@ -7944,7 +7944,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A369">
-        <v>87400159</v>
+        <v>87400160</v>
       </c>
       <c r="B369">
         <v>2</v>
@@ -7964,16 +7964,16 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A370">
-        <v>87400160</v>
+        <v>87400161</v>
       </c>
       <c r="B370">
         <v>2</v>
       </c>
       <c r="C370">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D370">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E370">
         <v>100</v>
@@ -7984,7 +7984,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A371">
-        <v>87400161</v>
+        <v>87400162</v>
       </c>
       <c r="B371">
         <v>2</v>
@@ -7993,7 +7993,7 @@
         <v>33</v>
       </c>
       <c r="D371">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E371">
         <v>100</v>
@@ -8004,7 +8004,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A372">
-        <v>87400162</v>
+        <v>87400163</v>
       </c>
       <c r="B372">
         <v>2</v>
@@ -8024,7 +8024,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A373">
-        <v>87400163</v>
+        <v>87400164</v>
       </c>
       <c r="B373">
         <v>2</v>
@@ -8044,7 +8044,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A374">
-        <v>87400164</v>
+        <v>87400165</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -8064,16 +8064,16 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A375">
-        <v>87400165</v>
+        <v>87400166</v>
       </c>
       <c r="B375">
         <v>2</v>
       </c>
       <c r="C375">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D375">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E375">
         <v>100</v>
@@ -8084,7 +8084,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A376">
-        <v>87400166</v>
+        <v>87400167</v>
       </c>
       <c r="B376">
         <v>2</v>
@@ -8093,7 +8093,7 @@
         <v>34</v>
       </c>
       <c r="D376">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E376">
         <v>100</v>
@@ -8104,7 +8104,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A377">
-        <v>87400167</v>
+        <v>87400168</v>
       </c>
       <c r="B377">
         <v>2</v>
@@ -8124,7 +8124,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A378">
-        <v>87400168</v>
+        <v>87400169</v>
       </c>
       <c r="B378">
         <v>2</v>
@@ -8144,7 +8144,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A379">
-        <v>87400169</v>
+        <v>87400170</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -8164,16 +8164,16 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A380">
-        <v>87400170</v>
+        <v>87400171</v>
       </c>
       <c r="B380">
         <v>2</v>
       </c>
       <c r="C380">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D380">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E380">
         <v>100</v>
@@ -8184,7 +8184,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A381">
-        <v>87400171</v>
+        <v>87400172</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -8193,7 +8193,7 @@
         <v>35</v>
       </c>
       <c r="D381">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E381">
         <v>100</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A382">
-        <v>87400172</v>
+        <v>87400173</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -8224,7 +8224,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A383">
-        <v>87400173</v>
+        <v>87400174</v>
       </c>
       <c r="B383">
         <v>2</v>
@@ -8244,7 +8244,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A384">
-        <v>87400174</v>
+        <v>87400175</v>
       </c>
       <c r="B384">
         <v>2</v>
@@ -8264,16 +8264,16 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A385">
-        <v>87400175</v>
+        <v>87400176</v>
       </c>
       <c r="B385">
         <v>2</v>
       </c>
       <c r="C385">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D385">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E385">
         <v>100</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A386">
-        <v>87400176</v>
+        <v>87400177</v>
       </c>
       <c r="B386">
         <v>2</v>
@@ -8293,7 +8293,7 @@
         <v>36</v>
       </c>
       <c r="D386">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E386">
         <v>100</v>
@@ -8304,7 +8304,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A387">
-        <v>87400177</v>
+        <v>87400178</v>
       </c>
       <c r="B387">
         <v>2</v>
@@ -8324,7 +8324,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A388">
-        <v>87400178</v>
+        <v>87400179</v>
       </c>
       <c r="B388">
         <v>2</v>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A389">
-        <v>87400179</v>
+        <v>87400180</v>
       </c>
       <c r="B389">
         <v>2</v>
@@ -8364,16 +8364,16 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A390">
-        <v>87400180</v>
+        <v>87400181</v>
       </c>
       <c r="B390">
         <v>2</v>
       </c>
       <c r="C390">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D390">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E390">
         <v>100</v>
@@ -8384,7 +8384,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A391">
-        <v>87400181</v>
+        <v>87400182</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -8393,7 +8393,7 @@
         <v>37</v>
       </c>
       <c r="D391">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E391">
         <v>100</v>
@@ -8404,7 +8404,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A392">
-        <v>87400182</v>
+        <v>87400183</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -8424,7 +8424,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A393">
-        <v>87400183</v>
+        <v>87400184</v>
       </c>
       <c r="B393">
         <v>2</v>
@@ -8444,7 +8444,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A394">
-        <v>87400184</v>
+        <v>87400185</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -8464,16 +8464,16 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A395">
-        <v>87400185</v>
+        <v>87400186</v>
       </c>
       <c r="B395">
         <v>2</v>
       </c>
       <c r="C395">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D395">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E395">
         <v>100</v>
@@ -8484,7 +8484,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A396">
-        <v>87400186</v>
+        <v>87400187</v>
       </c>
       <c r="B396">
         <v>2</v>
@@ -8493,7 +8493,7 @@
         <v>38</v>
       </c>
       <c r="D396">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E396">
         <v>100</v>
@@ -8504,7 +8504,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A397">
-        <v>87400187</v>
+        <v>87400188</v>
       </c>
       <c r="B397">
         <v>2</v>
@@ -8524,7 +8524,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A398">
-        <v>87400188</v>
+        <v>87400189</v>
       </c>
       <c r="B398">
         <v>2</v>
@@ -8544,7 +8544,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A399">
-        <v>87400189</v>
+        <v>87400190</v>
       </c>
       <c r="B399">
         <v>2</v>
@@ -8564,16 +8564,16 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A400">
-        <v>87400190</v>
+        <v>87400191</v>
       </c>
       <c r="B400">
         <v>2</v>
       </c>
       <c r="C400">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D400">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E400">
         <v>100</v>
@@ -8584,7 +8584,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A401">
-        <v>87400191</v>
+        <v>87400192</v>
       </c>
       <c r="B401">
         <v>2</v>
@@ -8593,7 +8593,7 @@
         <v>39</v>
       </c>
       <c r="D401">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E401">
         <v>100</v>
@@ -8604,7 +8604,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A402">
-        <v>87400192</v>
+        <v>87400193</v>
       </c>
       <c r="B402">
         <v>2</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A403">
-        <v>87400193</v>
+        <v>87400194</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -8644,7 +8644,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A404">
-        <v>87400194</v>
+        <v>87400195</v>
       </c>
       <c r="B404">
         <v>2</v>
@@ -8664,16 +8664,16 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A405">
-        <v>87400195</v>
+        <v>87400196</v>
       </c>
       <c r="B405">
         <v>2</v>
       </c>
       <c r="C405">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D405">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E405">
         <v>100</v>
@@ -8684,7 +8684,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A406">
-        <v>87400196</v>
+        <v>87400197</v>
       </c>
       <c r="B406">
         <v>2</v>
@@ -8693,7 +8693,7 @@
         <v>40</v>
       </c>
       <c r="D406">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E406">
         <v>100</v>
@@ -8704,7 +8704,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A407">
-        <v>87400197</v>
+        <v>87400198</v>
       </c>
       <c r="B407">
         <v>2</v>
@@ -8724,7 +8724,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A408">
-        <v>87400198</v>
+        <v>87400199</v>
       </c>
       <c r="B408">
         <v>2</v>
@@ -8744,7 +8744,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A409">
-        <v>87400199</v>
+        <v>87400200</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -8764,16 +8764,16 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A410">
-        <v>87400200</v>
+        <v>87400201</v>
       </c>
       <c r="B410">
         <v>2</v>
       </c>
       <c r="C410">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D410">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E410">
         <v>100</v>
@@ -8784,7 +8784,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A411">
-        <v>87400201</v>
+        <v>87400202</v>
       </c>
       <c r="B411">
         <v>2</v>
@@ -8793,7 +8793,7 @@
         <v>41</v>
       </c>
       <c r="D411">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E411">
         <v>100</v>
@@ -8804,7 +8804,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A412">
-        <v>87400202</v>
+        <v>87400203</v>
       </c>
       <c r="B412">
         <v>2</v>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A413">
-        <v>87400203</v>
+        <v>87400204</v>
       </c>
       <c r="B413">
         <v>2</v>
@@ -8844,7 +8844,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A414">
-        <v>87400204</v>
+        <v>87400205</v>
       </c>
       <c r="B414">
         <v>2</v>
@@ -8864,16 +8864,16 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A415">
-        <v>87400205</v>
+        <v>87400206</v>
       </c>
       <c r="B415">
         <v>2</v>
       </c>
       <c r="C415">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D415">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E415">
         <v>100</v>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A416">
-        <v>87400206</v>
+        <v>87400207</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -8893,7 +8893,7 @@
         <v>42</v>
       </c>
       <c r="D416">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E416">
         <v>100</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A417">
-        <v>87400207</v>
+        <v>87400208</v>
       </c>
       <c r="B417">
         <v>2</v>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A418">
-        <v>87400208</v>
+        <v>87400209</v>
       </c>
       <c r="B418">
         <v>2</v>
@@ -8944,7 +8944,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A419">
-        <v>87400209</v>
+        <v>87400210</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -8964,16 +8964,16 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A420">
-        <v>87400210</v>
+        <v>87400211</v>
       </c>
       <c r="B420">
         <v>2</v>
       </c>
       <c r="C420">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D420">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E420">
         <v>100</v>
@@ -8984,7 +8984,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A421">
-        <v>87400211</v>
+        <v>87400212</v>
       </c>
       <c r="B421">
         <v>2</v>
@@ -8993,7 +8993,7 @@
         <v>43</v>
       </c>
       <c r="D421">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E421">
         <v>100</v>
@@ -9004,7 +9004,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A422">
-        <v>87400212</v>
+        <v>87400213</v>
       </c>
       <c r="B422">
         <v>2</v>
@@ -9024,7 +9024,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A423">
-        <v>87400213</v>
+        <v>87400214</v>
       </c>
       <c r="B423">
         <v>2</v>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A424">
-        <v>87400214</v>
+        <v>87400215</v>
       </c>
       <c r="B424">
         <v>2</v>
@@ -9064,16 +9064,16 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A425">
-        <v>87400215</v>
+        <v>87400216</v>
       </c>
       <c r="B425">
         <v>2</v>
       </c>
       <c r="C425">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D425">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E425">
         <v>100</v>
@@ -9084,7 +9084,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A426">
-        <v>87400216</v>
+        <v>87400217</v>
       </c>
       <c r="B426">
         <v>2</v>
@@ -9093,7 +9093,7 @@
         <v>44</v>
       </c>
       <c r="D426">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E426">
         <v>100</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A427">
-        <v>87400217</v>
+        <v>87400218</v>
       </c>
       <c r="B427">
         <v>2</v>
@@ -9124,7 +9124,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A428">
-        <v>87400218</v>
+        <v>87400219</v>
       </c>
       <c r="B428">
         <v>2</v>
@@ -9144,7 +9144,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A429">
-        <v>87400219</v>
+        <v>87400220</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -9164,16 +9164,16 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A430">
-        <v>87400220</v>
+        <v>87400221</v>
       </c>
       <c r="B430">
         <v>2</v>
       </c>
       <c r="C430">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D430">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E430">
         <v>100</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A431">
-        <v>87400221</v>
+        <v>87400222</v>
       </c>
       <c r="B431">
         <v>2</v>
@@ -9193,7 +9193,7 @@
         <v>45</v>
       </c>
       <c r="D431">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E431">
         <v>100</v>
@@ -9204,7 +9204,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A432">
-        <v>87400222</v>
+        <v>87400223</v>
       </c>
       <c r="B432">
         <v>2</v>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A433">
-        <v>87400223</v>
+        <v>87400224</v>
       </c>
       <c r="B433">
         <v>2</v>
@@ -9244,7 +9244,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A434">
-        <v>87400224</v>
+        <v>87400225</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -9264,16 +9264,16 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A435">
-        <v>87400225</v>
+        <v>87400226</v>
       </c>
       <c r="B435">
         <v>2</v>
       </c>
       <c r="C435">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D435">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E435">
         <v>100</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A436">
-        <v>87400226</v>
+        <v>87400227</v>
       </c>
       <c r="B436">
         <v>2</v>
@@ -9293,7 +9293,7 @@
         <v>46</v>
       </c>
       <c r="D436">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E436">
         <v>100</v>
@@ -9304,7 +9304,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A437">
-        <v>87400227</v>
+        <v>87400228</v>
       </c>
       <c r="B437">
         <v>2</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A438">
-        <v>87400228</v>
+        <v>87400229</v>
       </c>
       <c r="B438">
         <v>2</v>
@@ -9344,7 +9344,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A439">
-        <v>87400229</v>
+        <v>87400230</v>
       </c>
       <c r="B439">
         <v>2</v>
@@ -9364,16 +9364,16 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A440">
-        <v>87400230</v>
+        <v>87400231</v>
       </c>
       <c r="B440">
         <v>2</v>
       </c>
       <c r="C440">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D440">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E440">
         <v>100</v>
@@ -9384,7 +9384,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A441">
-        <v>87400231</v>
+        <v>87400232</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -9393,7 +9393,7 @@
         <v>47</v>
       </c>
       <c r="D441">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E441">
         <v>100</v>
@@ -9404,7 +9404,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A442">
-        <v>87400232</v>
+        <v>87400233</v>
       </c>
       <c r="B442">
         <v>2</v>
@@ -9424,7 +9424,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A443">
-        <v>87400233</v>
+        <v>87400234</v>
       </c>
       <c r="B443">
         <v>2</v>
@@ -9444,7 +9444,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A444">
-        <v>87400234</v>
+        <v>87400235</v>
       </c>
       <c r="B444">
         <v>2</v>
@@ -9464,16 +9464,16 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A445">
-        <v>87400235</v>
+        <v>87400236</v>
       </c>
       <c r="B445">
         <v>2</v>
       </c>
       <c r="C445">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D445">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E445">
         <v>100</v>
@@ -9484,7 +9484,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A446">
-        <v>87400236</v>
+        <v>87400237</v>
       </c>
       <c r="B446">
         <v>2</v>
@@ -9493,7 +9493,7 @@
         <v>48</v>
       </c>
       <c r="D446">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E446">
         <v>100</v>
@@ -9504,7 +9504,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A447">
-        <v>87400237</v>
+        <v>87400238</v>
       </c>
       <c r="B447">
         <v>2</v>
@@ -9524,7 +9524,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A448">
-        <v>87400238</v>
+        <v>87400239</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -9544,7 +9544,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A449">
-        <v>87400239</v>
+        <v>87400240</v>
       </c>
       <c r="B449">
         <v>2</v>
@@ -9564,16 +9564,16 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A450">
-        <v>87400240</v>
+        <v>87400241</v>
       </c>
       <c r="B450">
         <v>2</v>
       </c>
       <c r="C450">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D450">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E450">
         <v>100</v>
@@ -9584,7 +9584,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A451">
-        <v>87400241</v>
+        <v>87400242</v>
       </c>
       <c r="B451">
         <v>2</v>
@@ -9593,7 +9593,7 @@
         <v>49</v>
       </c>
       <c r="D451">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E451">
         <v>100</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A452">
-        <v>87400242</v>
+        <v>87400243</v>
       </c>
       <c r="B452">
         <v>2</v>
@@ -9624,7 +9624,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A453">
-        <v>87400243</v>
+        <v>87400244</v>
       </c>
       <c r="B453">
         <v>2</v>
@@ -9644,7 +9644,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A454">
-        <v>87400244</v>
+        <v>87400245</v>
       </c>
       <c r="B454">
         <v>2</v>
@@ -9664,16 +9664,16 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A455">
-        <v>87400245</v>
+        <v>87400246</v>
       </c>
       <c r="B455">
         <v>2</v>
       </c>
       <c r="C455">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D455">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E455">
         <v>100</v>
@@ -9684,7 +9684,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A456">
-        <v>87400246</v>
+        <v>87400247</v>
       </c>
       <c r="B456">
         <v>2</v>
@@ -9693,7 +9693,7 @@
         <v>50</v>
       </c>
       <c r="D456">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E456">
         <v>100</v>
@@ -9704,7 +9704,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A457">
-        <v>87400247</v>
+        <v>87400248</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A458">
-        <v>87400248</v>
+        <v>87400249</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -9744,7 +9744,7 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A459">
-        <v>87400249</v>
+        <v>87400250</v>
       </c>
       <c r="B459">
         <v>2</v>
@@ -9764,16 +9764,16 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A460">
-        <v>87400250</v>
+        <v>87400251</v>
       </c>
       <c r="B460">
         <v>2</v>
       </c>
       <c r="C460">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D460">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E460">
         <v>100</v>
@@ -9784,7 +9784,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A461">
-        <v>87400251</v>
+        <v>87400252</v>
       </c>
       <c r="B461">
         <v>2</v>
@@ -9793,7 +9793,7 @@
         <v>51</v>
       </c>
       <c r="D461">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E461">
         <v>100</v>
@@ -9804,7 +9804,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A462">
-        <v>87400252</v>
+        <v>87400253</v>
       </c>
       <c r="B462">
         <v>2</v>
@@ -9824,7 +9824,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A463">
-        <v>87400253</v>
+        <v>87400254</v>
       </c>
       <c r="B463">
         <v>2</v>
@@ -9844,7 +9844,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A464">
-        <v>87400254</v>
+        <v>87400255</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -9864,16 +9864,16 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A465">
-        <v>87400255</v>
+        <v>87400256</v>
       </c>
       <c r="B465">
         <v>2</v>
       </c>
       <c r="C465">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D465">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E465">
         <v>100</v>
@@ -9884,7 +9884,7 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A466">
-        <v>87400256</v>
+        <v>87400257</v>
       </c>
       <c r="B466">
         <v>2</v>
@@ -9893,7 +9893,7 @@
         <v>52</v>
       </c>
       <c r="D466">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E466">
         <v>100</v>
@@ -9904,7 +9904,7 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A467">
-        <v>87400257</v>
+        <v>87400258</v>
       </c>
       <c r="B467">
         <v>2</v>
@@ -9924,7 +9924,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A468">
-        <v>87400258</v>
+        <v>87400259</v>
       </c>
       <c r="B468">
         <v>2</v>
@@ -9944,7 +9944,7 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A469">
-        <v>87400259</v>
+        <v>87400260</v>
       </c>
       <c r="B469">
         <v>2</v>
@@ -9964,16 +9964,16 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A470">
-        <v>87400260</v>
+        <v>87400261</v>
       </c>
       <c r="B470">
         <v>2</v>
       </c>
       <c r="C470">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D470">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E470">
         <v>100</v>
@@ -9984,7 +9984,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A471">
-        <v>87400261</v>
+        <v>87400262</v>
       </c>
       <c r="B471">
         <v>2</v>
@@ -9993,7 +9993,7 @@
         <v>53</v>
       </c>
       <c r="D471">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E471">
         <v>100</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A472">
-        <v>87400262</v>
+        <v>87400263</v>
       </c>
       <c r="B472">
         <v>2</v>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A473">
-        <v>87400263</v>
+        <v>87400264</v>
       </c>
       <c r="B473">
         <v>2</v>
@@ -10044,7 +10044,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A474">
-        <v>87400264</v>
+        <v>87400265</v>
       </c>
       <c r="B474">
         <v>2</v>
@@ -10064,16 +10064,16 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A475">
-        <v>87400265</v>
+        <v>87400266</v>
       </c>
       <c r="B475">
         <v>2</v>
       </c>
       <c r="C475">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D475">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E475">
         <v>100</v>
@@ -10084,7 +10084,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A476">
-        <v>87400266</v>
+        <v>87400267</v>
       </c>
       <c r="B476">
         <v>2</v>
@@ -10093,7 +10093,7 @@
         <v>54</v>
       </c>
       <c r="D476">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E476">
         <v>100</v>
@@ -10104,7 +10104,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A477">
-        <v>87400267</v>
+        <v>87400268</v>
       </c>
       <c r="B477">
         <v>2</v>
@@ -10124,7 +10124,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A478">
-        <v>87400268</v>
+        <v>87400269</v>
       </c>
       <c r="B478">
         <v>2</v>
@@ -10144,7 +10144,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A479">
-        <v>87400269</v>
+        <v>87400270</v>
       </c>
       <c r="B479">
         <v>2</v>
@@ -10164,16 +10164,16 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A480">
-        <v>87400270</v>
+        <v>87400271</v>
       </c>
       <c r="B480">
         <v>2</v>
       </c>
       <c r="C480">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D480">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E480">
         <v>100</v>
@@ -10184,7 +10184,7 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A481">
-        <v>87400271</v>
+        <v>87400272</v>
       </c>
       <c r="B481">
         <v>2</v>
@@ -10193,7 +10193,7 @@
         <v>55</v>
       </c>
       <c r="D481">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E481">
         <v>100</v>
@@ -10204,7 +10204,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A482">
-        <v>87400272</v>
+        <v>87400273</v>
       </c>
       <c r="B482">
         <v>2</v>
@@ -10224,7 +10224,7 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A483">
-        <v>87400273</v>
+        <v>87400274</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -10244,7 +10244,7 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A484">
-        <v>87400274</v>
+        <v>87400275</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -10264,16 +10264,16 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A485">
-        <v>87400275</v>
+        <v>87400276</v>
       </c>
       <c r="B485">
         <v>2</v>
       </c>
       <c r="C485">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D485">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E485">
         <v>100</v>
@@ -10284,7 +10284,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A486">
-        <v>87400276</v>
+        <v>87400277</v>
       </c>
       <c r="B486">
         <v>2</v>
@@ -10293,7 +10293,7 @@
         <v>56</v>
       </c>
       <c r="D486">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E486">
         <v>100</v>
@@ -10304,7 +10304,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A487">
-        <v>87400277</v>
+        <v>87400278</v>
       </c>
       <c r="B487">
         <v>2</v>
@@ -10324,7 +10324,7 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A488">
-        <v>87400278</v>
+        <v>87400279</v>
       </c>
       <c r="B488">
         <v>2</v>
@@ -10344,7 +10344,7 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A489">
-        <v>87400279</v>
+        <v>87400280</v>
       </c>
       <c r="B489">
         <v>2</v>
@@ -10364,16 +10364,16 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A490">
-        <v>87400280</v>
+        <v>87400281</v>
       </c>
       <c r="B490">
         <v>2</v>
       </c>
       <c r="C490">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D490">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E490">
         <v>100</v>
@@ -10384,7 +10384,7 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A491">
-        <v>87400281</v>
+        <v>87400282</v>
       </c>
       <c r="B491">
         <v>2</v>
@@ -10393,7 +10393,7 @@
         <v>57</v>
       </c>
       <c r="D491">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E491">
         <v>100</v>
@@ -10404,7 +10404,7 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A492">
-        <v>87400282</v>
+        <v>87400283</v>
       </c>
       <c r="B492">
         <v>2</v>
@@ -10424,7 +10424,7 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A493">
-        <v>87400283</v>
+        <v>87400284</v>
       </c>
       <c r="B493">
         <v>2</v>
@@ -10444,7 +10444,7 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A494">
-        <v>87400284</v>
+        <v>87400285</v>
       </c>
       <c r="B494">
         <v>2</v>
@@ -10464,16 +10464,16 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A495">
-        <v>87400285</v>
+        <v>87400286</v>
       </c>
       <c r="B495">
         <v>2</v>
       </c>
       <c r="C495">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D495">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E495">
         <v>100</v>
@@ -10484,7 +10484,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A496">
-        <v>87400286</v>
+        <v>87400287</v>
       </c>
       <c r="B496">
         <v>2</v>
@@ -10493,7 +10493,7 @@
         <v>58</v>
       </c>
       <c r="D496">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E496">
         <v>100</v>
@@ -10504,7 +10504,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A497">
-        <v>87400287</v>
+        <v>87400288</v>
       </c>
       <c r="B497">
         <v>2</v>
@@ -10524,7 +10524,7 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A498">
-        <v>87400288</v>
+        <v>87400289</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -10544,7 +10544,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A499">
-        <v>87400289</v>
+        <v>87400290</v>
       </c>
       <c r="B499">
         <v>2</v>
@@ -10564,16 +10564,16 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A500">
-        <v>87400290</v>
+        <v>87400291</v>
       </c>
       <c r="B500">
         <v>2</v>
       </c>
       <c r="C500">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D500">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E500">
         <v>100</v>
@@ -10584,7 +10584,7 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A501">
-        <v>87400291</v>
+        <v>87400292</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -10593,7 +10593,7 @@
         <v>59</v>
       </c>
       <c r="D501">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E501">
         <v>100</v>
@@ -10604,7 +10604,7 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A502">
-        <v>87400292</v>
+        <v>87400293</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -10624,7 +10624,7 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A503">
-        <v>87400293</v>
+        <v>87400294</v>
       </c>
       <c r="B503">
         <v>2</v>
@@ -10644,7 +10644,7 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A504">
-        <v>87400294</v>
+        <v>87400295</v>
       </c>
       <c r="B504">
         <v>2</v>
@@ -10664,16 +10664,16 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A505">
-        <v>87400295</v>
+        <v>87400296</v>
       </c>
       <c r="B505">
         <v>2</v>
       </c>
       <c r="C505">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D505">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E505">
         <v>100</v>
@@ -10684,7 +10684,7 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A506">
-        <v>87400296</v>
+        <v>87400297</v>
       </c>
       <c r="B506">
         <v>2</v>
@@ -10693,7 +10693,7 @@
         <v>60</v>
       </c>
       <c r="D506">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E506">
         <v>100</v>
@@ -10704,7 +10704,7 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A507">
-        <v>87400297</v>
+        <v>87400298</v>
       </c>
       <c r="B507">
         <v>2</v>
@@ -10724,7 +10724,7 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A508">
-        <v>87400298</v>
+        <v>87400299</v>
       </c>
       <c r="B508">
         <v>2</v>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A509">
-        <v>87400299</v>
+        <v>87400300</v>
       </c>
       <c r="B509">
         <v>2</v>
@@ -10764,16 +10764,16 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A510">
-        <v>87400300</v>
+        <v>87400301</v>
       </c>
       <c r="B510">
         <v>2</v>
       </c>
       <c r="C510">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D510">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E510">
         <v>100</v>
@@ -10784,7 +10784,7 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A511">
-        <v>87400301</v>
+        <v>87400302</v>
       </c>
       <c r="B511">
         <v>2</v>
@@ -10793,7 +10793,7 @@
         <v>61</v>
       </c>
       <c r="D511">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E511">
         <v>100</v>
@@ -10804,7 +10804,7 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A512">
-        <v>87400302</v>
+        <v>87400303</v>
       </c>
       <c r="B512">
         <v>2</v>
@@ -10824,7 +10824,7 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A513">
-        <v>87400303</v>
+        <v>87400304</v>
       </c>
       <c r="B513">
         <v>2</v>
@@ -10844,7 +10844,7 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A514">
-        <v>87400304</v>
+        <v>87400305</v>
       </c>
       <c r="B514">
         <v>2</v>
@@ -10864,16 +10864,16 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A515">
-        <v>87400305</v>
+        <v>87400306</v>
       </c>
       <c r="B515">
         <v>2</v>
       </c>
       <c r="C515">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D515">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E515">
         <v>100</v>
@@ -10884,7 +10884,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A516">
-        <v>87400306</v>
+        <v>87400307</v>
       </c>
       <c r="B516">
         <v>2</v>
@@ -10893,7 +10893,7 @@
         <v>62</v>
       </c>
       <c r="D516">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E516">
         <v>100</v>
@@ -10904,7 +10904,7 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A517">
-        <v>87400307</v>
+        <v>87400308</v>
       </c>
       <c r="B517">
         <v>2</v>
@@ -10924,7 +10924,7 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A518">
-        <v>87400308</v>
+        <v>87400309</v>
       </c>
       <c r="B518">
         <v>2</v>
@@ -10944,7 +10944,7 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A519">
-        <v>87400309</v>
+        <v>87400310</v>
       </c>
       <c r="B519">
         <v>2</v>
@@ -10964,16 +10964,16 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A520">
-        <v>87400310</v>
+        <v>87400311</v>
       </c>
       <c r="B520">
         <v>2</v>
       </c>
       <c r="C520">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D520">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E520">
         <v>100</v>
@@ -10984,7 +10984,7 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A521">
-        <v>87400311</v>
+        <v>87400312</v>
       </c>
       <c r="B521">
         <v>2</v>
@@ -10993,7 +10993,7 @@
         <v>63</v>
       </c>
       <c r="D521">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E521">
         <v>100</v>
@@ -11004,7 +11004,7 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A522">
-        <v>87400312</v>
+        <v>87400313</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -11024,7 +11024,7 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A523">
-        <v>87400313</v>
+        <v>87400314</v>
       </c>
       <c r="B523">
         <v>2</v>
@@ -11044,7 +11044,7 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A524">
-        <v>87400314</v>
+        <v>87400315</v>
       </c>
       <c r="B524">
         <v>2</v>
@@ -11064,16 +11064,16 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A525">
-        <v>87400315</v>
+        <v>87400316</v>
       </c>
       <c r="B525">
         <v>2</v>
       </c>
       <c r="C525">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D525">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E525">
         <v>100</v>
@@ -11084,7 +11084,7 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A526">
-        <v>87400316</v>
+        <v>87400317</v>
       </c>
       <c r="B526">
         <v>2</v>
@@ -11093,7 +11093,7 @@
         <v>64</v>
       </c>
       <c r="D526">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E526">
         <v>100</v>
@@ -11104,7 +11104,7 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A527">
-        <v>87400317</v>
+        <v>87400318</v>
       </c>
       <c r="B527">
         <v>2</v>
@@ -11124,7 +11124,7 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A528">
-        <v>87400318</v>
+        <v>87400319</v>
       </c>
       <c r="B528">
         <v>2</v>
@@ -11144,7 +11144,7 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A529">
-        <v>87400319</v>
+        <v>87400320</v>
       </c>
       <c r="B529">
         <v>2</v>
@@ -11164,16 +11164,16 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A530">
-        <v>87400320</v>
+        <v>87400321</v>
       </c>
       <c r="B530">
         <v>2</v>
       </c>
       <c r="C530">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D530">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E530">
         <v>100</v>
@@ -11184,7 +11184,7 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A531">
-        <v>87400321</v>
+        <v>87400322</v>
       </c>
       <c r="B531">
         <v>2</v>
@@ -11193,7 +11193,7 @@
         <v>65</v>
       </c>
       <c r="D531">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E531">
         <v>100</v>
@@ -11204,7 +11204,7 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A532">
-        <v>87400322</v>
+        <v>87400323</v>
       </c>
       <c r="B532">
         <v>2</v>
@@ -11224,7 +11224,7 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A533">
-        <v>87400323</v>
+        <v>87400324</v>
       </c>
       <c r="B533">
         <v>2</v>
@@ -11244,7 +11244,7 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A534">
-        <v>87400324</v>
+        <v>87400325</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -11264,16 +11264,16 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A535">
-        <v>87400325</v>
+        <v>87400326</v>
       </c>
       <c r="B535">
         <v>2</v>
       </c>
       <c r="C535">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D535">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E535">
         <v>100</v>
@@ -11284,7 +11284,7 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A536">
-        <v>87400326</v>
+        <v>87400327</v>
       </c>
       <c r="B536">
         <v>2</v>
@@ -11293,7 +11293,7 @@
         <v>66</v>
       </c>
       <c r="D536">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E536">
         <v>100</v>
@@ -11304,7 +11304,7 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A537">
-        <v>87400327</v>
+        <v>87400328</v>
       </c>
       <c r="B537">
         <v>2</v>
@@ -11324,7 +11324,7 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A538">
-        <v>87400328</v>
+        <v>87400329</v>
       </c>
       <c r="B538">
         <v>2</v>
@@ -11344,7 +11344,7 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A539">
-        <v>87400329</v>
+        <v>87400330</v>
       </c>
       <c r="B539">
         <v>2</v>
@@ -11364,16 +11364,16 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A540">
-        <v>87400330</v>
+        <v>87400331</v>
       </c>
       <c r="B540">
         <v>2</v>
       </c>
       <c r="C540">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D540">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E540">
         <v>100</v>
@@ -11384,7 +11384,7 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A541">
-        <v>87400331</v>
+        <v>87400332</v>
       </c>
       <c r="B541">
         <v>2</v>
@@ -11393,7 +11393,7 @@
         <v>67</v>
       </c>
       <c r="D541">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E541">
         <v>100</v>
@@ -11404,7 +11404,7 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A542">
-        <v>87400332</v>
+        <v>87400333</v>
       </c>
       <c r="B542">
         <v>2</v>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A543">
-        <v>87400333</v>
+        <v>87400334</v>
       </c>
       <c r="B543">
         <v>2</v>
@@ -11444,7 +11444,7 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A544">
-        <v>87400334</v>
+        <v>87400335</v>
       </c>
       <c r="B544">
         <v>2</v>
@@ -11464,16 +11464,16 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A545">
-        <v>87400335</v>
+        <v>87400336</v>
       </c>
       <c r="B545">
         <v>2</v>
       </c>
       <c r="C545">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D545">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E545">
         <v>100</v>
@@ -11484,7 +11484,7 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A546">
-        <v>87400336</v>
+        <v>87400337</v>
       </c>
       <c r="B546">
         <v>2</v>
@@ -11493,7 +11493,7 @@
         <v>68</v>
       </c>
       <c r="D546">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E546">
         <v>100</v>
@@ -11504,7 +11504,7 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A547">
-        <v>87400337</v>
+        <v>87400338</v>
       </c>
       <c r="B547">
         <v>2</v>
@@ -11524,7 +11524,7 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A548">
-        <v>87400338</v>
+        <v>87400339</v>
       </c>
       <c r="B548">
         <v>2</v>
@@ -11544,7 +11544,7 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A549">
-        <v>87400339</v>
+        <v>87400340</v>
       </c>
       <c r="B549">
         <v>2</v>
@@ -11564,16 +11564,16 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A550">
-        <v>87400340</v>
+        <v>87400341</v>
       </c>
       <c r="B550">
         <v>2</v>
       </c>
       <c r="C550">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D550">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E550">
         <v>100</v>
@@ -11584,7 +11584,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A551">
-        <v>87400341</v>
+        <v>87400342</v>
       </c>
       <c r="B551">
         <v>2</v>
@@ -11593,7 +11593,7 @@
         <v>69</v>
       </c>
       <c r="D551">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E551">
         <v>100</v>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A552">
-        <v>87400342</v>
+        <v>87400343</v>
       </c>
       <c r="B552">
         <v>2</v>
@@ -11624,7 +11624,7 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A553">
-        <v>87400343</v>
+        <v>87400344</v>
       </c>
       <c r="B553">
         <v>2</v>
@@ -11644,7 +11644,7 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A554">
-        <v>87400344</v>
+        <v>87400345</v>
       </c>
       <c r="B554">
         <v>2</v>
@@ -11664,16 +11664,16 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A555">
-        <v>87400345</v>
+        <v>87400346</v>
       </c>
       <c r="B555">
         <v>2</v>
       </c>
       <c r="C555">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D555">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E555">
         <v>100</v>
@@ -11684,7 +11684,7 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A556">
-        <v>87400346</v>
+        <v>87400347</v>
       </c>
       <c r="B556">
         <v>2</v>
@@ -11693,7 +11693,7 @@
         <v>70</v>
       </c>
       <c r="D556">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E556">
         <v>100</v>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A557">
-        <v>87400347</v>
+        <v>87400348</v>
       </c>
       <c r="B557">
         <v>2</v>
@@ -11724,7 +11724,7 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A558">
-        <v>87400348</v>
+        <v>87400349</v>
       </c>
       <c r="B558">
         <v>2</v>
@@ -11744,7 +11744,7 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A559">
-        <v>87400349</v>
+        <v>87400350</v>
       </c>
       <c r="B559">
         <v>2</v>
@@ -11764,16 +11764,16 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A560">
-        <v>87400350</v>
+        <v>87400351</v>
       </c>
       <c r="B560">
         <v>2</v>
       </c>
       <c r="C560">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D560">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E560">
         <v>100</v>
@@ -11784,7 +11784,7 @@
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A561">
-        <v>87400351</v>
+        <v>87400352</v>
       </c>
       <c r="B561">
         <v>2</v>
@@ -11793,7 +11793,7 @@
         <v>71</v>
       </c>
       <c r="D561">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E561">
         <v>100</v>
@@ -11804,7 +11804,7 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A562">
-        <v>87400352</v>
+        <v>87400353</v>
       </c>
       <c r="B562">
         <v>2</v>
@@ -11824,7 +11824,7 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A563">
-        <v>87400353</v>
+        <v>87400354</v>
       </c>
       <c r="B563">
         <v>2</v>
@@ -11844,7 +11844,7 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A564">
-        <v>87400354</v>
+        <v>87400355</v>
       </c>
       <c r="B564">
         <v>2</v>
@@ -11864,16 +11864,16 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A565">
-        <v>87400355</v>
+        <v>87400356</v>
       </c>
       <c r="B565">
         <v>2</v>
       </c>
       <c r="C565">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D565">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E565">
         <v>100</v>
@@ -11884,7 +11884,7 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A566">
-        <v>87400356</v>
+        <v>87400357</v>
       </c>
       <c r="B566">
         <v>2</v>
@@ -11893,7 +11893,7 @@
         <v>72</v>
       </c>
       <c r="D566">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E566">
         <v>100</v>
@@ -11904,7 +11904,7 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A567">
-        <v>87400357</v>
+        <v>87400358</v>
       </c>
       <c r="B567">
         <v>2</v>
@@ -11924,7 +11924,7 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A568">
-        <v>87400358</v>
+        <v>87400359</v>
       </c>
       <c r="B568">
         <v>2</v>
@@ -11944,7 +11944,7 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A569">
-        <v>87400359</v>
+        <v>87400360</v>
       </c>
       <c r="B569">
         <v>2</v>
@@ -11964,16 +11964,16 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A570">
-        <v>87400360</v>
+        <v>87400361</v>
       </c>
       <c r="B570">
         <v>2</v>
       </c>
       <c r="C570">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D570">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E570">
         <v>100</v>
@@ -11984,7 +11984,7 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A571">
-        <v>87400361</v>
+        <v>87400362</v>
       </c>
       <c r="B571">
         <v>2</v>
@@ -11993,7 +11993,7 @@
         <v>73</v>
       </c>
       <c r="D571">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E571">
         <v>100</v>
@@ -12004,7 +12004,7 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A572">
-        <v>87400362</v>
+        <v>87400363</v>
       </c>
       <c r="B572">
         <v>2</v>
@@ -12024,7 +12024,7 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A573">
-        <v>87400363</v>
+        <v>87400364</v>
       </c>
       <c r="B573">
         <v>2</v>
@@ -12044,7 +12044,7 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A574">
-        <v>87400364</v>
+        <v>87400365</v>
       </c>
       <c r="B574">
         <v>2</v>
@@ -12064,16 +12064,16 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A575">
-        <v>87400365</v>
+        <v>87400366</v>
       </c>
       <c r="B575">
         <v>2</v>
       </c>
       <c r="C575">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D575">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E575">
         <v>100</v>
@@ -12084,7 +12084,7 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A576">
-        <v>87400366</v>
+        <v>87400367</v>
       </c>
       <c r="B576">
         <v>2</v>
@@ -12093,7 +12093,7 @@
         <v>74</v>
       </c>
       <c r="D576">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E576">
         <v>100</v>
@@ -12104,7 +12104,7 @@
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A577">
-        <v>87400367</v>
+        <v>87400368</v>
       </c>
       <c r="B577">
         <v>2</v>
@@ -12124,7 +12124,7 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A578">
-        <v>87400368</v>
+        <v>87400369</v>
       </c>
       <c r="B578">
         <v>2</v>
@@ -12144,7 +12144,7 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A579">
-        <v>87400369</v>
+        <v>87400370</v>
       </c>
       <c r="B579">
         <v>2</v>
@@ -12164,16 +12164,16 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A580">
-        <v>87400370</v>
+        <v>87400371</v>
       </c>
       <c r="B580">
         <v>2</v>
       </c>
       <c r="C580">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D580">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E580">
         <v>100</v>
@@ -12184,7 +12184,7 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A581">
-        <v>87400371</v>
+        <v>87400372</v>
       </c>
       <c r="B581">
         <v>2</v>
@@ -12193,7 +12193,7 @@
         <v>75</v>
       </c>
       <c r="D581">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E581">
         <v>100</v>
@@ -12204,7 +12204,7 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A582">
-        <v>87400372</v>
+        <v>87400373</v>
       </c>
       <c r="B582">
         <v>2</v>
@@ -12224,7 +12224,7 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A583">
-        <v>87400373</v>
+        <v>87400374</v>
       </c>
       <c r="B583">
         <v>2</v>
@@ -12244,7 +12244,7 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A584">
-        <v>87400374</v>
+        <v>87400375</v>
       </c>
       <c r="B584">
         <v>2</v>
@@ -12264,16 +12264,16 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A585">
-        <v>87400375</v>
+        <v>87400376</v>
       </c>
       <c r="B585">
         <v>2</v>
       </c>
       <c r="C585">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D585">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E585">
         <v>100</v>
@@ -12284,7 +12284,7 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A586">
-        <v>87400376</v>
+        <v>87400377</v>
       </c>
       <c r="B586">
         <v>2</v>
@@ -12293,7 +12293,7 @@
         <v>76</v>
       </c>
       <c r="D586">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E586">
         <v>100</v>
@@ -12304,7 +12304,7 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A587">
-        <v>87400377</v>
+        <v>87400378</v>
       </c>
       <c r="B587">
         <v>2</v>
@@ -12324,7 +12324,7 @@
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A588">
-        <v>87400378</v>
+        <v>87400379</v>
       </c>
       <c r="B588">
         <v>2</v>
@@ -12344,7 +12344,7 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A589">
-        <v>87400379</v>
+        <v>87400380</v>
       </c>
       <c r="B589">
         <v>2</v>
@@ -12364,16 +12364,16 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A590">
-        <v>87400380</v>
+        <v>87400381</v>
       </c>
       <c r="B590">
         <v>2</v>
       </c>
       <c r="C590">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D590">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E590">
         <v>100</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A591">
-        <v>87400381</v>
+        <v>87400382</v>
       </c>
       <c r="B591">
         <v>2</v>
@@ -12393,7 +12393,7 @@
         <v>77</v>
       </c>
       <c r="D591">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E591">
         <v>100</v>
@@ -12404,7 +12404,7 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A592">
-        <v>87400382</v>
+        <v>87400383</v>
       </c>
       <c r="B592">
         <v>2</v>
@@ -12424,7 +12424,7 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A593">
-        <v>87400383</v>
+        <v>87400384</v>
       </c>
       <c r="B593">
         <v>2</v>
@@ -12444,7 +12444,7 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A594">
-        <v>87400384</v>
+        <v>87400385</v>
       </c>
       <c r="B594">
         <v>2</v>
@@ -12464,16 +12464,16 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A595">
-        <v>87400385</v>
+        <v>87400386</v>
       </c>
       <c r="B595">
         <v>2</v>
       </c>
       <c r="C595">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D595">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E595">
         <v>100</v>
@@ -12484,7 +12484,7 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A596">
-        <v>87400386</v>
+        <v>87400387</v>
       </c>
       <c r="B596">
         <v>2</v>
@@ -12493,7 +12493,7 @@
         <v>78</v>
       </c>
       <c r="D596">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E596">
         <v>100</v>
@@ -12504,7 +12504,7 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A597">
-        <v>87400387</v>
+        <v>87400388</v>
       </c>
       <c r="B597">
         <v>2</v>
@@ -12524,7 +12524,7 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A598">
-        <v>87400388</v>
+        <v>87400389</v>
       </c>
       <c r="B598">
         <v>2</v>
@@ -12544,7 +12544,7 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A599">
-        <v>87400389</v>
+        <v>87400390</v>
       </c>
       <c r="B599">
         <v>2</v>
@@ -12564,16 +12564,16 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A600">
-        <v>87400390</v>
+        <v>87400391</v>
       </c>
       <c r="B600">
         <v>2</v>
       </c>
       <c r="C600">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D600">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E600">
         <v>100</v>
@@ -12584,7 +12584,7 @@
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A601">
-        <v>87400391</v>
+        <v>87400392</v>
       </c>
       <c r="B601">
         <v>2</v>
@@ -12593,7 +12593,7 @@
         <v>79</v>
       </c>
       <c r="D601">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E601">
         <v>100</v>
@@ -12604,7 +12604,7 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A602">
-        <v>87400392</v>
+        <v>87400393</v>
       </c>
       <c r="B602">
         <v>2</v>
@@ -12624,7 +12624,7 @@
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A603">
-        <v>87400393</v>
+        <v>87400394</v>
       </c>
       <c r="B603">
         <v>2</v>
@@ -12644,7 +12644,7 @@
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A604">
-        <v>87400394</v>
+        <v>87400395</v>
       </c>
       <c r="B604">
         <v>2</v>
@@ -12664,16 +12664,16 @@
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A605">
-        <v>87400395</v>
+        <v>87400396</v>
       </c>
       <c r="B605">
         <v>2</v>
       </c>
       <c r="C605">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D605">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E605">
         <v>100</v>
@@ -12684,7 +12684,7 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A606">
-        <v>87400396</v>
+        <v>87400397</v>
       </c>
       <c r="B606">
         <v>2</v>
@@ -12693,7 +12693,7 @@
         <v>80</v>
       </c>
       <c r="D606">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E606">
         <v>100</v>
@@ -12704,7 +12704,7 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A607">
-        <v>87400397</v>
+        <v>87400398</v>
       </c>
       <c r="B607">
         <v>2</v>
@@ -12724,7 +12724,7 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A608">
-        <v>87400398</v>
+        <v>87400399</v>
       </c>
       <c r="B608">
         <v>2</v>
@@ -12744,7 +12744,7 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A609">
-        <v>87400399</v>
+        <v>87400400</v>
       </c>
       <c r="B609">
         <v>2</v>
@@ -12764,16 +12764,16 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A610">
-        <v>87400400</v>
+        <v>87400401</v>
       </c>
       <c r="B610">
         <v>2</v>
       </c>
       <c r="C610">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D610">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E610">
         <v>100</v>
@@ -12784,7 +12784,7 @@
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A611">
-        <v>87400401</v>
+        <v>87400402</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -12793,7 +12793,7 @@
         <v>81</v>
       </c>
       <c r="D611">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E611">
         <v>100</v>
@@ -12804,7 +12804,7 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A612">
-        <v>87400402</v>
+        <v>87400403</v>
       </c>
       <c r="B612">
         <v>2</v>
@@ -12824,7 +12824,7 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A613">
-        <v>87400403</v>
+        <v>87400404</v>
       </c>
       <c r="B613">
         <v>2</v>
@@ -12844,7 +12844,7 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A614">
-        <v>87400404</v>
+        <v>87400405</v>
       </c>
       <c r="B614">
         <v>2</v>
@@ -12864,16 +12864,16 @@
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A615">
-        <v>87400405</v>
+        <v>87400406</v>
       </c>
       <c r="B615">
         <v>2</v>
       </c>
       <c r="C615">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D615">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E615">
         <v>100</v>
@@ -12884,7 +12884,7 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A616">
-        <v>87400406</v>
+        <v>87400407</v>
       </c>
       <c r="B616">
         <v>2</v>
@@ -12893,7 +12893,7 @@
         <v>82</v>
       </c>
       <c r="D616">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E616">
         <v>100</v>
@@ -12904,7 +12904,7 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A617">
-        <v>87400407</v>
+        <v>87400408</v>
       </c>
       <c r="B617">
         <v>2</v>
@@ -12924,7 +12924,7 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A618">
-        <v>87400408</v>
+        <v>87400409</v>
       </c>
       <c r="B618">
         <v>2</v>
@@ -12944,7 +12944,7 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A619">
-        <v>87400409</v>
+        <v>87400410</v>
       </c>
       <c r="B619">
         <v>2</v>
@@ -12964,16 +12964,16 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A620">
-        <v>87400410</v>
+        <v>87400411</v>
       </c>
       <c r="B620">
         <v>2</v>
       </c>
       <c r="C620">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D620">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E620">
         <v>100</v>
@@ -12984,7 +12984,7 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A621">
-        <v>87400411</v>
+        <v>87400412</v>
       </c>
       <c r="B621">
         <v>2</v>
@@ -12993,7 +12993,7 @@
         <v>83</v>
       </c>
       <c r="D621">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E621">
         <v>100</v>
@@ -13004,7 +13004,7 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A622">
-        <v>87400412</v>
+        <v>87400413</v>
       </c>
       <c r="B622">
         <v>2</v>
@@ -13024,7 +13024,7 @@
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A623">
-        <v>87400413</v>
+        <v>87400414</v>
       </c>
       <c r="B623">
         <v>2</v>
@@ -13044,7 +13044,7 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A624">
-        <v>87400414</v>
+        <v>87400415</v>
       </c>
       <c r="B624">
         <v>2</v>
@@ -13064,16 +13064,16 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A625">
-        <v>87400415</v>
+        <v>87400416</v>
       </c>
       <c r="B625">
         <v>2</v>
       </c>
       <c r="C625">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D625">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E625">
         <v>100</v>
@@ -13084,7 +13084,7 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A626">
-        <v>87400416</v>
+        <v>87400417</v>
       </c>
       <c r="B626">
         <v>2</v>
@@ -13093,7 +13093,7 @@
         <v>84</v>
       </c>
       <c r="D626">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E626">
         <v>100</v>
@@ -13104,7 +13104,7 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A627">
-        <v>87400417</v>
+        <v>87400418</v>
       </c>
       <c r="B627">
         <v>2</v>
@@ -13124,7 +13124,7 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A628">
-        <v>87400418</v>
+        <v>87400419</v>
       </c>
       <c r="B628">
         <v>2</v>
@@ -13144,7 +13144,7 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A629">
-        <v>87400419</v>
+        <v>87400420</v>
       </c>
       <c r="B629">
         <v>2</v>
@@ -13164,16 +13164,16 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A630">
-        <v>87400420</v>
+        <v>87400421</v>
       </c>
       <c r="B630">
         <v>2</v>
       </c>
       <c r="C630">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D630">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E630">
         <v>100</v>
@@ -13184,7 +13184,7 @@
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A631">
-        <v>87400421</v>
+        <v>87400422</v>
       </c>
       <c r="B631">
         <v>2</v>
@@ -13193,7 +13193,7 @@
         <v>85</v>
       </c>
       <c r="D631">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E631">
         <v>100</v>
@@ -13204,7 +13204,7 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A632">
-        <v>87400422</v>
+        <v>87400423</v>
       </c>
       <c r="B632">
         <v>2</v>
@@ -13224,7 +13224,7 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A633">
-        <v>87400423</v>
+        <v>87400424</v>
       </c>
       <c r="B633">
         <v>2</v>
@@ -13244,7 +13244,7 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A634">
-        <v>87400424</v>
+        <v>87400425</v>
       </c>
       <c r="B634">
         <v>2</v>
@@ -13264,16 +13264,16 @@
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A635">
-        <v>87400425</v>
+        <v>87400426</v>
       </c>
       <c r="B635">
         <v>2</v>
       </c>
       <c r="C635">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D635">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E635">
         <v>100</v>
@@ -13284,7 +13284,7 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A636">
-        <v>87400426</v>
+        <v>87400427</v>
       </c>
       <c r="B636">
         <v>2</v>
@@ -13293,7 +13293,7 @@
         <v>86</v>
       </c>
       <c r="D636">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E636">
         <v>100</v>
@@ -13304,7 +13304,7 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A637">
-        <v>87400427</v>
+        <v>87400428</v>
       </c>
       <c r="B637">
         <v>2</v>
@@ -13324,7 +13324,7 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A638">
-        <v>87400428</v>
+        <v>87400429</v>
       </c>
       <c r="B638">
         <v>2</v>
@@ -13344,7 +13344,7 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A639">
-        <v>87400429</v>
+        <v>87400430</v>
       </c>
       <c r="B639">
         <v>2</v>
@@ -13364,16 +13364,16 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A640">
-        <v>87400430</v>
+        <v>87400431</v>
       </c>
       <c r="B640">
         <v>2</v>
       </c>
       <c r="C640">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D640">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E640">
         <v>100</v>
@@ -13384,7 +13384,7 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A641">
-        <v>87400431</v>
+        <v>87400432</v>
       </c>
       <c r="B641">
         <v>2</v>
@@ -13393,7 +13393,7 @@
         <v>87</v>
       </c>
       <c r="D641">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E641">
         <v>100</v>
@@ -13404,7 +13404,7 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A642">
-        <v>87400432</v>
+        <v>87400433</v>
       </c>
       <c r="B642">
         <v>2</v>
@@ -13424,7 +13424,7 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A643">
-        <v>87400433</v>
+        <v>87400434</v>
       </c>
       <c r="B643">
         <v>2</v>
@@ -13444,7 +13444,7 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A644">
-        <v>87400434</v>
+        <v>87400435</v>
       </c>
       <c r="B644">
         <v>2</v>
@@ -13464,16 +13464,16 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A645">
-        <v>87400435</v>
+        <v>87400436</v>
       </c>
       <c r="B645">
         <v>2</v>
       </c>
       <c r="C645">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D645">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E645">
         <v>100</v>
@@ -13484,7 +13484,7 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A646">
-        <v>87400436</v>
+        <v>87400437</v>
       </c>
       <c r="B646">
         <v>2</v>
@@ -13493,7 +13493,7 @@
         <v>88</v>
       </c>
       <c r="D646">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E646">
         <v>100</v>
@@ -13504,7 +13504,7 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A647">
-        <v>87400437</v>
+        <v>87400438</v>
       </c>
       <c r="B647">
         <v>2</v>
@@ -13524,7 +13524,7 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A648">
-        <v>87400438</v>
+        <v>87400439</v>
       </c>
       <c r="B648">
         <v>2</v>
@@ -13544,7 +13544,7 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A649">
-        <v>87400439</v>
+        <v>87400440</v>
       </c>
       <c r="B649">
         <v>2</v>
@@ -13564,16 +13564,16 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A650">
-        <v>87400440</v>
+        <v>87400441</v>
       </c>
       <c r="B650">
         <v>2</v>
       </c>
       <c r="C650">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D650">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E650">
         <v>100</v>
@@ -13584,7 +13584,7 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A651">
-        <v>87400441</v>
+        <v>87400442</v>
       </c>
       <c r="B651">
         <v>2</v>
@@ -13593,7 +13593,7 @@
         <v>89</v>
       </c>
       <c r="D651">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E651">
         <v>100</v>
@@ -13604,7 +13604,7 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A652">
-        <v>87400442</v>
+        <v>87400443</v>
       </c>
       <c r="B652">
         <v>2</v>
@@ -13624,7 +13624,7 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A653">
-        <v>87400443</v>
+        <v>87400444</v>
       </c>
       <c r="B653">
         <v>2</v>
@@ -13644,7 +13644,7 @@
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A654">
-        <v>87400444</v>
+        <v>87400445</v>
       </c>
       <c r="B654">
         <v>2</v>
@@ -13664,16 +13664,16 @@
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A655">
-        <v>87400445</v>
+        <v>87400446</v>
       </c>
       <c r="B655">
         <v>2</v>
       </c>
       <c r="C655">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D655">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E655">
         <v>100</v>
@@ -13684,7 +13684,7 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A656">
-        <v>87400446</v>
+        <v>87400447</v>
       </c>
       <c r="B656">
         <v>2</v>
@@ -13693,7 +13693,7 @@
         <v>90</v>
       </c>
       <c r="D656">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E656">
         <v>100</v>
@@ -13704,7 +13704,7 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A657">
-        <v>87400447</v>
+        <v>87400448</v>
       </c>
       <c r="B657">
         <v>2</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A658">
-        <v>87400448</v>
+        <v>87400449</v>
       </c>
       <c r="B658">
         <v>2</v>
@@ -13744,7 +13744,7 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A659">
-        <v>87400449</v>
+        <v>87400450</v>
       </c>
       <c r="B659">
         <v>2</v>
@@ -13764,16 +13764,16 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A660">
-        <v>87400450</v>
+        <v>87400451</v>
       </c>
       <c r="B660">
         <v>2</v>
       </c>
       <c r="C660">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D660">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E660">
         <v>100</v>
@@ -13784,7 +13784,7 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A661">
-        <v>87400451</v>
+        <v>87400452</v>
       </c>
       <c r="B661">
         <v>2</v>
@@ -13793,7 +13793,7 @@
         <v>91</v>
       </c>
       <c r="D661">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E661">
         <v>100</v>
@@ -13804,7 +13804,7 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A662">
-        <v>87400452</v>
+        <v>87400453</v>
       </c>
       <c r="B662">
         <v>2</v>
@@ -13824,7 +13824,7 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A663">
-        <v>87400453</v>
+        <v>87400454</v>
       </c>
       <c r="B663">
         <v>2</v>
@@ -13844,7 +13844,7 @@
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A664">
-        <v>87400454</v>
+        <v>87400455</v>
       </c>
       <c r="B664">
         <v>2</v>
@@ -13864,16 +13864,16 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A665">
-        <v>87400455</v>
+        <v>87400456</v>
       </c>
       <c r="B665">
         <v>2</v>
       </c>
       <c r="C665">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D665">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E665">
         <v>100</v>
@@ -13884,7 +13884,7 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A666">
-        <v>87400456</v>
+        <v>87400457</v>
       </c>
       <c r="B666">
         <v>2</v>
@@ -13893,7 +13893,7 @@
         <v>92</v>
       </c>
       <c r="D666">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E666">
         <v>100</v>
@@ -13904,7 +13904,7 @@
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A667">
-        <v>87400457</v>
+        <v>87400458</v>
       </c>
       <c r="B667">
         <v>2</v>
@@ -13924,7 +13924,7 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A668">
-        <v>87400458</v>
+        <v>87400459</v>
       </c>
       <c r="B668">
         <v>2</v>
@@ -13944,7 +13944,7 @@
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A669">
-        <v>87400459</v>
+        <v>87400460</v>
       </c>
       <c r="B669">
         <v>2</v>
@@ -13964,16 +13964,16 @@
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A670">
-        <v>87400460</v>
+        <v>87400461</v>
       </c>
       <c r="B670">
         <v>2</v>
       </c>
       <c r="C670">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D670">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E670">
         <v>100</v>
@@ -13984,7 +13984,7 @@
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A671">
-        <v>87400461</v>
+        <v>87400462</v>
       </c>
       <c r="B671">
         <v>2</v>
@@ -13993,7 +13993,7 @@
         <v>93</v>
       </c>
       <c r="D671">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E671">
         <v>100</v>
@@ -14004,7 +14004,7 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A672">
-        <v>87400462</v>
+        <v>87400463</v>
       </c>
       <c r="B672">
         <v>2</v>
@@ -14024,7 +14024,7 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A673">
-        <v>87400463</v>
+        <v>87400464</v>
       </c>
       <c r="B673">
         <v>2</v>
@@ -14044,7 +14044,7 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A674">
-        <v>87400464</v>
+        <v>87400465</v>
       </c>
       <c r="B674">
         <v>2</v>
@@ -14064,16 +14064,16 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A675">
-        <v>87400465</v>
+        <v>87400466</v>
       </c>
       <c r="B675">
         <v>2</v>
       </c>
       <c r="C675">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D675">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E675">
         <v>100</v>
@@ -14084,7 +14084,7 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A676">
-        <v>87400466</v>
+        <v>87400467</v>
       </c>
       <c r="B676">
         <v>2</v>
@@ -14093,7 +14093,7 @@
         <v>94</v>
       </c>
       <c r="D676">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E676">
         <v>100</v>
@@ -14104,7 +14104,7 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A677">
-        <v>87400467</v>
+        <v>87400468</v>
       </c>
       <c r="B677">
         <v>2</v>
@@ -14124,7 +14124,7 @@
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A678">
-        <v>87400468</v>
+        <v>87400469</v>
       </c>
       <c r="B678">
         <v>2</v>
@@ -14144,7 +14144,7 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A679">
-        <v>87400469</v>
+        <v>87400470</v>
       </c>
       <c r="B679">
         <v>2</v>
@@ -14164,16 +14164,16 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A680">
-        <v>87400470</v>
+        <v>87400471</v>
       </c>
       <c r="B680">
         <v>2</v>
       </c>
       <c r="C680">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D680">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E680">
         <v>100</v>
@@ -14184,7 +14184,7 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A681">
-        <v>87400471</v>
+        <v>87400472</v>
       </c>
       <c r="B681">
         <v>2</v>
@@ -14193,7 +14193,7 @@
         <v>95</v>
       </c>
       <c r="D681">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E681">
         <v>100</v>
@@ -14204,7 +14204,7 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A682">
-        <v>87400472</v>
+        <v>87400473</v>
       </c>
       <c r="B682">
         <v>2</v>
@@ -14224,7 +14224,7 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A683">
-        <v>87400473</v>
+        <v>87400474</v>
       </c>
       <c r="B683">
         <v>2</v>
@@ -14244,7 +14244,7 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A684">
-        <v>87400474</v>
+        <v>87400475</v>
       </c>
       <c r="B684">
         <v>2</v>
@@ -14264,16 +14264,16 @@
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A685">
-        <v>87400475</v>
+        <v>87400476</v>
       </c>
       <c r="B685">
         <v>2</v>
       </c>
       <c r="C685">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D685">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E685">
         <v>100</v>
@@ -14284,7 +14284,7 @@
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A686">
-        <v>87400476</v>
+        <v>87400477</v>
       </c>
       <c r="B686">
         <v>2</v>
@@ -14293,7 +14293,7 @@
         <v>96</v>
       </c>
       <c r="D686">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E686">
         <v>100</v>
@@ -14304,7 +14304,7 @@
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A687">
-        <v>87400477</v>
+        <v>87400478</v>
       </c>
       <c r="B687">
         <v>2</v>
@@ -14324,7 +14324,7 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A688">
-        <v>87400478</v>
+        <v>87400479</v>
       </c>
       <c r="B688">
         <v>2</v>
@@ -14344,7 +14344,7 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A689">
-        <v>87400479</v>
+        <v>87400480</v>
       </c>
       <c r="B689">
         <v>2</v>
@@ -14364,16 +14364,16 @@
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A690">
-        <v>87400480</v>
+        <v>87400481</v>
       </c>
       <c r="B690">
         <v>2</v>
       </c>
       <c r="C690">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D690">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E690">
         <v>100</v>
@@ -14384,7 +14384,7 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A691">
-        <v>87400481</v>
+        <v>87400482</v>
       </c>
       <c r="B691">
         <v>2</v>
@@ -14393,7 +14393,7 @@
         <v>97</v>
       </c>
       <c r="D691">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E691">
         <v>100</v>
@@ -14404,7 +14404,7 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A692">
-        <v>87400482</v>
+        <v>87400483</v>
       </c>
       <c r="B692">
         <v>2</v>
@@ -14424,7 +14424,7 @@
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A693">
-        <v>87400483</v>
+        <v>87400484</v>
       </c>
       <c r="B693">
         <v>2</v>
@@ -14444,7 +14444,7 @@
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A694">
-        <v>87400484</v>
+        <v>87400485</v>
       </c>
       <c r="B694">
         <v>2</v>
@@ -14464,16 +14464,16 @@
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A695">
-        <v>87400485</v>
+        <v>87400486</v>
       </c>
       <c r="B695">
         <v>2</v>
       </c>
       <c r="C695">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D695">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E695">
         <v>100</v>
@@ -14484,7 +14484,7 @@
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A696">
-        <v>87400486</v>
+        <v>87400487</v>
       </c>
       <c r="B696">
         <v>2</v>
@@ -14493,7 +14493,7 @@
         <v>98</v>
       </c>
       <c r="D696">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E696">
         <v>100</v>
@@ -14504,7 +14504,7 @@
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A697">
-        <v>87400487</v>
+        <v>87400488</v>
       </c>
       <c r="B697">
         <v>2</v>
@@ -14524,7 +14524,7 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A698">
-        <v>87400488</v>
+        <v>87400489</v>
       </c>
       <c r="B698">
         <v>2</v>
@@ -14544,7 +14544,7 @@
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A699">
-        <v>87400489</v>
+        <v>87400490</v>
       </c>
       <c r="B699">
         <v>2</v>
@@ -14564,16 +14564,16 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A700">
-        <v>87400490</v>
+        <v>87400491</v>
       </c>
       <c r="B700">
         <v>2</v>
       </c>
       <c r="C700">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D700">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E700">
         <v>100</v>
@@ -14584,7 +14584,7 @@
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A701">
-        <v>87400491</v>
+        <v>87400492</v>
       </c>
       <c r="B701">
         <v>2</v>
@@ -14593,7 +14593,7 @@
         <v>99</v>
       </c>
       <c r="D701">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E701">
         <v>100</v>
@@ -14604,7 +14604,7 @@
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A702">
-        <v>87400492</v>
+        <v>87400493</v>
       </c>
       <c r="B702">
         <v>2</v>
@@ -14624,7 +14624,7 @@
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A703">
-        <v>87400493</v>
+        <v>87400494</v>
       </c>
       <c r="B703">
         <v>2</v>
@@ -14644,7 +14644,7 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A704">
-        <v>87400494</v>
+        <v>87400495</v>
       </c>
       <c r="B704">
         <v>2</v>
@@ -14664,16 +14664,16 @@
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A705">
-        <v>87400495</v>
+        <v>87400496</v>
       </c>
       <c r="B705">
         <v>2</v>
       </c>
       <c r="C705">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D705">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E705">
         <v>100</v>
@@ -14684,7 +14684,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A706">
-        <v>87400496</v>
+        <v>87400497</v>
       </c>
       <c r="B706">
         <v>2</v>
@@ -14693,7 +14693,7 @@
         <v>100</v>
       </c>
       <c r="D706">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E706">
         <v>100</v>
@@ -14704,7 +14704,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A707">
-        <v>87400497</v>
+        <v>87400498</v>
       </c>
       <c r="B707">
         <v>2</v>
@@ -14724,7 +14724,7 @@
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A708">
-        <v>87400498</v>
+        <v>87400499</v>
       </c>
       <c r="B708">
         <v>2</v>
@@ -14744,7 +14744,7 @@
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A709">
-        <v>87400499</v>
+        <v>87400500</v>
       </c>
       <c r="B709">
         <v>2</v>
@@ -14764,16 +14764,16 @@
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A710">
-        <v>87400500</v>
+        <v>87400501</v>
       </c>
       <c r="B710">
         <v>2</v>
       </c>
       <c r="C710">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D710">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E710">
         <v>100</v>
@@ -14784,7 +14784,7 @@
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A711">
-        <v>87400501</v>
+        <v>87400502</v>
       </c>
       <c r="B711">
         <v>2</v>
@@ -14793,7 +14793,7 @@
         <v>101</v>
       </c>
       <c r="D711">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E711">
         <v>100</v>
@@ -14804,7 +14804,7 @@
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A712">
-        <v>87400502</v>
+        <v>87400503</v>
       </c>
       <c r="B712">
         <v>2</v>
@@ -14824,7 +14824,7 @@
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A713">
-        <v>87400503</v>
+        <v>87400504</v>
       </c>
       <c r="B713">
         <v>2</v>
@@ -14844,7 +14844,7 @@
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A714">
-        <v>87400504</v>
+        <v>87400505</v>
       </c>
       <c r="B714">
         <v>2</v>
@@ -14864,16 +14864,16 @@
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A715">
-        <v>87400505</v>
+        <v>87400506</v>
       </c>
       <c r="B715">
         <v>2</v>
       </c>
       <c r="C715">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D715">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E715">
         <v>100</v>
@@ -14884,7 +14884,7 @@
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A716">
-        <v>87400506</v>
+        <v>87400507</v>
       </c>
       <c r="B716">
         <v>2</v>
@@ -14893,7 +14893,7 @@
         <v>102</v>
       </c>
       <c r="D716">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E716">
         <v>100</v>
@@ -14904,7 +14904,7 @@
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A717">
-        <v>87400507</v>
+        <v>87400508</v>
       </c>
       <c r="B717">
         <v>2</v>
@@ -14924,7 +14924,7 @@
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A718">
-        <v>87400508</v>
+        <v>87400509</v>
       </c>
       <c r="B718">
         <v>2</v>
@@ -14944,7 +14944,7 @@
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A719">
-        <v>87400509</v>
+        <v>87400510</v>
       </c>
       <c r="B719">
         <v>2</v>
@@ -14964,16 +14964,16 @@
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A720">
-        <v>87400510</v>
+        <v>87400511</v>
       </c>
       <c r="B720">
         <v>2</v>
       </c>
       <c r="C720">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D720">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E720">
         <v>100</v>
@@ -14984,7 +14984,7 @@
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A721">
-        <v>87400511</v>
+        <v>87400512</v>
       </c>
       <c r="B721">
         <v>2</v>
@@ -14993,7 +14993,7 @@
         <v>103</v>
       </c>
       <c r="D721">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E721">
         <v>100</v>
@@ -15004,7 +15004,7 @@
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A722">
-        <v>87400512</v>
+        <v>87400513</v>
       </c>
       <c r="B722">
         <v>2</v>
@@ -15024,7 +15024,7 @@
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A723">
-        <v>87400513</v>
+        <v>87400514</v>
       </c>
       <c r="B723">
         <v>2</v>
@@ -15044,7 +15044,7 @@
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A724">
-        <v>87400514</v>
+        <v>87400515</v>
       </c>
       <c r="B724">
         <v>2</v>
@@ -15064,16 +15064,16 @@
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A725">
-        <v>87400515</v>
+        <v>87400516</v>
       </c>
       <c r="B725">
         <v>2</v>
       </c>
       <c r="C725">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D725">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E725">
         <v>100</v>
@@ -15084,7 +15084,7 @@
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A726">
-        <v>87400516</v>
+        <v>87400517</v>
       </c>
       <c r="B726">
         <v>2</v>
@@ -15093,7 +15093,7 @@
         <v>104</v>
       </c>
       <c r="D726">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E726">
         <v>100</v>
@@ -15104,7 +15104,7 @@
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A727">
-        <v>87400517</v>
+        <v>87400518</v>
       </c>
       <c r="B727">
         <v>2</v>
@@ -15124,7 +15124,7 @@
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A728">
-        <v>87400518</v>
+        <v>87400519</v>
       </c>
       <c r="B728">
         <v>2</v>
@@ -15144,7 +15144,7 @@
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A729">
-        <v>87400519</v>
+        <v>87400520</v>
       </c>
       <c r="B729">
         <v>2</v>
@@ -15164,16 +15164,16 @@
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A730">
-        <v>87400520</v>
+        <v>87400521</v>
       </c>
       <c r="B730">
         <v>2</v>
       </c>
       <c r="C730">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D730">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E730">
         <v>100</v>
@@ -15184,7 +15184,7 @@
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A731">
-        <v>87400521</v>
+        <v>87400522</v>
       </c>
       <c r="B731">
         <v>2</v>
@@ -15193,7 +15193,7 @@
         <v>105</v>
       </c>
       <c r="D731">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E731">
         <v>100</v>
@@ -15204,7 +15204,7 @@
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A732">
-        <v>87400522</v>
+        <v>87400523</v>
       </c>
       <c r="B732">
         <v>2</v>
@@ -15224,7 +15224,7 @@
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A733">
-        <v>87400523</v>
+        <v>87400524</v>
       </c>
       <c r="B733">
         <v>2</v>
@@ -15244,7 +15244,7 @@
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A734">
-        <v>87400524</v>
+        <v>87400525</v>
       </c>
       <c r="B734">
         <v>2</v>
@@ -15264,16 +15264,16 @@
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A735">
-        <v>87400525</v>
+        <v>87400526</v>
       </c>
       <c r="B735">
         <v>2</v>
       </c>
       <c r="C735">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D735">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E735">
         <v>100</v>
@@ -15284,7 +15284,7 @@
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A736">
-        <v>87400526</v>
+        <v>87400527</v>
       </c>
       <c r="B736">
         <v>2</v>
@@ -15293,7 +15293,7 @@
         <v>106</v>
       </c>
       <c r="D736">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E736">
         <v>100</v>
@@ -15304,7 +15304,7 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A737">
-        <v>87400527</v>
+        <v>87400528</v>
       </c>
       <c r="B737">
         <v>2</v>
@@ -15324,7 +15324,7 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A738">
-        <v>87400528</v>
+        <v>87400529</v>
       </c>
       <c r="B738">
         <v>2</v>
@@ -15344,7 +15344,7 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A739">
-        <v>87400529</v>
+        <v>87400530</v>
       </c>
       <c r="B739">
         <v>2</v>
@@ -15364,16 +15364,16 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A740">
-        <v>87400530</v>
+        <v>87400531</v>
       </c>
       <c r="B740">
         <v>2</v>
       </c>
       <c r="C740">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D740">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E740">
         <v>100</v>
@@ -15384,7 +15384,7 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A741">
-        <v>87400531</v>
+        <v>87400532</v>
       </c>
       <c r="B741">
         <v>2</v>
@@ -15393,7 +15393,7 @@
         <v>107</v>
       </c>
       <c r="D741">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E741">
         <v>100</v>
@@ -15404,7 +15404,7 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A742">
-        <v>87400532</v>
+        <v>87400533</v>
       </c>
       <c r="B742">
         <v>2</v>
@@ -15424,7 +15424,7 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A743">
-        <v>87400533</v>
+        <v>87400534</v>
       </c>
       <c r="B743">
         <v>2</v>
@@ -15444,7 +15444,7 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A744">
-        <v>87400534</v>
+        <v>87400535</v>
       </c>
       <c r="B744">
         <v>2</v>
@@ -15464,16 +15464,16 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A745">
-        <v>87400535</v>
+        <v>87400536</v>
       </c>
       <c r="B745">
         <v>2</v>
       </c>
       <c r="C745">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D745">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E745">
         <v>100</v>
@@ -15484,7 +15484,7 @@
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A746">
-        <v>87400536</v>
+        <v>87400537</v>
       </c>
       <c r="B746">
         <v>2</v>
@@ -15493,7 +15493,7 @@
         <v>108</v>
       </c>
       <c r="D746">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E746">
         <v>100</v>
@@ -15504,7 +15504,7 @@
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A747">
-        <v>87400537</v>
+        <v>87400538</v>
       </c>
       <c r="B747">
         <v>2</v>
@@ -15524,7 +15524,7 @@
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A748">
-        <v>87400538</v>
+        <v>87400539</v>
       </c>
       <c r="B748">
         <v>2</v>
@@ -15544,7 +15544,7 @@
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A749">
-        <v>87400539</v>
+        <v>87400540</v>
       </c>
       <c r="B749">
         <v>2</v>
@@ -15564,16 +15564,16 @@
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A750">
-        <v>87400540</v>
+        <v>87400541</v>
       </c>
       <c r="B750">
         <v>2</v>
       </c>
       <c r="C750">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D750">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E750">
         <v>100</v>
@@ -15584,7 +15584,7 @@
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A751">
-        <v>87400541</v>
+        <v>87400542</v>
       </c>
       <c r="B751">
         <v>2</v>
@@ -15593,7 +15593,7 @@
         <v>109</v>
       </c>
       <c r="D751">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E751">
         <v>100</v>
@@ -15604,7 +15604,7 @@
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A752">
-        <v>87400542</v>
+        <v>87400543</v>
       </c>
       <c r="B752">
         <v>2</v>
@@ -15624,7 +15624,7 @@
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A753">
-        <v>87400543</v>
+        <v>87400544</v>
       </c>
       <c r="B753">
         <v>2</v>
@@ -15644,7 +15644,7 @@
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A754">
-        <v>87400544</v>
+        <v>87400545</v>
       </c>
       <c r="B754">
         <v>2</v>
@@ -15664,16 +15664,16 @@
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A755">
-        <v>87400545</v>
+        <v>87400546</v>
       </c>
       <c r="B755">
         <v>2</v>
       </c>
       <c r="C755">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D755">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E755">
         <v>100</v>
@@ -15684,7 +15684,7 @@
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A756">
-        <v>87400546</v>
+        <v>87400547</v>
       </c>
       <c r="B756">
         <v>2</v>
@@ -15693,7 +15693,7 @@
         <v>110</v>
       </c>
       <c r="D756">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E756">
         <v>100</v>
@@ -15704,7 +15704,7 @@
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A757">
-        <v>87400547</v>
+        <v>87400548</v>
       </c>
       <c r="B757">
         <v>2</v>
@@ -15724,7 +15724,7 @@
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A758">
-        <v>87400548</v>
+        <v>87400549</v>
       </c>
       <c r="B758">
         <v>2</v>
@@ -15744,7 +15744,7 @@
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A759">
-        <v>87400549</v>
+        <v>87400550</v>
       </c>
       <c r="B759">
         <v>2</v>
@@ -15764,16 +15764,16 @@
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A760">
-        <v>87400550</v>
+        <v>87400551</v>
       </c>
       <c r="B760">
         <v>2</v>
       </c>
       <c r="C760">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D760">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E760">
         <v>100</v>
@@ -15784,7 +15784,7 @@
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A761">
-        <v>87400551</v>
+        <v>87400552</v>
       </c>
       <c r="B761">
         <v>2</v>
@@ -15793,7 +15793,7 @@
         <v>111</v>
       </c>
       <c r="D761">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E761">
         <v>100</v>
@@ -15804,7 +15804,7 @@
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A762">
-        <v>87400552</v>
+        <v>87400553</v>
       </c>
       <c r="B762">
         <v>2</v>
@@ -15824,7 +15824,7 @@
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A763">
-        <v>87400553</v>
+        <v>87400554</v>
       </c>
       <c r="B763">
         <v>2</v>
@@ -15844,7 +15844,7 @@
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A764">
-        <v>87400554</v>
+        <v>87400555</v>
       </c>
       <c r="B764">
         <v>2</v>
@@ -15864,16 +15864,16 @@
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A765">
-        <v>87400555</v>
+        <v>87400556</v>
       </c>
       <c r="B765">
         <v>2</v>
       </c>
       <c r="C765">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D765">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E765">
         <v>100</v>
@@ -15884,7 +15884,7 @@
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A766">
-        <v>87400556</v>
+        <v>87400557</v>
       </c>
       <c r="B766">
         <v>2</v>
@@ -15893,7 +15893,7 @@
         <v>112</v>
       </c>
       <c r="D766">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E766">
         <v>100</v>
@@ -15904,7 +15904,7 @@
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A767">
-        <v>87400557</v>
+        <v>87400558</v>
       </c>
       <c r="B767">
         <v>2</v>
@@ -15924,7 +15924,7 @@
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A768">
-        <v>87400558</v>
+        <v>87400559</v>
       </c>
       <c r="B768">
         <v>2</v>
@@ -15944,7 +15944,7 @@
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A769">
-        <v>87400559</v>
+        <v>87400560</v>
       </c>
       <c r="B769">
         <v>2</v>
@@ -15964,16 +15964,16 @@
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A770">
-        <v>87400560</v>
+        <v>87400561</v>
       </c>
       <c r="B770">
         <v>2</v>
       </c>
       <c r="C770">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D770">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E770">
         <v>100</v>
@@ -15984,7 +15984,7 @@
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A771">
-        <v>87400561</v>
+        <v>87400562</v>
       </c>
       <c r="B771">
         <v>2</v>
@@ -15993,7 +15993,7 @@
         <v>113</v>
       </c>
       <c r="D771">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E771">
         <v>100</v>
@@ -16004,7 +16004,7 @@
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A772">
-        <v>87400562</v>
+        <v>87400563</v>
       </c>
       <c r="B772">
         <v>2</v>
@@ -16024,7 +16024,7 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A773">
-        <v>87400563</v>
+        <v>87400564</v>
       </c>
       <c r="B773">
         <v>2</v>
@@ -16044,7 +16044,7 @@
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A774">
-        <v>87400564</v>
+        <v>87400565</v>
       </c>
       <c r="B774">
         <v>2</v>
@@ -16064,16 +16064,16 @@
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A775">
-        <v>87400565</v>
+        <v>87400566</v>
       </c>
       <c r="B775">
         <v>2</v>
       </c>
       <c r="C775">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D775">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E775">
         <v>100</v>
@@ -16084,7 +16084,7 @@
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A776">
-        <v>87400566</v>
+        <v>87400567</v>
       </c>
       <c r="B776">
         <v>2</v>
@@ -16093,7 +16093,7 @@
         <v>114</v>
       </c>
       <c r="D776">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E776">
         <v>100</v>
@@ -16104,7 +16104,7 @@
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A777">
-        <v>87400567</v>
+        <v>87400568</v>
       </c>
       <c r="B777">
         <v>2</v>
@@ -16124,7 +16124,7 @@
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A778">
-        <v>87400568</v>
+        <v>87400569</v>
       </c>
       <c r="B778">
         <v>2</v>
@@ -16139,26 +16139,6 @@
         <v>100</v>
       </c>
       <c r="F778">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A779">
-        <v>87400569</v>
-      </c>
-      <c r="B779">
-        <v>2</v>
-      </c>
-      <c r="C779">
-        <v>114</v>
-      </c>
-      <c r="D779">
-        <v>0</v>
-      </c>
-      <c r="E779">
-        <v>100</v>
-      </c>
-      <c r="F779">
         <v>999</v>
       </c>
     </row>

--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEC982F-A1AA-47C7-99EC-5FC9A4A5C784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10FC3B5-3B79-42D8-9FD0-AA594221E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,11 +573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F778"/>
+  <dimension ref="A1:F777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q71" sqref="Q71"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>87000032</v>
+        <v>87000033</v>
       </c>
       <c r="B33">
         <v>9</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>87000033</v>
+        <v>87000034</v>
       </c>
       <c r="B34">
         <v>9</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>87000034</v>
+        <v>87000035</v>
       </c>
       <c r="B35">
         <v>9</v>
@@ -1284,27 +1284,27 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>87000035</v>
+        <v>87100101</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E36">
         <v>100</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>999</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>87100101</v>
+        <v>87100102</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>87100102</v>
+        <v>87100103</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>87100103</v>
+        <v>87100104</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>87100104</v>
+        <v>87100105</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>87100105</v>
+        <v>87100106</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>87100106</v>
+        <v>87100107</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>87100107</v>
+        <v>87100108</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>87100108</v>
+        <v>87100109</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>87100109</v>
+        <v>87100110</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>87100110</v>
+        <v>87100111</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -1504,16 +1504,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>87100111</v>
+        <v>87100112</v>
       </c>
       <c r="B47">
         <v>8</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>87100112</v>
+        <v>87100113</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -1533,7 +1533,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>87100113</v>
+        <v>87100114</v>
       </c>
       <c r="B49">
         <v>8</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>87100114</v>
+        <v>87100115</v>
       </c>
       <c r="B50">
         <v>8</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>87100115</v>
+        <v>87100116</v>
       </c>
       <c r="B51">
         <v>8</v>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>87100116</v>
+        <v>87100117</v>
       </c>
       <c r="B52">
         <v>8</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>87100117</v>
+        <v>87100118</v>
       </c>
       <c r="B53">
         <v>8</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>87100118</v>
+        <v>87100119</v>
       </c>
       <c r="B54">
         <v>8</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>87100119</v>
+        <v>87100120</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>87100120</v>
+        <v>87100121</v>
       </c>
       <c r="B56">
         <v>8</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>87100121</v>
+        <v>87100122</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -1724,16 +1724,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>87100122</v>
+        <v>87100123</v>
       </c>
       <c r="B58">
         <v>8</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58">
         <v>100</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>87100123</v>
+        <v>87100124</v>
       </c>
       <c r="B59">
         <v>8</v>
@@ -1753,7 +1753,7 @@
         <v>3</v>
       </c>
       <c r="D59">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>100</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>87100124</v>
+        <v>87100125</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>87100125</v>
+        <v>87100126</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>87100126</v>
+        <v>87100127</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>87100127</v>
+        <v>87100128</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>87100128</v>
+        <v>87100129</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>87100129</v>
+        <v>87100130</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>87100130</v>
+        <v>87100132</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>87100132</v>
+        <v>87100133</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -1924,16 +1924,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>87100133</v>
+        <v>87100134</v>
       </c>
       <c r="B68">
         <v>8</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E68">
         <v>100</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>87100134</v>
+        <v>87100135</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -1953,7 +1953,7 @@
         <v>4</v>
       </c>
       <c r="D69">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>100</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>87100135</v>
+        <v>87100136</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>87100136</v>
+        <v>87100137</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -2004,7 +2004,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>87100137</v>
+        <v>87100138</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>87100138</v>
+        <v>87100139</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>87100139</v>
+        <v>87100140</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>87100140</v>
+        <v>87100141</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>87100141</v>
+        <v>87100142</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>87100142</v>
+        <v>87100143</v>
       </c>
       <c r="B77">
         <v>8</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>87100143</v>
+        <v>87100144</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -2144,16 +2144,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>87100144</v>
+        <v>87100145</v>
       </c>
       <c r="B79">
         <v>8</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E79">
         <v>100</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>87100145</v>
+        <v>87100146</v>
       </c>
       <c r="B80">
         <v>8</v>
@@ -2173,7 +2173,7 @@
         <v>5</v>
       </c>
       <c r="D80">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>100</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>87100146</v>
+        <v>87100147</v>
       </c>
       <c r="B81">
         <v>8</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>87100147</v>
+        <v>87100148</v>
       </c>
       <c r="B82">
         <v>8</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>87100148</v>
+        <v>87100149</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>87100149</v>
+        <v>87100150</v>
       </c>
       <c r="B84">
         <v>8</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>87100150</v>
+        <v>87100151</v>
       </c>
       <c r="B85">
         <v>8</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>87100151</v>
+        <v>87100152</v>
       </c>
       <c r="B86">
         <v>8</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>87100152</v>
+        <v>87100153</v>
       </c>
       <c r="B87">
         <v>8</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>87100153</v>
+        <v>87100154</v>
       </c>
       <c r="B88">
         <v>8</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>87100154</v>
+        <v>87100155</v>
       </c>
       <c r="B89">
         <v>8</v>
@@ -2364,16 +2364,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>87100155</v>
+        <v>87100156</v>
       </c>
       <c r="B90">
         <v>8</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E90">
         <v>100</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>87100156</v>
+        <v>87100157</v>
       </c>
       <c r="B91">
         <v>8</v>
@@ -2393,7 +2393,7 @@
         <v>6</v>
       </c>
       <c r="D91">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>87100157</v>
+        <v>87100158</v>
       </c>
       <c r="B92">
         <v>8</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>87100158</v>
+        <v>87100159</v>
       </c>
       <c r="B93">
         <v>8</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>87100159</v>
+        <v>87100160</v>
       </c>
       <c r="B94">
         <v>8</v>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>87100160</v>
+        <v>87100161</v>
       </c>
       <c r="B95">
         <v>8</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>87100161</v>
+        <v>87100162</v>
       </c>
       <c r="B96">
         <v>8</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>87100162</v>
+        <v>87100163</v>
       </c>
       <c r="B97">
         <v>8</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>87100163</v>
+        <v>87100164</v>
       </c>
       <c r="B98">
         <v>8</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>87100164</v>
+        <v>87100165</v>
       </c>
       <c r="B99">
         <v>8</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>87100165</v>
+        <v>87100166</v>
       </c>
       <c r="B100">
         <v>8</v>
@@ -2584,16 +2584,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>87100166</v>
+        <v>87100167</v>
       </c>
       <c r="B101">
         <v>8</v>
       </c>
       <c r="C101">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>87100167</v>
+        <v>87100168</v>
       </c>
       <c r="B102">
         <v>8</v>
@@ -2613,7 +2613,7 @@
         <v>7</v>
       </c>
       <c r="D102">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102">
         <v>100</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>87100168</v>
+        <v>87100169</v>
       </c>
       <c r="B103">
         <v>8</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>87100169</v>
+        <v>87100170</v>
       </c>
       <c r="B104">
         <v>8</v>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>87100170</v>
+        <v>87100171</v>
       </c>
       <c r="B105">
         <v>8</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>87100171</v>
+        <v>87100172</v>
       </c>
       <c r="B106">
         <v>8</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>87100172</v>
+        <v>87100173</v>
       </c>
       <c r="B107">
         <v>8</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>87100173</v>
+        <v>87100174</v>
       </c>
       <c r="B108">
         <v>8</v>
@@ -2744,7 +2744,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>87100174</v>
+        <v>87100175</v>
       </c>
       <c r="B109">
         <v>8</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>87100175</v>
+        <v>87100176</v>
       </c>
       <c r="B110">
         <v>8</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>87100176</v>
+        <v>87100177</v>
       </c>
       <c r="B111">
         <v>8</v>
@@ -2804,16 +2804,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>87100177</v>
+        <v>87100178</v>
       </c>
       <c r="B112">
         <v>8</v>
       </c>
       <c r="C112">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E112">
         <v>100</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>87100178</v>
+        <v>87100179</v>
       </c>
       <c r="B113">
         <v>8</v>
@@ -2833,7 +2833,7 @@
         <v>8</v>
       </c>
       <c r="D113">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>100</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>87100179</v>
+        <v>87100180</v>
       </c>
       <c r="B114">
         <v>8</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>87100180</v>
+        <v>87100181</v>
       </c>
       <c r="B115">
         <v>8</v>
@@ -2884,7 +2884,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>87100181</v>
+        <v>87100182</v>
       </c>
       <c r="B116">
         <v>8</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>87100182</v>
+        <v>87100183</v>
       </c>
       <c r="B117">
         <v>8</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>87100183</v>
+        <v>87100184</v>
       </c>
       <c r="B118">
         <v>8</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>87100184</v>
+        <v>87100185</v>
       </c>
       <c r="B119">
         <v>8</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>87100185</v>
+        <v>87100186</v>
       </c>
       <c r="B120">
         <v>8</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>87100186</v>
+        <v>87100187</v>
       </c>
       <c r="B121">
         <v>8</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122">
-        <v>87100187</v>
+        <v>87100188</v>
       </c>
       <c r="B122">
         <v>8</v>
@@ -3024,16 +3024,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>87100188</v>
+        <v>87100189</v>
       </c>
       <c r="B123">
         <v>8</v>
       </c>
       <c r="C123">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E123">
         <v>100</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>87100189</v>
+        <v>87100190</v>
       </c>
       <c r="B124">
         <v>8</v>
@@ -3053,7 +3053,7 @@
         <v>9</v>
       </c>
       <c r="D124">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>100</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>87100190</v>
+        <v>87100191</v>
       </c>
       <c r="B125">
         <v>8</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>87100191</v>
+        <v>87100192</v>
       </c>
       <c r="B126">
         <v>8</v>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>87100192</v>
+        <v>87100193</v>
       </c>
       <c r="B127">
         <v>8</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>87100193</v>
+        <v>87100194</v>
       </c>
       <c r="B128">
         <v>8</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129">
-        <v>87100194</v>
+        <v>87100195</v>
       </c>
       <c r="B129">
         <v>8</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130">
-        <v>87100195</v>
+        <v>87100196</v>
       </c>
       <c r="B130">
         <v>8</v>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131">
-        <v>87100196</v>
+        <v>87100197</v>
       </c>
       <c r="B131">
         <v>8</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132">
-        <v>87100197</v>
+        <v>87100198</v>
       </c>
       <c r="B132">
         <v>8</v>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133">
-        <v>87100198</v>
+        <v>87100199</v>
       </c>
       <c r="B133">
         <v>8</v>
@@ -3244,16 +3244,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134">
-        <v>87100199</v>
+        <v>87100200</v>
       </c>
       <c r="B134">
         <v>8</v>
       </c>
       <c r="C134">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E134">
         <v>100</v>
@@ -3264,7 +3264,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135">
-        <v>87100200</v>
+        <v>87100201</v>
       </c>
       <c r="B135">
         <v>8</v>
@@ -3273,7 +3273,7 @@
         <v>10</v>
       </c>
       <c r="D135">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E135">
         <v>100</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136">
-        <v>87100201</v>
+        <v>87100202</v>
       </c>
       <c r="B136">
         <v>8</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137">
-        <v>87100202</v>
+        <v>87100203</v>
       </c>
       <c r="B137">
         <v>8</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138">
-        <v>87100203</v>
+        <v>87100204</v>
       </c>
       <c r="B138">
         <v>8</v>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139">
-        <v>87100204</v>
+        <v>87100205</v>
       </c>
       <c r="B139">
         <v>8</v>
@@ -3364,7 +3364,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140">
-        <v>87100205</v>
+        <v>87100206</v>
       </c>
       <c r="B140">
         <v>8</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141">
-        <v>87100206</v>
+        <v>87100207</v>
       </c>
       <c r="B141">
         <v>8</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142">
-        <v>87100207</v>
+        <v>87100208</v>
       </c>
       <c r="B142">
         <v>8</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143">
-        <v>87100208</v>
+        <v>87100209</v>
       </c>
       <c r="B143">
         <v>8</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144">
-        <v>87100209</v>
+        <v>87100210</v>
       </c>
       <c r="B144">
         <v>8</v>
@@ -3464,16 +3464,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145">
-        <v>87100210</v>
+        <v>87100211</v>
       </c>
       <c r="B145">
         <v>8</v>
       </c>
       <c r="C145">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E145">
         <v>100</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146">
-        <v>87100211</v>
+        <v>87100212</v>
       </c>
       <c r="B146">
         <v>8</v>
@@ -3493,7 +3493,7 @@
         <v>11</v>
       </c>
       <c r="D146">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E146">
         <v>100</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147">
-        <v>87100212</v>
+        <v>87100213</v>
       </c>
       <c r="B147">
         <v>8</v>
@@ -3524,7 +3524,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148">
-        <v>87100213</v>
+        <v>87100214</v>
       </c>
       <c r="B148">
         <v>8</v>
@@ -3544,7 +3544,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149">
-        <v>87100214</v>
+        <v>87100215</v>
       </c>
       <c r="B149">
         <v>8</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150">
-        <v>87100215</v>
+        <v>87100216</v>
       </c>
       <c r="B150">
         <v>8</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151">
-        <v>87100216</v>
+        <v>87100217</v>
       </c>
       <c r="B151">
         <v>8</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152">
-        <v>87100217</v>
+        <v>87100218</v>
       </c>
       <c r="B152">
         <v>8</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153">
-        <v>87100218</v>
+        <v>87100219</v>
       </c>
       <c r="B153">
         <v>8</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154">
-        <v>87100219</v>
+        <v>87100220</v>
       </c>
       <c r="B154">
         <v>8</v>
@@ -3664,7 +3664,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155">
-        <v>87100220</v>
+        <v>87100221</v>
       </c>
       <c r="B155">
         <v>8</v>
@@ -3684,16 +3684,16 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156">
-        <v>87100221</v>
+        <v>87100222</v>
       </c>
       <c r="B156">
         <v>8</v>
       </c>
       <c r="C156">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E156">
         <v>100</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157">
-        <v>87100222</v>
+        <v>87100223</v>
       </c>
       <c r="B157">
         <v>8</v>
@@ -3713,7 +3713,7 @@
         <v>12</v>
       </c>
       <c r="D157">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E157">
         <v>100</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158">
-        <v>87100223</v>
+        <v>87100224</v>
       </c>
       <c r="B158">
         <v>8</v>
@@ -3744,7 +3744,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159">
-        <v>87100224</v>
+        <v>87100225</v>
       </c>
       <c r="B159">
         <v>8</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160">
-        <v>87100225</v>
+        <v>87100226</v>
       </c>
       <c r="B160">
         <v>8</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161">
-        <v>87100226</v>
+        <v>87100227</v>
       </c>
       <c r="B161">
         <v>8</v>
@@ -3804,33 +3804,33 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162">
-        <v>87100227</v>
+        <v>87100228</v>
       </c>
       <c r="B162">
         <v>8</v>
       </c>
       <c r="C162">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E162">
         <v>100</v>
       </c>
       <c r="F162">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163">
-        <v>87100228</v>
+        <v>87200001</v>
       </c>
       <c r="B163">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C163">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D163">
         <v>100</v>
@@ -3839,12 +3839,12 @@
         <v>100</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>999</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164">
-        <v>87200001</v>
+        <v>87200002</v>
       </c>
       <c r="B164">
         <v>5</v>
@@ -3853,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E164">
         <v>100</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165">
-        <v>87200002</v>
+        <v>87200003</v>
       </c>
       <c r="B165">
         <v>5</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166">
-        <v>87200003</v>
+        <v>87200004</v>
       </c>
       <c r="B166">
         <v>5</v>
@@ -3904,16 +3904,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167">
-        <v>87200004</v>
+        <v>87200005</v>
       </c>
       <c r="B167">
         <v>5</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E167">
         <v>100</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168">
-        <v>87200005</v>
+        <v>87200006</v>
       </c>
       <c r="B168">
         <v>5</v>
@@ -3933,7 +3933,7 @@
         <v>2</v>
       </c>
       <c r="D168">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E168">
         <v>100</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169">
-        <v>87200006</v>
+        <v>87200007</v>
       </c>
       <c r="B169">
         <v>5</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170">
-        <v>87200007</v>
+        <v>87200008</v>
       </c>
       <c r="B170">
         <v>5</v>
@@ -3984,16 +3984,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171">
-        <v>87200008</v>
+        <v>87200009</v>
       </c>
       <c r="B171">
         <v>5</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E171">
         <v>100</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172">
-        <v>87200009</v>
+        <v>87200010</v>
       </c>
       <c r="B172">
         <v>5</v>
@@ -4013,7 +4013,7 @@
         <v>3</v>
       </c>
       <c r="D172">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E172">
         <v>100</v>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173">
-        <v>87200010</v>
+        <v>87200011</v>
       </c>
       <c r="B173">
         <v>5</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174">
-        <v>87200011</v>
+        <v>87200012</v>
       </c>
       <c r="B174">
         <v>5</v>
@@ -4064,16 +4064,16 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175">
-        <v>87200012</v>
+        <v>87200013</v>
       </c>
       <c r="B175">
         <v>5</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E175">
         <v>100</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176">
-        <v>87200013</v>
+        <v>87200014</v>
       </c>
       <c r="B176">
         <v>5</v>
@@ -4093,7 +4093,7 @@
         <v>4</v>
       </c>
       <c r="D176">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E176">
         <v>100</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177">
-        <v>87200014</v>
+        <v>87200015</v>
       </c>
       <c r="B177">
         <v>5</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178">
-        <v>87200015</v>
+        <v>87200016</v>
       </c>
       <c r="B178">
         <v>5</v>
@@ -4144,16 +4144,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179">
-        <v>87200016</v>
+        <v>87200017</v>
       </c>
       <c r="B179">
         <v>5</v>
       </c>
       <c r="C179">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E179">
         <v>100</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180">
-        <v>87200017</v>
+        <v>87200018</v>
       </c>
       <c r="B180">
         <v>5</v>
@@ -4173,7 +4173,7 @@
         <v>5</v>
       </c>
       <c r="D180">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E180">
         <v>100</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181">
-        <v>87200018</v>
+        <v>87200019</v>
       </c>
       <c r="B181">
         <v>5</v>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182">
-        <v>87200019</v>
+        <v>87200020</v>
       </c>
       <c r="B182">
         <v>5</v>
@@ -4224,16 +4224,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183">
-        <v>87200020</v>
+        <v>87200021</v>
       </c>
       <c r="B183">
         <v>5</v>
       </c>
       <c r="C183">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E183">
         <v>100</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184">
-        <v>87200021</v>
+        <v>87200022</v>
       </c>
       <c r="B184">
         <v>5</v>
@@ -4253,7 +4253,7 @@
         <v>6</v>
       </c>
       <c r="D184">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E184">
         <v>100</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185">
-        <v>87200022</v>
+        <v>87200023</v>
       </c>
       <c r="B185">
         <v>5</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186">
-        <v>87200023</v>
+        <v>87200024</v>
       </c>
       <c r="B186">
         <v>5</v>
@@ -4304,16 +4304,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187">
-        <v>87200024</v>
+        <v>87200025</v>
       </c>
       <c r="B187">
         <v>5</v>
       </c>
       <c r="C187">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E187">
         <v>100</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188">
-        <v>87200025</v>
+        <v>87200026</v>
       </c>
       <c r="B188">
         <v>5</v>
@@ -4333,7 +4333,7 @@
         <v>7</v>
       </c>
       <c r="D188">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E188">
         <v>100</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189">
-        <v>87200026</v>
+        <v>87200027</v>
       </c>
       <c r="B189">
         <v>5</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190">
-        <v>87200027</v>
+        <v>87200028</v>
       </c>
       <c r="B190">
         <v>5</v>
@@ -4384,16 +4384,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191">
-        <v>87200028</v>
+        <v>87300001</v>
       </c>
       <c r="B191">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C191">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E191">
         <v>100</v>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192">
-        <v>87300001</v>
+        <v>87300002</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193">
-        <v>87300002</v>
+        <v>87300003</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194">
-        <v>87300003</v>
+        <v>87300004</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -4464,13 +4464,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195">
-        <v>87300004</v>
+        <v>87300005</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
         <v>100</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196">
-        <v>87300005</v>
+        <v>87300006</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197">
-        <v>87300006</v>
+        <v>87300007</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -4524,13 +4524,13 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198">
-        <v>87300007</v>
+        <v>87300008</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D198">
         <v>100</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199">
-        <v>87300008</v>
+        <v>87300009</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200">
-        <v>87300009</v>
+        <v>87300010</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -4584,13 +4584,13 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201">
-        <v>87300010</v>
+        <v>87300011</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D201">
         <v>100</v>
@@ -4604,7 +4604,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202">
-        <v>87300011</v>
+        <v>87300012</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203">
-        <v>87300012</v>
+        <v>87300013</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -4644,13 +4644,13 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204">
-        <v>87300013</v>
+        <v>87300014</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
       <c r="C204">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D204">
         <v>100</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205">
-        <v>87300014</v>
+        <v>87300015</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -4684,13 +4684,13 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206">
-        <v>87300015</v>
+        <v>87300016</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
       <c r="C206">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D206">
         <v>100</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207">
-        <v>87300016</v>
+        <v>87300017</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208">
-        <v>87300017</v>
+        <v>87300018</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -4744,13 +4744,13 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A209">
-        <v>87300018</v>
+        <v>87400001</v>
       </c>
       <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209">
         <v>1</v>
-      </c>
-      <c r="C209">
-        <v>6</v>
       </c>
       <c r="D209">
         <v>100</v>
@@ -4764,7 +4764,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210">
-        <v>87400001</v>
+        <v>87400002</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -4773,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E210">
         <v>100</v>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A211">
-        <v>87400002</v>
+        <v>87400003</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212">
-        <v>87400003</v>
+        <v>87400004</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A213">
-        <v>87400004</v>
+        <v>87400005</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -4844,16 +4844,16 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A214">
-        <v>87400005</v>
+        <v>87400006</v>
       </c>
       <c r="B214">
         <v>2</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E214">
         <v>100</v>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A215">
-        <v>87400006</v>
+        <v>87400007</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -4873,7 +4873,7 @@
         <v>2</v>
       </c>
       <c r="D215">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E215">
         <v>100</v>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216">
-        <v>87400007</v>
+        <v>87400008</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A217">
-        <v>87400008</v>
+        <v>87400009</v>
       </c>
       <c r="B217">
         <v>2</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218">
-        <v>87400009</v>
+        <v>87400010</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -4944,16 +4944,16 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A219">
-        <v>87400010</v>
+        <v>87400011</v>
       </c>
       <c r="B219">
         <v>2</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E219">
         <v>100</v>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A220">
-        <v>87400011</v>
+        <v>87400012</v>
       </c>
       <c r="B220">
         <v>2</v>
@@ -4973,7 +4973,7 @@
         <v>3</v>
       </c>
       <c r="D220">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E220">
         <v>100</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A221">
-        <v>87400012</v>
+        <v>87400013</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -5004,7 +5004,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A222">
-        <v>87400013</v>
+        <v>87400014</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A223">
-        <v>87400014</v>
+        <v>87400015</v>
       </c>
       <c r="B223">
         <v>2</v>
@@ -5044,16 +5044,16 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A224">
-        <v>87400015</v>
+        <v>87400016</v>
       </c>
       <c r="B224">
         <v>2</v>
       </c>
       <c r="C224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E224">
         <v>100</v>
@@ -5064,7 +5064,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A225">
-        <v>87400016</v>
+        <v>87400017</v>
       </c>
       <c r="B225">
         <v>2</v>
@@ -5073,7 +5073,7 @@
         <v>4</v>
       </c>
       <c r="D225">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E225">
         <v>100</v>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A226">
-        <v>87400017</v>
+        <v>87400018</v>
       </c>
       <c r="B226">
         <v>2</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A227">
-        <v>87400018</v>
+        <v>87400019</v>
       </c>
       <c r="B227">
         <v>2</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A228">
-        <v>87400019</v>
+        <v>87400020</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -5144,16 +5144,16 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A229">
-        <v>87400020</v>
+        <v>87400021</v>
       </c>
       <c r="B229">
         <v>2</v>
       </c>
       <c r="C229">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E229">
         <v>100</v>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A230">
-        <v>87400021</v>
+        <v>87400022</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>5</v>
       </c>
       <c r="D230">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E230">
         <v>100</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A231">
-        <v>87400022</v>
+        <v>87400023</v>
       </c>
       <c r="B231">
         <v>2</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A232">
-        <v>87400023</v>
+        <v>87400024</v>
       </c>
       <c r="B232">
         <v>2</v>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A233">
-        <v>87400024</v>
+        <v>87400025</v>
       </c>
       <c r="B233">
         <v>2</v>
@@ -5244,16 +5244,16 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A234">
-        <v>87400025</v>
+        <v>87400026</v>
       </c>
       <c r="B234">
         <v>2</v>
       </c>
       <c r="C234">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E234">
         <v>100</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A235">
-        <v>87400026</v>
+        <v>87400027</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -5273,7 +5273,7 @@
         <v>6</v>
       </c>
       <c r="D235">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E235">
         <v>100</v>
@@ -5284,7 +5284,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A236">
-        <v>87400027</v>
+        <v>87400028</v>
       </c>
       <c r="B236">
         <v>2</v>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A237">
-        <v>87400028</v>
+        <v>87400029</v>
       </c>
       <c r="B237">
         <v>2</v>
@@ -5324,7 +5324,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A238">
-        <v>87400029</v>
+        <v>87400030</v>
       </c>
       <c r="B238">
         <v>2</v>
@@ -5344,16 +5344,16 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A239">
-        <v>87400030</v>
+        <v>87400031</v>
       </c>
       <c r="B239">
         <v>2</v>
       </c>
       <c r="C239">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D239">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E239">
         <v>100</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A240">
-        <v>87400031</v>
+        <v>87400032</v>
       </c>
       <c r="B240">
         <v>2</v>
@@ -5373,7 +5373,7 @@
         <v>7</v>
       </c>
       <c r="D240">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E240">
         <v>100</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A241">
-        <v>87400032</v>
+        <v>87400033</v>
       </c>
       <c r="B241">
         <v>2</v>
@@ -5404,7 +5404,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A242">
-        <v>87400033</v>
+        <v>87400034</v>
       </c>
       <c r="B242">
         <v>2</v>
@@ -5424,7 +5424,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A243">
-        <v>87400034</v>
+        <v>87400035</v>
       </c>
       <c r="B243">
         <v>2</v>
@@ -5444,16 +5444,16 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A244">
-        <v>87400035</v>
+        <v>87400036</v>
       </c>
       <c r="B244">
         <v>2</v>
       </c>
       <c r="C244">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E244">
         <v>100</v>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A245">
-        <v>87400036</v>
+        <v>87400037</v>
       </c>
       <c r="B245">
         <v>2</v>
@@ -5473,7 +5473,7 @@
         <v>8</v>
       </c>
       <c r="D245">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E245">
         <v>100</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A246">
-        <v>87400037</v>
+        <v>87400038</v>
       </c>
       <c r="B246">
         <v>2</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A247">
-        <v>87400038</v>
+        <v>87400039</v>
       </c>
       <c r="B247">
         <v>2</v>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A248">
-        <v>87400039</v>
+        <v>87400040</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -5544,16 +5544,16 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A249">
-        <v>87400040</v>
+        <v>87400041</v>
       </c>
       <c r="B249">
         <v>2</v>
       </c>
       <c r="C249">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E249">
         <v>100</v>
@@ -5564,7 +5564,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A250">
-        <v>87400041</v>
+        <v>87400042</v>
       </c>
       <c r="B250">
         <v>2</v>
@@ -5573,7 +5573,7 @@
         <v>9</v>
       </c>
       <c r="D250">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E250">
         <v>100</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A251">
-        <v>87400042</v>
+        <v>87400043</v>
       </c>
       <c r="B251">
         <v>2</v>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A252">
-        <v>87400043</v>
+        <v>87400044</v>
       </c>
       <c r="B252">
         <v>2</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A253">
-        <v>87400044</v>
+        <v>87400045</v>
       </c>
       <c r="B253">
         <v>2</v>
@@ -5644,16 +5644,16 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A254">
-        <v>87400045</v>
+        <v>87400046</v>
       </c>
       <c r="B254">
         <v>2</v>
       </c>
       <c r="C254">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D254">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E254">
         <v>100</v>
@@ -5664,7 +5664,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A255">
-        <v>87400046</v>
+        <v>87400047</v>
       </c>
       <c r="B255">
         <v>2</v>
@@ -5673,7 +5673,7 @@
         <v>10</v>
       </c>
       <c r="D255">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E255">
         <v>100</v>
@@ -5684,7 +5684,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A256">
-        <v>87400047</v>
+        <v>87400048</v>
       </c>
       <c r="B256">
         <v>2</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A257">
-        <v>87400048</v>
+        <v>87400049</v>
       </c>
       <c r="B257">
         <v>2</v>
@@ -5724,7 +5724,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A258">
-        <v>87400049</v>
+        <v>87400050</v>
       </c>
       <c r="B258">
         <v>2</v>
@@ -5744,16 +5744,16 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A259">
-        <v>87400050</v>
+        <v>87400051</v>
       </c>
       <c r="B259">
         <v>2</v>
       </c>
       <c r="C259">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E259">
         <v>100</v>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A260">
-        <v>87400051</v>
+        <v>87400052</v>
       </c>
       <c r="B260">
         <v>2</v>
@@ -5773,7 +5773,7 @@
         <v>11</v>
       </c>
       <c r="D260">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E260">
         <v>100</v>
@@ -5784,7 +5784,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A261">
-        <v>87400052</v>
+        <v>87400053</v>
       </c>
       <c r="B261">
         <v>2</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A262">
-        <v>87400053</v>
+        <v>87400054</v>
       </c>
       <c r="B262">
         <v>2</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A263">
-        <v>87400054</v>
+        <v>87400055</v>
       </c>
       <c r="B263">
         <v>2</v>
@@ -5844,16 +5844,16 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A264">
-        <v>87400055</v>
+        <v>87400056</v>
       </c>
       <c r="B264">
         <v>2</v>
       </c>
       <c r="C264">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D264">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E264">
         <v>100</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A265">
-        <v>87400056</v>
+        <v>87400057</v>
       </c>
       <c r="B265">
         <v>2</v>
@@ -5873,7 +5873,7 @@
         <v>12</v>
       </c>
       <c r="D265">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E265">
         <v>100</v>
@@ -5884,7 +5884,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A266">
-        <v>87400057</v>
+        <v>87400058</v>
       </c>
       <c r="B266">
         <v>2</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A267">
-        <v>87400058</v>
+        <v>87400059</v>
       </c>
       <c r="B267">
         <v>2</v>
@@ -5924,7 +5924,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A268">
-        <v>87400059</v>
+        <v>87400060</v>
       </c>
       <c r="B268">
         <v>2</v>
@@ -5944,16 +5944,16 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A269">
-        <v>87400060</v>
+        <v>87400061</v>
       </c>
       <c r="B269">
         <v>2</v>
       </c>
       <c r="C269">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D269">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E269">
         <v>100</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A270">
-        <v>87400061</v>
+        <v>87400062</v>
       </c>
       <c r="B270">
         <v>2</v>
@@ -5973,7 +5973,7 @@
         <v>13</v>
       </c>
       <c r="D270">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E270">
         <v>100</v>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A271">
-        <v>87400062</v>
+        <v>87400063</v>
       </c>
       <c r="B271">
         <v>2</v>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A272">
-        <v>87400063</v>
+        <v>87400064</v>
       </c>
       <c r="B272">
         <v>2</v>
@@ -6024,7 +6024,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A273">
-        <v>87400064</v>
+        <v>87400065</v>
       </c>
       <c r="B273">
         <v>2</v>
@@ -6044,16 +6044,16 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A274">
-        <v>87400065</v>
+        <v>87400066</v>
       </c>
       <c r="B274">
         <v>2</v>
       </c>
       <c r="C274">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D274">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E274">
         <v>100</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A275">
-        <v>87400066</v>
+        <v>87400067</v>
       </c>
       <c r="B275">
         <v>2</v>
@@ -6073,7 +6073,7 @@
         <v>14</v>
       </c>
       <c r="D275">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E275">
         <v>100</v>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A276">
-        <v>87400067</v>
+        <v>87400068</v>
       </c>
       <c r="B276">
         <v>2</v>
@@ -6104,7 +6104,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A277">
-        <v>87400068</v>
+        <v>87400069</v>
       </c>
       <c r="B277">
         <v>2</v>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A278">
-        <v>87400069</v>
+        <v>87400070</v>
       </c>
       <c r="B278">
         <v>2</v>
@@ -6144,16 +6144,16 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A279">
-        <v>87400070</v>
+        <v>87400071</v>
       </c>
       <c r="B279">
         <v>2</v>
       </c>
       <c r="C279">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D279">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E279">
         <v>100</v>
@@ -6164,7 +6164,7 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A280">
-        <v>87400071</v>
+        <v>87400072</v>
       </c>
       <c r="B280">
         <v>2</v>
@@ -6173,7 +6173,7 @@
         <v>15</v>
       </c>
       <c r="D280">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E280">
         <v>100</v>
@@ -6184,7 +6184,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A281">
-        <v>87400072</v>
+        <v>87400073</v>
       </c>
       <c r="B281">
         <v>2</v>
@@ -6204,7 +6204,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A282">
-        <v>87400073</v>
+        <v>87400074</v>
       </c>
       <c r="B282">
         <v>2</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A283">
-        <v>87400074</v>
+        <v>87400075</v>
       </c>
       <c r="B283">
         <v>2</v>
@@ -6244,16 +6244,16 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A284">
-        <v>87400075</v>
+        <v>87400076</v>
       </c>
       <c r="B284">
         <v>2</v>
       </c>
       <c r="C284">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D284">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E284">
         <v>100</v>
@@ -6264,7 +6264,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A285">
-        <v>87400076</v>
+        <v>87400077</v>
       </c>
       <c r="B285">
         <v>2</v>
@@ -6273,7 +6273,7 @@
         <v>16</v>
       </c>
       <c r="D285">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E285">
         <v>100</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A286">
-        <v>87400077</v>
+        <v>87400078</v>
       </c>
       <c r="B286">
         <v>2</v>
@@ -6304,7 +6304,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A287">
-        <v>87400078</v>
+        <v>87400079</v>
       </c>
       <c r="B287">
         <v>2</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A288">
-        <v>87400079</v>
+        <v>87400080</v>
       </c>
       <c r="B288">
         <v>2</v>
@@ -6344,16 +6344,16 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A289">
-        <v>87400080</v>
+        <v>87400081</v>
       </c>
       <c r="B289">
         <v>2</v>
       </c>
       <c r="C289">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D289">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E289">
         <v>100</v>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A290">
-        <v>87400081</v>
+        <v>87400082</v>
       </c>
       <c r="B290">
         <v>2</v>
@@ -6373,7 +6373,7 @@
         <v>17</v>
       </c>
       <c r="D290">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E290">
         <v>100</v>
@@ -6384,7 +6384,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A291">
-        <v>87400082</v>
+        <v>87400083</v>
       </c>
       <c r="B291">
         <v>2</v>
@@ -6404,7 +6404,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A292">
-        <v>87400083</v>
+        <v>87400084</v>
       </c>
       <c r="B292">
         <v>2</v>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A293">
-        <v>87400084</v>
+        <v>87400085</v>
       </c>
       <c r="B293">
         <v>2</v>
@@ -6444,16 +6444,16 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A294">
-        <v>87400085</v>
+        <v>87400086</v>
       </c>
       <c r="B294">
         <v>2</v>
       </c>
       <c r="C294">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D294">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E294">
         <v>100</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A295">
-        <v>87400086</v>
+        <v>87400087</v>
       </c>
       <c r="B295">
         <v>2</v>
@@ -6473,7 +6473,7 @@
         <v>18</v>
       </c>
       <c r="D295">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E295">
         <v>100</v>
@@ -6484,7 +6484,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A296">
-        <v>87400087</v>
+        <v>87400088</v>
       </c>
       <c r="B296">
         <v>2</v>
@@ -6504,7 +6504,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A297">
-        <v>87400088</v>
+        <v>87400089</v>
       </c>
       <c r="B297">
         <v>2</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A298">
-        <v>87400089</v>
+        <v>87400090</v>
       </c>
       <c r="B298">
         <v>2</v>
@@ -6544,16 +6544,16 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A299">
-        <v>87400090</v>
+        <v>87400091</v>
       </c>
       <c r="B299">
         <v>2</v>
       </c>
       <c r="C299">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D299">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E299">
         <v>100</v>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A300">
-        <v>87400091</v>
+        <v>87400092</v>
       </c>
       <c r="B300">
         <v>2</v>
@@ -6573,7 +6573,7 @@
         <v>19</v>
       </c>
       <c r="D300">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E300">
         <v>100</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A301">
-        <v>87400092</v>
+        <v>87400093</v>
       </c>
       <c r="B301">
         <v>2</v>
@@ -6604,7 +6604,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A302">
-        <v>87400093</v>
+        <v>87400094</v>
       </c>
       <c r="B302">
         <v>2</v>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A303">
-        <v>87400094</v>
+        <v>87400095</v>
       </c>
       <c r="B303">
         <v>2</v>
@@ -6644,16 +6644,16 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A304">
-        <v>87400095</v>
+        <v>87400096</v>
       </c>
       <c r="B304">
         <v>2</v>
       </c>
       <c r="C304">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D304">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E304">
         <v>100</v>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A305">
-        <v>87400096</v>
+        <v>87400097</v>
       </c>
       <c r="B305">
         <v>2</v>
@@ -6673,7 +6673,7 @@
         <v>20</v>
       </c>
       <c r="D305">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E305">
         <v>100</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A306">
-        <v>87400097</v>
+        <v>87400098</v>
       </c>
       <c r="B306">
         <v>2</v>
@@ -6704,7 +6704,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A307">
-        <v>87400098</v>
+        <v>87400099</v>
       </c>
       <c r="B307">
         <v>2</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A308">
-        <v>87400099</v>
+        <v>87400100</v>
       </c>
       <c r="B308">
         <v>2</v>
@@ -6744,16 +6744,16 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A309">
-        <v>87400100</v>
+        <v>87400101</v>
       </c>
       <c r="B309">
         <v>2</v>
       </c>
       <c r="C309">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D309">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E309">
         <v>100</v>
@@ -6764,7 +6764,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A310">
-        <v>87400101</v>
+        <v>87400102</v>
       </c>
       <c r="B310">
         <v>2</v>
@@ -6773,7 +6773,7 @@
         <v>21</v>
       </c>
       <c r="D310">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E310">
         <v>100</v>
@@ -6784,7 +6784,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A311">
-        <v>87400102</v>
+        <v>87400103</v>
       </c>
       <c r="B311">
         <v>2</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A312">
-        <v>87400103</v>
+        <v>87400104</v>
       </c>
       <c r="B312">
         <v>2</v>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A313">
-        <v>87400104</v>
+        <v>87400105</v>
       </c>
       <c r="B313">
         <v>2</v>
@@ -6844,16 +6844,16 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A314">
-        <v>87400105</v>
+        <v>87400106</v>
       </c>
       <c r="B314">
         <v>2</v>
       </c>
       <c r="C314">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D314">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E314">
         <v>100</v>
@@ -6864,7 +6864,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A315">
-        <v>87400106</v>
+        <v>87400107</v>
       </c>
       <c r="B315">
         <v>2</v>
@@ -6873,7 +6873,7 @@
         <v>22</v>
       </c>
       <c r="D315">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E315">
         <v>100</v>
@@ -6884,7 +6884,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A316">
-        <v>87400107</v>
+        <v>87400108</v>
       </c>
       <c r="B316">
         <v>2</v>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A317">
-        <v>87400108</v>
+        <v>87400109</v>
       </c>
       <c r="B317">
         <v>2</v>
@@ -6924,7 +6924,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A318">
-        <v>87400109</v>
+        <v>87400110</v>
       </c>
       <c r="B318">
         <v>2</v>
@@ -6944,16 +6944,16 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A319">
-        <v>87400110</v>
+        <v>87400111</v>
       </c>
       <c r="B319">
         <v>2</v>
       </c>
       <c r="C319">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D319">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E319">
         <v>100</v>
@@ -6964,7 +6964,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A320">
-        <v>87400111</v>
+        <v>87400112</v>
       </c>
       <c r="B320">
         <v>2</v>
@@ -6973,7 +6973,7 @@
         <v>23</v>
       </c>
       <c r="D320">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E320">
         <v>100</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A321">
-        <v>87400112</v>
+        <v>87400113</v>
       </c>
       <c r="B321">
         <v>2</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A322">
-        <v>87400113</v>
+        <v>87400114</v>
       </c>
       <c r="B322">
         <v>2</v>
@@ -7024,7 +7024,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A323">
-        <v>87400114</v>
+        <v>87400115</v>
       </c>
       <c r="B323">
         <v>2</v>
@@ -7044,16 +7044,16 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A324">
-        <v>87400115</v>
+        <v>87400116</v>
       </c>
       <c r="B324">
         <v>2</v>
       </c>
       <c r="C324">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D324">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E324">
         <v>100</v>
@@ -7064,7 +7064,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A325">
-        <v>87400116</v>
+        <v>87400117</v>
       </c>
       <c r="B325">
         <v>2</v>
@@ -7073,7 +7073,7 @@
         <v>24</v>
       </c>
       <c r="D325">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E325">
         <v>100</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A326">
-        <v>87400117</v>
+        <v>87400118</v>
       </c>
       <c r="B326">
         <v>2</v>
@@ -7104,7 +7104,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A327">
-        <v>87400118</v>
+        <v>87400119</v>
       </c>
       <c r="B327">
         <v>2</v>
@@ -7124,7 +7124,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A328">
-        <v>87400119</v>
+        <v>87400120</v>
       </c>
       <c r="B328">
         <v>2</v>
@@ -7144,16 +7144,16 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A329">
-        <v>87400120</v>
+        <v>87400121</v>
       </c>
       <c r="B329">
         <v>2</v>
       </c>
       <c r="C329">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D329">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E329">
         <v>100</v>
@@ -7164,7 +7164,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A330">
-        <v>87400121</v>
+        <v>87400122</v>
       </c>
       <c r="B330">
         <v>2</v>
@@ -7173,7 +7173,7 @@
         <v>25</v>
       </c>
       <c r="D330">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E330">
         <v>100</v>
@@ -7184,7 +7184,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A331">
-        <v>87400122</v>
+        <v>87400123</v>
       </c>
       <c r="B331">
         <v>2</v>
@@ -7204,7 +7204,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A332">
-        <v>87400123</v>
+        <v>87400124</v>
       </c>
       <c r="B332">
         <v>2</v>
@@ -7224,7 +7224,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A333">
-        <v>87400124</v>
+        <v>87400125</v>
       </c>
       <c r="B333">
         <v>2</v>
@@ -7244,16 +7244,16 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A334">
-        <v>87400125</v>
+        <v>87400126</v>
       </c>
       <c r="B334">
         <v>2</v>
       </c>
       <c r="C334">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D334">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E334">
         <v>100</v>
@@ -7264,7 +7264,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A335">
-        <v>87400126</v>
+        <v>87400127</v>
       </c>
       <c r="B335">
         <v>2</v>
@@ -7273,7 +7273,7 @@
         <v>26</v>
       </c>
       <c r="D335">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E335">
         <v>100</v>
@@ -7284,7 +7284,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A336">
-        <v>87400127</v>
+        <v>87400128</v>
       </c>
       <c r="B336">
         <v>2</v>
@@ -7304,7 +7304,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A337">
-        <v>87400128</v>
+        <v>87400129</v>
       </c>
       <c r="B337">
         <v>2</v>
@@ -7324,7 +7324,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A338">
-        <v>87400129</v>
+        <v>87400130</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -7344,16 +7344,16 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A339">
-        <v>87400130</v>
+        <v>87400131</v>
       </c>
       <c r="B339">
         <v>2</v>
       </c>
       <c r="C339">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D339">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E339">
         <v>100</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A340">
-        <v>87400131</v>
+        <v>87400132</v>
       </c>
       <c r="B340">
         <v>2</v>
@@ -7373,7 +7373,7 @@
         <v>27</v>
       </c>
       <c r="D340">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E340">
         <v>100</v>
@@ -7384,7 +7384,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A341">
-        <v>87400132</v>
+        <v>87400133</v>
       </c>
       <c r="B341">
         <v>2</v>
@@ -7404,7 +7404,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A342">
-        <v>87400133</v>
+        <v>87400134</v>
       </c>
       <c r="B342">
         <v>2</v>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A343">
-        <v>87400134</v>
+        <v>87400135</v>
       </c>
       <c r="B343">
         <v>2</v>
@@ -7444,16 +7444,16 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A344">
-        <v>87400135</v>
+        <v>87400136</v>
       </c>
       <c r="B344">
         <v>2</v>
       </c>
       <c r="C344">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D344">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E344">
         <v>100</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A345">
-        <v>87400136</v>
+        <v>87400137</v>
       </c>
       <c r="B345">
         <v>2</v>
@@ -7473,7 +7473,7 @@
         <v>28</v>
       </c>
       <c r="D345">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E345">
         <v>100</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A346">
-        <v>87400137</v>
+        <v>87400138</v>
       </c>
       <c r="B346">
         <v>2</v>
@@ -7504,7 +7504,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A347">
-        <v>87400138</v>
+        <v>87400139</v>
       </c>
       <c r="B347">
         <v>2</v>
@@ -7524,7 +7524,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A348">
-        <v>87400139</v>
+        <v>87400140</v>
       </c>
       <c r="B348">
         <v>2</v>
@@ -7544,16 +7544,16 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A349">
-        <v>87400140</v>
+        <v>87400141</v>
       </c>
       <c r="B349">
         <v>2</v>
       </c>
       <c r="C349">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D349">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E349">
         <v>100</v>
@@ -7564,7 +7564,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A350">
-        <v>87400141</v>
+        <v>87400142</v>
       </c>
       <c r="B350">
         <v>2</v>
@@ -7573,7 +7573,7 @@
         <v>29</v>
       </c>
       <c r="D350">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E350">
         <v>100</v>
@@ -7584,7 +7584,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A351">
-        <v>87400142</v>
+        <v>87400143</v>
       </c>
       <c r="B351">
         <v>2</v>
@@ -7604,7 +7604,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A352">
-        <v>87400143</v>
+        <v>87400144</v>
       </c>
       <c r="B352">
         <v>2</v>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A353">
-        <v>87400144</v>
+        <v>87400145</v>
       </c>
       <c r="B353">
         <v>2</v>
@@ -7644,16 +7644,16 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A354">
-        <v>87400145</v>
+        <v>87400146</v>
       </c>
       <c r="B354">
         <v>2</v>
       </c>
       <c r="C354">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D354">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E354">
         <v>100</v>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A355">
-        <v>87400146</v>
+        <v>87400147</v>
       </c>
       <c r="B355">
         <v>2</v>
@@ -7673,7 +7673,7 @@
         <v>30</v>
       </c>
       <c r="D355">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E355">
         <v>100</v>
@@ -7684,7 +7684,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A356">
-        <v>87400147</v>
+        <v>87400148</v>
       </c>
       <c r="B356">
         <v>2</v>
@@ -7704,7 +7704,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A357">
-        <v>87400148</v>
+        <v>87400149</v>
       </c>
       <c r="B357">
         <v>2</v>
@@ -7724,7 +7724,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A358">
-        <v>87400149</v>
+        <v>87400150</v>
       </c>
       <c r="B358">
         <v>2</v>
@@ -7744,16 +7744,16 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A359">
-        <v>87400150</v>
+        <v>87400151</v>
       </c>
       <c r="B359">
         <v>2</v>
       </c>
       <c r="C359">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D359">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E359">
         <v>100</v>
@@ -7764,7 +7764,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A360">
-        <v>87400151</v>
+        <v>87400152</v>
       </c>
       <c r="B360">
         <v>2</v>
@@ -7773,7 +7773,7 @@
         <v>31</v>
       </c>
       <c r="D360">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E360">
         <v>100</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A361">
-        <v>87400152</v>
+        <v>87400153</v>
       </c>
       <c r="B361">
         <v>2</v>
@@ -7804,7 +7804,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A362">
-        <v>87400153</v>
+        <v>87400154</v>
       </c>
       <c r="B362">
         <v>2</v>
@@ -7824,7 +7824,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A363">
-        <v>87400154</v>
+        <v>87400155</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -7844,16 +7844,16 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A364">
-        <v>87400155</v>
+        <v>87400156</v>
       </c>
       <c r="B364">
         <v>2</v>
       </c>
       <c r="C364">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D364">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E364">
         <v>100</v>
@@ -7864,7 +7864,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A365">
-        <v>87400156</v>
+        <v>87400157</v>
       </c>
       <c r="B365">
         <v>2</v>
@@ -7873,7 +7873,7 @@
         <v>32</v>
       </c>
       <c r="D365">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E365">
         <v>100</v>
@@ -7884,7 +7884,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A366">
-        <v>87400157</v>
+        <v>87400158</v>
       </c>
       <c r="B366">
         <v>2</v>
@@ -7904,7 +7904,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A367">
-        <v>87400158</v>
+        <v>87400159</v>
       </c>
       <c r="B367">
         <v>2</v>
@@ -7924,7 +7924,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A368">
-        <v>87400159</v>
+        <v>87400160</v>
       </c>
       <c r="B368">
         <v>2</v>
@@ -7944,16 +7944,16 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A369">
-        <v>87400160</v>
+        <v>87400161</v>
       </c>
       <c r="B369">
         <v>2</v>
       </c>
       <c r="C369">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D369">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E369">
         <v>100</v>
@@ -7964,7 +7964,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A370">
-        <v>87400161</v>
+        <v>87400162</v>
       </c>
       <c r="B370">
         <v>2</v>
@@ -7973,7 +7973,7 @@
         <v>33</v>
       </c>
       <c r="D370">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E370">
         <v>100</v>
@@ -7984,7 +7984,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A371">
-        <v>87400162</v>
+        <v>87400163</v>
       </c>
       <c r="B371">
         <v>2</v>
@@ -8004,7 +8004,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A372">
-        <v>87400163</v>
+        <v>87400164</v>
       </c>
       <c r="B372">
         <v>2</v>
@@ -8024,7 +8024,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A373">
-        <v>87400164</v>
+        <v>87400165</v>
       </c>
       <c r="B373">
         <v>2</v>
@@ -8044,16 +8044,16 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A374">
-        <v>87400165</v>
+        <v>87400166</v>
       </c>
       <c r="B374">
         <v>2</v>
       </c>
       <c r="C374">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D374">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E374">
         <v>100</v>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A375">
-        <v>87400166</v>
+        <v>87400167</v>
       </c>
       <c r="B375">
         <v>2</v>
@@ -8073,7 +8073,7 @@
         <v>34</v>
       </c>
       <c r="D375">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E375">
         <v>100</v>
@@ -8084,7 +8084,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A376">
-        <v>87400167</v>
+        <v>87400168</v>
       </c>
       <c r="B376">
         <v>2</v>
@@ -8104,7 +8104,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A377">
-        <v>87400168</v>
+        <v>87400169</v>
       </c>
       <c r="B377">
         <v>2</v>
@@ -8124,7 +8124,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A378">
-        <v>87400169</v>
+        <v>87400170</v>
       </c>
       <c r="B378">
         <v>2</v>
@@ -8144,16 +8144,16 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A379">
-        <v>87400170</v>
+        <v>87400171</v>
       </c>
       <c r="B379">
         <v>2</v>
       </c>
       <c r="C379">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D379">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E379">
         <v>100</v>
@@ -8164,7 +8164,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A380">
-        <v>87400171</v>
+        <v>87400172</v>
       </c>
       <c r="B380">
         <v>2</v>
@@ -8173,7 +8173,7 @@
         <v>35</v>
       </c>
       <c r="D380">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E380">
         <v>100</v>
@@ -8184,7 +8184,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A381">
-        <v>87400172</v>
+        <v>87400173</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A382">
-        <v>87400173</v>
+        <v>87400174</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -8224,7 +8224,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A383">
-        <v>87400174</v>
+        <v>87400175</v>
       </c>
       <c r="B383">
         <v>2</v>
@@ -8244,16 +8244,16 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A384">
-        <v>87400175</v>
+        <v>87400176</v>
       </c>
       <c r="B384">
         <v>2</v>
       </c>
       <c r="C384">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D384">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E384">
         <v>100</v>
@@ -8264,7 +8264,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A385">
-        <v>87400176</v>
+        <v>87400177</v>
       </c>
       <c r="B385">
         <v>2</v>
@@ -8273,7 +8273,7 @@
         <v>36</v>
       </c>
       <c r="D385">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E385">
         <v>100</v>
@@ -8284,7 +8284,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A386">
-        <v>87400177</v>
+        <v>87400178</v>
       </c>
       <c r="B386">
         <v>2</v>
@@ -8304,7 +8304,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A387">
-        <v>87400178</v>
+        <v>87400179</v>
       </c>
       <c r="B387">
         <v>2</v>
@@ -8324,7 +8324,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A388">
-        <v>87400179</v>
+        <v>87400180</v>
       </c>
       <c r="B388">
         <v>2</v>
@@ -8344,16 +8344,16 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A389">
-        <v>87400180</v>
+        <v>87400181</v>
       </c>
       <c r="B389">
         <v>2</v>
       </c>
       <c r="C389">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D389">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E389">
         <v>100</v>
@@ -8364,7 +8364,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A390">
-        <v>87400181</v>
+        <v>87400182</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -8373,7 +8373,7 @@
         <v>37</v>
       </c>
       <c r="D390">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E390">
         <v>100</v>
@@ -8384,7 +8384,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A391">
-        <v>87400182</v>
+        <v>87400183</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -8404,7 +8404,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A392">
-        <v>87400183</v>
+        <v>87400184</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -8424,7 +8424,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A393">
-        <v>87400184</v>
+        <v>87400185</v>
       </c>
       <c r="B393">
         <v>2</v>
@@ -8444,16 +8444,16 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A394">
-        <v>87400185</v>
+        <v>87400186</v>
       </c>
       <c r="B394">
         <v>2</v>
       </c>
       <c r="C394">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D394">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E394">
         <v>100</v>
@@ -8464,7 +8464,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A395">
-        <v>87400186</v>
+        <v>87400187</v>
       </c>
       <c r="B395">
         <v>2</v>
@@ -8473,7 +8473,7 @@
         <v>38</v>
       </c>
       <c r="D395">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E395">
         <v>100</v>
@@ -8484,7 +8484,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A396">
-        <v>87400187</v>
+        <v>87400188</v>
       </c>
       <c r="B396">
         <v>2</v>
@@ -8504,7 +8504,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A397">
-        <v>87400188</v>
+        <v>87400189</v>
       </c>
       <c r="B397">
         <v>2</v>
@@ -8524,7 +8524,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A398">
-        <v>87400189</v>
+        <v>87400190</v>
       </c>
       <c r="B398">
         <v>2</v>
@@ -8544,16 +8544,16 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A399">
-        <v>87400190</v>
+        <v>87400191</v>
       </c>
       <c r="B399">
         <v>2</v>
       </c>
       <c r="C399">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D399">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E399">
         <v>100</v>
@@ -8564,7 +8564,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A400">
-        <v>87400191</v>
+        <v>87400192</v>
       </c>
       <c r="B400">
         <v>2</v>
@@ -8573,7 +8573,7 @@
         <v>39</v>
       </c>
       <c r="D400">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E400">
         <v>100</v>
@@ -8584,7 +8584,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A401">
-        <v>87400192</v>
+        <v>87400193</v>
       </c>
       <c r="B401">
         <v>2</v>
@@ -8604,7 +8604,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A402">
-        <v>87400193</v>
+        <v>87400194</v>
       </c>
       <c r="B402">
         <v>2</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A403">
-        <v>87400194</v>
+        <v>87400195</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -8644,16 +8644,16 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A404">
-        <v>87400195</v>
+        <v>87400196</v>
       </c>
       <c r="B404">
         <v>2</v>
       </c>
       <c r="C404">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D404">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E404">
         <v>100</v>
@@ -8664,7 +8664,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A405">
-        <v>87400196</v>
+        <v>87400197</v>
       </c>
       <c r="B405">
         <v>2</v>
@@ -8673,7 +8673,7 @@
         <v>40</v>
       </c>
       <c r="D405">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E405">
         <v>100</v>
@@ -8684,7 +8684,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A406">
-        <v>87400197</v>
+        <v>87400198</v>
       </c>
       <c r="B406">
         <v>2</v>
@@ -8704,7 +8704,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A407">
-        <v>87400198</v>
+        <v>87400199</v>
       </c>
       <c r="B407">
         <v>2</v>
@@ -8724,7 +8724,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A408">
-        <v>87400199</v>
+        <v>87400200</v>
       </c>
       <c r="B408">
         <v>2</v>
@@ -8744,16 +8744,16 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A409">
-        <v>87400200</v>
+        <v>87400201</v>
       </c>
       <c r="B409">
         <v>2</v>
       </c>
       <c r="C409">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D409">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E409">
         <v>100</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A410">
-        <v>87400201</v>
+        <v>87400202</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -8773,7 +8773,7 @@
         <v>41</v>
       </c>
       <c r="D410">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E410">
         <v>100</v>
@@ -8784,7 +8784,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A411">
-        <v>87400202</v>
+        <v>87400203</v>
       </c>
       <c r="B411">
         <v>2</v>
@@ -8804,7 +8804,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A412">
-        <v>87400203</v>
+        <v>87400204</v>
       </c>
       <c r="B412">
         <v>2</v>
@@ -8824,7 +8824,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A413">
-        <v>87400204</v>
+        <v>87400205</v>
       </c>
       <c r="B413">
         <v>2</v>
@@ -8844,16 +8844,16 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A414">
-        <v>87400205</v>
+        <v>87400206</v>
       </c>
       <c r="B414">
         <v>2</v>
       </c>
       <c r="C414">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D414">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E414">
         <v>100</v>
@@ -8864,7 +8864,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A415">
-        <v>87400206</v>
+        <v>87400207</v>
       </c>
       <c r="B415">
         <v>2</v>
@@ -8873,7 +8873,7 @@
         <v>42</v>
       </c>
       <c r="D415">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E415">
         <v>100</v>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A416">
-        <v>87400207</v>
+        <v>87400208</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A417">
-        <v>87400208</v>
+        <v>87400209</v>
       </c>
       <c r="B417">
         <v>2</v>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A418">
-        <v>87400209</v>
+        <v>87400210</v>
       </c>
       <c r="B418">
         <v>2</v>
@@ -8944,16 +8944,16 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A419">
-        <v>87400210</v>
+        <v>87400211</v>
       </c>
       <c r="B419">
         <v>2</v>
       </c>
       <c r="C419">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D419">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E419">
         <v>100</v>
@@ -8964,7 +8964,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A420">
-        <v>87400211</v>
+        <v>87400212</v>
       </c>
       <c r="B420">
         <v>2</v>
@@ -8973,7 +8973,7 @@
         <v>43</v>
       </c>
       <c r="D420">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E420">
         <v>100</v>
@@ -8984,7 +8984,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A421">
-        <v>87400212</v>
+        <v>87400213</v>
       </c>
       <c r="B421">
         <v>2</v>
@@ -9004,7 +9004,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A422">
-        <v>87400213</v>
+        <v>87400214</v>
       </c>
       <c r="B422">
         <v>2</v>
@@ -9024,7 +9024,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A423">
-        <v>87400214</v>
+        <v>87400215</v>
       </c>
       <c r="B423">
         <v>2</v>
@@ -9044,16 +9044,16 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A424">
-        <v>87400215</v>
+        <v>87400216</v>
       </c>
       <c r="B424">
         <v>2</v>
       </c>
       <c r="C424">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D424">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E424">
         <v>100</v>
@@ -9064,7 +9064,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A425">
-        <v>87400216</v>
+        <v>87400217</v>
       </c>
       <c r="B425">
         <v>2</v>
@@ -9073,7 +9073,7 @@
         <v>44</v>
       </c>
       <c r="D425">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E425">
         <v>100</v>
@@ -9084,7 +9084,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A426">
-        <v>87400217</v>
+        <v>87400218</v>
       </c>
       <c r="B426">
         <v>2</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A427">
-        <v>87400218</v>
+        <v>87400219</v>
       </c>
       <c r="B427">
         <v>2</v>
@@ -9124,7 +9124,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A428">
-        <v>87400219</v>
+        <v>87400220</v>
       </c>
       <c r="B428">
         <v>2</v>
@@ -9144,16 +9144,16 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A429">
-        <v>87400220</v>
+        <v>87400221</v>
       </c>
       <c r="B429">
         <v>2</v>
       </c>
       <c r="C429">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D429">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E429">
         <v>100</v>
@@ -9164,7 +9164,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A430">
-        <v>87400221</v>
+        <v>87400222</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -9173,7 +9173,7 @@
         <v>45</v>
       </c>
       <c r="D430">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E430">
         <v>100</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A431">
-        <v>87400222</v>
+        <v>87400223</v>
       </c>
       <c r="B431">
         <v>2</v>
@@ -9204,7 +9204,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A432">
-        <v>87400223</v>
+        <v>87400224</v>
       </c>
       <c r="B432">
         <v>2</v>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A433">
-        <v>87400224</v>
+        <v>87400225</v>
       </c>
       <c r="B433">
         <v>2</v>
@@ -9244,16 +9244,16 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A434">
-        <v>87400225</v>
+        <v>87400226</v>
       </c>
       <c r="B434">
         <v>2</v>
       </c>
       <c r="C434">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D434">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E434">
         <v>100</v>
@@ -9264,7 +9264,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A435">
-        <v>87400226</v>
+        <v>87400227</v>
       </c>
       <c r="B435">
         <v>2</v>
@@ -9273,7 +9273,7 @@
         <v>46</v>
       </c>
       <c r="D435">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E435">
         <v>100</v>
@@ -9284,7 +9284,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A436">
-        <v>87400227</v>
+        <v>87400228</v>
       </c>
       <c r="B436">
         <v>2</v>
@@ -9304,7 +9304,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A437">
-        <v>87400228</v>
+        <v>87400229</v>
       </c>
       <c r="B437">
         <v>2</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A438">
-        <v>87400229</v>
+        <v>87400230</v>
       </c>
       <c r="B438">
         <v>2</v>
@@ -9344,16 +9344,16 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A439">
-        <v>87400230</v>
+        <v>87400231</v>
       </c>
       <c r="B439">
         <v>2</v>
       </c>
       <c r="C439">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D439">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E439">
         <v>100</v>
@@ -9364,7 +9364,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A440">
-        <v>87400231</v>
+        <v>87400232</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -9373,7 +9373,7 @@
         <v>47</v>
       </c>
       <c r="D440">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E440">
         <v>100</v>
@@ -9384,7 +9384,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A441">
-        <v>87400232</v>
+        <v>87400233</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -9404,7 +9404,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A442">
-        <v>87400233</v>
+        <v>87400234</v>
       </c>
       <c r="B442">
         <v>2</v>
@@ -9424,7 +9424,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A443">
-        <v>87400234</v>
+        <v>87400235</v>
       </c>
       <c r="B443">
         <v>2</v>
@@ -9444,16 +9444,16 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A444">
-        <v>87400235</v>
+        <v>87400236</v>
       </c>
       <c r="B444">
         <v>2</v>
       </c>
       <c r="C444">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D444">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E444">
         <v>100</v>
@@ -9464,7 +9464,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A445">
-        <v>87400236</v>
+        <v>87400237</v>
       </c>
       <c r="B445">
         <v>2</v>
@@ -9473,7 +9473,7 @@
         <v>48</v>
       </c>
       <c r="D445">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E445">
         <v>100</v>
@@ -9484,7 +9484,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A446">
-        <v>87400237</v>
+        <v>87400238</v>
       </c>
       <c r="B446">
         <v>2</v>
@@ -9504,7 +9504,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A447">
-        <v>87400238</v>
+        <v>87400239</v>
       </c>
       <c r="B447">
         <v>2</v>
@@ -9524,7 +9524,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A448">
-        <v>87400239</v>
+        <v>87400240</v>
       </c>
       <c r="B448">
         <v>2</v>
@@ -9544,16 +9544,16 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A449">
-        <v>87400240</v>
+        <v>87400241</v>
       </c>
       <c r="B449">
         <v>2</v>
       </c>
       <c r="C449">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D449">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E449">
         <v>100</v>
@@ -9564,7 +9564,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A450">
-        <v>87400241</v>
+        <v>87400242</v>
       </c>
       <c r="B450">
         <v>2</v>
@@ -9573,7 +9573,7 @@
         <v>49</v>
       </c>
       <c r="D450">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E450">
         <v>100</v>
@@ -9584,7 +9584,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A451">
-        <v>87400242</v>
+        <v>87400243</v>
       </c>
       <c r="B451">
         <v>2</v>
@@ -9604,7 +9604,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A452">
-        <v>87400243</v>
+        <v>87400244</v>
       </c>
       <c r="B452">
         <v>2</v>
@@ -9624,7 +9624,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A453">
-        <v>87400244</v>
+        <v>87400245</v>
       </c>
       <c r="B453">
         <v>2</v>
@@ -9644,16 +9644,16 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A454">
-        <v>87400245</v>
+        <v>87400246</v>
       </c>
       <c r="B454">
         <v>2</v>
       </c>
       <c r="C454">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D454">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E454">
         <v>100</v>
@@ -9664,7 +9664,7 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A455">
-        <v>87400246</v>
+        <v>87400247</v>
       </c>
       <c r="B455">
         <v>2</v>
@@ -9673,7 +9673,7 @@
         <v>50</v>
       </c>
       <c r="D455">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E455">
         <v>100</v>
@@ -9684,7 +9684,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A456">
-        <v>87400247</v>
+        <v>87400248</v>
       </c>
       <c r="B456">
         <v>2</v>
@@ -9704,7 +9704,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A457">
-        <v>87400248</v>
+        <v>87400249</v>
       </c>
       <c r="B457">
         <v>2</v>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A458">
-        <v>87400249</v>
+        <v>87400250</v>
       </c>
       <c r="B458">
         <v>2</v>
@@ -9744,16 +9744,16 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A459">
-        <v>87400250</v>
+        <v>87400251</v>
       </c>
       <c r="B459">
         <v>2</v>
       </c>
       <c r="C459">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D459">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E459">
         <v>100</v>
@@ -9764,7 +9764,7 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A460">
-        <v>87400251</v>
+        <v>87400252</v>
       </c>
       <c r="B460">
         <v>2</v>
@@ -9773,7 +9773,7 @@
         <v>51</v>
       </c>
       <c r="D460">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E460">
         <v>100</v>
@@ -9784,7 +9784,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A461">
-        <v>87400252</v>
+        <v>87400253</v>
       </c>
       <c r="B461">
         <v>2</v>
@@ -9804,7 +9804,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A462">
-        <v>87400253</v>
+        <v>87400254</v>
       </c>
       <c r="B462">
         <v>2</v>
@@ -9824,7 +9824,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A463">
-        <v>87400254</v>
+        <v>87400255</v>
       </c>
       <c r="B463">
         <v>2</v>
@@ -9844,16 +9844,16 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A464">
-        <v>87400255</v>
+        <v>87400256</v>
       </c>
       <c r="B464">
         <v>2</v>
       </c>
       <c r="C464">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D464">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E464">
         <v>100</v>
@@ -9864,7 +9864,7 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A465">
-        <v>87400256</v>
+        <v>87400257</v>
       </c>
       <c r="B465">
         <v>2</v>
@@ -9873,7 +9873,7 @@
         <v>52</v>
       </c>
       <c r="D465">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E465">
         <v>100</v>
@@ -9884,7 +9884,7 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A466">
-        <v>87400257</v>
+        <v>87400258</v>
       </c>
       <c r="B466">
         <v>2</v>
@@ -9904,7 +9904,7 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A467">
-        <v>87400258</v>
+        <v>87400259</v>
       </c>
       <c r="B467">
         <v>2</v>
@@ -9924,7 +9924,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A468">
-        <v>87400259</v>
+        <v>87400260</v>
       </c>
       <c r="B468">
         <v>2</v>
@@ -9944,16 +9944,16 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A469">
-        <v>87400260</v>
+        <v>87400261</v>
       </c>
       <c r="B469">
         <v>2</v>
       </c>
       <c r="C469">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D469">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E469">
         <v>100</v>
@@ -9964,7 +9964,7 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A470">
-        <v>87400261</v>
+        <v>87400262</v>
       </c>
       <c r="B470">
         <v>2</v>
@@ -9973,7 +9973,7 @@
         <v>53</v>
       </c>
       <c r="D470">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E470">
         <v>100</v>
@@ -9984,7 +9984,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A471">
-        <v>87400262</v>
+        <v>87400263</v>
       </c>
       <c r="B471">
         <v>2</v>
@@ -10004,7 +10004,7 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A472">
-        <v>87400263</v>
+        <v>87400264</v>
       </c>
       <c r="B472">
         <v>2</v>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A473">
-        <v>87400264</v>
+        <v>87400265</v>
       </c>
       <c r="B473">
         <v>2</v>
@@ -10044,16 +10044,16 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A474">
-        <v>87400265</v>
+        <v>87400266</v>
       </c>
       <c r="B474">
         <v>2</v>
       </c>
       <c r="C474">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D474">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E474">
         <v>100</v>
@@ -10064,7 +10064,7 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A475">
-        <v>87400266</v>
+        <v>87400267</v>
       </c>
       <c r="B475">
         <v>2</v>
@@ -10073,7 +10073,7 @@
         <v>54</v>
       </c>
       <c r="D475">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E475">
         <v>100</v>
@@ -10084,7 +10084,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A476">
-        <v>87400267</v>
+        <v>87400268</v>
       </c>
       <c r="B476">
         <v>2</v>
@@ -10104,7 +10104,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A477">
-        <v>87400268</v>
+        <v>87400269</v>
       </c>
       <c r="B477">
         <v>2</v>
@@ -10124,7 +10124,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A478">
-        <v>87400269</v>
+        <v>87400270</v>
       </c>
       <c r="B478">
         <v>2</v>
@@ -10144,16 +10144,16 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A479">
-        <v>87400270</v>
+        <v>87400271</v>
       </c>
       <c r="B479">
         <v>2</v>
       </c>
       <c r="C479">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D479">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E479">
         <v>100</v>
@@ -10164,7 +10164,7 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A480">
-        <v>87400271</v>
+        <v>87400272</v>
       </c>
       <c r="B480">
         <v>2</v>
@@ -10173,7 +10173,7 @@
         <v>55</v>
       </c>
       <c r="D480">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E480">
         <v>100</v>
@@ -10184,7 +10184,7 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A481">
-        <v>87400272</v>
+        <v>87400273</v>
       </c>
       <c r="B481">
         <v>2</v>
@@ -10204,7 +10204,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A482">
-        <v>87400273</v>
+        <v>87400274</v>
       </c>
       <c r="B482">
         <v>2</v>
@@ -10224,7 +10224,7 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A483">
-        <v>87400274</v>
+        <v>87400275</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -10244,16 +10244,16 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A484">
-        <v>87400275</v>
+        <v>87400276</v>
       </c>
       <c r="B484">
         <v>2</v>
       </c>
       <c r="C484">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D484">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E484">
         <v>100</v>
@@ -10264,7 +10264,7 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A485">
-        <v>87400276</v>
+        <v>87400277</v>
       </c>
       <c r="B485">
         <v>2</v>
@@ -10273,7 +10273,7 @@
         <v>56</v>
       </c>
       <c r="D485">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E485">
         <v>100</v>
@@ -10284,7 +10284,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A486">
-        <v>87400277</v>
+        <v>87400278</v>
       </c>
       <c r="B486">
         <v>2</v>
@@ -10304,7 +10304,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A487">
-        <v>87400278</v>
+        <v>87400279</v>
       </c>
       <c r="B487">
         <v>2</v>
@@ -10324,7 +10324,7 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A488">
-        <v>87400279</v>
+        <v>87400280</v>
       </c>
       <c r="B488">
         <v>2</v>
@@ -10344,16 +10344,16 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A489">
-        <v>87400280</v>
+        <v>87400281</v>
       </c>
       <c r="B489">
         <v>2</v>
       </c>
       <c r="C489">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D489">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E489">
         <v>100</v>
@@ -10364,7 +10364,7 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A490">
-        <v>87400281</v>
+        <v>87400282</v>
       </c>
       <c r="B490">
         <v>2</v>
@@ -10373,7 +10373,7 @@
         <v>57</v>
       </c>
       <c r="D490">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E490">
         <v>100</v>
@@ -10384,7 +10384,7 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A491">
-        <v>87400282</v>
+        <v>87400283</v>
       </c>
       <c r="B491">
         <v>2</v>
@@ -10404,7 +10404,7 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A492">
-        <v>87400283</v>
+        <v>87400284</v>
       </c>
       <c r="B492">
         <v>2</v>
@@ -10424,7 +10424,7 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A493">
-        <v>87400284</v>
+        <v>87400285</v>
       </c>
       <c r="B493">
         <v>2</v>
@@ -10444,16 +10444,16 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A494">
-        <v>87400285</v>
+        <v>87400286</v>
       </c>
       <c r="B494">
         <v>2</v>
       </c>
       <c r="C494">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D494">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E494">
         <v>100</v>
@@ -10464,7 +10464,7 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A495">
-        <v>87400286</v>
+        <v>87400287</v>
       </c>
       <c r="B495">
         <v>2</v>
@@ -10473,7 +10473,7 @@
         <v>58</v>
       </c>
       <c r="D495">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E495">
         <v>100</v>
@@ -10484,7 +10484,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A496">
-        <v>87400287</v>
+        <v>87400288</v>
       </c>
       <c r="B496">
         <v>2</v>
@@ -10504,7 +10504,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A497">
-        <v>87400288</v>
+        <v>87400289</v>
       </c>
       <c r="B497">
         <v>2</v>
@@ -10524,7 +10524,7 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A498">
-        <v>87400289</v>
+        <v>87400290</v>
       </c>
       <c r="B498">
         <v>2</v>
@@ -10544,16 +10544,16 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A499">
-        <v>87400290</v>
+        <v>87400291</v>
       </c>
       <c r="B499">
         <v>2</v>
       </c>
       <c r="C499">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D499">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E499">
         <v>100</v>
@@ -10564,7 +10564,7 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A500">
-        <v>87400291</v>
+        <v>87400292</v>
       </c>
       <c r="B500">
         <v>2</v>
@@ -10573,7 +10573,7 @@
         <v>59</v>
       </c>
       <c r="D500">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E500">
         <v>100</v>
@@ -10584,7 +10584,7 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A501">
-        <v>87400292</v>
+        <v>87400293</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -10604,7 +10604,7 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A502">
-        <v>87400293</v>
+        <v>87400294</v>
       </c>
       <c r="B502">
         <v>2</v>
@@ -10624,7 +10624,7 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A503">
-        <v>87400294</v>
+        <v>87400295</v>
       </c>
       <c r="B503">
         <v>2</v>
@@ -10644,16 +10644,16 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A504">
-        <v>87400295</v>
+        <v>87400296</v>
       </c>
       <c r="B504">
         <v>2</v>
       </c>
       <c r="C504">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D504">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E504">
         <v>100</v>
@@ -10664,7 +10664,7 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A505">
-        <v>87400296</v>
+        <v>87400297</v>
       </c>
       <c r="B505">
         <v>2</v>
@@ -10673,7 +10673,7 @@
         <v>60</v>
       </c>
       <c r="D505">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E505">
         <v>100</v>
@@ -10684,7 +10684,7 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A506">
-        <v>87400297</v>
+        <v>87400298</v>
       </c>
       <c r="B506">
         <v>2</v>
@@ -10704,7 +10704,7 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A507">
-        <v>87400298</v>
+        <v>87400299</v>
       </c>
       <c r="B507">
         <v>2</v>
@@ -10724,7 +10724,7 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A508">
-        <v>87400299</v>
+        <v>87400300</v>
       </c>
       <c r="B508">
         <v>2</v>
@@ -10744,16 +10744,16 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A509">
-        <v>87400300</v>
+        <v>87400301</v>
       </c>
       <c r="B509">
         <v>2</v>
       </c>
       <c r="C509">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D509">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E509">
         <v>100</v>
@@ -10764,7 +10764,7 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A510">
-        <v>87400301</v>
+        <v>87400302</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -10773,7 +10773,7 @@
         <v>61</v>
       </c>
       <c r="D510">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E510">
         <v>100</v>
@@ -10784,7 +10784,7 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A511">
-        <v>87400302</v>
+        <v>87400303</v>
       </c>
       <c r="B511">
         <v>2</v>
@@ -10804,7 +10804,7 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A512">
-        <v>87400303</v>
+        <v>87400304</v>
       </c>
       <c r="B512">
         <v>2</v>
@@ -10824,7 +10824,7 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A513">
-        <v>87400304</v>
+        <v>87400305</v>
       </c>
       <c r="B513">
         <v>2</v>
@@ -10844,16 +10844,16 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A514">
-        <v>87400305</v>
+        <v>87400306</v>
       </c>
       <c r="B514">
         <v>2</v>
       </c>
       <c r="C514">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D514">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E514">
         <v>100</v>
@@ -10864,7 +10864,7 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A515">
-        <v>87400306</v>
+        <v>87400307</v>
       </c>
       <c r="B515">
         <v>2</v>
@@ -10873,7 +10873,7 @@
         <v>62</v>
       </c>
       <c r="D515">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E515">
         <v>100</v>
@@ -10884,7 +10884,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A516">
-        <v>87400307</v>
+        <v>87400308</v>
       </c>
       <c r="B516">
         <v>2</v>
@@ -10904,7 +10904,7 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A517">
-        <v>87400308</v>
+        <v>87400309</v>
       </c>
       <c r="B517">
         <v>2</v>
@@ -10924,7 +10924,7 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A518">
-        <v>87400309</v>
+        <v>87400310</v>
       </c>
       <c r="B518">
         <v>2</v>
@@ -10944,16 +10944,16 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A519">
-        <v>87400310</v>
+        <v>87400311</v>
       </c>
       <c r="B519">
         <v>2</v>
       </c>
       <c r="C519">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D519">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E519">
         <v>100</v>
@@ -10964,7 +10964,7 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A520">
-        <v>87400311</v>
+        <v>87400312</v>
       </c>
       <c r="B520">
         <v>2</v>
@@ -10973,7 +10973,7 @@
         <v>63</v>
       </c>
       <c r="D520">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E520">
         <v>100</v>
@@ -10984,7 +10984,7 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A521">
-        <v>87400312</v>
+        <v>87400313</v>
       </c>
       <c r="B521">
         <v>2</v>
@@ -11004,7 +11004,7 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A522">
-        <v>87400313</v>
+        <v>87400314</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -11024,7 +11024,7 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A523">
-        <v>87400314</v>
+        <v>87400315</v>
       </c>
       <c r="B523">
         <v>2</v>
@@ -11044,16 +11044,16 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A524">
-        <v>87400315</v>
+        <v>87400316</v>
       </c>
       <c r="B524">
         <v>2</v>
       </c>
       <c r="C524">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D524">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E524">
         <v>100</v>
@@ -11064,7 +11064,7 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A525">
-        <v>87400316</v>
+        <v>87400317</v>
       </c>
       <c r="B525">
         <v>2</v>
@@ -11073,7 +11073,7 @@
         <v>64</v>
       </c>
       <c r="D525">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E525">
         <v>100</v>
@@ -11084,7 +11084,7 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A526">
-        <v>87400317</v>
+        <v>87400318</v>
       </c>
       <c r="B526">
         <v>2</v>
@@ -11104,7 +11104,7 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A527">
-        <v>87400318</v>
+        <v>87400319</v>
       </c>
       <c r="B527">
         <v>2</v>
@@ -11124,7 +11124,7 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A528">
-        <v>87400319</v>
+        <v>87400320</v>
       </c>
       <c r="B528">
         <v>2</v>
@@ -11144,16 +11144,16 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A529">
-        <v>87400320</v>
+        <v>87400321</v>
       </c>
       <c r="B529">
         <v>2</v>
       </c>
       <c r="C529">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D529">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E529">
         <v>100</v>
@@ -11164,7 +11164,7 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A530">
-        <v>87400321</v>
+        <v>87400322</v>
       </c>
       <c r="B530">
         <v>2</v>
@@ -11173,7 +11173,7 @@
         <v>65</v>
       </c>
       <c r="D530">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E530">
         <v>100</v>
@@ -11184,7 +11184,7 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A531">
-        <v>87400322</v>
+        <v>87400323</v>
       </c>
       <c r="B531">
         <v>2</v>
@@ -11204,7 +11204,7 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A532">
-        <v>87400323</v>
+        <v>87400324</v>
       </c>
       <c r="B532">
         <v>2</v>
@@ -11224,7 +11224,7 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A533">
-        <v>87400324</v>
+        <v>87400325</v>
       </c>
       <c r="B533">
         <v>2</v>
@@ -11244,16 +11244,16 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A534">
-        <v>87400325</v>
+        <v>87400326</v>
       </c>
       <c r="B534">
         <v>2</v>
       </c>
       <c r="C534">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D534">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E534">
         <v>100</v>
@@ -11264,7 +11264,7 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A535">
-        <v>87400326</v>
+        <v>87400327</v>
       </c>
       <c r="B535">
         <v>2</v>
@@ -11273,7 +11273,7 @@
         <v>66</v>
       </c>
       <c r="D535">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E535">
         <v>100</v>
@@ -11284,7 +11284,7 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A536">
-        <v>87400327</v>
+        <v>87400328</v>
       </c>
       <c r="B536">
         <v>2</v>
@@ -11304,7 +11304,7 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A537">
-        <v>87400328</v>
+        <v>87400329</v>
       </c>
       <c r="B537">
         <v>2</v>
@@ -11324,7 +11324,7 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A538">
-        <v>87400329</v>
+        <v>87400330</v>
       </c>
       <c r="B538">
         <v>2</v>
@@ -11344,16 +11344,16 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A539">
-        <v>87400330</v>
+        <v>87400331</v>
       </c>
       <c r="B539">
         <v>2</v>
       </c>
       <c r="C539">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D539">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E539">
         <v>100</v>
@@ -11364,7 +11364,7 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A540">
-        <v>87400331</v>
+        <v>87400332</v>
       </c>
       <c r="B540">
         <v>2</v>
@@ -11373,7 +11373,7 @@
         <v>67</v>
       </c>
       <c r="D540">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E540">
         <v>100</v>
@@ -11384,7 +11384,7 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A541">
-        <v>87400332</v>
+        <v>87400333</v>
       </c>
       <c r="B541">
         <v>2</v>
@@ -11404,7 +11404,7 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A542">
-        <v>87400333</v>
+        <v>87400334</v>
       </c>
       <c r="B542">
         <v>2</v>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A543">
-        <v>87400334</v>
+        <v>87400335</v>
       </c>
       <c r="B543">
         <v>2</v>
@@ -11444,16 +11444,16 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A544">
-        <v>87400335</v>
+        <v>87400336</v>
       </c>
       <c r="B544">
         <v>2</v>
       </c>
       <c r="C544">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D544">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E544">
         <v>100</v>
@@ -11464,7 +11464,7 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A545">
-        <v>87400336</v>
+        <v>87400337</v>
       </c>
       <c r="B545">
         <v>2</v>
@@ -11473,7 +11473,7 @@
         <v>68</v>
       </c>
       <c r="D545">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E545">
         <v>100</v>
@@ -11484,7 +11484,7 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A546">
-        <v>87400337</v>
+        <v>87400338</v>
       </c>
       <c r="B546">
         <v>2</v>
@@ -11504,7 +11504,7 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A547">
-        <v>87400338</v>
+        <v>87400339</v>
       </c>
       <c r="B547">
         <v>2</v>
@@ -11524,7 +11524,7 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A548">
-        <v>87400339</v>
+        <v>87400340</v>
       </c>
       <c r="B548">
         <v>2</v>
@@ -11544,16 +11544,16 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A549">
-        <v>87400340</v>
+        <v>87400341</v>
       </c>
       <c r="B549">
         <v>2</v>
       </c>
       <c r="C549">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D549">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E549">
         <v>100</v>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A550">
-        <v>87400341</v>
+        <v>87400342</v>
       </c>
       <c r="B550">
         <v>2</v>
@@ -11573,7 +11573,7 @@
         <v>69</v>
       </c>
       <c r="D550">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E550">
         <v>100</v>
@@ -11584,7 +11584,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A551">
-        <v>87400342</v>
+        <v>87400343</v>
       </c>
       <c r="B551">
         <v>2</v>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A552">
-        <v>87400343</v>
+        <v>87400344</v>
       </c>
       <c r="B552">
         <v>2</v>
@@ -11624,7 +11624,7 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A553">
-        <v>87400344</v>
+        <v>87400345</v>
       </c>
       <c r="B553">
         <v>2</v>
@@ -11644,16 +11644,16 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A554">
-        <v>87400345</v>
+        <v>87400346</v>
       </c>
       <c r="B554">
         <v>2</v>
       </c>
       <c r="C554">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D554">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E554">
         <v>100</v>
@@ -11664,7 +11664,7 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A555">
-        <v>87400346</v>
+        <v>87400347</v>
       </c>
       <c r="B555">
         <v>2</v>
@@ -11673,7 +11673,7 @@
         <v>70</v>
       </c>
       <c r="D555">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E555">
         <v>100</v>
@@ -11684,7 +11684,7 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A556">
-        <v>87400347</v>
+        <v>87400348</v>
       </c>
       <c r="B556">
         <v>2</v>
@@ -11704,7 +11704,7 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A557">
-        <v>87400348</v>
+        <v>87400349</v>
       </c>
       <c r="B557">
         <v>2</v>
@@ -11724,7 +11724,7 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A558">
-        <v>87400349</v>
+        <v>87400350</v>
       </c>
       <c r="B558">
         <v>2</v>
@@ -11744,16 +11744,16 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A559">
-        <v>87400350</v>
+        <v>87400351</v>
       </c>
       <c r="B559">
         <v>2</v>
       </c>
       <c r="C559">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D559">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E559">
         <v>100</v>
@@ -11764,7 +11764,7 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A560">
-        <v>87400351</v>
+        <v>87400352</v>
       </c>
       <c r="B560">
         <v>2</v>
@@ -11773,7 +11773,7 @@
         <v>71</v>
       </c>
       <c r="D560">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E560">
         <v>100</v>
@@ -11784,7 +11784,7 @@
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A561">
-        <v>87400352</v>
+        <v>87400353</v>
       </c>
       <c r="B561">
         <v>2</v>
@@ -11804,7 +11804,7 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A562">
-        <v>87400353</v>
+        <v>87400354</v>
       </c>
       <c r="B562">
         <v>2</v>
@@ -11824,7 +11824,7 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A563">
-        <v>87400354</v>
+        <v>87400355</v>
       </c>
       <c r="B563">
         <v>2</v>
@@ -11844,16 +11844,16 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A564">
-        <v>87400355</v>
+        <v>87400356</v>
       </c>
       <c r="B564">
         <v>2</v>
       </c>
       <c r="C564">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D564">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E564">
         <v>100</v>
@@ -11864,7 +11864,7 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A565">
-        <v>87400356</v>
+        <v>87400357</v>
       </c>
       <c r="B565">
         <v>2</v>
@@ -11873,7 +11873,7 @@
         <v>72</v>
       </c>
       <c r="D565">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E565">
         <v>100</v>
@@ -11884,7 +11884,7 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A566">
-        <v>87400357</v>
+        <v>87400358</v>
       </c>
       <c r="B566">
         <v>2</v>
@@ -11904,7 +11904,7 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A567">
-        <v>87400358</v>
+        <v>87400359</v>
       </c>
       <c r="B567">
         <v>2</v>
@@ -11924,7 +11924,7 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A568">
-        <v>87400359</v>
+        <v>87400360</v>
       </c>
       <c r="B568">
         <v>2</v>
@@ -11944,16 +11944,16 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A569">
-        <v>87400360</v>
+        <v>87400361</v>
       </c>
       <c r="B569">
         <v>2</v>
       </c>
       <c r="C569">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D569">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E569">
         <v>100</v>
@@ -11964,7 +11964,7 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A570">
-        <v>87400361</v>
+        <v>87400362</v>
       </c>
       <c r="B570">
         <v>2</v>
@@ -11973,7 +11973,7 @@
         <v>73</v>
       </c>
       <c r="D570">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E570">
         <v>100</v>
@@ -11984,7 +11984,7 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A571">
-        <v>87400362</v>
+        <v>87400363</v>
       </c>
       <c r="B571">
         <v>2</v>
@@ -12004,7 +12004,7 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A572">
-        <v>87400363</v>
+        <v>87400364</v>
       </c>
       <c r="B572">
         <v>2</v>
@@ -12024,7 +12024,7 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A573">
-        <v>87400364</v>
+        <v>87400365</v>
       </c>
       <c r="B573">
         <v>2</v>
@@ -12044,16 +12044,16 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A574">
-        <v>87400365</v>
+        <v>87400366</v>
       </c>
       <c r="B574">
         <v>2</v>
       </c>
       <c r="C574">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D574">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E574">
         <v>100</v>
@@ -12064,7 +12064,7 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A575">
-        <v>87400366</v>
+        <v>87400367</v>
       </c>
       <c r="B575">
         <v>2</v>
@@ -12073,7 +12073,7 @@
         <v>74</v>
       </c>
       <c r="D575">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E575">
         <v>100</v>
@@ -12084,7 +12084,7 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A576">
-        <v>87400367</v>
+        <v>87400368</v>
       </c>
       <c r="B576">
         <v>2</v>
@@ -12104,7 +12104,7 @@
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A577">
-        <v>87400368</v>
+        <v>87400369</v>
       </c>
       <c r="B577">
         <v>2</v>
@@ -12124,7 +12124,7 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A578">
-        <v>87400369</v>
+        <v>87400370</v>
       </c>
       <c r="B578">
         <v>2</v>
@@ -12144,16 +12144,16 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A579">
-        <v>87400370</v>
+        <v>87400371</v>
       </c>
       <c r="B579">
         <v>2</v>
       </c>
       <c r="C579">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D579">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E579">
         <v>100</v>
@@ -12164,7 +12164,7 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A580">
-        <v>87400371</v>
+        <v>87400372</v>
       </c>
       <c r="B580">
         <v>2</v>
@@ -12173,7 +12173,7 @@
         <v>75</v>
       </c>
       <c r="D580">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E580">
         <v>100</v>
@@ -12184,7 +12184,7 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A581">
-        <v>87400372</v>
+        <v>87400373</v>
       </c>
       <c r="B581">
         <v>2</v>
@@ -12204,7 +12204,7 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A582">
-        <v>87400373</v>
+        <v>87400374</v>
       </c>
       <c r="B582">
         <v>2</v>
@@ -12224,7 +12224,7 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A583">
-        <v>87400374</v>
+        <v>87400375</v>
       </c>
       <c r="B583">
         <v>2</v>
@@ -12244,16 +12244,16 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A584">
-        <v>87400375</v>
+        <v>87400376</v>
       </c>
       <c r="B584">
         <v>2</v>
       </c>
       <c r="C584">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D584">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E584">
         <v>100</v>
@@ -12264,7 +12264,7 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A585">
-        <v>87400376</v>
+        <v>87400377</v>
       </c>
       <c r="B585">
         <v>2</v>
@@ -12273,7 +12273,7 @@
         <v>76</v>
       </c>
       <c r="D585">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E585">
         <v>100</v>
@@ -12284,7 +12284,7 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A586">
-        <v>87400377</v>
+        <v>87400378</v>
       </c>
       <c r="B586">
         <v>2</v>
@@ -12304,7 +12304,7 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A587">
-        <v>87400378</v>
+        <v>87400379</v>
       </c>
       <c r="B587">
         <v>2</v>
@@ -12324,7 +12324,7 @@
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A588">
-        <v>87400379</v>
+        <v>87400380</v>
       </c>
       <c r="B588">
         <v>2</v>
@@ -12344,16 +12344,16 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A589">
-        <v>87400380</v>
+        <v>87400381</v>
       </c>
       <c r="B589">
         <v>2</v>
       </c>
       <c r="C589">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D589">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E589">
         <v>100</v>
@@ -12364,7 +12364,7 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A590">
-        <v>87400381</v>
+        <v>87400382</v>
       </c>
       <c r="B590">
         <v>2</v>
@@ -12373,7 +12373,7 @@
         <v>77</v>
       </c>
       <c r="D590">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E590">
         <v>100</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A591">
-        <v>87400382</v>
+        <v>87400383</v>
       </c>
       <c r="B591">
         <v>2</v>
@@ -12404,7 +12404,7 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A592">
-        <v>87400383</v>
+        <v>87400384</v>
       </c>
       <c r="B592">
         <v>2</v>
@@ -12424,7 +12424,7 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A593">
-        <v>87400384</v>
+        <v>87400385</v>
       </c>
       <c r="B593">
         <v>2</v>
@@ -12444,16 +12444,16 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A594">
-        <v>87400385</v>
+        <v>87400386</v>
       </c>
       <c r="B594">
         <v>2</v>
       </c>
       <c r="C594">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D594">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E594">
         <v>100</v>
@@ -12464,7 +12464,7 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A595">
-        <v>87400386</v>
+        <v>87400387</v>
       </c>
       <c r="B595">
         <v>2</v>
@@ -12473,7 +12473,7 @@
         <v>78</v>
       </c>
       <c r="D595">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E595">
         <v>100</v>
@@ -12484,7 +12484,7 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A596">
-        <v>87400387</v>
+        <v>87400388</v>
       </c>
       <c r="B596">
         <v>2</v>
@@ -12504,7 +12504,7 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A597">
-        <v>87400388</v>
+        <v>87400389</v>
       </c>
       <c r="B597">
         <v>2</v>
@@ -12524,7 +12524,7 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A598">
-        <v>87400389</v>
+        <v>87400390</v>
       </c>
       <c r="B598">
         <v>2</v>
@@ -12544,16 +12544,16 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A599">
-        <v>87400390</v>
+        <v>87400391</v>
       </c>
       <c r="B599">
         <v>2</v>
       </c>
       <c r="C599">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D599">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E599">
         <v>100</v>
@@ -12564,7 +12564,7 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A600">
-        <v>87400391</v>
+        <v>87400392</v>
       </c>
       <c r="B600">
         <v>2</v>
@@ -12573,7 +12573,7 @@
         <v>79</v>
       </c>
       <c r="D600">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E600">
         <v>100</v>
@@ -12584,7 +12584,7 @@
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A601">
-        <v>87400392</v>
+        <v>87400393</v>
       </c>
       <c r="B601">
         <v>2</v>
@@ -12604,7 +12604,7 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A602">
-        <v>87400393</v>
+        <v>87400394</v>
       </c>
       <c r="B602">
         <v>2</v>
@@ -12624,7 +12624,7 @@
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A603">
-        <v>87400394</v>
+        <v>87400395</v>
       </c>
       <c r="B603">
         <v>2</v>
@@ -12644,16 +12644,16 @@
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A604">
-        <v>87400395</v>
+        <v>87400396</v>
       </c>
       <c r="B604">
         <v>2</v>
       </c>
       <c r="C604">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D604">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E604">
         <v>100</v>
@@ -12664,7 +12664,7 @@
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A605">
-        <v>87400396</v>
+        <v>87400397</v>
       </c>
       <c r="B605">
         <v>2</v>
@@ -12673,7 +12673,7 @@
         <v>80</v>
       </c>
       <c r="D605">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E605">
         <v>100</v>
@@ -12684,7 +12684,7 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A606">
-        <v>87400397</v>
+        <v>87400398</v>
       </c>
       <c r="B606">
         <v>2</v>
@@ -12704,7 +12704,7 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A607">
-        <v>87400398</v>
+        <v>87400399</v>
       </c>
       <c r="B607">
         <v>2</v>
@@ -12724,7 +12724,7 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A608">
-        <v>87400399</v>
+        <v>87400400</v>
       </c>
       <c r="B608">
         <v>2</v>
@@ -12744,16 +12744,16 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A609">
-        <v>87400400</v>
+        <v>87400401</v>
       </c>
       <c r="B609">
         <v>2</v>
       </c>
       <c r="C609">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D609">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E609">
         <v>100</v>
@@ -12764,7 +12764,7 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A610">
-        <v>87400401</v>
+        <v>87400402</v>
       </c>
       <c r="B610">
         <v>2</v>
@@ -12773,7 +12773,7 @@
         <v>81</v>
       </c>
       <c r="D610">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E610">
         <v>100</v>
@@ -12784,7 +12784,7 @@
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A611">
-        <v>87400402</v>
+        <v>87400403</v>
       </c>
       <c r="B611">
         <v>2</v>
@@ -12804,7 +12804,7 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A612">
-        <v>87400403</v>
+        <v>87400404</v>
       </c>
       <c r="B612">
         <v>2</v>
@@ -12824,7 +12824,7 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A613">
-        <v>87400404</v>
+        <v>87400405</v>
       </c>
       <c r="B613">
         <v>2</v>
@@ -12844,16 +12844,16 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A614">
-        <v>87400405</v>
+        <v>87400406</v>
       </c>
       <c r="B614">
         <v>2</v>
       </c>
       <c r="C614">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D614">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E614">
         <v>100</v>
@@ -12864,7 +12864,7 @@
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A615">
-        <v>87400406</v>
+        <v>87400407</v>
       </c>
       <c r="B615">
         <v>2</v>
@@ -12873,7 +12873,7 @@
         <v>82</v>
       </c>
       <c r="D615">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E615">
         <v>100</v>
@@ -12884,7 +12884,7 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A616">
-        <v>87400407</v>
+        <v>87400408</v>
       </c>
       <c r="B616">
         <v>2</v>
@@ -12904,7 +12904,7 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A617">
-        <v>87400408</v>
+        <v>87400409</v>
       </c>
       <c r="B617">
         <v>2</v>
@@ -12924,7 +12924,7 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A618">
-        <v>87400409</v>
+        <v>87400410</v>
       </c>
       <c r="B618">
         <v>2</v>
@@ -12944,16 +12944,16 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A619">
-        <v>87400410</v>
+        <v>87400411</v>
       </c>
       <c r="B619">
         <v>2</v>
       </c>
       <c r="C619">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D619">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E619">
         <v>100</v>
@@ -12964,7 +12964,7 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A620">
-        <v>87400411</v>
+        <v>87400412</v>
       </c>
       <c r="B620">
         <v>2</v>
@@ -12973,7 +12973,7 @@
         <v>83</v>
       </c>
       <c r="D620">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E620">
         <v>100</v>
@@ -12984,7 +12984,7 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A621">
-        <v>87400412</v>
+        <v>87400413</v>
       </c>
       <c r="B621">
         <v>2</v>
@@ -13004,7 +13004,7 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A622">
-        <v>87400413</v>
+        <v>87400414</v>
       </c>
       <c r="B622">
         <v>2</v>
@@ -13024,7 +13024,7 @@
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A623">
-        <v>87400414</v>
+        <v>87400415</v>
       </c>
       <c r="B623">
         <v>2</v>
@@ -13044,16 +13044,16 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A624">
-        <v>87400415</v>
+        <v>87400416</v>
       </c>
       <c r="B624">
         <v>2</v>
       </c>
       <c r="C624">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D624">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E624">
         <v>100</v>
@@ -13064,7 +13064,7 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A625">
-        <v>87400416</v>
+        <v>87400417</v>
       </c>
       <c r="B625">
         <v>2</v>
@@ -13073,7 +13073,7 @@
         <v>84</v>
       </c>
       <c r="D625">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E625">
         <v>100</v>
@@ -13084,7 +13084,7 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A626">
-        <v>87400417</v>
+        <v>87400418</v>
       </c>
       <c r="B626">
         <v>2</v>
@@ -13104,7 +13104,7 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A627">
-        <v>87400418</v>
+        <v>87400419</v>
       </c>
       <c r="B627">
         <v>2</v>
@@ -13124,7 +13124,7 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A628">
-        <v>87400419</v>
+        <v>87400420</v>
       </c>
       <c r="B628">
         <v>2</v>
@@ -13144,16 +13144,16 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A629">
-        <v>87400420</v>
+        <v>87400421</v>
       </c>
       <c r="B629">
         <v>2</v>
       </c>
       <c r="C629">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D629">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E629">
         <v>100</v>
@@ -13164,7 +13164,7 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A630">
-        <v>87400421</v>
+        <v>87400422</v>
       </c>
       <c r="B630">
         <v>2</v>
@@ -13173,7 +13173,7 @@
         <v>85</v>
       </c>
       <c r="D630">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E630">
         <v>100</v>
@@ -13184,7 +13184,7 @@
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A631">
-        <v>87400422</v>
+        <v>87400423</v>
       </c>
       <c r="B631">
         <v>2</v>
@@ -13204,7 +13204,7 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A632">
-        <v>87400423</v>
+        <v>87400424</v>
       </c>
       <c r="B632">
         <v>2</v>
@@ -13224,7 +13224,7 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A633">
-        <v>87400424</v>
+        <v>87400425</v>
       </c>
       <c r="B633">
         <v>2</v>
@@ -13244,16 +13244,16 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A634">
-        <v>87400425</v>
+        <v>87400426</v>
       </c>
       <c r="B634">
         <v>2</v>
       </c>
       <c r="C634">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D634">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E634">
         <v>100</v>
@@ -13264,7 +13264,7 @@
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A635">
-        <v>87400426</v>
+        <v>87400427</v>
       </c>
       <c r="B635">
         <v>2</v>
@@ -13273,7 +13273,7 @@
         <v>86</v>
       </c>
       <c r="D635">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E635">
         <v>100</v>
@@ -13284,7 +13284,7 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A636">
-        <v>87400427</v>
+        <v>87400428</v>
       </c>
       <c r="B636">
         <v>2</v>
@@ -13304,7 +13304,7 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A637">
-        <v>87400428</v>
+        <v>87400429</v>
       </c>
       <c r="B637">
         <v>2</v>
@@ -13324,7 +13324,7 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A638">
-        <v>87400429</v>
+        <v>87400430</v>
       </c>
       <c r="B638">
         <v>2</v>
@@ -13344,16 +13344,16 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A639">
-        <v>87400430</v>
+        <v>87400431</v>
       </c>
       <c r="B639">
         <v>2</v>
       </c>
       <c r="C639">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D639">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E639">
         <v>100</v>
@@ -13364,7 +13364,7 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A640">
-        <v>87400431</v>
+        <v>87400432</v>
       </c>
       <c r="B640">
         <v>2</v>
@@ -13373,7 +13373,7 @@
         <v>87</v>
       </c>
       <c r="D640">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E640">
         <v>100</v>
@@ -13384,7 +13384,7 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A641">
-        <v>87400432</v>
+        <v>87400433</v>
       </c>
       <c r="B641">
         <v>2</v>
@@ -13404,7 +13404,7 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A642">
-        <v>87400433</v>
+        <v>87400434</v>
       </c>
       <c r="B642">
         <v>2</v>
@@ -13424,7 +13424,7 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A643">
-        <v>87400434</v>
+        <v>87400435</v>
       </c>
       <c r="B643">
         <v>2</v>
@@ -13444,16 +13444,16 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A644">
-        <v>87400435</v>
+        <v>87400436</v>
       </c>
       <c r="B644">
         <v>2</v>
       </c>
       <c r="C644">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D644">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E644">
         <v>100</v>
@@ -13464,7 +13464,7 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A645">
-        <v>87400436</v>
+        <v>87400437</v>
       </c>
       <c r="B645">
         <v>2</v>
@@ -13473,7 +13473,7 @@
         <v>88</v>
       </c>
       <c r="D645">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E645">
         <v>100</v>
@@ -13484,7 +13484,7 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A646">
-        <v>87400437</v>
+        <v>87400438</v>
       </c>
       <c r="B646">
         <v>2</v>
@@ -13504,7 +13504,7 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A647">
-        <v>87400438</v>
+        <v>87400439</v>
       </c>
       <c r="B647">
         <v>2</v>
@@ -13524,7 +13524,7 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A648">
-        <v>87400439</v>
+        <v>87400440</v>
       </c>
       <c r="B648">
         <v>2</v>
@@ -13544,16 +13544,16 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A649">
-        <v>87400440</v>
+        <v>87400441</v>
       </c>
       <c r="B649">
         <v>2</v>
       </c>
       <c r="C649">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D649">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E649">
         <v>100</v>
@@ -13564,7 +13564,7 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A650">
-        <v>87400441</v>
+        <v>87400442</v>
       </c>
       <c r="B650">
         <v>2</v>
@@ -13573,7 +13573,7 @@
         <v>89</v>
       </c>
       <c r="D650">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E650">
         <v>100</v>
@@ -13584,7 +13584,7 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A651">
-        <v>87400442</v>
+        <v>87400443</v>
       </c>
       <c r="B651">
         <v>2</v>
@@ -13604,7 +13604,7 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A652">
-        <v>87400443</v>
+        <v>87400444</v>
       </c>
       <c r="B652">
         <v>2</v>
@@ -13624,7 +13624,7 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A653">
-        <v>87400444</v>
+        <v>87400445</v>
       </c>
       <c r="B653">
         <v>2</v>
@@ -13644,16 +13644,16 @@
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A654">
-        <v>87400445</v>
+        <v>87400446</v>
       </c>
       <c r="B654">
         <v>2</v>
       </c>
       <c r="C654">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D654">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E654">
         <v>100</v>
@@ -13664,7 +13664,7 @@
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A655">
-        <v>87400446</v>
+        <v>87400447</v>
       </c>
       <c r="B655">
         <v>2</v>
@@ -13673,7 +13673,7 @@
         <v>90</v>
       </c>
       <c r="D655">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E655">
         <v>100</v>
@@ -13684,7 +13684,7 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A656">
-        <v>87400447</v>
+        <v>87400448</v>
       </c>
       <c r="B656">
         <v>2</v>
@@ -13704,7 +13704,7 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A657">
-        <v>87400448</v>
+        <v>87400449</v>
       </c>
       <c r="B657">
         <v>2</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A658">
-        <v>87400449</v>
+        <v>87400450</v>
       </c>
       <c r="B658">
         <v>2</v>
@@ -13744,16 +13744,16 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A659">
-        <v>87400450</v>
+        <v>87400451</v>
       </c>
       <c r="B659">
         <v>2</v>
       </c>
       <c r="C659">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D659">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E659">
         <v>100</v>
@@ -13764,7 +13764,7 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A660">
-        <v>87400451</v>
+        <v>87400452</v>
       </c>
       <c r="B660">
         <v>2</v>
@@ -13773,7 +13773,7 @@
         <v>91</v>
       </c>
       <c r="D660">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E660">
         <v>100</v>
@@ -13784,7 +13784,7 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A661">
-        <v>87400452</v>
+        <v>87400453</v>
       </c>
       <c r="B661">
         <v>2</v>
@@ -13804,7 +13804,7 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A662">
-        <v>87400453</v>
+        <v>87400454</v>
       </c>
       <c r="B662">
         <v>2</v>
@@ -13824,7 +13824,7 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A663">
-        <v>87400454</v>
+        <v>87400455</v>
       </c>
       <c r="B663">
         <v>2</v>
@@ -13844,16 +13844,16 @@
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A664">
-        <v>87400455</v>
+        <v>87400456</v>
       </c>
       <c r="B664">
         <v>2</v>
       </c>
       <c r="C664">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D664">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E664">
         <v>100</v>
@@ -13864,7 +13864,7 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A665">
-        <v>87400456</v>
+        <v>87400457</v>
       </c>
       <c r="B665">
         <v>2</v>
@@ -13873,7 +13873,7 @@
         <v>92</v>
       </c>
       <c r="D665">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E665">
         <v>100</v>
@@ -13884,7 +13884,7 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A666">
-        <v>87400457</v>
+        <v>87400458</v>
       </c>
       <c r="B666">
         <v>2</v>
@@ -13904,7 +13904,7 @@
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A667">
-        <v>87400458</v>
+        <v>87400459</v>
       </c>
       <c r="B667">
         <v>2</v>
@@ -13924,7 +13924,7 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A668">
-        <v>87400459</v>
+        <v>87400460</v>
       </c>
       <c r="B668">
         <v>2</v>
@@ -13944,16 +13944,16 @@
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A669">
-        <v>87400460</v>
+        <v>87400461</v>
       </c>
       <c r="B669">
         <v>2</v>
       </c>
       <c r="C669">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D669">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E669">
         <v>100</v>
@@ -13964,7 +13964,7 @@
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A670">
-        <v>87400461</v>
+        <v>87400462</v>
       </c>
       <c r="B670">
         <v>2</v>
@@ -13973,7 +13973,7 @@
         <v>93</v>
       </c>
       <c r="D670">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E670">
         <v>100</v>
@@ -13984,7 +13984,7 @@
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A671">
-        <v>87400462</v>
+        <v>87400463</v>
       </c>
       <c r="B671">
         <v>2</v>
@@ -14004,7 +14004,7 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A672">
-        <v>87400463</v>
+        <v>87400464</v>
       </c>
       <c r="B672">
         <v>2</v>
@@ -14024,7 +14024,7 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A673">
-        <v>87400464</v>
+        <v>87400465</v>
       </c>
       <c r="B673">
         <v>2</v>
@@ -14044,16 +14044,16 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A674">
-        <v>87400465</v>
+        <v>87400466</v>
       </c>
       <c r="B674">
         <v>2</v>
       </c>
       <c r="C674">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D674">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E674">
         <v>100</v>
@@ -14064,7 +14064,7 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A675">
-        <v>87400466</v>
+        <v>87400467</v>
       </c>
       <c r="B675">
         <v>2</v>
@@ -14073,7 +14073,7 @@
         <v>94</v>
       </c>
       <c r="D675">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E675">
         <v>100</v>
@@ -14084,7 +14084,7 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A676">
-        <v>87400467</v>
+        <v>87400468</v>
       </c>
       <c r="B676">
         <v>2</v>
@@ -14104,7 +14104,7 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A677">
-        <v>87400468</v>
+        <v>87400469</v>
       </c>
       <c r="B677">
         <v>2</v>
@@ -14124,7 +14124,7 @@
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A678">
-        <v>87400469</v>
+        <v>87400470</v>
       </c>
       <c r="B678">
         <v>2</v>
@@ -14144,16 +14144,16 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A679">
-        <v>87400470</v>
+        <v>87400471</v>
       </c>
       <c r="B679">
         <v>2</v>
       </c>
       <c r="C679">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D679">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E679">
         <v>100</v>
@@ -14164,7 +14164,7 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A680">
-        <v>87400471</v>
+        <v>87400472</v>
       </c>
       <c r="B680">
         <v>2</v>
@@ -14173,7 +14173,7 @@
         <v>95</v>
       </c>
       <c r="D680">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E680">
         <v>100</v>
@@ -14184,7 +14184,7 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A681">
-        <v>87400472</v>
+        <v>87400473</v>
       </c>
       <c r="B681">
         <v>2</v>
@@ -14204,7 +14204,7 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A682">
-        <v>87400473</v>
+        <v>87400474</v>
       </c>
       <c r="B682">
         <v>2</v>
@@ -14224,7 +14224,7 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A683">
-        <v>87400474</v>
+        <v>87400475</v>
       </c>
       <c r="B683">
         <v>2</v>
@@ -14244,16 +14244,16 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A684">
-        <v>87400475</v>
+        <v>87400476</v>
       </c>
       <c r="B684">
         <v>2</v>
       </c>
       <c r="C684">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D684">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E684">
         <v>100</v>
@@ -14264,7 +14264,7 @@
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A685">
-        <v>87400476</v>
+        <v>87400477</v>
       </c>
       <c r="B685">
         <v>2</v>
@@ -14273,7 +14273,7 @@
         <v>96</v>
       </c>
       <c r="D685">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E685">
         <v>100</v>
@@ -14284,7 +14284,7 @@
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A686">
-        <v>87400477</v>
+        <v>87400478</v>
       </c>
       <c r="B686">
         <v>2</v>
@@ -14304,7 +14304,7 @@
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A687">
-        <v>87400478</v>
+        <v>87400479</v>
       </c>
       <c r="B687">
         <v>2</v>
@@ -14324,7 +14324,7 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A688">
-        <v>87400479</v>
+        <v>87400480</v>
       </c>
       <c r="B688">
         <v>2</v>
@@ -14344,16 +14344,16 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A689">
-        <v>87400480</v>
+        <v>87400481</v>
       </c>
       <c r="B689">
         <v>2</v>
       </c>
       <c r="C689">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D689">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E689">
         <v>100</v>
@@ -14364,7 +14364,7 @@
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A690">
-        <v>87400481</v>
+        <v>87400482</v>
       </c>
       <c r="B690">
         <v>2</v>
@@ -14373,7 +14373,7 @@
         <v>97</v>
       </c>
       <c r="D690">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E690">
         <v>100</v>
@@ -14384,7 +14384,7 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A691">
-        <v>87400482</v>
+        <v>87400483</v>
       </c>
       <c r="B691">
         <v>2</v>
@@ -14404,7 +14404,7 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A692">
-        <v>87400483</v>
+        <v>87400484</v>
       </c>
       <c r="B692">
         <v>2</v>
@@ -14424,7 +14424,7 @@
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A693">
-        <v>87400484</v>
+        <v>87400485</v>
       </c>
       <c r="B693">
         <v>2</v>
@@ -14444,16 +14444,16 @@
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A694">
-        <v>87400485</v>
+        <v>87400486</v>
       </c>
       <c r="B694">
         <v>2</v>
       </c>
       <c r="C694">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D694">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E694">
         <v>100</v>
@@ -14464,7 +14464,7 @@
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A695">
-        <v>87400486</v>
+        <v>87400487</v>
       </c>
       <c r="B695">
         <v>2</v>
@@ -14473,7 +14473,7 @@
         <v>98</v>
       </c>
       <c r="D695">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E695">
         <v>100</v>
@@ -14484,7 +14484,7 @@
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A696">
-        <v>87400487</v>
+        <v>87400488</v>
       </c>
       <c r="B696">
         <v>2</v>
@@ -14504,7 +14504,7 @@
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A697">
-        <v>87400488</v>
+        <v>87400489</v>
       </c>
       <c r="B697">
         <v>2</v>
@@ -14524,7 +14524,7 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A698">
-        <v>87400489</v>
+        <v>87400490</v>
       </c>
       <c r="B698">
         <v>2</v>
@@ -14544,16 +14544,16 @@
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A699">
-        <v>87400490</v>
+        <v>87400491</v>
       </c>
       <c r="B699">
         <v>2</v>
       </c>
       <c r="C699">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D699">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E699">
         <v>100</v>
@@ -14564,7 +14564,7 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A700">
-        <v>87400491</v>
+        <v>87400492</v>
       </c>
       <c r="B700">
         <v>2</v>
@@ -14573,7 +14573,7 @@
         <v>99</v>
       </c>
       <c r="D700">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E700">
         <v>100</v>
@@ -14584,7 +14584,7 @@
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A701">
-        <v>87400492</v>
+        <v>87400493</v>
       </c>
       <c r="B701">
         <v>2</v>
@@ -14604,7 +14604,7 @@
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A702">
-        <v>87400493</v>
+        <v>87400494</v>
       </c>
       <c r="B702">
         <v>2</v>
@@ -14624,7 +14624,7 @@
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A703">
-        <v>87400494</v>
+        <v>87400495</v>
       </c>
       <c r="B703">
         <v>2</v>
@@ -14644,16 +14644,16 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A704">
-        <v>87400495</v>
+        <v>87400496</v>
       </c>
       <c r="B704">
         <v>2</v>
       </c>
       <c r="C704">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D704">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E704">
         <v>100</v>
@@ -14664,7 +14664,7 @@
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A705">
-        <v>87400496</v>
+        <v>87400497</v>
       </c>
       <c r="B705">
         <v>2</v>
@@ -14673,7 +14673,7 @@
         <v>100</v>
       </c>
       <c r="D705">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E705">
         <v>100</v>
@@ -14684,7 +14684,7 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A706">
-        <v>87400497</v>
+        <v>87400498</v>
       </c>
       <c r="B706">
         <v>2</v>
@@ -14704,7 +14704,7 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A707">
-        <v>87400498</v>
+        <v>87400499</v>
       </c>
       <c r="B707">
         <v>2</v>
@@ -14724,7 +14724,7 @@
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A708">
-        <v>87400499</v>
+        <v>87400500</v>
       </c>
       <c r="B708">
         <v>2</v>
@@ -14744,16 +14744,16 @@
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A709">
-        <v>87400500</v>
+        <v>87400501</v>
       </c>
       <c r="B709">
         <v>2</v>
       </c>
       <c r="C709">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D709">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E709">
         <v>100</v>
@@ -14764,7 +14764,7 @@
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A710">
-        <v>87400501</v>
+        <v>87400502</v>
       </c>
       <c r="B710">
         <v>2</v>
@@ -14773,7 +14773,7 @@
         <v>101</v>
       </c>
       <c r="D710">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E710">
         <v>100</v>
@@ -14784,7 +14784,7 @@
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A711">
-        <v>87400502</v>
+        <v>87400503</v>
       </c>
       <c r="B711">
         <v>2</v>
@@ -14804,7 +14804,7 @@
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A712">
-        <v>87400503</v>
+        <v>87400504</v>
       </c>
       <c r="B712">
         <v>2</v>
@@ -14824,7 +14824,7 @@
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A713">
-        <v>87400504</v>
+        <v>87400505</v>
       </c>
       <c r="B713">
         <v>2</v>
@@ -14844,16 +14844,16 @@
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A714">
-        <v>87400505</v>
+        <v>87400506</v>
       </c>
       <c r="B714">
         <v>2</v>
       </c>
       <c r="C714">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D714">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E714">
         <v>100</v>
@@ -14864,7 +14864,7 @@
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A715">
-        <v>87400506</v>
+        <v>87400507</v>
       </c>
       <c r="B715">
         <v>2</v>
@@ -14873,7 +14873,7 @@
         <v>102</v>
       </c>
       <c r="D715">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E715">
         <v>100</v>
@@ -14884,7 +14884,7 @@
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A716">
-        <v>87400507</v>
+        <v>87400508</v>
       </c>
       <c r="B716">
         <v>2</v>
@@ -14904,7 +14904,7 @@
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A717">
-        <v>87400508</v>
+        <v>87400509</v>
       </c>
       <c r="B717">
         <v>2</v>
@@ -14924,7 +14924,7 @@
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A718">
-        <v>87400509</v>
+        <v>87400510</v>
       </c>
       <c r="B718">
         <v>2</v>
@@ -14944,16 +14944,16 @@
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A719">
-        <v>87400510</v>
+        <v>87400511</v>
       </c>
       <c r="B719">
         <v>2</v>
       </c>
       <c r="C719">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D719">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E719">
         <v>100</v>
@@ -14964,7 +14964,7 @@
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A720">
-        <v>87400511</v>
+        <v>87400512</v>
       </c>
       <c r="B720">
         <v>2</v>
@@ -14973,7 +14973,7 @@
         <v>103</v>
       </c>
       <c r="D720">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E720">
         <v>100</v>
@@ -14984,7 +14984,7 @@
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A721">
-        <v>87400512</v>
+        <v>87400513</v>
       </c>
       <c r="B721">
         <v>2</v>
@@ -15004,7 +15004,7 @@
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A722">
-        <v>87400513</v>
+        <v>87400514</v>
       </c>
       <c r="B722">
         <v>2</v>
@@ -15024,7 +15024,7 @@
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A723">
-        <v>87400514</v>
+        <v>87400515</v>
       </c>
       <c r="B723">
         <v>2</v>
@@ -15044,16 +15044,16 @@
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A724">
-        <v>87400515</v>
+        <v>87400516</v>
       </c>
       <c r="B724">
         <v>2</v>
       </c>
       <c r="C724">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D724">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E724">
         <v>100</v>
@@ -15064,7 +15064,7 @@
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A725">
-        <v>87400516</v>
+        <v>87400517</v>
       </c>
       <c r="B725">
         <v>2</v>
@@ -15073,7 +15073,7 @@
         <v>104</v>
       </c>
       <c r="D725">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E725">
         <v>100</v>
@@ -15084,7 +15084,7 @@
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A726">
-        <v>87400517</v>
+        <v>87400518</v>
       </c>
       <c r="B726">
         <v>2</v>
@@ -15104,7 +15104,7 @@
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A727">
-        <v>87400518</v>
+        <v>87400519</v>
       </c>
       <c r="B727">
         <v>2</v>
@@ -15124,7 +15124,7 @@
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A728">
-        <v>87400519</v>
+        <v>87400520</v>
       </c>
       <c r="B728">
         <v>2</v>
@@ -15144,16 +15144,16 @@
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A729">
-        <v>87400520</v>
+        <v>87400521</v>
       </c>
       <c r="B729">
         <v>2</v>
       </c>
       <c r="C729">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D729">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E729">
         <v>100</v>
@@ -15164,7 +15164,7 @@
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A730">
-        <v>87400521</v>
+        <v>87400522</v>
       </c>
       <c r="B730">
         <v>2</v>
@@ -15173,7 +15173,7 @@
         <v>105</v>
       </c>
       <c r="D730">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E730">
         <v>100</v>
@@ -15184,7 +15184,7 @@
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A731">
-        <v>87400522</v>
+        <v>87400523</v>
       </c>
       <c r="B731">
         <v>2</v>
@@ -15204,7 +15204,7 @@
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A732">
-        <v>87400523</v>
+        <v>87400524</v>
       </c>
       <c r="B732">
         <v>2</v>
@@ -15224,7 +15224,7 @@
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A733">
-        <v>87400524</v>
+        <v>87400525</v>
       </c>
       <c r="B733">
         <v>2</v>
@@ -15244,16 +15244,16 @@
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A734">
-        <v>87400525</v>
+        <v>87400526</v>
       </c>
       <c r="B734">
         <v>2</v>
       </c>
       <c r="C734">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D734">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E734">
         <v>100</v>
@@ -15264,7 +15264,7 @@
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A735">
-        <v>87400526</v>
+        <v>87400527</v>
       </c>
       <c r="B735">
         <v>2</v>
@@ -15273,7 +15273,7 @@
         <v>106</v>
       </c>
       <c r="D735">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E735">
         <v>100</v>
@@ -15284,7 +15284,7 @@
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A736">
-        <v>87400527</v>
+        <v>87400528</v>
       </c>
       <c r="B736">
         <v>2</v>
@@ -15304,7 +15304,7 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A737">
-        <v>87400528</v>
+        <v>87400529</v>
       </c>
       <c r="B737">
         <v>2</v>
@@ -15324,7 +15324,7 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A738">
-        <v>87400529</v>
+        <v>87400530</v>
       </c>
       <c r="B738">
         <v>2</v>
@@ -15344,16 +15344,16 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A739">
-        <v>87400530</v>
+        <v>87400531</v>
       </c>
       <c r="B739">
         <v>2</v>
       </c>
       <c r="C739">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D739">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E739">
         <v>100</v>
@@ -15364,7 +15364,7 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A740">
-        <v>87400531</v>
+        <v>87400532</v>
       </c>
       <c r="B740">
         <v>2</v>
@@ -15373,7 +15373,7 @@
         <v>107</v>
       </c>
       <c r="D740">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E740">
         <v>100</v>
@@ -15384,7 +15384,7 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A741">
-        <v>87400532</v>
+        <v>87400533</v>
       </c>
       <c r="B741">
         <v>2</v>
@@ -15404,7 +15404,7 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A742">
-        <v>87400533</v>
+        <v>87400534</v>
       </c>
       <c r="B742">
         <v>2</v>
@@ -15424,7 +15424,7 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A743">
-        <v>87400534</v>
+        <v>87400535</v>
       </c>
       <c r="B743">
         <v>2</v>
@@ -15444,16 +15444,16 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A744">
-        <v>87400535</v>
+        <v>87400536</v>
       </c>
       <c r="B744">
         <v>2</v>
       </c>
       <c r="C744">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D744">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E744">
         <v>100</v>
@@ -15464,7 +15464,7 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A745">
-        <v>87400536</v>
+        <v>87400537</v>
       </c>
       <c r="B745">
         <v>2</v>
@@ -15473,7 +15473,7 @@
         <v>108</v>
       </c>
       <c r="D745">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E745">
         <v>100</v>
@@ -15484,7 +15484,7 @@
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A746">
-        <v>87400537</v>
+        <v>87400538</v>
       </c>
       <c r="B746">
         <v>2</v>
@@ -15504,7 +15504,7 @@
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A747">
-        <v>87400538</v>
+        <v>87400539</v>
       </c>
       <c r="B747">
         <v>2</v>
@@ -15524,7 +15524,7 @@
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A748">
-        <v>87400539</v>
+        <v>87400540</v>
       </c>
       <c r="B748">
         <v>2</v>
@@ -15544,16 +15544,16 @@
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A749">
-        <v>87400540</v>
+        <v>87400541</v>
       </c>
       <c r="B749">
         <v>2</v>
       </c>
       <c r="C749">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D749">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E749">
         <v>100</v>
@@ -15564,7 +15564,7 @@
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A750">
-        <v>87400541</v>
+        <v>87400542</v>
       </c>
       <c r="B750">
         <v>2</v>
@@ -15573,7 +15573,7 @@
         <v>109</v>
       </c>
       <c r="D750">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E750">
         <v>100</v>
@@ -15584,7 +15584,7 @@
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A751">
-        <v>87400542</v>
+        <v>87400543</v>
       </c>
       <c r="B751">
         <v>2</v>
@@ -15604,7 +15604,7 @@
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A752">
-        <v>87400543</v>
+        <v>87400544</v>
       </c>
       <c r="B752">
         <v>2</v>
@@ -15624,7 +15624,7 @@
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A753">
-        <v>87400544</v>
+        <v>87400545</v>
       </c>
       <c r="B753">
         <v>2</v>
@@ -15644,16 +15644,16 @@
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A754">
-        <v>87400545</v>
+        <v>87400546</v>
       </c>
       <c r="B754">
         <v>2</v>
       </c>
       <c r="C754">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D754">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E754">
         <v>100</v>
@@ -15664,7 +15664,7 @@
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A755">
-        <v>87400546</v>
+        <v>87400547</v>
       </c>
       <c r="B755">
         <v>2</v>
@@ -15673,7 +15673,7 @@
         <v>110</v>
       </c>
       <c r="D755">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E755">
         <v>100</v>
@@ -15684,7 +15684,7 @@
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A756">
-        <v>87400547</v>
+        <v>87400548</v>
       </c>
       <c r="B756">
         <v>2</v>
@@ -15704,7 +15704,7 @@
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A757">
-        <v>87400548</v>
+        <v>87400549</v>
       </c>
       <c r="B757">
         <v>2</v>
@@ -15724,7 +15724,7 @@
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A758">
-        <v>87400549</v>
+        <v>87400550</v>
       </c>
       <c r="B758">
         <v>2</v>
@@ -15744,16 +15744,16 @@
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A759">
-        <v>87400550</v>
+        <v>87400551</v>
       </c>
       <c r="B759">
         <v>2</v>
       </c>
       <c r="C759">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D759">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E759">
         <v>100</v>
@@ -15764,7 +15764,7 @@
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A760">
-        <v>87400551</v>
+        <v>87400552</v>
       </c>
       <c r="B760">
         <v>2</v>
@@ -15773,7 +15773,7 @@
         <v>111</v>
       </c>
       <c r="D760">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E760">
         <v>100</v>
@@ -15784,7 +15784,7 @@
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A761">
-        <v>87400552</v>
+        <v>87400553</v>
       </c>
       <c r="B761">
         <v>2</v>
@@ -15804,7 +15804,7 @@
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A762">
-        <v>87400553</v>
+        <v>87400554</v>
       </c>
       <c r="B762">
         <v>2</v>
@@ -15824,7 +15824,7 @@
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A763">
-        <v>87400554</v>
+        <v>87400555</v>
       </c>
       <c r="B763">
         <v>2</v>
@@ -15844,16 +15844,16 @@
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A764">
-        <v>87400555</v>
+        <v>87400556</v>
       </c>
       <c r="B764">
         <v>2</v>
       </c>
       <c r="C764">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D764">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E764">
         <v>100</v>
@@ -15864,7 +15864,7 @@
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A765">
-        <v>87400556</v>
+        <v>87400557</v>
       </c>
       <c r="B765">
         <v>2</v>
@@ -15873,7 +15873,7 @@
         <v>112</v>
       </c>
       <c r="D765">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E765">
         <v>100</v>
@@ -15884,7 +15884,7 @@
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A766">
-        <v>87400557</v>
+        <v>87400558</v>
       </c>
       <c r="B766">
         <v>2</v>
@@ -15904,7 +15904,7 @@
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A767">
-        <v>87400558</v>
+        <v>87400559</v>
       </c>
       <c r="B767">
         <v>2</v>
@@ -15924,7 +15924,7 @@
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A768">
-        <v>87400559</v>
+        <v>87400560</v>
       </c>
       <c r="B768">
         <v>2</v>
@@ -15944,16 +15944,16 @@
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A769">
-        <v>87400560</v>
+        <v>87400561</v>
       </c>
       <c r="B769">
         <v>2</v>
       </c>
       <c r="C769">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D769">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E769">
         <v>100</v>
@@ -15964,7 +15964,7 @@
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A770">
-        <v>87400561</v>
+        <v>87400562</v>
       </c>
       <c r="B770">
         <v>2</v>
@@ -15973,7 +15973,7 @@
         <v>113</v>
       </c>
       <c r="D770">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E770">
         <v>100</v>
@@ -15984,7 +15984,7 @@
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A771">
-        <v>87400562</v>
+        <v>87400563</v>
       </c>
       <c r="B771">
         <v>2</v>
@@ -16004,7 +16004,7 @@
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A772">
-        <v>87400563</v>
+        <v>87400564</v>
       </c>
       <c r="B772">
         <v>2</v>
@@ -16024,7 +16024,7 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A773">
-        <v>87400564</v>
+        <v>87400565</v>
       </c>
       <c r="B773">
         <v>2</v>
@@ -16044,16 +16044,16 @@
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A774">
-        <v>87400565</v>
+        <v>87400566</v>
       </c>
       <c r="B774">
         <v>2</v>
       </c>
       <c r="C774">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D774">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E774">
         <v>100</v>
@@ -16064,7 +16064,7 @@
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A775">
-        <v>87400566</v>
+        <v>87400567</v>
       </c>
       <c r="B775">
         <v>2</v>
@@ -16073,7 +16073,7 @@
         <v>114</v>
       </c>
       <c r="D775">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E775">
         <v>100</v>
@@ -16084,7 +16084,7 @@
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A776">
-        <v>87400567</v>
+        <v>87400568</v>
       </c>
       <c r="B776">
         <v>2</v>
@@ -16104,7 +16104,7 @@
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A777">
-        <v>87400568</v>
+        <v>87400569</v>
       </c>
       <c r="B777">
         <v>2</v>
@@ -16119,26 +16119,6 @@
         <v>100</v>
       </c>
       <c r="F777">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A778">
-        <v>87400569</v>
-      </c>
-      <c r="B778">
-        <v>2</v>
-      </c>
-      <c r="C778">
-        <v>114</v>
-      </c>
-      <c r="D778">
-        <v>0</v>
-      </c>
-      <c r="E778">
-        <v>100</v>
-      </c>
-      <c r="F778">
         <v>999</v>
       </c>
     </row>

--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10FC3B5-3B79-42D8-9FD0-AA594221E3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0879B65E-A423-4AF8-A587-447A252640A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,8 +576,8 @@
   <dimension ref="A1:F777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2239,7 +2239,7 @@
         <v>100</v>
       </c>
       <c r="F83">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">

--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29011"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0879B65E-A423-4AF8-A587-447A252640A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A6487B-EF97-4ABF-8018-6034AC3A3674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,7 +577,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K71" sqref="K71"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2259,7 +2259,7 @@
         <v>100</v>
       </c>
       <c r="F84">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">

--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29022"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A6487B-EF97-4ABF-8018-6034AC3A3674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4DB5E5-FD4C-4D10-86E2-A31383CA00CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,7 +577,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2279,7 +2279,7 @@
         <v>100</v>
       </c>
       <c r="F85">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">

--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1751168125" val="1224" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1751168125" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1751168125" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1751168125"/>
+      <pm:revision xmlns:pm="smNativeData" day="1751327337" val="1224" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1751327337" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1751327337" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1751327337"/>
     </ext>
   </extLst>
 </workbook>
@@ -230,7 +230,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751168125" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751327337" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -245,7 +245,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751168125" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751327337" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -267,7 +267,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751168125" type="1" fgLvl="100" fgClr="0000B050" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1751327337" type="1" fgLvl="100" fgClr="0000B050" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -278,7 +278,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751168125" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1751327337" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -300,7 +300,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751168125"/>
+          <pm:border xmlns:pm="smNativeData" id="1751327337"/>
         </ext>
       </extLst>
     </border>
@@ -319,7 +319,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751168125"/>
+          <pm:border xmlns:pm="smNativeData" id="1751327337"/>
         </ext>
       </extLst>
     </border>
@@ -338,7 +338,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751168125"/>
+          <pm:border xmlns:pm="smNativeData" id="1751327337"/>
         </ext>
       </extLst>
     </border>
@@ -356,10 +356,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1751168125" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1751327337" count="1">
         <pm:charStyle name="普通" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1751168125" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1751327337" count="2">
         <pm:color name="颜色 24" rgb="00B050"/>
         <pm:color name="20% 灰色" rgb="000000"/>
       </pm:colors>
@@ -628,7 +628,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
+      <selection pane="bottomLeft" activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.50"/>
@@ -2253,7 +2253,7 @@
         <v>100</v>
       </c>
       <c r="F81" t="n">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -16180,7 +16180,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1751168125" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1751327337" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16189,17 +16189,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1751168125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1751168125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751168125" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751168125" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1751327337" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1751327337" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751327337" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751327337" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751168125" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751327337" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16221,7 +16221,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1751168125" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1751327337" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16230,16 +16230,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1751168125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1751168125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751168125" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751168125" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1751327337" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1751327337" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751327337" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751327337" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751168125" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751327337" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16261,7 +16261,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1751168125" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1751327337" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16270,16 +16270,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1751168125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1751168125" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751168125" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751168125" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1751327337" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1751327337" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751327337" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751327337" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751168125" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751327337" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1751327337" val="1224" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1751327337" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1751327337" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1751327337"/>
+      <pm:revision xmlns:pm="smNativeData" day="1751674227" val="1224" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1751674227" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1751674227" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1751674227"/>
     </ext>
   </extLst>
 </workbook>
@@ -230,7 +230,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751327337" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751674227" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -245,7 +245,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751327337" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751674227" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -267,7 +267,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751327337" type="1" fgLvl="100" fgClr="0000B050" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1751674227" type="1" fgLvl="100" fgClr="0000B050" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -278,7 +278,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751327337" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1751674227" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -300,7 +300,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751327337"/>
+          <pm:border xmlns:pm="smNativeData" id="1751674227"/>
         </ext>
       </extLst>
     </border>
@@ -319,7 +319,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751327337"/>
+          <pm:border xmlns:pm="smNativeData" id="1751674227"/>
         </ext>
       </extLst>
     </border>
@@ -338,7 +338,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751327337"/>
+          <pm:border xmlns:pm="smNativeData" id="1751674227"/>
         </ext>
       </extLst>
     </border>
@@ -356,10 +356,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1751327337" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1751674227" count="1">
         <pm:charStyle name="普通" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1751327337" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1751674227" count="2">
         <pm:color name="颜色 24" rgb="00B050"/>
         <pm:color name="20% 灰色" rgb="000000"/>
       </pm:colors>
@@ -627,8 +627,8 @@
   <dimension ref="A1:F777"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I69" sqref="I69"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.50"/>
@@ -2533,7 +2533,7 @@
         <v>100</v>
       </c>
       <c r="F95" t="n">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -16180,7 +16180,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1751327337" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1751674227" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16189,17 +16189,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1751327337" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1751327337" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751327337" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751327337" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1751674227" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1751674227" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751674227" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751674227" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751327337" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751674227" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16221,7 +16221,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1751327337" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1751674227" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16230,16 +16230,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1751327337" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1751327337" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751327337" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751327337" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1751674227" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1751674227" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751674227" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751674227" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751327337" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751674227" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16261,7 +16261,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1751327337" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1751674227" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16270,16 +16270,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1751327337" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1751327337" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751327337" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751327337" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1751674227" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1751674227" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751674227" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751674227" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751327337" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751674227" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1751674227" val="1224" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1751674227" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1751674227" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1751674227"/>
+      <pm:revision xmlns:pm="smNativeData" day="1751771583" val="1224" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1751771583" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1751771583" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1751771583"/>
     </ext>
   </extLst>
 </workbook>
@@ -230,7 +230,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751674227" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751771583" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -245,7 +245,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751674227" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751771583" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -267,7 +267,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751674227" type="1" fgLvl="100" fgClr="0000B050" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1751771583" type="1" fgLvl="100" fgClr="0000B050" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -278,7 +278,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751674227" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1751771583" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -300,7 +300,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751674227"/>
+          <pm:border xmlns:pm="smNativeData" id="1751771583"/>
         </ext>
       </extLst>
     </border>
@@ -319,7 +319,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751674227"/>
+          <pm:border xmlns:pm="smNativeData" id="1751771583"/>
         </ext>
       </extLst>
     </border>
@@ -338,7 +338,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751674227"/>
+          <pm:border xmlns:pm="smNativeData" id="1751771583"/>
         </ext>
       </extLst>
     </border>
@@ -356,10 +356,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1751674227" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1751771583" count="1">
         <pm:charStyle name="普通" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1751674227" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1751771583" count="2">
         <pm:color name="颜色 24" rgb="00B050"/>
         <pm:color name="20% 灰色" rgb="000000"/>
       </pm:colors>
@@ -627,8 +627,8 @@
   <dimension ref="A1:F777"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H88" sqref="H88"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.50"/>
@@ -2733,7 +2733,7 @@
         <v>100</v>
       </c>
       <c r="F105" t="n">
-        <v>999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2793,7 +2793,7 @@
         <v>100</v>
       </c>
       <c r="F108" t="n">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2973,7 +2973,7 @@
         <v>100</v>
       </c>
       <c r="F117" t="n">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2993,7 +2993,7 @@
         <v>100</v>
       </c>
       <c r="F118" t="n">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -16180,7 +16180,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1751674227" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1751771583" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16189,17 +16189,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1751674227" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1751674227" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751674227" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751674227" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1751771583" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1751771583" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751771583" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751771583" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751674227" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751771583" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16221,7 +16221,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1751674227" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1751771583" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16230,16 +16230,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1751674227" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1751674227" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751674227" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751674227" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1751771583" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1751771583" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751771583" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751771583" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751674227" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751771583" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16261,7 +16261,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1751674227" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1751771583" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16270,16 +16270,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1751674227" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1751674227" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751674227" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751674227" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1751771583" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1751771583" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751771583" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751771583" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751674227" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751771583" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1751771583" val="1224" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1751771583" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1751771583" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1751771583"/>
+      <pm:revision xmlns:pm="smNativeData" day="1751785842" val="1224" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1751785842" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1751785842" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1751785842"/>
     </ext>
   </extLst>
 </workbook>
@@ -230,7 +230,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751771583" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751785842" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -245,7 +245,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751771583" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751785842" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -267,7 +267,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751771583" type="1" fgLvl="100" fgClr="0000B050" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1751785842" type="1" fgLvl="100" fgClr="0000B050" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -278,7 +278,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751771583" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1751785842" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -300,7 +300,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751771583"/>
+          <pm:border xmlns:pm="smNativeData" id="1751785842"/>
         </ext>
       </extLst>
     </border>
@@ -319,7 +319,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751771583"/>
+          <pm:border xmlns:pm="smNativeData" id="1751785842"/>
         </ext>
       </extLst>
     </border>
@@ -338,7 +338,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751771583"/>
+          <pm:border xmlns:pm="smNativeData" id="1751785842"/>
         </ext>
       </extLst>
     </border>
@@ -356,10 +356,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1751771583" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1751785842" count="1">
         <pm:charStyle name="普通" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1751771583" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1751785842" count="2">
         <pm:color name="颜色 24" rgb="00B050"/>
         <pm:color name="20% 灰色" rgb="000000"/>
       </pm:colors>
@@ -627,8 +627,8 @@
   <dimension ref="A1:F777"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I110" sqref="I110"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L119" sqref="L119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.50"/>
@@ -3113,7 +3113,7 @@
         <v>100</v>
       </c>
       <c r="F124" t="n">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3193,7 +3193,7 @@
         <v>100</v>
       </c>
       <c r="F128" t="n">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3273,7 +3273,7 @@
         <v>100</v>
       </c>
       <c r="F132" t="n">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3373,7 +3373,7 @@
         <v>100</v>
       </c>
       <c r="F137" t="n">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3413,7 +3413,7 @@
         <v>100</v>
       </c>
       <c r="F139" t="n">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3473,7 +3473,7 @@
         <v>100</v>
       </c>
       <c r="F142" t="n">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -16180,7 +16180,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1751771583" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1751785842" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16189,17 +16189,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1751771583" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1751771583" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751771583" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751771583" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1751785842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1751785842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751785842" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751785842" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751771583" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751785842" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16221,7 +16221,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1751771583" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1751785842" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16230,16 +16230,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1751771583" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1751771583" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751771583" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751771583" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1751785842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1751785842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751785842" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751785842" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751771583" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751785842" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16261,7 +16261,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1751771583" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1751785842" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16270,16 +16270,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1751771583" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1751771583" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751771583" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751771583" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1751785842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1751785842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751785842" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751785842" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751771583" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751785842" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -15,10 +15,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1751785842" val="1224" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1751785842" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1751785842" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1751785842"/>
+      <pm:revision xmlns:pm="smNativeData" day="1751796598" val="1224" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1751796598" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1751796598" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1751796598"/>
     </ext>
   </extLst>
 </workbook>
@@ -230,7 +230,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751785842" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751796598" ulstyle="none" kern="1">
             <pm:latin face="宋体" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -245,7 +245,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1751785842" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1751796598" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -267,7 +267,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751785842" type="1" fgLvl="100" fgClr="0000B050" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1751796598" type="1" fgLvl="100" fgClr="0000B050" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -278,7 +278,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1751785842" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1751796598" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -300,7 +300,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751785842"/>
+          <pm:border xmlns:pm="smNativeData" id="1751796598"/>
         </ext>
       </extLst>
     </border>
@@ -319,7 +319,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751785842"/>
+          <pm:border xmlns:pm="smNativeData" id="1751796598"/>
         </ext>
       </extLst>
     </border>
@@ -338,7 +338,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1751785842"/>
+          <pm:border xmlns:pm="smNativeData" id="1751796598"/>
         </ext>
       </extLst>
     </border>
@@ -356,10 +356,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1751785842" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1751796598" count="1">
         <pm:charStyle name="普通" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1751785842" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1751796598" count="2">
         <pm:color name="颜色 24" rgb="00B050"/>
         <pm:color name="20% 灰色" rgb="000000"/>
       </pm:colors>
@@ -627,8 +627,8 @@
   <dimension ref="A1:F777"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L119" sqref="L119"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L124" sqref="L124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.50"/>
@@ -3793,7 +3793,7 @@
         <v>100</v>
       </c>
       <c r="F158" t="n">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3813,7 +3813,7 @@
         <v>100</v>
       </c>
       <c r="F159" t="n">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -16180,7 +16180,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1751785842" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1751796598" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16189,17 +16189,17 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1751785842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1751785842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751785842" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751785842" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1751796598" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1751796598" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751796598" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751796598" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751785842" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751796598" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16221,7 +16221,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1751785842" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1751796598" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16230,16 +16230,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1751785842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1751785842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751785842" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751785842" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1751796598" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1751796598" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751796598" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751796598" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751785842" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751796598" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16261,7 +16261,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1751785842" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1751796598" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16270,16 +16270,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1751785842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1751785842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751785842" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1751785842" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1751796598" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1751796598" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751796598" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1751796598" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751785842" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1751796598" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B073E3-8964-4CA8-AB12-2F431618A1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3C1466-07A4-4CA5-9BB8-C2C2DBB87B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,11 +539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F777"/>
+  <dimension ref="A1:F768"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
+      <pane ySplit="1" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D579" sqref="D579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10253,7 +10253,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A486">
-        <v>87400278</v>
+        <v>87400280</v>
       </c>
       <c r="B486">
         <v>2</v>
@@ -10273,16 +10273,16 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A487">
-        <v>87400279</v>
+        <v>87400281</v>
       </c>
       <c r="B487">
         <v>2</v>
       </c>
       <c r="C487">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D487">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E487">
         <v>100</v>
@@ -10293,13 +10293,13 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A488">
-        <v>87400280</v>
+        <v>87400282</v>
       </c>
       <c r="B488">
         <v>2</v>
       </c>
       <c r="C488">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D488">
         <v>0</v>
@@ -10313,7 +10313,7 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A489">
-        <v>87400281</v>
+        <v>87400283</v>
       </c>
       <c r="B489">
         <v>2</v>
@@ -10322,7 +10322,7 @@
         <v>57</v>
       </c>
       <c r="D489">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E489">
         <v>100</v>
@@ -10333,7 +10333,7 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A490">
-        <v>87400282</v>
+        <v>87400284</v>
       </c>
       <c r="B490">
         <v>2</v>
@@ -10353,7 +10353,7 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A491">
-        <v>87400283</v>
+        <v>87400285</v>
       </c>
       <c r="B491">
         <v>2</v>
@@ -10373,16 +10373,16 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A492">
-        <v>87400284</v>
+        <v>87400286</v>
       </c>
       <c r="B492">
         <v>2</v>
       </c>
       <c r="C492">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D492">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E492">
         <v>100</v>
@@ -10393,13 +10393,13 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A493">
-        <v>87400285</v>
+        <v>87400287</v>
       </c>
       <c r="B493">
         <v>2</v>
       </c>
       <c r="C493">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D493">
         <v>0</v>
@@ -10413,7 +10413,7 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A494">
-        <v>87400286</v>
+        <v>87400288</v>
       </c>
       <c r="B494">
         <v>2</v>
@@ -10422,7 +10422,7 @@
         <v>58</v>
       </c>
       <c r="D494">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E494">
         <v>100</v>
@@ -10433,7 +10433,7 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A495">
-        <v>87400287</v>
+        <v>87400289</v>
       </c>
       <c r="B495">
         <v>2</v>
@@ -10453,7 +10453,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A496">
-        <v>87400288</v>
+        <v>87400290</v>
       </c>
       <c r="B496">
         <v>2</v>
@@ -10473,16 +10473,16 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A497">
-        <v>87400289</v>
+        <v>87400291</v>
       </c>
       <c r="B497">
         <v>2</v>
       </c>
       <c r="C497">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D497">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E497">
         <v>100</v>
@@ -10493,13 +10493,13 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A498">
-        <v>87400290</v>
+        <v>87400292</v>
       </c>
       <c r="B498">
         <v>2</v>
       </c>
       <c r="C498">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D498">
         <v>0</v>
@@ -10513,7 +10513,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A499">
-        <v>87400291</v>
+        <v>87400293</v>
       </c>
       <c r="B499">
         <v>2</v>
@@ -10522,7 +10522,7 @@
         <v>59</v>
       </c>
       <c r="D499">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E499">
         <v>100</v>
@@ -10533,7 +10533,7 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A500">
-        <v>87400292</v>
+        <v>87400294</v>
       </c>
       <c r="B500">
         <v>2</v>
@@ -10553,7 +10553,7 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A501">
-        <v>87400293</v>
+        <v>87400295</v>
       </c>
       <c r="B501">
         <v>2</v>
@@ -10573,16 +10573,16 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A502">
-        <v>87400294</v>
+        <v>87400296</v>
       </c>
       <c r="B502">
         <v>2</v>
       </c>
       <c r="C502">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D502">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E502">
         <v>100</v>
@@ -10593,13 +10593,13 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A503">
-        <v>87400295</v>
+        <v>87400297</v>
       </c>
       <c r="B503">
         <v>2</v>
       </c>
       <c r="C503">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D503">
         <v>0</v>
@@ -10613,7 +10613,7 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A504">
-        <v>87400296</v>
+        <v>87400298</v>
       </c>
       <c r="B504">
         <v>2</v>
@@ -10622,7 +10622,7 @@
         <v>60</v>
       </c>
       <c r="D504">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E504">
         <v>100</v>
@@ -10633,7 +10633,7 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A505">
-        <v>87400297</v>
+        <v>87400299</v>
       </c>
       <c r="B505">
         <v>2</v>
@@ -10653,7 +10653,7 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A506">
-        <v>87400298</v>
+        <v>87400300</v>
       </c>
       <c r="B506">
         <v>2</v>
@@ -10673,16 +10673,16 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A507">
-        <v>87400299</v>
+        <v>87400301</v>
       </c>
       <c r="B507">
         <v>2</v>
       </c>
       <c r="C507">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D507">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E507">
         <v>100</v>
@@ -10693,13 +10693,13 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A508">
-        <v>87400300</v>
+        <v>87400302</v>
       </c>
       <c r="B508">
         <v>2</v>
       </c>
       <c r="C508">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D508">
         <v>0</v>
@@ -10713,7 +10713,7 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A509">
-        <v>87400301</v>
+        <v>87400303</v>
       </c>
       <c r="B509">
         <v>2</v>
@@ -10722,7 +10722,7 @@
         <v>61</v>
       </c>
       <c r="D509">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E509">
         <v>100</v>
@@ -10733,7 +10733,7 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A510">
-        <v>87400302</v>
+        <v>87400304</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -10753,7 +10753,7 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A511">
-        <v>87400303</v>
+        <v>87400305</v>
       </c>
       <c r="B511">
         <v>2</v>
@@ -10773,16 +10773,16 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A512">
-        <v>87400304</v>
+        <v>87400306</v>
       </c>
       <c r="B512">
         <v>2</v>
       </c>
       <c r="C512">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D512">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E512">
         <v>100</v>
@@ -10793,13 +10793,13 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A513">
-        <v>87400305</v>
+        <v>87400307</v>
       </c>
       <c r="B513">
         <v>2</v>
       </c>
       <c r="C513">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D513">
         <v>0</v>
@@ -10813,7 +10813,7 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A514">
-        <v>87400306</v>
+        <v>87400308</v>
       </c>
       <c r="B514">
         <v>2</v>
@@ -10822,7 +10822,7 @@
         <v>62</v>
       </c>
       <c r="D514">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E514">
         <v>100</v>
@@ -10833,7 +10833,7 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A515">
-        <v>87400307</v>
+        <v>87400309</v>
       </c>
       <c r="B515">
         <v>2</v>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A516">
-        <v>87400308</v>
+        <v>87400310</v>
       </c>
       <c r="B516">
         <v>2</v>
@@ -10873,16 +10873,16 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A517">
-        <v>87400309</v>
+        <v>87400311</v>
       </c>
       <c r="B517">
         <v>2</v>
       </c>
       <c r="C517">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D517">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E517">
         <v>100</v>
@@ -10893,13 +10893,13 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A518">
-        <v>87400310</v>
+        <v>87400312</v>
       </c>
       <c r="B518">
         <v>2</v>
       </c>
       <c r="C518">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D518">
         <v>0</v>
@@ -10913,7 +10913,7 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A519">
-        <v>87400311</v>
+        <v>87400313</v>
       </c>
       <c r="B519">
         <v>2</v>
@@ -10922,7 +10922,7 @@
         <v>63</v>
       </c>
       <c r="D519">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E519">
         <v>100</v>
@@ -10933,7 +10933,7 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A520">
-        <v>87400312</v>
+        <v>87400314</v>
       </c>
       <c r="B520">
         <v>2</v>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A521">
-        <v>87400313</v>
+        <v>87400315</v>
       </c>
       <c r="B521">
         <v>2</v>
@@ -10973,16 +10973,16 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A522">
-        <v>87400314</v>
+        <v>87400318</v>
       </c>
       <c r="B522">
         <v>2</v>
       </c>
       <c r="C522">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D522">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E522">
         <v>100</v>
@@ -10993,13 +10993,13 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A523">
-        <v>87400315</v>
+        <v>87400319</v>
       </c>
       <c r="B523">
         <v>2</v>
       </c>
       <c r="C523">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D523">
         <v>0</v>
@@ -11013,7 +11013,7 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A524">
-        <v>87400316</v>
+        <v>87400320</v>
       </c>
       <c r="B524">
         <v>2</v>
@@ -11022,7 +11022,7 @@
         <v>64</v>
       </c>
       <c r="D524">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E524">
         <v>100</v>
@@ -11033,16 +11033,16 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A525">
-        <v>87400317</v>
+        <v>87400321</v>
       </c>
       <c r="B525">
         <v>2</v>
       </c>
       <c r="C525">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D525">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E525">
         <v>100</v>
@@ -11053,13 +11053,13 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A526">
-        <v>87400318</v>
+        <v>87400322</v>
       </c>
       <c r="B526">
         <v>2</v>
       </c>
       <c r="C526">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D526">
         <v>0</v>
@@ -11073,13 +11073,13 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A527">
-        <v>87400319</v>
+        <v>87400323</v>
       </c>
       <c r="B527">
         <v>2</v>
       </c>
       <c r="C527">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D527">
         <v>0</v>
@@ -11093,13 +11093,13 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A528">
-        <v>87400320</v>
+        <v>87400324</v>
       </c>
       <c r="B528">
         <v>2</v>
       </c>
       <c r="C528">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D528">
         <v>0</v>
@@ -11113,7 +11113,7 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A529">
-        <v>87400321</v>
+        <v>87400325</v>
       </c>
       <c r="B529">
         <v>2</v>
@@ -11122,7 +11122,7 @@
         <v>65</v>
       </c>
       <c r="D529">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E529">
         <v>100</v>
@@ -11133,16 +11133,16 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A530">
-        <v>87400322</v>
+        <v>87400326</v>
       </c>
       <c r="B530">
         <v>2</v>
       </c>
       <c r="C530">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D530">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E530">
         <v>100</v>
@@ -11153,13 +11153,13 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A531">
-        <v>87400323</v>
+        <v>87400327</v>
       </c>
       <c r="B531">
         <v>2</v>
       </c>
       <c r="C531">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D531">
         <v>0</v>
@@ -11173,13 +11173,13 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A532">
-        <v>87400324</v>
+        <v>87400328</v>
       </c>
       <c r="B532">
         <v>2</v>
       </c>
       <c r="C532">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D532">
         <v>0</v>
@@ -11193,13 +11193,13 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A533">
-        <v>87400325</v>
+        <v>87400329</v>
       </c>
       <c r="B533">
         <v>2</v>
       </c>
       <c r="C533">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D533">
         <v>0</v>
@@ -11213,7 +11213,7 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A534">
-        <v>87400326</v>
+        <v>87400330</v>
       </c>
       <c r="B534">
         <v>2</v>
@@ -11222,7 +11222,7 @@
         <v>66</v>
       </c>
       <c r="D534">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E534">
         <v>100</v>
@@ -11233,16 +11233,16 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A535">
-        <v>87400327</v>
+        <v>87400331</v>
       </c>
       <c r="B535">
         <v>2</v>
       </c>
       <c r="C535">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D535">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E535">
         <v>100</v>
@@ -11253,13 +11253,13 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A536">
-        <v>87400328</v>
+        <v>87400332</v>
       </c>
       <c r="B536">
         <v>2</v>
       </c>
       <c r="C536">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D536">
         <v>0</v>
@@ -11273,13 +11273,13 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A537">
-        <v>87400329</v>
+        <v>87400333</v>
       </c>
       <c r="B537">
         <v>2</v>
       </c>
       <c r="C537">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D537">
         <v>0</v>
@@ -11293,13 +11293,13 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A538">
-        <v>87400330</v>
+        <v>87400334</v>
       </c>
       <c r="B538">
         <v>2</v>
       </c>
       <c r="C538">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D538">
         <v>0</v>
@@ -11313,7 +11313,7 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A539">
-        <v>87400331</v>
+        <v>87400335</v>
       </c>
       <c r="B539">
         <v>2</v>
@@ -11322,7 +11322,7 @@
         <v>67</v>
       </c>
       <c r="D539">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E539">
         <v>100</v>
@@ -11333,16 +11333,16 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A540">
-        <v>87400332</v>
+        <v>87400336</v>
       </c>
       <c r="B540">
         <v>2</v>
       </c>
       <c r="C540">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D540">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E540">
         <v>100</v>
@@ -11353,13 +11353,13 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A541">
-        <v>87400333</v>
+        <v>87400337</v>
       </c>
       <c r="B541">
         <v>2</v>
       </c>
       <c r="C541">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D541">
         <v>0</v>
@@ -11373,13 +11373,13 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A542">
-        <v>87400334</v>
+        <v>87400338</v>
       </c>
       <c r="B542">
         <v>2</v>
       </c>
       <c r="C542">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D542">
         <v>0</v>
@@ -11393,13 +11393,13 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A543">
-        <v>87400335</v>
+        <v>87400339</v>
       </c>
       <c r="B543">
         <v>2</v>
       </c>
       <c r="C543">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D543">
         <v>0</v>
@@ -11413,7 +11413,7 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A544">
-        <v>87400336</v>
+        <v>87400340</v>
       </c>
       <c r="B544">
         <v>2</v>
@@ -11422,7 +11422,7 @@
         <v>68</v>
       </c>
       <c r="D544">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E544">
         <v>100</v>
@@ -11433,16 +11433,16 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A545">
-        <v>87400337</v>
+        <v>87400341</v>
       </c>
       <c r="B545">
         <v>2</v>
       </c>
       <c r="C545">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D545">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E545">
         <v>100</v>
@@ -11453,13 +11453,13 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A546">
-        <v>87400338</v>
+        <v>87400342</v>
       </c>
       <c r="B546">
         <v>2</v>
       </c>
       <c r="C546">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D546">
         <v>0</v>
@@ -11473,13 +11473,13 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A547">
-        <v>87400339</v>
+        <v>87400343</v>
       </c>
       <c r="B547">
         <v>2</v>
       </c>
       <c r="C547">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D547">
         <v>0</v>
@@ -11493,13 +11493,13 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A548">
-        <v>87400340</v>
+        <v>87400344</v>
       </c>
       <c r="B548">
         <v>2</v>
       </c>
       <c r="C548">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D548">
         <v>0</v>
@@ -11513,7 +11513,7 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A549">
-        <v>87400341</v>
+        <v>87400345</v>
       </c>
       <c r="B549">
         <v>2</v>
@@ -11522,7 +11522,7 @@
         <v>69</v>
       </c>
       <c r="D549">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E549">
         <v>100</v>
@@ -11533,16 +11533,16 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A550">
-        <v>87400342</v>
+        <v>87400346</v>
       </c>
       <c r="B550">
         <v>2</v>
       </c>
       <c r="C550">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D550">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E550">
         <v>100</v>
@@ -11553,13 +11553,13 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A551">
-        <v>87400343</v>
+        <v>87400347</v>
       </c>
       <c r="B551">
         <v>2</v>
       </c>
       <c r="C551">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D551">
         <v>0</v>
@@ -11573,13 +11573,13 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A552">
-        <v>87400344</v>
+        <v>87400348</v>
       </c>
       <c r="B552">
         <v>2</v>
       </c>
       <c r="C552">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D552">
         <v>0</v>
@@ -11593,13 +11593,13 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A553">
-        <v>87400345</v>
+        <v>87400349</v>
       </c>
       <c r="B553">
         <v>2</v>
       </c>
       <c r="C553">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D553">
         <v>0</v>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A554">
-        <v>87400346</v>
+        <v>87400350</v>
       </c>
       <c r="B554">
         <v>2</v>
@@ -11622,7 +11622,7 @@
         <v>70</v>
       </c>
       <c r="D554">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E554">
         <v>100</v>
@@ -11633,16 +11633,16 @@
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A555">
-        <v>87400347</v>
+        <v>87400351</v>
       </c>
       <c r="B555">
         <v>2</v>
       </c>
       <c r="C555">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D555">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E555">
         <v>100</v>
@@ -11653,13 +11653,13 @@
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A556">
-        <v>87400348</v>
+        <v>87400352</v>
       </c>
       <c r="B556">
         <v>2</v>
       </c>
       <c r="C556">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D556">
         <v>0</v>
@@ -11673,13 +11673,13 @@
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A557">
-        <v>87400349</v>
+        <v>87400353</v>
       </c>
       <c r="B557">
         <v>2</v>
       </c>
       <c r="C557">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D557">
         <v>0</v>
@@ -11693,13 +11693,13 @@
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A558">
-        <v>87400350</v>
+        <v>87400354</v>
       </c>
       <c r="B558">
         <v>2</v>
       </c>
       <c r="C558">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D558">
         <v>0</v>
@@ -11713,7 +11713,7 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A559">
-        <v>87400351</v>
+        <v>87400355</v>
       </c>
       <c r="B559">
         <v>2</v>
@@ -11722,7 +11722,7 @@
         <v>71</v>
       </c>
       <c r="D559">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E559">
         <v>100</v>
@@ -11733,16 +11733,16 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A560">
-        <v>87400352</v>
+        <v>87400356</v>
       </c>
       <c r="B560">
         <v>2</v>
       </c>
       <c r="C560">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D560">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E560">
         <v>100</v>
@@ -11753,13 +11753,13 @@
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A561">
-        <v>87400353</v>
+        <v>87400357</v>
       </c>
       <c r="B561">
         <v>2</v>
       </c>
       <c r="C561">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D561">
         <v>0</v>
@@ -11773,13 +11773,13 @@
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A562">
-        <v>87400354</v>
+        <v>87400358</v>
       </c>
       <c r="B562">
         <v>2</v>
       </c>
       <c r="C562">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D562">
         <v>0</v>
@@ -11793,13 +11793,13 @@
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A563">
-        <v>87400355</v>
+        <v>87400359</v>
       </c>
       <c r="B563">
         <v>2</v>
       </c>
       <c r="C563">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D563">
         <v>0</v>
@@ -11813,7 +11813,7 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A564">
-        <v>87400356</v>
+        <v>87400360</v>
       </c>
       <c r="B564">
         <v>2</v>
@@ -11822,7 +11822,7 @@
         <v>72</v>
       </c>
       <c r="D564">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E564">
         <v>100</v>
@@ -11833,16 +11833,16 @@
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A565">
-        <v>87400357</v>
+        <v>87400361</v>
       </c>
       <c r="B565">
         <v>2</v>
       </c>
       <c r="C565">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D565">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E565">
         <v>100</v>
@@ -11853,13 +11853,13 @@
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A566">
-        <v>87400358</v>
+        <v>87400362</v>
       </c>
       <c r="B566">
         <v>2</v>
       </c>
       <c r="C566">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D566">
         <v>0</v>
@@ -11873,13 +11873,13 @@
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A567">
-        <v>87400359</v>
+        <v>87400363</v>
       </c>
       <c r="B567">
         <v>2</v>
       </c>
       <c r="C567">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D567">
         <v>0</v>
@@ -11893,13 +11893,13 @@
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A568">
-        <v>87400360</v>
+        <v>87400364</v>
       </c>
       <c r="B568">
         <v>2</v>
       </c>
       <c r="C568">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D568">
         <v>0</v>
@@ -11913,7 +11913,7 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A569">
-        <v>87400361</v>
+        <v>87400365</v>
       </c>
       <c r="B569">
         <v>2</v>
@@ -11922,7 +11922,7 @@
         <v>73</v>
       </c>
       <c r="D569">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E569">
         <v>100</v>
@@ -11933,16 +11933,16 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A570">
-        <v>87400362</v>
+        <v>87400366</v>
       </c>
       <c r="B570">
         <v>2</v>
       </c>
       <c r="C570">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D570">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E570">
         <v>100</v>
@@ -11953,13 +11953,13 @@
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A571">
-        <v>87400363</v>
+        <v>87400367</v>
       </c>
       <c r="B571">
         <v>2</v>
       </c>
       <c r="C571">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D571">
         <v>0</v>
@@ -11973,13 +11973,13 @@
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A572">
-        <v>87400364</v>
+        <v>87400368</v>
       </c>
       <c r="B572">
         <v>2</v>
       </c>
       <c r="C572">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D572">
         <v>0</v>
@@ -11993,13 +11993,13 @@
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A573">
-        <v>87400365</v>
+        <v>87400369</v>
       </c>
       <c r="B573">
         <v>2</v>
       </c>
       <c r="C573">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D573">
         <v>0</v>
@@ -12013,7 +12013,7 @@
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A574">
-        <v>87400366</v>
+        <v>87400370</v>
       </c>
       <c r="B574">
         <v>2</v>
@@ -12022,7 +12022,7 @@
         <v>74</v>
       </c>
       <c r="D574">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E574">
         <v>100</v>
@@ -12033,16 +12033,16 @@
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A575">
-        <v>87400367</v>
+        <v>87400371</v>
       </c>
       <c r="B575">
         <v>2</v>
       </c>
       <c r="C575">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D575">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E575">
         <v>100</v>
@@ -12053,13 +12053,13 @@
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A576">
-        <v>87400368</v>
+        <v>87400372</v>
       </c>
       <c r="B576">
         <v>2</v>
       </c>
       <c r="C576">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D576">
         <v>0</v>
@@ -12073,13 +12073,13 @@
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A577">
-        <v>87400369</v>
+        <v>87400373</v>
       </c>
       <c r="B577">
         <v>2</v>
       </c>
       <c r="C577">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D577">
         <v>0</v>
@@ -12093,16 +12093,16 @@
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A578">
-        <v>87400370</v>
+        <v>87400377</v>
       </c>
       <c r="B578">
         <v>2</v>
       </c>
       <c r="C578">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D578">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E578">
         <v>100</v>
@@ -12113,16 +12113,16 @@
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A579">
-        <v>87400371</v>
+        <v>87400378</v>
       </c>
       <c r="B579">
         <v>2</v>
       </c>
       <c r="C579">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D579">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E579">
         <v>100</v>
@@ -12133,13 +12133,13 @@
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A580">
-        <v>87400372</v>
+        <v>87400379</v>
       </c>
       <c r="B580">
         <v>2</v>
       </c>
       <c r="C580">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D580">
         <v>0</v>
@@ -12153,13 +12153,13 @@
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A581">
-        <v>87400373</v>
+        <v>87400380</v>
       </c>
       <c r="B581">
         <v>2</v>
       </c>
       <c r="C581">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D581">
         <v>0</v>
@@ -12173,16 +12173,16 @@
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A582">
-        <v>87400374</v>
+        <v>87400381</v>
       </c>
       <c r="B582">
         <v>2</v>
       </c>
       <c r="C582">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D582">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E582">
         <v>100</v>
@@ -12193,13 +12193,13 @@
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A583">
-        <v>87400375</v>
+        <v>87400382</v>
       </c>
       <c r="B583">
         <v>2</v>
       </c>
       <c r="C583">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D583">
         <v>0</v>
@@ -12213,16 +12213,16 @@
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A584">
-        <v>87400376</v>
+        <v>87400383</v>
       </c>
       <c r="B584">
         <v>2</v>
       </c>
       <c r="C584">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D584">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E584">
         <v>100</v>
@@ -12233,13 +12233,13 @@
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A585">
-        <v>87400377</v>
+        <v>87400384</v>
       </c>
       <c r="B585">
         <v>2</v>
       </c>
       <c r="C585">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D585">
         <v>0</v>
@@ -12253,13 +12253,13 @@
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A586">
-        <v>87400378</v>
+        <v>87400385</v>
       </c>
       <c r="B586">
         <v>2</v>
       </c>
       <c r="C586">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D586">
         <v>0</v>
@@ -12273,16 +12273,16 @@
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A587">
-        <v>87400379</v>
+        <v>87400386</v>
       </c>
       <c r="B587">
         <v>2</v>
       </c>
       <c r="C587">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D587">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E587">
         <v>100</v>
@@ -12293,13 +12293,13 @@
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A588">
-        <v>87400380</v>
+        <v>87400387</v>
       </c>
       <c r="B588">
         <v>2</v>
       </c>
       <c r="C588">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D588">
         <v>0</v>
@@ -12313,16 +12313,16 @@
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A589">
-        <v>87400381</v>
+        <v>87400388</v>
       </c>
       <c r="B589">
         <v>2</v>
       </c>
       <c r="C589">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D589">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E589">
         <v>100</v>
@@ -12333,13 +12333,13 @@
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A590">
-        <v>87400382</v>
+        <v>87400389</v>
       </c>
       <c r="B590">
         <v>2</v>
       </c>
       <c r="C590">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D590">
         <v>0</v>
@@ -12353,13 +12353,13 @@
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A591">
-        <v>87400383</v>
+        <v>87400390</v>
       </c>
       <c r="B591">
         <v>2</v>
       </c>
       <c r="C591">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D591">
         <v>0</v>
@@ -12373,16 +12373,16 @@
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A592">
-        <v>87400384</v>
+        <v>87400391</v>
       </c>
       <c r="B592">
         <v>2</v>
       </c>
       <c r="C592">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D592">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E592">
         <v>100</v>
@@ -12393,13 +12393,13 @@
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A593">
-        <v>87400385</v>
+        <v>87400392</v>
       </c>
       <c r="B593">
         <v>2</v>
       </c>
       <c r="C593">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D593">
         <v>0</v>
@@ -12413,16 +12413,16 @@
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A594">
-        <v>87400386</v>
+        <v>87400393</v>
       </c>
       <c r="B594">
         <v>2</v>
       </c>
       <c r="C594">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D594">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E594">
         <v>100</v>
@@ -12433,13 +12433,13 @@
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A595">
-        <v>87400387</v>
+        <v>87400394</v>
       </c>
       <c r="B595">
         <v>2</v>
       </c>
       <c r="C595">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D595">
         <v>0</v>
@@ -12453,13 +12453,13 @@
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A596">
-        <v>87400388</v>
+        <v>87400395</v>
       </c>
       <c r="B596">
         <v>2</v>
       </c>
       <c r="C596">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D596">
         <v>0</v>
@@ -12473,16 +12473,16 @@
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A597">
-        <v>87400389</v>
+        <v>87400396</v>
       </c>
       <c r="B597">
         <v>2</v>
       </c>
       <c r="C597">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D597">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E597">
         <v>100</v>
@@ -12493,13 +12493,13 @@
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A598">
-        <v>87400390</v>
+        <v>87400397</v>
       </c>
       <c r="B598">
         <v>2</v>
       </c>
       <c r="C598">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D598">
         <v>0</v>
@@ -12513,16 +12513,16 @@
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A599">
-        <v>87400391</v>
+        <v>87400398</v>
       </c>
       <c r="B599">
         <v>2</v>
       </c>
       <c r="C599">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D599">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E599">
         <v>100</v>
@@ -12533,13 +12533,13 @@
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A600">
-        <v>87400392</v>
+        <v>87400399</v>
       </c>
       <c r="B600">
         <v>2</v>
       </c>
       <c r="C600">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D600">
         <v>0</v>
@@ -12553,13 +12553,13 @@
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A601">
-        <v>87400393</v>
+        <v>87400400</v>
       </c>
       <c r="B601">
         <v>2</v>
       </c>
       <c r="C601">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D601">
         <v>0</v>
@@ -12573,16 +12573,16 @@
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A602">
-        <v>87400394</v>
+        <v>87400401</v>
       </c>
       <c r="B602">
         <v>2</v>
       </c>
       <c r="C602">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D602">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E602">
         <v>100</v>
@@ -12593,13 +12593,13 @@
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A603">
-        <v>87400395</v>
+        <v>87400402</v>
       </c>
       <c r="B603">
         <v>2</v>
       </c>
       <c r="C603">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D603">
         <v>0</v>
@@ -12613,16 +12613,16 @@
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A604">
-        <v>87400396</v>
+        <v>87400403</v>
       </c>
       <c r="B604">
         <v>2</v>
       </c>
       <c r="C604">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D604">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E604">
         <v>100</v>
@@ -12633,13 +12633,13 @@
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A605">
-        <v>87400397</v>
+        <v>87400404</v>
       </c>
       <c r="B605">
         <v>2</v>
       </c>
       <c r="C605">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D605">
         <v>0</v>
@@ -12653,13 +12653,13 @@
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A606">
-        <v>87400398</v>
+        <v>87400405</v>
       </c>
       <c r="B606">
         <v>2</v>
       </c>
       <c r="C606">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D606">
         <v>0</v>
@@ -12673,16 +12673,16 @@
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A607">
-        <v>87400399</v>
+        <v>87400406</v>
       </c>
       <c r="B607">
         <v>2</v>
       </c>
       <c r="C607">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D607">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E607">
         <v>100</v>
@@ -12693,13 +12693,13 @@
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A608">
-        <v>87400400</v>
+        <v>87400407</v>
       </c>
       <c r="B608">
         <v>2</v>
       </c>
       <c r="C608">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D608">
         <v>0</v>
@@ -12713,16 +12713,16 @@
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A609">
-        <v>87400401</v>
+        <v>87400408</v>
       </c>
       <c r="B609">
         <v>2</v>
       </c>
       <c r="C609">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D609">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E609">
         <v>100</v>
@@ -12733,13 +12733,13 @@
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A610">
-        <v>87400402</v>
+        <v>87400409</v>
       </c>
       <c r="B610">
         <v>2</v>
       </c>
       <c r="C610">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D610">
         <v>0</v>
@@ -12753,13 +12753,13 @@
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A611">
-        <v>87400403</v>
+        <v>87400410</v>
       </c>
       <c r="B611">
         <v>2</v>
       </c>
       <c r="C611">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D611">
         <v>0</v>
@@ -12773,16 +12773,16 @@
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A612">
-        <v>87400404</v>
+        <v>87400411</v>
       </c>
       <c r="B612">
         <v>2</v>
       </c>
       <c r="C612">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D612">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E612">
         <v>100</v>
@@ -12793,13 +12793,13 @@
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A613">
-        <v>87400405</v>
+        <v>87400412</v>
       </c>
       <c r="B613">
         <v>2</v>
       </c>
       <c r="C613">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D613">
         <v>0</v>
@@ -12813,16 +12813,16 @@
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A614">
-        <v>87400406</v>
+        <v>87400413</v>
       </c>
       <c r="B614">
         <v>2</v>
       </c>
       <c r="C614">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D614">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E614">
         <v>100</v>
@@ -12833,13 +12833,13 @@
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A615">
-        <v>87400407</v>
+        <v>87400414</v>
       </c>
       <c r="B615">
         <v>2</v>
       </c>
       <c r="C615">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D615">
         <v>0</v>
@@ -12853,13 +12853,13 @@
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A616">
-        <v>87400408</v>
+        <v>87400415</v>
       </c>
       <c r="B616">
         <v>2</v>
       </c>
       <c r="C616">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D616">
         <v>0</v>
@@ -12873,16 +12873,16 @@
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A617">
-        <v>87400409</v>
+        <v>87400416</v>
       </c>
       <c r="B617">
         <v>2</v>
       </c>
       <c r="C617">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D617">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E617">
         <v>100</v>
@@ -12893,13 +12893,13 @@
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A618">
-        <v>87400410</v>
+        <v>87400417</v>
       </c>
       <c r="B618">
         <v>2</v>
       </c>
       <c r="C618">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D618">
         <v>0</v>
@@ -12913,16 +12913,16 @@
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A619">
-        <v>87400411</v>
+        <v>87400418</v>
       </c>
       <c r="B619">
         <v>2</v>
       </c>
       <c r="C619">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D619">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E619">
         <v>100</v>
@@ -12933,13 +12933,13 @@
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A620">
-        <v>87400412</v>
+        <v>87400419</v>
       </c>
       <c r="B620">
         <v>2</v>
       </c>
       <c r="C620">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D620">
         <v>0</v>
@@ -12953,13 +12953,13 @@
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A621">
-        <v>87400413</v>
+        <v>87400420</v>
       </c>
       <c r="B621">
         <v>2</v>
       </c>
       <c r="C621">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D621">
         <v>0</v>
@@ -12973,16 +12973,16 @@
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A622">
-        <v>87400414</v>
+        <v>87400421</v>
       </c>
       <c r="B622">
         <v>2</v>
       </c>
       <c r="C622">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D622">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E622">
         <v>100</v>
@@ -12993,13 +12993,13 @@
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A623">
-        <v>87400415</v>
+        <v>87400422</v>
       </c>
       <c r="B623">
         <v>2</v>
       </c>
       <c r="C623">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D623">
         <v>0</v>
@@ -13013,16 +13013,16 @@
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A624">
-        <v>87400416</v>
+        <v>87400423</v>
       </c>
       <c r="B624">
         <v>2</v>
       </c>
       <c r="C624">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D624">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E624">
         <v>100</v>
@@ -13033,16 +13033,16 @@
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A625">
-        <v>87400417</v>
+        <v>87400426</v>
       </c>
       <c r="B625">
         <v>2</v>
       </c>
       <c r="C625">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D625">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E625">
         <v>100</v>
@@ -13053,13 +13053,13 @@
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A626">
-        <v>87400418</v>
+        <v>87400427</v>
       </c>
       <c r="B626">
         <v>2</v>
       </c>
       <c r="C626">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D626">
         <v>0</v>
@@ -13073,13 +13073,13 @@
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A627">
-        <v>87400419</v>
+        <v>87400428</v>
       </c>
       <c r="B627">
         <v>2</v>
       </c>
       <c r="C627">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D627">
         <v>0</v>
@@ -13093,13 +13093,13 @@
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A628">
-        <v>87400420</v>
+        <v>87400429</v>
       </c>
       <c r="B628">
         <v>2</v>
       </c>
       <c r="C628">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D628">
         <v>0</v>
@@ -13113,16 +13113,16 @@
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A629">
-        <v>87400421</v>
+        <v>87400430</v>
       </c>
       <c r="B629">
         <v>2</v>
       </c>
       <c r="C629">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D629">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E629">
         <v>100</v>
@@ -13133,16 +13133,16 @@
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A630">
-        <v>87400422</v>
+        <v>87400431</v>
       </c>
       <c r="B630">
         <v>2</v>
       </c>
       <c r="C630">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D630">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E630">
         <v>100</v>
@@ -13153,13 +13153,13 @@
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A631">
-        <v>87400423</v>
+        <v>87400432</v>
       </c>
       <c r="B631">
         <v>2</v>
       </c>
       <c r="C631">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D631">
         <v>0</v>
@@ -13173,13 +13173,13 @@
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A632">
-        <v>87400424</v>
+        <v>87400433</v>
       </c>
       <c r="B632">
         <v>2</v>
       </c>
       <c r="C632">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D632">
         <v>0</v>
@@ -13193,13 +13193,13 @@
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A633">
-        <v>87400425</v>
+        <v>87400434</v>
       </c>
       <c r="B633">
         <v>2</v>
       </c>
       <c r="C633">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D633">
         <v>0</v>
@@ -13213,16 +13213,16 @@
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A634">
-        <v>87400426</v>
+        <v>87400435</v>
       </c>
       <c r="B634">
         <v>2</v>
       </c>
       <c r="C634">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D634">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E634">
         <v>100</v>
@@ -13233,16 +13233,16 @@
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A635">
-        <v>87400427</v>
+        <v>87400436</v>
       </c>
       <c r="B635">
         <v>2</v>
       </c>
       <c r="C635">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D635">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E635">
         <v>100</v>
@@ -13253,13 +13253,13 @@
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A636">
-        <v>87400428</v>
+        <v>87400437</v>
       </c>
       <c r="B636">
         <v>2</v>
       </c>
       <c r="C636">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D636">
         <v>0</v>
@@ -13273,13 +13273,13 @@
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A637">
-        <v>87400429</v>
+        <v>87400438</v>
       </c>
       <c r="B637">
         <v>2</v>
       </c>
       <c r="C637">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D637">
         <v>0</v>
@@ -13293,13 +13293,13 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A638">
-        <v>87400430</v>
+        <v>87400439</v>
       </c>
       <c r="B638">
         <v>2</v>
       </c>
       <c r="C638">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D638">
         <v>0</v>
@@ -13313,16 +13313,16 @@
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A639">
-        <v>87400431</v>
+        <v>87400440</v>
       </c>
       <c r="B639">
         <v>2</v>
       </c>
       <c r="C639">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D639">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E639">
         <v>100</v>
@@ -13333,16 +13333,16 @@
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A640">
-        <v>87400432</v>
+        <v>87400441</v>
       </c>
       <c r="B640">
         <v>2</v>
       </c>
       <c r="C640">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D640">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E640">
         <v>100</v>
@@ -13353,13 +13353,13 @@
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A641">
-        <v>87400433</v>
+        <v>87400442</v>
       </c>
       <c r="B641">
         <v>2</v>
       </c>
       <c r="C641">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D641">
         <v>0</v>
@@ -13373,13 +13373,13 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A642">
-        <v>87400434</v>
+        <v>87400443</v>
       </c>
       <c r="B642">
         <v>2</v>
       </c>
       <c r="C642">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D642">
         <v>0</v>
@@ -13393,13 +13393,13 @@
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A643">
-        <v>87400435</v>
+        <v>87400444</v>
       </c>
       <c r="B643">
         <v>2</v>
       </c>
       <c r="C643">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D643">
         <v>0</v>
@@ -13413,16 +13413,16 @@
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A644">
-        <v>87400436</v>
+        <v>87400445</v>
       </c>
       <c r="B644">
         <v>2</v>
       </c>
       <c r="C644">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D644">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E644">
         <v>100</v>
@@ -13433,16 +13433,16 @@
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A645">
-        <v>87400437</v>
+        <v>87400446</v>
       </c>
       <c r="B645">
         <v>2</v>
       </c>
       <c r="C645">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D645">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E645">
         <v>100</v>
@@ -13453,13 +13453,13 @@
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A646">
-        <v>87400438</v>
+        <v>87400447</v>
       </c>
       <c r="B646">
         <v>2</v>
       </c>
       <c r="C646">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D646">
         <v>0</v>
@@ -13473,13 +13473,13 @@
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A647">
-        <v>87400439</v>
+        <v>87400448</v>
       </c>
       <c r="B647">
         <v>2</v>
       </c>
       <c r="C647">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D647">
         <v>0</v>
@@ -13493,13 +13493,13 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A648">
-        <v>87400440</v>
+        <v>87400449</v>
       </c>
       <c r="B648">
         <v>2</v>
       </c>
       <c r="C648">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D648">
         <v>0</v>
@@ -13513,16 +13513,16 @@
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A649">
-        <v>87400441</v>
+        <v>87400450</v>
       </c>
       <c r="B649">
         <v>2</v>
       </c>
       <c r="C649">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D649">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E649">
         <v>100</v>
@@ -13533,16 +13533,16 @@
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A650">
-        <v>87400442</v>
+        <v>87400451</v>
       </c>
       <c r="B650">
         <v>2</v>
       </c>
       <c r="C650">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D650">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E650">
         <v>100</v>
@@ -13553,13 +13553,13 @@
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A651">
-        <v>87400443</v>
+        <v>87400452</v>
       </c>
       <c r="B651">
         <v>2</v>
       </c>
       <c r="C651">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D651">
         <v>0</v>
@@ -13573,13 +13573,13 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A652">
-        <v>87400444</v>
+        <v>87400453</v>
       </c>
       <c r="B652">
         <v>2</v>
       </c>
       <c r="C652">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D652">
         <v>0</v>
@@ -13593,13 +13593,13 @@
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A653">
-        <v>87400445</v>
+        <v>87400454</v>
       </c>
       <c r="B653">
         <v>2</v>
       </c>
       <c r="C653">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D653">
         <v>0</v>
@@ -13613,16 +13613,16 @@
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A654">
-        <v>87400446</v>
+        <v>87400455</v>
       </c>
       <c r="B654">
         <v>2</v>
       </c>
       <c r="C654">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D654">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E654">
         <v>100</v>
@@ -13633,16 +13633,16 @@
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A655">
-        <v>87400447</v>
+        <v>87400456</v>
       </c>
       <c r="B655">
         <v>2</v>
       </c>
       <c r="C655">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D655">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E655">
         <v>100</v>
@@ -13653,13 +13653,13 @@
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A656">
-        <v>87400448</v>
+        <v>87400457</v>
       </c>
       <c r="B656">
         <v>2</v>
       </c>
       <c r="C656">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D656">
         <v>0</v>
@@ -13673,13 +13673,13 @@
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A657">
-        <v>87400449</v>
+        <v>87400458</v>
       </c>
       <c r="B657">
         <v>2</v>
       </c>
       <c r="C657">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D657">
         <v>0</v>
@@ -13693,13 +13693,13 @@
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A658">
-        <v>87400450</v>
+        <v>87400459</v>
       </c>
       <c r="B658">
         <v>2</v>
       </c>
       <c r="C658">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D658">
         <v>0</v>
@@ -13713,16 +13713,16 @@
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A659">
-        <v>87400451</v>
+        <v>87400460</v>
       </c>
       <c r="B659">
         <v>2</v>
       </c>
       <c r="C659">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D659">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E659">
         <v>100</v>
@@ -13733,16 +13733,16 @@
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A660">
-        <v>87400452</v>
+        <v>87400461</v>
       </c>
       <c r="B660">
         <v>2</v>
       </c>
       <c r="C660">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D660">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E660">
         <v>100</v>
@@ -13753,13 +13753,13 @@
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A661">
-        <v>87400453</v>
+        <v>87400462</v>
       </c>
       <c r="B661">
         <v>2</v>
       </c>
       <c r="C661">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D661">
         <v>0</v>
@@ -13773,13 +13773,13 @@
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A662">
-        <v>87400454</v>
+        <v>87400463</v>
       </c>
       <c r="B662">
         <v>2</v>
       </c>
       <c r="C662">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D662">
         <v>0</v>
@@ -13793,13 +13793,13 @@
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A663">
-        <v>87400455</v>
+        <v>87400464</v>
       </c>
       <c r="B663">
         <v>2</v>
       </c>
       <c r="C663">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D663">
         <v>0</v>
@@ -13813,16 +13813,16 @@
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A664">
-        <v>87400456</v>
+        <v>87400465</v>
       </c>
       <c r="B664">
         <v>2</v>
       </c>
       <c r="C664">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D664">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E664">
         <v>100</v>
@@ -13833,16 +13833,16 @@
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A665">
-        <v>87400457</v>
+        <v>87400466</v>
       </c>
       <c r="B665">
         <v>2</v>
       </c>
       <c r="C665">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D665">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E665">
         <v>100</v>
@@ -13853,13 +13853,13 @@
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A666">
-        <v>87400458</v>
+        <v>87400467</v>
       </c>
       <c r="B666">
         <v>2</v>
       </c>
       <c r="C666">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D666">
         <v>0</v>
@@ -13873,13 +13873,13 @@
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A667">
-        <v>87400459</v>
+        <v>87400468</v>
       </c>
       <c r="B667">
         <v>2</v>
       </c>
       <c r="C667">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D667">
         <v>0</v>
@@ -13893,13 +13893,13 @@
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A668">
-        <v>87400460</v>
+        <v>87400469</v>
       </c>
       <c r="B668">
         <v>2</v>
       </c>
       <c r="C668">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D668">
         <v>0</v>
@@ -13913,16 +13913,16 @@
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A669">
-        <v>87400461</v>
+        <v>87400470</v>
       </c>
       <c r="B669">
         <v>2</v>
       </c>
       <c r="C669">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D669">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E669">
         <v>100</v>
@@ -13933,16 +13933,16 @@
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A670">
-        <v>87400462</v>
+        <v>87400471</v>
       </c>
       <c r="B670">
         <v>2</v>
       </c>
       <c r="C670">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D670">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E670">
         <v>100</v>
@@ -13953,13 +13953,13 @@
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A671">
-        <v>87400463</v>
+        <v>87400472</v>
       </c>
       <c r="B671">
         <v>2</v>
       </c>
       <c r="C671">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D671">
         <v>0</v>
@@ -13973,13 +13973,13 @@
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A672">
-        <v>87400464</v>
+        <v>87400473</v>
       </c>
       <c r="B672">
         <v>2</v>
       </c>
       <c r="C672">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D672">
         <v>0</v>
@@ -13993,13 +13993,13 @@
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A673">
-        <v>87400465</v>
+        <v>87400474</v>
       </c>
       <c r="B673">
         <v>2</v>
       </c>
       <c r="C673">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D673">
         <v>0</v>
@@ -14013,16 +14013,16 @@
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A674">
-        <v>87400466</v>
+        <v>87400475</v>
       </c>
       <c r="B674">
         <v>2</v>
       </c>
       <c r="C674">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D674">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E674">
         <v>100</v>
@@ -14033,16 +14033,16 @@
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A675">
-        <v>87400467</v>
+        <v>87400476</v>
       </c>
       <c r="B675">
         <v>2</v>
       </c>
       <c r="C675">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D675">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E675">
         <v>100</v>
@@ -14053,13 +14053,13 @@
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A676">
-        <v>87400468</v>
+        <v>87400477</v>
       </c>
       <c r="B676">
         <v>2</v>
       </c>
       <c r="C676">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D676">
         <v>0</v>
@@ -14073,13 +14073,13 @@
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A677">
-        <v>87400469</v>
+        <v>87400478</v>
       </c>
       <c r="B677">
         <v>2</v>
       </c>
       <c r="C677">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D677">
         <v>0</v>
@@ -14093,13 +14093,13 @@
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A678">
-        <v>87400470</v>
+        <v>87400479</v>
       </c>
       <c r="B678">
         <v>2</v>
       </c>
       <c r="C678">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D678">
         <v>0</v>
@@ -14113,16 +14113,16 @@
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A679">
-        <v>87400471</v>
+        <v>87400480</v>
       </c>
       <c r="B679">
         <v>2</v>
       </c>
       <c r="C679">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D679">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E679">
         <v>100</v>
@@ -14133,16 +14133,16 @@
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A680">
-        <v>87400472</v>
+        <v>87400481</v>
       </c>
       <c r="B680">
         <v>2</v>
       </c>
       <c r="C680">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D680">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E680">
         <v>100</v>
@@ -14153,13 +14153,13 @@
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A681">
-        <v>87400473</v>
+        <v>87400482</v>
       </c>
       <c r="B681">
         <v>2</v>
       </c>
       <c r="C681">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D681">
         <v>0</v>
@@ -14173,13 +14173,13 @@
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A682">
-        <v>87400474</v>
+        <v>87400483</v>
       </c>
       <c r="B682">
         <v>2</v>
       </c>
       <c r="C682">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D682">
         <v>0</v>
@@ -14193,13 +14193,13 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A683">
-        <v>87400475</v>
+        <v>87400484</v>
       </c>
       <c r="B683">
         <v>2</v>
       </c>
       <c r="C683">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D683">
         <v>0</v>
@@ -14213,16 +14213,16 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A684">
-        <v>87400476</v>
+        <v>87400485</v>
       </c>
       <c r="B684">
         <v>2</v>
       </c>
       <c r="C684">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D684">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E684">
         <v>100</v>
@@ -14233,16 +14233,16 @@
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A685">
-        <v>87400477</v>
+        <v>87400486</v>
       </c>
       <c r="B685">
         <v>2</v>
       </c>
       <c r="C685">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D685">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E685">
         <v>100</v>
@@ -14253,13 +14253,13 @@
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A686">
-        <v>87400478</v>
+        <v>87400487</v>
       </c>
       <c r="B686">
         <v>2</v>
       </c>
       <c r="C686">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D686">
         <v>0</v>
@@ -14273,13 +14273,13 @@
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A687">
-        <v>87400479</v>
+        <v>87400488</v>
       </c>
       <c r="B687">
         <v>2</v>
       </c>
       <c r="C687">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D687">
         <v>0</v>
@@ -14293,13 +14293,13 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A688">
-        <v>87400480</v>
+        <v>87400489</v>
       </c>
       <c r="B688">
         <v>2</v>
       </c>
       <c r="C688">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D688">
         <v>0</v>
@@ -14313,16 +14313,16 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A689">
-        <v>87400481</v>
+        <v>87400490</v>
       </c>
       <c r="B689">
         <v>2</v>
       </c>
       <c r="C689">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D689">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E689">
         <v>100</v>
@@ -14333,16 +14333,16 @@
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A690">
-        <v>87400482</v>
+        <v>87400491</v>
       </c>
       <c r="B690">
         <v>2</v>
       </c>
       <c r="C690">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D690">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E690">
         <v>100</v>
@@ -14353,13 +14353,13 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A691">
-        <v>87400483</v>
+        <v>87400492</v>
       </c>
       <c r="B691">
         <v>2</v>
       </c>
       <c r="C691">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D691">
         <v>0</v>
@@ -14373,13 +14373,13 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A692">
-        <v>87400484</v>
+        <v>87400493</v>
       </c>
       <c r="B692">
         <v>2</v>
       </c>
       <c r="C692">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D692">
         <v>0</v>
@@ -14393,13 +14393,13 @@
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A693">
-        <v>87400485</v>
+        <v>87400494</v>
       </c>
       <c r="B693">
         <v>2</v>
       </c>
       <c r="C693">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D693">
         <v>0</v>
@@ -14413,16 +14413,16 @@
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A694">
-        <v>87400486</v>
+        <v>87400495</v>
       </c>
       <c r="B694">
         <v>2</v>
       </c>
       <c r="C694">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D694">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E694">
         <v>100</v>
@@ -14433,16 +14433,16 @@
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A695">
-        <v>87400487</v>
+        <v>87400496</v>
       </c>
       <c r="B695">
         <v>2</v>
       </c>
       <c r="C695">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D695">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E695">
         <v>100</v>
@@ -14453,13 +14453,13 @@
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A696">
-        <v>87400488</v>
+        <v>87400497</v>
       </c>
       <c r="B696">
         <v>2</v>
       </c>
       <c r="C696">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D696">
         <v>0</v>
@@ -14473,13 +14473,13 @@
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A697">
-        <v>87400489</v>
+        <v>87400498</v>
       </c>
       <c r="B697">
         <v>2</v>
       </c>
       <c r="C697">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D697">
         <v>0</v>
@@ -14493,13 +14493,13 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A698">
-        <v>87400490</v>
+        <v>87400499</v>
       </c>
       <c r="B698">
         <v>2</v>
       </c>
       <c r="C698">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D698">
         <v>0</v>
@@ -14513,16 +14513,16 @@
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A699">
-        <v>87400491</v>
+        <v>87400500</v>
       </c>
       <c r="B699">
         <v>2</v>
       </c>
       <c r="C699">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D699">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E699">
         <v>100</v>
@@ -14533,16 +14533,16 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A700">
-        <v>87400492</v>
+        <v>87400501</v>
       </c>
       <c r="B700">
         <v>2</v>
       </c>
       <c r="C700">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D700">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E700">
         <v>100</v>
@@ -14553,13 +14553,13 @@
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A701">
-        <v>87400493</v>
+        <v>87400502</v>
       </c>
       <c r="B701">
         <v>2</v>
       </c>
       <c r="C701">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D701">
         <v>0</v>
@@ -14573,13 +14573,13 @@
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A702">
-        <v>87400494</v>
+        <v>87400503</v>
       </c>
       <c r="B702">
         <v>2</v>
       </c>
       <c r="C702">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D702">
         <v>0</v>
@@ -14593,13 +14593,13 @@
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A703">
-        <v>87400495</v>
+        <v>87400504</v>
       </c>
       <c r="B703">
         <v>2</v>
       </c>
       <c r="C703">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D703">
         <v>0</v>
@@ -14613,16 +14613,16 @@
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A704">
-        <v>87400496</v>
+        <v>87400505</v>
       </c>
       <c r="B704">
         <v>2</v>
       </c>
       <c r="C704">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D704">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E704">
         <v>100</v>
@@ -14633,16 +14633,16 @@
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A705">
-        <v>87400497</v>
+        <v>87400506</v>
       </c>
       <c r="B705">
         <v>2</v>
       </c>
       <c r="C705">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D705">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E705">
         <v>100</v>
@@ -14653,13 +14653,13 @@
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A706">
-        <v>87400498</v>
+        <v>87400507</v>
       </c>
       <c r="B706">
         <v>2</v>
       </c>
       <c r="C706">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D706">
         <v>0</v>
@@ -14673,13 +14673,13 @@
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A707">
-        <v>87400499</v>
+        <v>87400508</v>
       </c>
       <c r="B707">
         <v>2</v>
       </c>
       <c r="C707">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D707">
         <v>0</v>
@@ -14693,13 +14693,13 @@
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A708">
-        <v>87400500</v>
+        <v>87400509</v>
       </c>
       <c r="B708">
         <v>2</v>
       </c>
       <c r="C708">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D708">
         <v>0</v>
@@ -14713,16 +14713,16 @@
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A709">
-        <v>87400501</v>
+        <v>87400510</v>
       </c>
       <c r="B709">
         <v>2</v>
       </c>
       <c r="C709">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D709">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E709">
         <v>100</v>
@@ -14733,16 +14733,16 @@
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A710">
-        <v>87400502</v>
+        <v>87400511</v>
       </c>
       <c r="B710">
         <v>2</v>
       </c>
       <c r="C710">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D710">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E710">
         <v>100</v>
@@ -14753,13 +14753,13 @@
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A711">
-        <v>87400503</v>
+        <v>87400512</v>
       </c>
       <c r="B711">
         <v>2</v>
       </c>
       <c r="C711">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D711">
         <v>0</v>
@@ -14773,13 +14773,13 @@
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A712">
-        <v>87400504</v>
+        <v>87400513</v>
       </c>
       <c r="B712">
         <v>2</v>
       </c>
       <c r="C712">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D712">
         <v>0</v>
@@ -14793,13 +14793,13 @@
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A713">
-        <v>87400505</v>
+        <v>87400514</v>
       </c>
       <c r="B713">
         <v>2</v>
       </c>
       <c r="C713">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D713">
         <v>0</v>
@@ -14813,16 +14813,16 @@
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A714">
-        <v>87400506</v>
+        <v>87400515</v>
       </c>
       <c r="B714">
         <v>2</v>
       </c>
       <c r="C714">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D714">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E714">
         <v>100</v>
@@ -14833,16 +14833,16 @@
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A715">
-        <v>87400507</v>
+        <v>87400516</v>
       </c>
       <c r="B715">
         <v>2</v>
       </c>
       <c r="C715">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D715">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E715">
         <v>100</v>
@@ -14853,13 +14853,13 @@
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A716">
-        <v>87400508</v>
+        <v>87400517</v>
       </c>
       <c r="B716">
         <v>2</v>
       </c>
       <c r="C716">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D716">
         <v>0</v>
@@ -14873,13 +14873,13 @@
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A717">
-        <v>87400509</v>
+        <v>87400518</v>
       </c>
       <c r="B717">
         <v>2</v>
       </c>
       <c r="C717">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D717">
         <v>0</v>
@@ -14893,13 +14893,13 @@
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A718">
-        <v>87400510</v>
+        <v>87400519</v>
       </c>
       <c r="B718">
         <v>2</v>
       </c>
       <c r="C718">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D718">
         <v>0</v>
@@ -14913,16 +14913,16 @@
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A719">
-        <v>87400511</v>
+        <v>87400520</v>
       </c>
       <c r="B719">
         <v>2</v>
       </c>
       <c r="C719">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D719">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E719">
         <v>100</v>
@@ -14933,16 +14933,16 @@
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A720">
-        <v>87400512</v>
+        <v>87400521</v>
       </c>
       <c r="B720">
         <v>2</v>
       </c>
       <c r="C720">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D720">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E720">
         <v>100</v>
@@ -14953,13 +14953,13 @@
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A721">
-        <v>87400513</v>
+        <v>87400522</v>
       </c>
       <c r="B721">
         <v>2</v>
       </c>
       <c r="C721">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D721">
         <v>0</v>
@@ -14973,13 +14973,13 @@
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A722">
-        <v>87400514</v>
+        <v>87400523</v>
       </c>
       <c r="B722">
         <v>2</v>
       </c>
       <c r="C722">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D722">
         <v>0</v>
@@ -14993,13 +14993,13 @@
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A723">
-        <v>87400515</v>
+        <v>87400524</v>
       </c>
       <c r="B723">
         <v>2</v>
       </c>
       <c r="C723">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D723">
         <v>0</v>
@@ -15013,16 +15013,16 @@
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A724">
-        <v>87400516</v>
+        <v>87400525</v>
       </c>
       <c r="B724">
         <v>2</v>
       </c>
       <c r="C724">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D724">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E724">
         <v>100</v>
@@ -15033,16 +15033,16 @@
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A725">
-        <v>87400517</v>
+        <v>87400526</v>
       </c>
       <c r="B725">
         <v>2</v>
       </c>
       <c r="C725">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D725">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E725">
         <v>100</v>
@@ -15053,13 +15053,13 @@
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A726">
-        <v>87400518</v>
+        <v>87400527</v>
       </c>
       <c r="B726">
         <v>2</v>
       </c>
       <c r="C726">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D726">
         <v>0</v>
@@ -15073,13 +15073,13 @@
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A727">
-        <v>87400519</v>
+        <v>87400528</v>
       </c>
       <c r="B727">
         <v>2</v>
       </c>
       <c r="C727">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D727">
         <v>0</v>
@@ -15093,13 +15093,13 @@
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A728">
-        <v>87400520</v>
+        <v>87400529</v>
       </c>
       <c r="B728">
         <v>2</v>
       </c>
       <c r="C728">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D728">
         <v>0</v>
@@ -15113,16 +15113,16 @@
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A729">
-        <v>87400521</v>
+        <v>87400530</v>
       </c>
       <c r="B729">
         <v>2</v>
       </c>
       <c r="C729">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D729">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E729">
         <v>100</v>
@@ -15133,16 +15133,16 @@
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A730">
-        <v>87400522</v>
+        <v>87400531</v>
       </c>
       <c r="B730">
         <v>2</v>
       </c>
       <c r="C730">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D730">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E730">
         <v>100</v>
@@ -15153,13 +15153,13 @@
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A731">
-        <v>87400523</v>
+        <v>87400532</v>
       </c>
       <c r="B731">
         <v>2</v>
       </c>
       <c r="C731">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D731">
         <v>0</v>
@@ -15173,13 +15173,13 @@
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A732">
-        <v>87400524</v>
+        <v>87400533</v>
       </c>
       <c r="B732">
         <v>2</v>
       </c>
       <c r="C732">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D732">
         <v>0</v>
@@ -15193,13 +15193,13 @@
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A733">
-        <v>87400525</v>
+        <v>87400534</v>
       </c>
       <c r="B733">
         <v>2</v>
       </c>
       <c r="C733">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D733">
         <v>0</v>
@@ -15213,16 +15213,16 @@
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A734">
-        <v>87400526</v>
+        <v>87400535</v>
       </c>
       <c r="B734">
         <v>2</v>
       </c>
       <c r="C734">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D734">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E734">
         <v>100</v>
@@ -15233,16 +15233,16 @@
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A735">
-        <v>87400527</v>
+        <v>87400536</v>
       </c>
       <c r="B735">
         <v>2</v>
       </c>
       <c r="C735">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D735">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E735">
         <v>100</v>
@@ -15253,13 +15253,13 @@
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A736">
-        <v>87400528</v>
+        <v>87400537</v>
       </c>
       <c r="B736">
         <v>2</v>
       </c>
       <c r="C736">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D736">
         <v>0</v>
@@ -15273,13 +15273,13 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A737">
-        <v>87400529</v>
+        <v>87400538</v>
       </c>
       <c r="B737">
         <v>2</v>
       </c>
       <c r="C737">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D737">
         <v>0</v>
@@ -15293,13 +15293,13 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A738">
-        <v>87400530</v>
+        <v>87400539</v>
       </c>
       <c r="B738">
         <v>2</v>
       </c>
       <c r="C738">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D738">
         <v>0</v>
@@ -15313,16 +15313,16 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A739">
-        <v>87400531</v>
+        <v>87400540</v>
       </c>
       <c r="B739">
         <v>2</v>
       </c>
       <c r="C739">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D739">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E739">
         <v>100</v>
@@ -15333,16 +15333,16 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A740">
-        <v>87400532</v>
+        <v>87400541</v>
       </c>
       <c r="B740">
         <v>2</v>
       </c>
       <c r="C740">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D740">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E740">
         <v>100</v>
@@ -15353,13 +15353,13 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A741">
-        <v>87400533</v>
+        <v>87400542</v>
       </c>
       <c r="B741">
         <v>2</v>
       </c>
       <c r="C741">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D741">
         <v>0</v>
@@ -15373,13 +15373,13 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A742">
-        <v>87400534</v>
+        <v>87400543</v>
       </c>
       <c r="B742">
         <v>2</v>
       </c>
       <c r="C742">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D742">
         <v>0</v>
@@ -15393,13 +15393,13 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A743">
-        <v>87400535</v>
+        <v>87400544</v>
       </c>
       <c r="B743">
         <v>2</v>
       </c>
       <c r="C743">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D743">
         <v>0</v>
@@ -15413,16 +15413,16 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A744">
-        <v>87400536</v>
+        <v>87400545</v>
       </c>
       <c r="B744">
         <v>2</v>
       </c>
       <c r="C744">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D744">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E744">
         <v>100</v>
@@ -15433,16 +15433,16 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A745">
-        <v>87400537</v>
+        <v>87400546</v>
       </c>
       <c r="B745">
         <v>2</v>
       </c>
       <c r="C745">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D745">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E745">
         <v>100</v>
@@ -15453,13 +15453,13 @@
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A746">
-        <v>87400538</v>
+        <v>87400547</v>
       </c>
       <c r="B746">
         <v>2</v>
       </c>
       <c r="C746">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D746">
         <v>0</v>
@@ -15473,13 +15473,13 @@
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A747">
-        <v>87400539</v>
+        <v>87400548</v>
       </c>
       <c r="B747">
         <v>2</v>
       </c>
       <c r="C747">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D747">
         <v>0</v>
@@ -15493,13 +15493,13 @@
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A748">
-        <v>87400540</v>
+        <v>87400549</v>
       </c>
       <c r="B748">
         <v>2</v>
       </c>
       <c r="C748">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D748">
         <v>0</v>
@@ -15513,16 +15513,16 @@
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A749">
-        <v>87400541</v>
+        <v>87400550</v>
       </c>
       <c r="B749">
         <v>2</v>
       </c>
       <c r="C749">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D749">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E749">
         <v>100</v>
@@ -15533,16 +15533,16 @@
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A750">
-        <v>87400542</v>
+        <v>87400551</v>
       </c>
       <c r="B750">
         <v>2</v>
       </c>
       <c r="C750">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D750">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E750">
         <v>100</v>
@@ -15553,13 +15553,13 @@
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A751">
-        <v>87400543</v>
+        <v>87400552</v>
       </c>
       <c r="B751">
         <v>2</v>
       </c>
       <c r="C751">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D751">
         <v>0</v>
@@ -15573,13 +15573,13 @@
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A752">
-        <v>87400544</v>
+        <v>87400553</v>
       </c>
       <c r="B752">
         <v>2</v>
       </c>
       <c r="C752">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D752">
         <v>0</v>
@@ -15593,13 +15593,13 @@
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A753">
-        <v>87400545</v>
+        <v>87400554</v>
       </c>
       <c r="B753">
         <v>2</v>
       </c>
       <c r="C753">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D753">
         <v>0</v>
@@ -15613,16 +15613,16 @@
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A754">
-        <v>87400546</v>
+        <v>87400555</v>
       </c>
       <c r="B754">
         <v>2</v>
       </c>
       <c r="C754">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D754">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E754">
         <v>100</v>
@@ -15633,16 +15633,16 @@
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A755">
-        <v>87400547</v>
+        <v>87400556</v>
       </c>
       <c r="B755">
         <v>2</v>
       </c>
       <c r="C755">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D755">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E755">
         <v>100</v>
@@ -15653,13 +15653,13 @@
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A756">
-        <v>87400548</v>
+        <v>87400557</v>
       </c>
       <c r="B756">
         <v>2</v>
       </c>
       <c r="C756">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D756">
         <v>0</v>
@@ -15673,13 +15673,13 @@
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A757">
-        <v>87400549</v>
+        <v>87400558</v>
       </c>
       <c r="B757">
         <v>2</v>
       </c>
       <c r="C757">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D757">
         <v>0</v>
@@ -15693,13 +15693,13 @@
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A758">
-        <v>87400550</v>
+        <v>87400559</v>
       </c>
       <c r="B758">
         <v>2</v>
       </c>
       <c r="C758">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D758">
         <v>0</v>
@@ -15713,16 +15713,16 @@
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A759">
-        <v>87400551</v>
+        <v>87400560</v>
       </c>
       <c r="B759">
         <v>2</v>
       </c>
       <c r="C759">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D759">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E759">
         <v>100</v>
@@ -15733,16 +15733,16 @@
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A760">
-        <v>87400552</v>
+        <v>87400561</v>
       </c>
       <c r="B760">
         <v>2</v>
       </c>
       <c r="C760">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D760">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E760">
         <v>100</v>
@@ -15753,13 +15753,13 @@
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A761">
-        <v>87400553</v>
+        <v>87400562</v>
       </c>
       <c r="B761">
         <v>2</v>
       </c>
       <c r="C761">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D761">
         <v>0</v>
@@ -15773,13 +15773,13 @@
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A762">
-        <v>87400554</v>
+        <v>87400563</v>
       </c>
       <c r="B762">
         <v>2</v>
       </c>
       <c r="C762">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D762">
         <v>0</v>
@@ -15793,13 +15793,13 @@
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A763">
-        <v>87400555</v>
+        <v>87400564</v>
       </c>
       <c r="B763">
         <v>2</v>
       </c>
       <c r="C763">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D763">
         <v>0</v>
@@ -15813,16 +15813,16 @@
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A764">
-        <v>87400556</v>
+        <v>87400565</v>
       </c>
       <c r="B764">
         <v>2</v>
       </c>
       <c r="C764">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D764">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E764">
         <v>100</v>
@@ -15833,16 +15833,16 @@
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A765">
-        <v>87400557</v>
+        <v>87400566</v>
       </c>
       <c r="B765">
         <v>2</v>
       </c>
       <c r="C765">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D765">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E765">
         <v>100</v>
@@ -15853,13 +15853,13 @@
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A766">
-        <v>87400558</v>
+        <v>87400567</v>
       </c>
       <c r="B766">
         <v>2</v>
       </c>
       <c r="C766">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D766">
         <v>0</v>
@@ -15873,13 +15873,13 @@
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A767">
-        <v>87400559</v>
+        <v>87400568</v>
       </c>
       <c r="B767">
         <v>2</v>
       </c>
       <c r="C767">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D767">
         <v>0</v>
@@ -15893,13 +15893,13 @@
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A768">
-        <v>87400560</v>
+        <v>87400569</v>
       </c>
       <c r="B768">
         <v>2</v>
       </c>
       <c r="C768">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D768">
         <v>0</v>
@@ -15908,186 +15908,6 @@
         <v>100</v>
       </c>
       <c r="F768">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A769">
-        <v>87400561</v>
-      </c>
-      <c r="B769">
-        <v>2</v>
-      </c>
-      <c r="C769">
-        <v>113</v>
-      </c>
-      <c r="D769">
-        <v>100</v>
-      </c>
-      <c r="E769">
-        <v>100</v>
-      </c>
-      <c r="F769">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A770">
-        <v>87400562</v>
-      </c>
-      <c r="B770">
-        <v>2</v>
-      </c>
-      <c r="C770">
-        <v>113</v>
-      </c>
-      <c r="D770">
-        <v>0</v>
-      </c>
-      <c r="E770">
-        <v>100</v>
-      </c>
-      <c r="F770">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A771">
-        <v>87400563</v>
-      </c>
-      <c r="B771">
-        <v>2</v>
-      </c>
-      <c r="C771">
-        <v>113</v>
-      </c>
-      <c r="D771">
-        <v>0</v>
-      </c>
-      <c r="E771">
-        <v>100</v>
-      </c>
-      <c r="F771">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A772">
-        <v>87400564</v>
-      </c>
-      <c r="B772">
-        <v>2</v>
-      </c>
-      <c r="C772">
-        <v>113</v>
-      </c>
-      <c r="D772">
-        <v>0</v>
-      </c>
-      <c r="E772">
-        <v>100</v>
-      </c>
-      <c r="F772">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A773">
-        <v>87400565</v>
-      </c>
-      <c r="B773">
-        <v>2</v>
-      </c>
-      <c r="C773">
-        <v>113</v>
-      </c>
-      <c r="D773">
-        <v>0</v>
-      </c>
-      <c r="E773">
-        <v>100</v>
-      </c>
-      <c r="F773">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A774">
-        <v>87400566</v>
-      </c>
-      <c r="B774">
-        <v>2</v>
-      </c>
-      <c r="C774">
-        <v>114</v>
-      </c>
-      <c r="D774">
-        <v>100</v>
-      </c>
-      <c r="E774">
-        <v>100</v>
-      </c>
-      <c r="F774">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A775">
-        <v>87400567</v>
-      </c>
-      <c r="B775">
-        <v>2</v>
-      </c>
-      <c r="C775">
-        <v>114</v>
-      </c>
-      <c r="D775">
-        <v>0</v>
-      </c>
-      <c r="E775">
-        <v>100</v>
-      </c>
-      <c r="F775">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A776">
-        <v>87400568</v>
-      </c>
-      <c r="B776">
-        <v>2</v>
-      </c>
-      <c r="C776">
-        <v>114</v>
-      </c>
-      <c r="D776">
-        <v>0</v>
-      </c>
-      <c r="E776">
-        <v>100</v>
-      </c>
-      <c r="F776">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A777">
-        <v>87400569</v>
-      </c>
-      <c r="B777">
-        <v>2</v>
-      </c>
-      <c r="C777">
-        <v>114</v>
-      </c>
-      <c r="D777">
-        <v>0</v>
-      </c>
-      <c r="E777">
-        <v>100</v>
-      </c>
-      <c r="F777">
         <v>999</v>
       </c>
     </row>

--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3C1466-07A4-4CA5-9BB8-C2C2DBB87B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFE35F2-85E2-46D0-BF0F-766F672A26EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,10 +41,20 @@
           <rPr>
             <b/>
             <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>作者:</t>
+          <t>:</t>
         </r>
         <r>
           <rPr>
@@ -59,6 +69,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>对应</t>
@@ -81,6 +92,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:
@@ -108,6 +120,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>、属性
@@ -125,6 +138,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -133,6 +147,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -150,6 +165,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>就是一个分类自定义编号</t>
@@ -206,12 +222,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -539,16 +557,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F768"/>
+  <dimension ref="A1:F769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D579" sqref="D579"/>
+      <pane ySplit="1" topLeftCell="A746" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M762" sqref="M762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.875" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -15893,7 +15911,7 @@
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A768">
-        <v>87400569</v>
+        <v>87400570</v>
       </c>
       <c r="B768">
         <v>2</v>
@@ -15908,6 +15926,26 @@
         <v>100</v>
       </c>
       <c r="F768">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A769">
+        <v>87400571</v>
+      </c>
+      <c r="B769">
+        <v>2</v>
+      </c>
+      <c r="C769">
+        <v>114</v>
+      </c>
+      <c r="D769">
+        <v>0</v>
+      </c>
+      <c r="E769">
+        <v>100</v>
+      </c>
+      <c r="F769">
         <v>999</v>
       </c>
     </row>

--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFE35F2-85E2-46D0-BF0F-766F672A26EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D664EFCC-FB98-4A84-BB82-B86869E57B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,11 +557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F769"/>
+  <dimension ref="A1:F770"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A746" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M762" sqref="M762"/>
+      <selection pane="bottomLeft" activeCell="A770" sqref="A770:F770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15946,6 +15946,26 @@
         <v>100</v>
       </c>
       <c r="F769">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A770">
+        <v>87400572</v>
+      </c>
+      <c r="B770">
+        <v>2</v>
+      </c>
+      <c r="C770">
+        <v>114</v>
+      </c>
+      <c r="D770">
+        <v>100</v>
+      </c>
+      <c r="E770">
+        <v>100</v>
+      </c>
+      <c r="F770">
         <v>999</v>
       </c>
     </row>

--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D664EFCC-FB98-4A84-BB82-B86869E57B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7670CB42-E33D-4CAA-A168-80E29148B57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,8 +560,8 @@
   <dimension ref="A1:F770"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A746" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A770" sqref="A770:F770"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -2663,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>13</v>
       </c>
       <c r="D162">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E162">
         <v>50</v>

--- a/Excel文件/能力随机池表.xlsx
+++ b/Excel文件/能力随机池表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7670CB42-E33D-4CAA-A168-80E29148B57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA94E56-54D1-4423-90EE-DFE22B8FF509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,8 +560,8 @@
   <dimension ref="A1:F770"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <pane ySplit="1" topLeftCell="A743" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O752" sqref="O752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2140,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="D79">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E79">
         <v>100</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -2360,7 +2360,7 @@
         <v>6</v>
       </c>
       <c r="D90">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E90">
         <v>100</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -2580,7 +2580,7 @@
         <v>7</v>
       </c>
       <c r="D101">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -2800,7 +2800,7 @@
         <v>8</v>
       </c>
       <c r="D112">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E112">
         <v>100</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -3020,7 +3020,7 @@
         <v>9</v>
       </c>
       <c r="D123">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E123">
         <v>100</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -3240,7 +3240,7 @@
         <v>10</v>
       </c>
       <c r="D134">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E134">
         <v>100</v>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -3403,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>13</v>
       </c>
       <c r="D162">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E162">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -3903,10 +3903,10 @@
         <v>100</v>
       </c>
       <c r="E167">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F167">
-        <v>999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
@@ -4043,10 +4043,10 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F174">
-        <v>999</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
